--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3997BA4-3471-4458-8C47-3CEC0566F5EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6C1FA9-755B-47EA-BCA5-AAFD47EB92BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="LevelPackTable" sheetId="2" r:id="rId1"/>
@@ -88,10 +88,11 @@
     <t>actorId|String</t>
   </si>
   <si>
-    <t>skillId|String</t>
-  </si>
-  <si>
     <t>overridingMax|Int</t>
+  </si>
+  <si>
+    <t>levelPackId|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -460,7 +461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -531,7 +532,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527A07CA-0D0F-4615-B8C2-37C34C75AD21}">
-  <dimension ref="A1:AB18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -705,12 +706,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387DAB05-D72F-4D4F-B706-92DD4D47ED58}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -719,10 +720,10 @@
         <v>17</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6C1FA9-755B-47EA-BCA5-AAFD47EB92BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C18B87-7A4F-416B-88A6-7F3C1B4FC4DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="LevelPackTable" sheetId="2" r:id="rId1"/>
@@ -459,9 +459,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -520,9 +520,6 @@
       <c r="G2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -706,7 +703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387DAB05-D72F-4D4F-B706-92DD4D47ED58}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C18B87-7A4F-416B-88A6-7F3C1B4FC4DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD83BE64-98FD-4FBB-A6DA-B0C2B38E58C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
-    <sheet name="LevelPackTable" sheetId="2" r:id="rId1"/>
-    <sheet name="LevelPackLevelTable" sheetId="3" r:id="rId2"/>
-    <sheet name="ActorLevelPackTable" sheetId="4" r:id="rId3"/>
+    <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
+    <sheet name="LevelPackTable" sheetId="2" r:id="rId2"/>
+    <sheet name="LevelPackLevelTable" sheetId="3" r:id="rId3"/>
+    <sheet name="ActorLevelPackTable" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Skill_ActiveOne001_Name</t>
   </si>
@@ -93,6 +94,21 @@
   <si>
     <t>levelPackId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requiredExp|Int</t>
+  </si>
+  <si>
+    <t>requiredAccumulatedExp|Int</t>
+  </si>
+  <si>
+    <t>exclusive|Bool</t>
+  </si>
+  <si>
+    <t>dropWeight|Float</t>
+  </si>
+  <si>
+    <t>useActor|String!</t>
   </si>
 </sst>
 </file>
@@ -458,10 +474,200 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7688E9-6191-474A-BC61-D0CBD7110CAB}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>336</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -471,14 +677,15 @@
   <cols>
     <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="25.75" customWidth="1"/>
-    <col min="5" max="5" width="30.75" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="31" customWidth="1"/>
+    <col min="3" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="25.5" customWidth="1"/>
+    <col min="6" max="6" width="25.75" customWidth="1"/>
+    <col min="7" max="7" width="30.75" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -486,38 +693,53 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="G2" t="b">
+      <c r="I2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -527,7 +749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527A07CA-0D0F-4615-B8C2-37C34C75AD21}">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -699,7 +921,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387DAB05-D72F-4D4F-B706-92DD4D47ED58}">
   <dimension ref="A1:C2"/>
   <sheetViews>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD83BE64-98FD-4FBB-A6DA-B0C2B38E58C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9072E9B-35D9-4FF8-BA5C-CDD0334C076D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
     <sheet name="LevelPackTable" sheetId="2" r:id="rId2"/>
     <sheet name="LevelPackLevelTable" sheetId="3" r:id="rId3"/>
-    <sheet name="ActorLevelPackTable" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,13 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
-  <si>
-    <t>Skill_ActiveOne001_Name</t>
-  </si>
-  <si>
-    <t>Skill_ActiveOne001_Description</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="66">
   <si>
     <t>Actor001</t>
   </si>
@@ -59,43 +52,15 @@
     <t>descriptionId|String</t>
   </si>
   <si>
-    <t>defaultMax|Int</t>
-  </si>
-  <si>
     <t>useAffectorValueIdOverriding|Bool</t>
   </si>
   <si>
-    <t>LP_Piercing001</t>
-  </si>
-  <si>
-    <t>LPAF_PiercingHitObject</t>
-  </si>
-  <si>
     <t>level|Int</t>
   </si>
   <si>
     <t>parameter|String!</t>
   </si>
   <si>
-    <t>40,50,60,90</t>
-  </si>
-  <si>
-    <t>LP_ATK10per</t>
-  </si>
-  <si>
-    <t>LP_ATK20per</t>
-  </si>
-  <si>
-    <t>actorId|String</t>
-  </si>
-  <si>
-    <t>overridingMax|Int</t>
-  </si>
-  <si>
-    <t>levelPackId|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>requiredExp|Int</t>
   </si>
   <si>
@@ -109,6 +74,162 @@
   </si>
   <si>
     <t>useActor|String!</t>
+  </si>
+  <si>
+    <t>max|Int</t>
+  </si>
+  <si>
+    <t>AtkLow</t>
+  </si>
+  <si>
+    <t>FlatIcon_2_NoBG</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_AtkLow</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_AtkLow</t>
+  </si>
+  <si>
+    <t>AtkMedium</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_AtkMedium</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_AtkMedium</t>
+  </si>
+  <si>
+    <t>AtkHigh</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_AtkHigh</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_AtkHigh</t>
+  </si>
+  <si>
+    <t>AtkSpeedLow</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_AtkSpeedLow</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_AtkSpeedLow</t>
+  </si>
+  <si>
+    <t>Actor003</t>
+  </si>
+  <si>
+    <t>AtkSpeedMedium</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_AtkSpeedMedium</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_AtkSpeedMedium</t>
+  </si>
+  <si>
+    <t>AtkSpeedHigh</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_AtkSpeedHigh</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_AtkSpeedHigh</t>
+  </si>
+  <si>
+    <t>CritLow</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_CritLow</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_CritLow</t>
+  </si>
+  <si>
+    <t>CritMedium</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_CritMedium</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_CritMedium</t>
+  </si>
+  <si>
+    <t>CritHigh</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_CritHigh</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_CritHigh</t>
+  </si>
+  <si>
+    <t>Actor002</t>
+  </si>
+  <si>
+    <t>CritDmgLow</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_CritDmgLow</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_CritDmgLow</t>
+  </si>
+  <si>
+    <t>CritDmgMedium</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_CritDmgMedium</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_CritDmgMedium</t>
+  </si>
+  <si>
+    <t>CritDmgHigh</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_CritDmgHigh</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_CritDmgHigh</t>
+  </si>
+  <si>
+    <t>MaxHpHigh</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_MaxHpHigh</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_MaxHpHigh</t>
+  </si>
+  <si>
+    <t>MaxHpMedium</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_MaxHpMedium</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_MaxHpMedium</t>
+  </si>
+  <si>
+    <t>DmgDecreaseHigh</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_DmgDecreaseHigh</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_DmgDecreaseHigh</t>
+  </si>
+  <si>
+    <t>DmgDecreaseMedium</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_DmgDecreaseMedium</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_DmgDecreaseMedium</t>
   </si>
 </sst>
 </file>
@@ -477,19 +598,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7688E9-6191-474A-BC61-D0CBD7110CAB}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -665,9 +786,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -687,59 +808,525 @@
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3">
+        <v>9</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8">
+        <v>-1</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9">
+        <v>9</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11">
+        <v>-1</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12">
+        <v>9</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14">
+        <v>-1</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15">
+        <v>9</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16">
+        <v>9</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17">
+        <v>-1</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18">
+        <v>9</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
         <v>0</v>
       </c>
     </row>
@@ -751,7 +1338,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527A07CA-0D0F-4615-B8C2-37C34C75AD21}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -764,196 +1351,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
       <c r="D1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387DAB05-D72F-4D4F-B706-92DD4D47ED58}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9072E9B-35D9-4FF8-BA5C-CDD0334C076D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7B1237-11AF-4AF2-AFB0-5B6CC8A97C2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="69">
   <si>
     <t>Actor001</t>
   </si>
@@ -230,6 +230,15 @@
   </si>
   <si>
     <t>LevelPackUIDesc_DmgDecreaseMedium</t>
+  </si>
+  <si>
+    <t>FlatSkill2_2_NoBG</t>
+  </si>
+  <si>
+    <t>FlatArrow_5_NoBG</t>
+  </si>
+  <si>
+    <t>FlatArmor_9_NoBG</t>
   </si>
 </sst>
 </file>
@@ -843,7 +852,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -869,7 +878,7 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -895,7 +904,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -1011,7 +1020,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -1037,7 +1046,7 @@
         <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -1063,7 +1072,7 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -1254,7 +1263,7 @@
         <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -1280,7 +1289,7 @@
         <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -1306,7 +1315,7 @@
         <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7B1237-11AF-4AF2-AFB0-5B6CC8A97C2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9CECDF-69DC-430B-B39F-AB306F033BEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="75">
   <si>
     <t>Actor001</t>
   </si>
@@ -239,6 +239,24 @@
   </si>
   <si>
     <t>FlatArmor_9_NoBG</t>
+  </si>
+  <si>
+    <t>MaxHpLow</t>
+  </si>
+  <si>
+    <t>DmgDecreaseLow</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_MaxHpLow</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_MaxHpLow</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_DmgDecreaseLow</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_DmgDecreaseLow</t>
   </si>
 </sst>
 </file>
@@ -1179,7 +1197,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -1191,10 +1209,10 @@
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="G14" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="H14">
         <v>-1</v>
@@ -1260,7 +1278,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
         <v>68</v>
@@ -1272,10 +1290,10 @@
         <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="G17" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="H17">
         <v>-1</v>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9CECDF-69DC-430B-B39F-AB306F033BEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB148C9-ED67-4B1A-BF25-8E494C44B28C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
   <si>
     <t>Actor001</t>
   </si>
@@ -214,49 +214,67 @@
     <t>LevelPackUIDesc_MaxHpMedium</t>
   </si>
   <si>
-    <t>DmgDecreaseHigh</t>
-  </si>
-  <si>
-    <t>LevelPackUIName_DmgDecreaseHigh</t>
-  </si>
-  <si>
-    <t>LevelPackUIDesc_DmgDecreaseHigh</t>
-  </si>
-  <si>
-    <t>DmgDecreaseMedium</t>
-  </si>
-  <si>
-    <t>LevelPackUIName_DmgDecreaseMedium</t>
-  </si>
-  <si>
-    <t>LevelPackUIDesc_DmgDecreaseMedium</t>
-  </si>
-  <si>
     <t>FlatSkill2_2_NoBG</t>
   </si>
   <si>
     <t>FlatArrow_5_NoBG</t>
   </si>
   <si>
-    <t>FlatArmor_9_NoBG</t>
-  </si>
-  <si>
     <t>MaxHpLow</t>
   </si>
   <si>
-    <t>DmgDecreaseLow</t>
-  </si>
-  <si>
     <t>LevelPackUIName_MaxHpLow</t>
   </si>
   <si>
     <t>LevelPackUIDesc_MaxHpLow</t>
   </si>
   <si>
-    <t>LevelPackUIName_DmgDecreaseLow</t>
-  </si>
-  <si>
-    <t>LevelPackUIDesc_DmgDecreaseLow</t>
+    <t>LP_AtkLow</t>
+  </si>
+  <si>
+    <t>LP_AtkMedium</t>
+  </si>
+  <si>
+    <t>LP_AtkHigh</t>
+  </si>
+  <si>
+    <t>LP_AtkSpeedLow</t>
+  </si>
+  <si>
+    <t>LP_AtkSpeedMedium</t>
+  </si>
+  <si>
+    <t>LP_AtkSpeedHigh</t>
+  </si>
+  <si>
+    <t>LP_CritLow</t>
+  </si>
+  <si>
+    <t>LP_CritHigh</t>
+  </si>
+  <si>
+    <t>LP_CritDmgLow, LP_CritDmgLow_Crit</t>
+  </si>
+  <si>
+    <t>LP_CritDmgMedium, LP_CritDmgMedium_Crit</t>
+  </si>
+  <si>
+    <t>LP_CritDmgHigh, LP_CritDmgHigh_Crit</t>
+  </si>
+  <si>
+    <t>LP_MaxHpLow</t>
+  </si>
+  <si>
+    <t>LP_MaxHpMedium</t>
+  </si>
+  <si>
+    <t>LP_MaxHpHigh</t>
+  </si>
+  <si>
+    <t>Actor001, Actor002, Actor003, Actor004</t>
+  </si>
+  <si>
+    <t>LP_CritMedium</t>
   </si>
 </sst>
 </file>
@@ -813,7 +831,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -829,8 +847,9 @@
     <col min="5" max="5" width="25.5" customWidth="1"/>
     <col min="6" max="6" width="25.75" customWidth="1"/>
     <col min="7" max="7" width="30.75" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="8" max="8" width="7.75" customWidth="1"/>
     <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="10" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -870,13 +889,16 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -885,7 +907,7 @@
         <v>18</v>
       </c>
       <c r="H2">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
@@ -896,13 +918,16 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
         <v>66</v>
-      </c>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
@@ -922,13 +947,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4">
         <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
@@ -959,6 +987,9 @@
       <c r="D5">
         <v>1</v>
       </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
       <c r="F5" t="s">
         <v>26</v>
       </c>
@@ -966,7 +997,7 @@
         <v>27</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -988,6 +1019,9 @@
       <c r="D6">
         <v>1</v>
       </c>
+      <c r="E6" t="s">
+        <v>69</v>
+      </c>
       <c r="F6" t="s">
         <v>30</v>
       </c>
@@ -995,7 +1029,7 @@
         <v>31</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -1017,6 +1051,9 @@
       <c r="D7">
         <v>1</v>
       </c>
+      <c r="E7" t="s">
+        <v>70</v>
+      </c>
       <c r="F7" t="s">
         <v>33</v>
       </c>
@@ -1024,7 +1061,7 @@
         <v>34</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -1038,13 +1075,16 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>71</v>
       </c>
       <c r="F8" t="s">
         <v>36</v>
@@ -1053,7 +1093,7 @@
         <v>37</v>
       </c>
       <c r="H8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -1064,13 +1104,16 @@
         <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>80</v>
       </c>
       <c r="F9" t="s">
         <v>39</v>
@@ -1079,7 +1122,7 @@
         <v>40</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -1090,13 +1133,16 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10">
         <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>72</v>
       </c>
       <c r="F10" t="s">
         <v>42</v>
@@ -1105,7 +1151,7 @@
         <v>43</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
@@ -1125,7 +1171,10 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>73</v>
       </c>
       <c r="F11" t="s">
         <v>46</v>
@@ -1134,7 +1183,7 @@
         <v>47</v>
       </c>
       <c r="H11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
@@ -1151,7 +1200,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>74</v>
       </c>
       <c r="F12" t="s">
         <v>49</v>
@@ -1160,7 +1212,7 @@
         <v>50</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
@@ -1179,6 +1231,9 @@
       <c r="D13">
         <v>1</v>
       </c>
+      <c r="E13" t="s">
+        <v>75</v>
+      </c>
       <c r="F13" t="s">
         <v>52</v>
       </c>
@@ -1186,7 +1241,7 @@
         <v>53</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -1197,7 +1252,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -1206,16 +1261,19 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>76</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G14" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -1232,7 +1290,10 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>77</v>
       </c>
       <c r="F15" t="s">
         <v>58</v>
@@ -1260,6 +1321,9 @@
       <c r="D16">
         <v>1</v>
       </c>
+      <c r="E16" t="s">
+        <v>78</v>
+      </c>
       <c r="F16" t="s">
         <v>55</v>
       </c>
@@ -1267,94 +1331,13 @@
         <v>56</v>
       </c>
       <c r="H16">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" t="b">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="F17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G17" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17">
-        <v>-1</v>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="F18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" t="s">
-        <v>65</v>
-      </c>
-      <c r="H18">
-        <v>9</v>
-      </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" t="b">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB148C9-ED67-4B1A-BF25-8E494C44B28C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B152E8-E516-4503-AA49-8C0E13E0EC17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="83">
   <si>
     <t>Actor001</t>
   </si>
@@ -271,10 +271,16 @@
     <t>LP_MaxHpHigh</t>
   </si>
   <si>
-    <t>Actor001, Actor002, Actor003, Actor004</t>
-  </si>
-  <si>
     <t>LP_CritMedium</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Actor002, Actor003</t>
+  </si>
+  <si>
+    <t>Actor001, Actor004</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1035,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1113,7 +1119,7 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s">
         <v>39</v>
@@ -1247,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1337,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B152E8-E516-4503-AA49-8C0E13E0EC17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2F4A4A-B820-4803-90F8-92B24C1D33B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
@@ -1099,7 +1099,7 @@
         <v>37</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -1128,7 +1128,7 @@
         <v>40</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>47</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>50</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2F4A4A-B820-4803-90F8-92B24C1D33B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC19FD3-89EC-47AB-93F0-A8FBD9B68026}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
@@ -25,6 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="127">
   <si>
     <t>Actor001</t>
   </si>
@@ -281,6 +282,138 @@
   </si>
   <si>
     <t>Actor001, Actor004</t>
+  </si>
+  <si>
+    <t>ExtraGold</t>
+  </si>
+  <si>
+    <t>LP_ExtraGold</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_ExtraGold</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_ExtraGold</t>
+  </si>
+  <si>
+    <t>ItemChanceBoost</t>
+  </si>
+  <si>
+    <t>LP_ItemChanceBoost</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_ItemChanceBoost</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_ItemChanceBoost</t>
+  </si>
+  <si>
+    <t>HealChanceBoost</t>
+  </si>
+  <si>
+    <t>LP_HealChanceBoost</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_HealChanceBoost</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_HealChanceBoost</t>
+  </si>
+  <si>
+    <t>MonsterThrough</t>
+  </si>
+  <si>
+    <t>LP_MonsterThrough</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_MonsterThrough</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_MonsterThrough</t>
+  </si>
+  <si>
+    <t>Ricochet</t>
+  </si>
+  <si>
+    <t>LP_Ricochet</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_Ricochet</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_Ricochet</t>
+  </si>
+  <si>
+    <t>BounceWallQuad</t>
+  </si>
+  <si>
+    <t>LP_BounceWallQuad</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_BounceWallQuad</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_BounceWallQuad</t>
+  </si>
+  <si>
+    <t>Parallel</t>
+  </si>
+  <si>
+    <t>LP_Parallel</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_Parallel</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_Parallel</t>
+  </si>
+  <si>
+    <t>DiagonalNwayGenerator</t>
+  </si>
+  <si>
+    <t>LP_DiagonalNwayGenerator</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_DiagonalNwayGenerator</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_DiagonalNwayGenerator</t>
+  </si>
+  <si>
+    <t>LeftRightNwayGenerator</t>
+  </si>
+  <si>
+    <t>LP_LeftRightNwayGenerator</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_LeftRightNwayGenerator</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_LeftRightNwayGenerator</t>
+  </si>
+  <si>
+    <t>BackNwayGenerator</t>
+  </si>
+  <si>
+    <t>LP_BackNwayGenerator</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_BackNwayGenerator</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_BackNwayGenerator</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>LP_Repeat</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_Repeat</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_Repeat</t>
   </si>
 </sst>
 </file>
@@ -837,7 +970,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1346,6 +1479,334 @@
         <v>80</v>
       </c>
     </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" t="s">
+        <v>102</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" t="s">
+        <v>106</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" t="s">
+        <v>110</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" t="s">
+        <v>113</v>
+      </c>
+      <c r="G24" t="s">
+        <v>114</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" t="s">
+        <v>117</v>
+      </c>
+      <c r="G25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" t="s">
+        <v>121</v>
+      </c>
+      <c r="G26" t="s">
+        <v>122</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>124</v>
+      </c>
+      <c r="F27" t="s">
+        <v>125</v>
+      </c>
+      <c r="G27" t="s">
+        <v>126</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC19FD3-89EC-47AB-93F0-A8FBD9B68026}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01565F6-2AF4-4CF8-BDA1-0BAC02018266}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="128">
   <si>
     <t>Actor001</t>
   </si>
@@ -414,6 +414,9 @@
   </si>
   <si>
     <t>LevelPackUIDesc_Repeat</t>
+  </si>
+  <si>
+    <t>effectAddress|String!</t>
   </si>
 </sst>
 </file>
@@ -970,7 +973,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -989,9 +992,10 @@
     <col min="8" max="8" width="7.75" customWidth="1"/>
     <col min="9" max="9" width="31" customWidth="1"/>
     <col min="10" max="10" width="27.125" customWidth="1"/>
+    <col min="11" max="11" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1022,8 +1026,11 @@
       <c r="J1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1052,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1081,7 +1088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1113,7 +1120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1145,7 +1152,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1177,7 +1184,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1209,7 +1216,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1238,7 +1245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -1267,7 +1274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -1299,7 +1306,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -1328,7 +1335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -1357,7 +1364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -1389,7 +1396,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -1418,7 +1425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -1447,7 +1454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>54</v>
       </c>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01565F6-2AF4-4CF8-BDA1-0BAC02018266}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BFE5CB-E6D8-4E75-A568-3BF328CA4F06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="254">
   <si>
     <t>Actor001</t>
   </si>
@@ -80,210 +80,12 @@
     <t>max|Int</t>
   </si>
   <si>
-    <t>AtkLow</t>
-  </si>
-  <si>
-    <t>FlatIcon_2_NoBG</t>
-  </si>
-  <si>
-    <t>LevelPackUIName_AtkLow</t>
-  </si>
-  <si>
-    <t>LevelPackUIDesc_AtkLow</t>
-  </si>
-  <si>
-    <t>AtkMedium</t>
-  </si>
-  <si>
-    <t>LevelPackUIName_AtkMedium</t>
-  </si>
-  <si>
-    <t>LevelPackUIDesc_AtkMedium</t>
-  </si>
-  <si>
-    <t>AtkHigh</t>
-  </si>
-  <si>
-    <t>LevelPackUIName_AtkHigh</t>
-  </si>
-  <si>
-    <t>LevelPackUIDesc_AtkHigh</t>
-  </si>
-  <si>
-    <t>AtkSpeedLow</t>
-  </si>
-  <si>
-    <t>LevelPackUIName_AtkSpeedLow</t>
-  </si>
-  <si>
-    <t>LevelPackUIDesc_AtkSpeedLow</t>
-  </si>
-  <si>
     <t>Actor003</t>
   </si>
   <si>
-    <t>AtkSpeedMedium</t>
-  </si>
-  <si>
-    <t>LevelPackUIName_AtkSpeedMedium</t>
-  </si>
-  <si>
-    <t>LevelPackUIDesc_AtkSpeedMedium</t>
-  </si>
-  <si>
-    <t>AtkSpeedHigh</t>
-  </si>
-  <si>
-    <t>LevelPackUIName_AtkSpeedHigh</t>
-  </si>
-  <si>
-    <t>LevelPackUIDesc_AtkSpeedHigh</t>
-  </si>
-  <si>
-    <t>CritLow</t>
-  </si>
-  <si>
-    <t>LevelPackUIName_CritLow</t>
-  </si>
-  <si>
-    <t>LevelPackUIDesc_CritLow</t>
-  </si>
-  <si>
-    <t>CritMedium</t>
-  </si>
-  <si>
-    <t>LevelPackUIName_CritMedium</t>
-  </si>
-  <si>
-    <t>LevelPackUIDesc_CritMedium</t>
-  </si>
-  <si>
-    <t>CritHigh</t>
-  </si>
-  <si>
-    <t>LevelPackUIName_CritHigh</t>
-  </si>
-  <si>
-    <t>LevelPackUIDesc_CritHigh</t>
-  </si>
-  <si>
     <t>Actor002</t>
   </si>
   <si>
-    <t>CritDmgLow</t>
-  </si>
-  <si>
-    <t>LevelPackUIName_CritDmgLow</t>
-  </si>
-  <si>
-    <t>LevelPackUIDesc_CritDmgLow</t>
-  </si>
-  <si>
-    <t>CritDmgMedium</t>
-  </si>
-  <si>
-    <t>LevelPackUIName_CritDmgMedium</t>
-  </si>
-  <si>
-    <t>LevelPackUIDesc_CritDmgMedium</t>
-  </si>
-  <si>
-    <t>CritDmgHigh</t>
-  </si>
-  <si>
-    <t>LevelPackUIName_CritDmgHigh</t>
-  </si>
-  <si>
-    <t>LevelPackUIDesc_CritDmgHigh</t>
-  </si>
-  <si>
-    <t>MaxHpHigh</t>
-  </si>
-  <si>
-    <t>LevelPackUIName_MaxHpHigh</t>
-  </si>
-  <si>
-    <t>LevelPackUIDesc_MaxHpHigh</t>
-  </si>
-  <si>
-    <t>MaxHpMedium</t>
-  </si>
-  <si>
-    <t>LevelPackUIName_MaxHpMedium</t>
-  </si>
-  <si>
-    <t>LevelPackUIDesc_MaxHpMedium</t>
-  </si>
-  <si>
-    <t>FlatSkill2_2_NoBG</t>
-  </si>
-  <si>
-    <t>FlatArrow_5_NoBG</t>
-  </si>
-  <si>
-    <t>MaxHpLow</t>
-  </si>
-  <si>
-    <t>LevelPackUIName_MaxHpLow</t>
-  </si>
-  <si>
-    <t>LevelPackUIDesc_MaxHpLow</t>
-  </si>
-  <si>
-    <t>LP_AtkLow</t>
-  </si>
-  <si>
-    <t>LP_AtkMedium</t>
-  </si>
-  <si>
-    <t>LP_AtkHigh</t>
-  </si>
-  <si>
-    <t>LP_AtkSpeedLow</t>
-  </si>
-  <si>
-    <t>LP_AtkSpeedMedium</t>
-  </si>
-  <si>
-    <t>LP_AtkSpeedHigh</t>
-  </si>
-  <si>
-    <t>LP_CritLow</t>
-  </si>
-  <si>
-    <t>LP_CritHigh</t>
-  </si>
-  <si>
-    <t>LP_CritDmgLow, LP_CritDmgLow_Crit</t>
-  </si>
-  <si>
-    <t>LP_CritDmgMedium, LP_CritDmgMedium_Crit</t>
-  </si>
-  <si>
-    <t>LP_CritDmgHigh, LP_CritDmgHigh_Crit</t>
-  </si>
-  <si>
-    <t>LP_MaxHpLow</t>
-  </si>
-  <si>
-    <t>LP_MaxHpMedium</t>
-  </si>
-  <si>
-    <t>LP_MaxHpHigh</t>
-  </si>
-  <si>
-    <t>LP_CritMedium</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>Actor002, Actor003</t>
-  </si>
-  <si>
-    <t>Actor001, Actor004</t>
-  </si>
-  <si>
     <t>ExtraGold</t>
   </si>
   <si>
@@ -417,6 +219,582 @@
   </si>
   <si>
     <t>effectAddress|String!</t>
+  </si>
+  <si>
+    <t>Atk</t>
+  </si>
+  <si>
+    <t>FlatSkill2_5_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>LP_Atk</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_Atk</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_Atk</t>
+  </si>
+  <si>
+    <t>AtkBetter</t>
+  </si>
+  <si>
+    <t>LP_AtkBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_AtkBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_AtkBetter</t>
+  </si>
+  <si>
+    <t>Actor002, Actor004</t>
+  </si>
+  <si>
+    <t>AtkBest</t>
+  </si>
+  <si>
+    <t>FlatSkill2_140_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>LP_AtkBest</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_AtkBest</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_AtkBest</t>
+  </si>
+  <si>
+    <t>AtkSpeed</t>
+  </si>
+  <si>
+    <t>FlatArrow_6_NoBG_D_Gray</t>
+  </si>
+  <si>
+    <t>LP_AtkSpeed</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_AtkSpeed</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_AtkSpeed</t>
+  </si>
+  <si>
+    <t>AtkSpeedBetter</t>
+  </si>
+  <si>
+    <t>LP_AtkSpeedBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_AtkSpeedBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_AtkSpeedBetter</t>
+  </si>
+  <si>
+    <t>AtkSpeedBest</t>
+  </si>
+  <si>
+    <t>FlatArrow_5_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>LP_AtkSpeedBest</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_AtkSpeedBest</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_AtkSpeedBest</t>
+  </si>
+  <si>
+    <t>Crit</t>
+  </si>
+  <si>
+    <t>FlatIcon_198_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>LP_Crit</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_Crit</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_Crit</t>
+  </si>
+  <si>
+    <t>CritBetter</t>
+  </si>
+  <si>
+    <t>LP_CritBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_CritBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_CritBetter</t>
+  </si>
+  <si>
+    <t>CritBest</t>
+  </si>
+  <si>
+    <t>FlatSkill2_144_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>LP_CritBest</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_CritBest</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_CritBest</t>
+  </si>
+  <si>
+    <t>CritDmg</t>
+  </si>
+  <si>
+    <t>FlatIcon_18_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>LP_CritDmg, LP_CritDmg_Crit</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_CritDmg</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_CritDmg</t>
+  </si>
+  <si>
+    <t>CritDmgBetter</t>
+  </si>
+  <si>
+    <t>LP_CritDmgBetter, LP_CritDmgBetter_Crit</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_CritDmgBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_CritDmgBetter</t>
+  </si>
+  <si>
+    <t>CritDmgBest</t>
+  </si>
+  <si>
+    <t>FlatSkill2_62_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>LP_CritDmgBest, LP_CritDmgBest_Crit</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_CritDmgBest</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_CritDmgBest</t>
+  </si>
+  <si>
+    <t>MaxHp</t>
+  </si>
+  <si>
+    <t>FlatArmor_7_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>LP_MaxHp</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_MaxHp</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_MaxHp</t>
+  </si>
+  <si>
+    <t>MaxHpBetter</t>
+  </si>
+  <si>
+    <t>LP_MaxHpBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_MaxHpBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_MaxHpBetter</t>
+  </si>
+  <si>
+    <t>MaxHpBest</t>
+  </si>
+  <si>
+    <t>FlatArmor_9_NoBG_D2_Gray</t>
+  </si>
+  <si>
+    <t>LP_MaxHpBest</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_MaxHpBest</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_MaxHpBest</t>
+  </si>
+  <si>
+    <t>ReduceDmgProjectile</t>
+  </si>
+  <si>
+    <t>FlatSkill2_16_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>LP_ReduceDmgProjectile</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_ReduceDmgProjectile</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_ReduceDmgProjectile</t>
+  </si>
+  <si>
+    <t>ReduceDmgClose</t>
+  </si>
+  <si>
+    <t>FlatSkill2_3_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>LP_ReduceDmgClose</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_ReduceDmgClose</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_ReduceDmgClose</t>
+  </si>
+  <si>
+    <t>LootIcon_9_noBG_Gray</t>
+  </si>
+  <si>
+    <t>LootIcon_14_noBG_Gray</t>
+  </si>
+  <si>
+    <t>FlatSkill2_166_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>FlatIcon_76_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>Shamanskill_25_nobg_Gray</t>
+  </si>
+  <si>
+    <t>FlatSkill2_82_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>FlatSkill2_163_NoBG_D2_Gray</t>
+  </si>
+  <si>
+    <t>FlatSkill2_163_NoBG_D4_Gray</t>
+  </si>
+  <si>
+    <t>FlatSkill2_163_NoBG_Side2_Gray</t>
+  </si>
+  <si>
+    <t>FlatSkill2_163_NoBG_Back_Gray</t>
+  </si>
+  <si>
+    <t>Warriorskill_21_D5_nobg_Gray</t>
+  </si>
+  <si>
+    <t>HealOnKill</t>
+  </si>
+  <si>
+    <t>FlatSkill2_92_NoBG_D_Gray</t>
+  </si>
+  <si>
+    <t>LP_HealOnKill</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_HealOnKill</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_HealOnKill</t>
+  </si>
+  <si>
+    <t>HealOnKillBetter</t>
+  </si>
+  <si>
+    <t>LP_HealOnKillBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_HealOnKillBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_HealOnKillBetter</t>
+  </si>
+  <si>
+    <t>HealAreaOnEncounter</t>
+  </si>
+  <si>
+    <t>FlatIcon_91_NoBG_D_Gray</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_HealAreaOnEncounter</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_HealAreaOnEncounter</t>
+  </si>
+  <si>
+    <t>HealAreaOnEncounterBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_HealAreaOnEncounterBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_HealAreaOnEncounterBetter</t>
+  </si>
+  <si>
+    <t>AtkSpeedUpOnEncounter</t>
+  </si>
+  <si>
+    <t>FlatSkill2_78_NoBG_D_Gray</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_AtkSpeedUpOnEncounter</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_AtkSpeedUpOnEncounter</t>
+  </si>
+  <si>
+    <t>AtkSpeedUpOnEncounterBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_AtkSpeedUpOnEncounterBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_AtkSpeedUpOnEncounterBetter</t>
+  </si>
+  <si>
+    <t>VampireOnAttack</t>
+  </si>
+  <si>
+    <t>FlatIcon_46_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_VampireOnAttack</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_VampireOnAttack</t>
+  </si>
+  <si>
+    <t>VampireOnAttackBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_VampireOnAttackBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_VampireOnAttackBetter</t>
+  </si>
+  <si>
+    <t>RecoverOnAttacked</t>
+  </si>
+  <si>
+    <t>FlatSkill2_178_NoBG_G_Gray</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_RecoverOnAttacked</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_RecoverOnAttacked</t>
+  </si>
+  <si>
+    <t>RecoverOnAttackedBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_RecoverOnAttackedBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_RecoverOnAttackedBetter</t>
+  </si>
+  <si>
+    <t>ReflectOnAttacked</t>
+  </si>
+  <si>
+    <t>FlatSkill2_171_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_ReflectOnAttacked</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_ReflectOnAttacked</t>
+  </si>
+  <si>
+    <t>ReflectOnAttackedBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_ReflectOnAttackedBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_ReflectOnAttackedBetter</t>
+  </si>
+  <si>
+    <t>AtkUpOnLowerHp</t>
+  </si>
+  <si>
+    <t>FlatSkill2_14_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_AtkUpOnLowerHp</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_AtkUpOnLowerHp</t>
+  </si>
+  <si>
+    <t>AtkUpOnLowerHpBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_AtkUpOnLowerHpBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_AtkUpOnLowerHpBetter</t>
+  </si>
+  <si>
+    <t>CritDmgUpOnLowerHp</t>
+  </si>
+  <si>
+    <t>FlatIcon_17_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_CritDmgUpOnLowerHp</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_CritDmgUpOnLowerHp</t>
+  </si>
+  <si>
+    <t>CritDmgUpOnLowerHpBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_CritDmgUpOnLowerHpBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_CritDmgUpOnLowerHpBetter</t>
+  </si>
+  <si>
+    <t>InstantKill</t>
+  </si>
+  <si>
+    <t>FlatSkill2_103_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_InstantKill</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_InstantKill</t>
+  </si>
+  <si>
+    <t>InstantKillBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_InstantKillBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_InstantKillBetter</t>
+  </si>
+  <si>
+    <t>ImmortalWill</t>
+  </si>
+  <si>
+    <t>FlatSkill2_77_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_ImmortalWill</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_ImmortalWill</t>
+  </si>
+  <si>
+    <t>ImmortalWillBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_ImmortalWillBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_ImmortalWillBetter</t>
+  </si>
+  <si>
+    <t>MoveSpeedUpOnAttacked</t>
+  </si>
+  <si>
+    <t>FlatSkill2_55_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_MoveSpeedUpOnAttacked</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_MoveSpeedUpOnAttacked</t>
+  </si>
+  <si>
+    <t>Paralyze</t>
+  </si>
+  <si>
+    <t>FlatSkill2_48_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_Paralyze</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_Paralyze</t>
+  </si>
+  <si>
+    <t>Hold</t>
+  </si>
+  <si>
+    <t>Priestskill_37_D_nobg_Gray</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_Hold</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_Hold</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>FlatSkill2_35_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_Transport</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_Transport</t>
+  </si>
+  <si>
+    <t>SummonShield</t>
+  </si>
+  <si>
+    <t>FlatSkill2_17_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_SummonShield</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_SummonShield</t>
+  </si>
+  <si>
+    <t>SlowHitObject</t>
+  </si>
+  <si>
+    <t>FlatIcon_143_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_SlowHitObject</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_SlowHitObject</t>
+  </si>
+  <si>
+    <t>BombOrbOnMove</t>
+  </si>
+  <si>
+    <t>FlatIcon_97_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_BombOrbOnMove</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_BombOrbOnMove</t>
   </si>
 </sst>
 </file>
@@ -973,7 +1351,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1027,15 +1405,15 @@
         <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -1044,13 +1422,13 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" t="s">
         <v>65</v>
       </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="H2">
         <v>9</v>
@@ -1061,39 +1439,42 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H3">
         <v>9</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -1102,16 +1483,16 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -1122,42 +1503,39 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="H5">
         <v>9</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -1166,13 +1544,13 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="H6">
         <v>9</v>
@@ -1181,15 +1559,15 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -1198,30 +1576,27 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -1230,13 +1605,13 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="H8">
         <v>6</v>
@@ -1247,25 +1622,25 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -1276,10 +1651,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -1288,30 +1663,27 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
-      </c>
-      <c r="J10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -1320,13 +1692,13 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="H11">
         <v>8</v>
@@ -1337,25 +1709,25 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="H12">
         <v>4</v>
@@ -1366,10 +1738,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -1378,30 +1750,27 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -1410,13 +1779,13 @@
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="H14">
         <v>9</v>
@@ -1427,25 +1796,25 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="G15" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="H15">
         <v>9</v>
@@ -1456,10 +1825,10 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -1468,13 +1837,13 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="G16" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="H16">
         <v>5</v>
@@ -1482,16 +1851,13 @@
       <c r="I16" t="b">
         <v>0</v>
       </c>
-      <c r="J16" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -1500,16 +1866,16 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="F17" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="G17" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
@@ -1517,10 +1883,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -1529,16 +1895,16 @@
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="F18" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="G18" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
@@ -1546,10 +1912,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -1558,13 +1924,13 @@
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1575,28 +1941,28 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="G20" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="b">
         <v>0</v>
@@ -1604,28 +1970,28 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="F21" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="G21" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
@@ -1633,10 +1999,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -1645,13 +2011,13 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -1662,10 +2028,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -1674,13 +2040,13 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -1691,10 +2057,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
@@ -1703,13 +2069,13 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="F24" t="s">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -1717,16 +2083,13 @@
       <c r="I24" t="b">
         <v>0</v>
       </c>
-      <c r="J24" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
@@ -1735,13 +2098,13 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="F25" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="G25" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -1749,16 +2112,13 @@
       <c r="I25" t="b">
         <v>0</v>
       </c>
-      <c r="J25" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
@@ -1767,13 +2127,13 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="G26" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -1782,15 +2142,15 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
@@ -1799,18 +2159,790 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="G27" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="H27">
         <v>2</v>
       </c>
       <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" t="s">
+        <v>60</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>156</v>
+      </c>
+      <c r="F30" t="s">
+        <v>157</v>
+      </c>
+      <c r="G30" t="s">
+        <v>158</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>159</v>
+      </c>
+      <c r="B31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>160</v>
+      </c>
+      <c r="F31" t="s">
+        <v>161</v>
+      </c>
+      <c r="G31" t="s">
+        <v>162</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>163</v>
+      </c>
+      <c r="B32" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
+        <v>165</v>
+      </c>
+      <c r="G32" t="s">
+        <v>166</v>
+      </c>
+      <c r="H32">
+        <v>9</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>167</v>
+      </c>
+      <c r="B33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>168</v>
+      </c>
+      <c r="G33" t="s">
+        <v>169</v>
+      </c>
+      <c r="H33">
+        <v>9</v>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>170</v>
+      </c>
+      <c r="B34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
+        <v>172</v>
+      </c>
+      <c r="G34" t="s">
+        <v>173</v>
+      </c>
+      <c r="H34">
+        <v>9</v>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>174</v>
+      </c>
+      <c r="B35" t="s">
+        <v>171</v>
+      </c>
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>175</v>
+      </c>
+      <c r="G35" t="s">
+        <v>176</v>
+      </c>
+      <c r="H35">
+        <v>9</v>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>177</v>
+      </c>
+      <c r="B36" t="s">
+        <v>178</v>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>7</v>
+      </c>
+      <c r="F36" t="s">
+        <v>179</v>
+      </c>
+      <c r="G36" t="s">
+        <v>180</v>
+      </c>
+      <c r="H36">
+        <v>9</v>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>181</v>
+      </c>
+      <c r="B37" t="s">
+        <v>178</v>
+      </c>
+      <c r="C37" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>182</v>
+      </c>
+      <c r="G37" t="s">
+        <v>183</v>
+      </c>
+      <c r="H37">
+        <v>9</v>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>184</v>
+      </c>
+      <c r="B38" t="s">
+        <v>185</v>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>186</v>
+      </c>
+      <c r="G38" t="s">
+        <v>187</v>
+      </c>
+      <c r="H38">
+        <v>9</v>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B39" t="s">
+        <v>185</v>
+      </c>
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>189</v>
+      </c>
+      <c r="G39" t="s">
+        <v>190</v>
+      </c>
+      <c r="H39">
+        <v>9</v>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>191</v>
+      </c>
+      <c r="B40" t="s">
+        <v>192</v>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
+      <c r="F40" t="s">
+        <v>193</v>
+      </c>
+      <c r="G40" t="s">
+        <v>194</v>
+      </c>
+      <c r="H40">
+        <v>9</v>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>195</v>
+      </c>
+      <c r="B41" t="s">
+        <v>192</v>
+      </c>
+      <c r="C41" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>196</v>
+      </c>
+      <c r="G41" t="s">
+        <v>197</v>
+      </c>
+      <c r="H41">
+        <v>9</v>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>198</v>
+      </c>
+      <c r="B42" t="s">
+        <v>199</v>
+      </c>
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
+      <c r="F42" t="s">
+        <v>200</v>
+      </c>
+      <c r="G42" t="s">
+        <v>201</v>
+      </c>
+      <c r="H42">
+        <v>9</v>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>202</v>
+      </c>
+      <c r="B43" t="s">
+        <v>199</v>
+      </c>
+      <c r="C43" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>203</v>
+      </c>
+      <c r="G43" t="s">
+        <v>204</v>
+      </c>
+      <c r="H43">
+        <v>9</v>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>205</v>
+      </c>
+      <c r="B44" t="s">
+        <v>206</v>
+      </c>
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+      <c r="F44" t="s">
+        <v>207</v>
+      </c>
+      <c r="G44" t="s">
+        <v>208</v>
+      </c>
+      <c r="H44">
+        <v>9</v>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>209</v>
+      </c>
+      <c r="B45" t="s">
+        <v>206</v>
+      </c>
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>210</v>
+      </c>
+      <c r="G45" t="s">
+        <v>211</v>
+      </c>
+      <c r="H45">
+        <v>9</v>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>212</v>
+      </c>
+      <c r="B46" t="s">
+        <v>213</v>
+      </c>
+      <c r="C46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>7</v>
+      </c>
+      <c r="F46" t="s">
+        <v>214</v>
+      </c>
+      <c r="G46" t="s">
+        <v>215</v>
+      </c>
+      <c r="H46">
+        <v>9</v>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>216</v>
+      </c>
+      <c r="B47" t="s">
+        <v>213</v>
+      </c>
+      <c r="C47" t="b">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>217</v>
+      </c>
+      <c r="G47" t="s">
+        <v>218</v>
+      </c>
+      <c r="H47">
+        <v>9</v>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>219</v>
+      </c>
+      <c r="B48" t="s">
+        <v>220</v>
+      </c>
+      <c r="C48" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>7</v>
+      </c>
+      <c r="F48" t="s">
+        <v>221</v>
+      </c>
+      <c r="G48" t="s">
+        <v>222</v>
+      </c>
+      <c r="H48">
+        <v>9</v>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>223</v>
+      </c>
+      <c r="B49" t="s">
+        <v>220</v>
+      </c>
+      <c r="C49" t="b">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>224</v>
+      </c>
+      <c r="G49" t="s">
+        <v>225</v>
+      </c>
+      <c r="H49">
+        <v>9</v>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>226</v>
+      </c>
+      <c r="B50" t="s">
+        <v>227</v>
+      </c>
+      <c r="C50" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>7</v>
+      </c>
+      <c r="F50" t="s">
+        <v>228</v>
+      </c>
+      <c r="G50" t="s">
+        <v>229</v>
+      </c>
+      <c r="H50">
+        <v>9</v>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>230</v>
+      </c>
+      <c r="B51" t="s">
+        <v>231</v>
+      </c>
+      <c r="C51" t="b">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>7</v>
+      </c>
+      <c r="F51" t="s">
+        <v>232</v>
+      </c>
+      <c r="G51" t="s">
+        <v>233</v>
+      </c>
+      <c r="H51">
+        <v>9</v>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>234</v>
+      </c>
+      <c r="B52" t="s">
+        <v>235</v>
+      </c>
+      <c r="C52" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>7</v>
+      </c>
+      <c r="F52" t="s">
+        <v>236</v>
+      </c>
+      <c r="G52" t="s">
+        <v>237</v>
+      </c>
+      <c r="H52">
+        <v>9</v>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>238</v>
+      </c>
+      <c r="B53" t="s">
+        <v>239</v>
+      </c>
+      <c r="C53" t="b">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>7</v>
+      </c>
+      <c r="F53" t="s">
+        <v>240</v>
+      </c>
+      <c r="G53" t="s">
+        <v>241</v>
+      </c>
+      <c r="H53">
+        <v>9</v>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>242</v>
+      </c>
+      <c r="B54" t="s">
+        <v>243</v>
+      </c>
+      <c r="C54" t="b">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>7</v>
+      </c>
+      <c r="F54" t="s">
+        <v>244</v>
+      </c>
+      <c r="G54" t="s">
+        <v>245</v>
+      </c>
+      <c r="H54">
+        <v>9</v>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>246</v>
+      </c>
+      <c r="B55" t="s">
+        <v>247</v>
+      </c>
+      <c r="C55" t="b">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>7</v>
+      </c>
+      <c r="F55" t="s">
+        <v>248</v>
+      </c>
+      <c r="G55" t="s">
+        <v>249</v>
+      </c>
+      <c r="H55">
+        <v>9</v>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>250</v>
+      </c>
+      <c r="B56" t="s">
+        <v>251</v>
+      </c>
+      <c r="C56" t="b">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>7</v>
+      </c>
+      <c r="F56" t="s">
+        <v>252</v>
+      </c>
+      <c r="G56" t="s">
+        <v>253</v>
+      </c>
+      <c r="H56">
+        <v>9</v>
+      </c>
+      <c r="I56" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BFE5CB-E6D8-4E75-A568-3BF328CA4F06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4874E16E-02EC-4C68-A237-6D6C33364F1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="251">
   <si>
     <t>Actor001</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Actor003</t>
   </si>
   <si>
-    <t>Actor002</t>
-  </si>
-  <si>
     <t>ExtraGold</t>
   </si>
   <si>
@@ -350,48 +347,6 @@
     <t>LevelPackUIDesc_CritBest</t>
   </si>
   <si>
-    <t>CritDmg</t>
-  </si>
-  <si>
-    <t>FlatIcon_18_NoBG_Gray</t>
-  </si>
-  <si>
-    <t>LP_CritDmg, LP_CritDmg_Crit</t>
-  </si>
-  <si>
-    <t>LevelPackUIName_CritDmg</t>
-  </si>
-  <si>
-    <t>LevelPackUIDesc_CritDmg</t>
-  </si>
-  <si>
-    <t>CritDmgBetter</t>
-  </si>
-  <si>
-    <t>LP_CritDmgBetter, LP_CritDmgBetter_Crit</t>
-  </si>
-  <si>
-    <t>LevelPackUIName_CritDmgBetter</t>
-  </si>
-  <si>
-    <t>LevelPackUIDesc_CritDmgBetter</t>
-  </si>
-  <si>
-    <t>CritDmgBest</t>
-  </si>
-  <si>
-    <t>FlatSkill2_62_NoBG_Gray</t>
-  </si>
-  <si>
-    <t>LP_CritDmgBest, LP_CritDmgBest_Crit</t>
-  </si>
-  <si>
-    <t>LevelPackUIName_CritDmgBest</t>
-  </si>
-  <si>
-    <t>LevelPackUIDesc_CritDmgBest</t>
-  </si>
-  <si>
     <t>MaxHp</t>
   </si>
   <si>
@@ -536,15 +491,6 @@
     <t>LevelPackUIDesc_HealAreaOnEncounter</t>
   </si>
   <si>
-    <t>HealAreaOnEncounterBetter</t>
-  </si>
-  <si>
-    <t>LevelPackUIName_HealAreaOnEncounterBetter</t>
-  </si>
-  <si>
-    <t>LevelPackUIDesc_HealAreaOnEncounterBetter</t>
-  </si>
-  <si>
     <t>AtkSpeedUpOnEncounter</t>
   </si>
   <si>
@@ -599,15 +545,6 @@
     <t>LevelPackUIDesc_RecoverOnAttacked</t>
   </si>
   <si>
-    <t>RecoverOnAttackedBetter</t>
-  </si>
-  <si>
-    <t>LevelPackUIName_RecoverOnAttackedBetter</t>
-  </si>
-  <si>
-    <t>LevelPackUIDesc_RecoverOnAttackedBetter</t>
-  </si>
-  <si>
     <t>ReflectOnAttacked</t>
   </si>
   <si>
@@ -795,6 +732,60 @@
   </si>
   <si>
     <t>LevelPackUIDesc_BombOrbOnMove</t>
+  </si>
+  <si>
+    <t>LP_AtkSpeedUpOnEncounter</t>
+  </si>
+  <si>
+    <t>LP_AtkSpeedUpOnEncounterBetter</t>
+  </si>
+  <si>
+    <t>LP_VampireOnAttack</t>
+  </si>
+  <si>
+    <t>LP_VampireOnAttackBetter</t>
+  </si>
+  <si>
+    <t>LP_RecoverOnAttacked</t>
+  </si>
+  <si>
+    <t>LP_ReflectOnAttacked</t>
+  </si>
+  <si>
+    <t>LP_ReflectOnAttackedBetter</t>
+  </si>
+  <si>
+    <t>LP_AtkUpOnLowerHp</t>
+  </si>
+  <si>
+    <t>LP_AtkUpOnLowerHpBetter</t>
+  </si>
+  <si>
+    <t>LP_CritDmgUpOnLowerHp</t>
+  </si>
+  <si>
+    <t>LP_CritDmgUpOnLowerHpBetter</t>
+  </si>
+  <si>
+    <t>LP_InstantKill</t>
+  </si>
+  <si>
+    <t>LP_InstantKillBetter</t>
+  </si>
+  <si>
+    <t>LP_ImmortalWill</t>
+  </si>
+  <si>
+    <t>LP_ImmortalWillBetter</t>
+  </si>
+  <si>
+    <t>LP_MoveSpeedUpOnAttacked</t>
+  </si>
+  <si>
+    <t>LP_SlowHitObject</t>
+  </si>
+  <si>
+    <t>LP_Hold</t>
   </si>
 </sst>
 </file>
@@ -1351,12 +1342,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1405,15 +1396,15 @@
         <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
         <v>62</v>
-      </c>
-      <c r="B2" t="s">
-        <v>63</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -1422,13 +1413,13 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" t="s">
         <v>64</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="H2">
         <v>9</v>
@@ -1439,25 +1430,25 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>67</v>
       </c>
-      <c r="B3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>68</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>69</v>
-      </c>
-      <c r="G3" t="s">
-        <v>70</v>
       </c>
       <c r="H3">
         <v>9</v>
@@ -1466,30 +1457,30 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
         <v>72</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>73</v>
       </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>74</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>75</v>
-      </c>
-      <c r="G4" t="s">
-        <v>76</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -1503,10 +1494,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
         <v>77</v>
-      </c>
-      <c r="B5" t="s">
-        <v>78</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -1515,13 +1506,13 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" t="s">
         <v>79</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>80</v>
-      </c>
-      <c r="G5" t="s">
-        <v>81</v>
       </c>
       <c r="H5">
         <v>9</v>
@@ -1532,25 +1523,25 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
         <v>82</v>
       </c>
-      <c r="B6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>83</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>84</v>
-      </c>
-      <c r="G6" t="s">
-        <v>85</v>
       </c>
       <c r="H6">
         <v>9</v>
@@ -1564,25 +1555,25 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" t="s">
         <v>86</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
         <v>87</v>
       </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>88</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>89</v>
-      </c>
-      <c r="G7" t="s">
-        <v>90</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1593,10 +1584,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" t="s">
         <v>91</v>
-      </c>
-      <c r="B8" t="s">
-        <v>92</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -1605,13 +1596,13 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" t="s">
         <v>93</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>94</v>
-      </c>
-      <c r="G8" t="s">
-        <v>95</v>
       </c>
       <c r="H8">
         <v>6</v>
@@ -1622,25 +1613,25 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
         <v>96</v>
       </c>
-      <c r="B9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>97</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>98</v>
-      </c>
-      <c r="G9" t="s">
-        <v>99</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -1651,25 +1642,25 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" t="s">
         <v>100</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
         <v>101</v>
       </c>
-      <c r="C10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>102</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>103</v>
-      </c>
-      <c r="G10" t="s">
-        <v>104</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1680,10 +1671,10 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" t="s">
         <v>105</v>
-      </c>
-      <c r="B11" t="s">
-        <v>106</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -1692,16 +1683,16 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" t="s">
         <v>107</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>108</v>
       </c>
-      <c r="G11" t="s">
-        <v>109</v>
-      </c>
       <c r="H11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
@@ -1709,28 +1700,28 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
         <v>110</v>
       </c>
-      <c r="B12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>111</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>112</v>
       </c>
-      <c r="G12" t="s">
-        <v>113</v>
-      </c>
       <c r="H12">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
@@ -1738,28 +1729,28 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" t="s">
         <v>114</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
         <v>115</v>
       </c>
-      <c r="C13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>116</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>117</v>
       </c>
-      <c r="G13" t="s">
-        <v>118</v>
-      </c>
       <c r="H13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -1767,10 +1758,10 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" t="s">
         <v>119</v>
-      </c>
-      <c r="B14" t="s">
-        <v>120</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -1779,13 +1770,13 @@
         <v>7</v>
       </c>
       <c r="E14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" t="s">
         <v>121</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>122</v>
-      </c>
-      <c r="G14" t="s">
-        <v>123</v>
       </c>
       <c r="H14">
         <v>9</v>
@@ -1796,16 +1787,16 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" t="s">
         <v>124</v>
       </c>
-      <c r="B15" t="s">
-        <v>120</v>
-      </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
         <v>125</v>
@@ -1825,39 +1816,39 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
         <v>128</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
         <v>129</v>
-      </c>
-      <c r="C16" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>130</v>
-      </c>
-      <c r="F16" t="s">
-        <v>131</v>
-      </c>
-      <c r="G16" t="s">
-        <v>132</v>
-      </c>
-      <c r="H16">
-        <v>5</v>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>133</v>
-      </c>
-      <c r="B17" t="s">
-        <v>134</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -1866,27 +1857,27 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="G17" t="s">
-        <v>137</v>
+        <v>23</v>
       </c>
       <c r="H17">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -1895,114 +1886,114 @@
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="G18" t="s">
-        <v>142</v>
+        <v>27</v>
       </c>
       <c r="H18">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -2011,13 +2002,13 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2026,12 +2017,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -2040,13 +2031,13 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -2055,12 +2046,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
@@ -2069,13 +2060,13 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2084,12 +2075,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
@@ -2098,13 +2089,13 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G25" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2113,12 +2104,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
@@ -2127,13 +2118,13 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="F26" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="G26" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2141,31 +2132,28 @@
       <c r="I26" t="b">
         <v>0</v>
       </c>
-      <c r="J26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="B27" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="F27" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="G27" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -2173,16 +2161,13 @@
       <c r="I27" t="b">
         <v>0</v>
       </c>
-      <c r="J27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="B28" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
@@ -2191,13 +2176,13 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="F28" t="s">
-        <v>55</v>
+        <v>146</v>
       </c>
       <c r="G28" t="s">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -2205,54 +2190,51 @@
       <c r="I28" t="b">
         <v>0</v>
       </c>
-      <c r="J28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="B29" t="s">
         <v>153</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>58</v>
+        <v>233</v>
       </c>
       <c r="F29" t="s">
-        <v>59</v>
+        <v>154</v>
       </c>
       <c r="G29" t="s">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I29" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B30" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>156</v>
+        <v>234</v>
       </c>
       <c r="F30" t="s">
         <v>157</v>
@@ -2261,27 +2243,27 @@
         <v>158</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>159</v>
       </c>
       <c r="B31" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>160</v>
+        <v>235</v>
       </c>
       <c r="F31" t="s">
         <v>161</v>
@@ -2290,33 +2272,36 @@
         <v>162</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>163</v>
       </c>
       <c r="B32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>236</v>
+      </c>
+      <c r="F32" t="s">
         <v>164</v>
       </c>
-      <c r="C32" t="b">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>7</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>165</v>
       </c>
-      <c r="G32" t="s">
-        <v>166</v>
-      </c>
       <c r="H32">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I32" t="b">
         <v>0</v>
@@ -2324,16 +2309,19 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>166</v>
+      </c>
+      <c r="B33" t="s">
         <v>167</v>
       </c>
-      <c r="B33" t="s">
-        <v>164</v>
-      </c>
       <c r="C33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>237</v>
       </c>
       <c r="F33" t="s">
         <v>168</v>
@@ -2361,6 +2349,9 @@
       <c r="D34">
         <v>7</v>
       </c>
+      <c r="E34" t="s">
+        <v>238</v>
+      </c>
       <c r="F34" t="s">
         <v>172</v>
       </c>
@@ -2368,7 +2359,7 @@
         <v>173</v>
       </c>
       <c r="H34">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>
@@ -2387,6 +2378,9 @@
       <c r="D35">
         <v>1</v>
       </c>
+      <c r="E35" t="s">
+        <v>239</v>
+      </c>
       <c r="F35" t="s">
         <v>175</v>
       </c>
@@ -2394,7 +2388,7 @@
         <v>176</v>
       </c>
       <c r="H35">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I35" t="b">
         <v>0</v>
@@ -2413,6 +2407,9 @@
       <c r="D36">
         <v>7</v>
       </c>
+      <c r="E36" t="s">
+        <v>240</v>
+      </c>
       <c r="F36" t="s">
         <v>179</v>
       </c>
@@ -2420,7 +2417,7 @@
         <v>180</v>
       </c>
       <c r="H36">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
@@ -2439,6 +2436,9 @@
       <c r="D37">
         <v>1</v>
       </c>
+      <c r="E37" t="s">
+        <v>241</v>
+      </c>
       <c r="F37" t="s">
         <v>182</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>183</v>
       </c>
       <c r="H37">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I37" t="b">
         <v>0</v>
@@ -2465,6 +2465,9 @@
       <c r="D38">
         <v>7</v>
       </c>
+      <c r="E38" t="s">
+        <v>242</v>
+      </c>
       <c r="F38" t="s">
         <v>186</v>
       </c>
@@ -2472,7 +2475,7 @@
         <v>187</v>
       </c>
       <c r="H38">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I38" t="b">
         <v>0</v>
@@ -2491,6 +2494,9 @@
       <c r="D39">
         <v>1</v>
       </c>
+      <c r="E39" t="s">
+        <v>243</v>
+      </c>
       <c r="F39" t="s">
         <v>189</v>
       </c>
@@ -2498,7 +2504,7 @@
         <v>190</v>
       </c>
       <c r="H39">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I39" t="b">
         <v>0</v>
@@ -2517,6 +2523,9 @@
       <c r="D40">
         <v>7</v>
       </c>
+      <c r="E40" t="s">
+        <v>244</v>
+      </c>
       <c r="F40" t="s">
         <v>193</v>
       </c>
@@ -2543,6 +2552,9 @@
       <c r="D41">
         <v>1</v>
       </c>
+      <c r="E41" t="s">
+        <v>245</v>
+      </c>
       <c r="F41" t="s">
         <v>196</v>
       </c>
@@ -2550,7 +2562,7 @@
         <v>197</v>
       </c>
       <c r="H41">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I41" t="b">
         <v>0</v>
@@ -2569,6 +2581,9 @@
       <c r="D42">
         <v>7</v>
       </c>
+      <c r="E42" t="s">
+        <v>246</v>
+      </c>
       <c r="F42" t="s">
         <v>200</v>
       </c>
@@ -2595,6 +2610,9 @@
       <c r="D43">
         <v>1</v>
       </c>
+      <c r="E43" t="s">
+        <v>247</v>
+      </c>
       <c r="F43" t="s">
         <v>203</v>
       </c>
@@ -2602,7 +2620,7 @@
         <v>204</v>
       </c>
       <c r="H43">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I43" t="b">
         <v>0</v>
@@ -2610,10 +2628,10 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="B44" t="s">
-        <v>206</v>
+        <v>149</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
@@ -2622,10 +2640,10 @@
         <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="G44" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c r="H44">
         <v>9</v>
@@ -2636,25 +2654,28 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B45" t="s">
         <v>206</v>
       </c>
       <c r="C45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="E45" t="s">
+        <v>248</v>
       </c>
       <c r="F45" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G45" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H45">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I45" t="b">
         <v>0</v>
@@ -2662,10 +2683,10 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="B46" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
@@ -2674,10 +2695,10 @@
         <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="G46" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="H46">
         <v>9</v>
@@ -2688,25 +2709,28 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="B47" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="C47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="E47" t="s">
+        <v>249</v>
       </c>
       <c r="F47" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="G47" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="H47">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I47" t="b">
         <v>0</v>
@@ -2714,10 +2738,10 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B48" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
@@ -2726,10 +2750,10 @@
         <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="G48" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="H48">
         <v>9</v>
@@ -2740,25 +2764,28 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B49" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="E49" t="s">
+        <v>250</v>
       </c>
       <c r="F49" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="G49" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="H49">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I49" t="b">
         <v>0</v>
@@ -2766,10 +2793,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B50" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
@@ -2778,10 +2805,10 @@
         <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="G50" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="H50">
         <v>9</v>
@@ -2792,10 +2819,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B51" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
@@ -2804,145 +2831,15 @@
         <v>7</v>
       </c>
       <c r="F51" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="G51" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="H51">
         <v>9</v>
       </c>
       <c r="I51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>234</v>
-      </c>
-      <c r="B52" t="s">
-        <v>235</v>
-      </c>
-      <c r="C52" t="b">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>7</v>
-      </c>
-      <c r="F52" t="s">
-        <v>236</v>
-      </c>
-      <c r="G52" t="s">
-        <v>237</v>
-      </c>
-      <c r="H52">
-        <v>9</v>
-      </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>238</v>
-      </c>
-      <c r="B53" t="s">
-        <v>239</v>
-      </c>
-      <c r="C53" t="b">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>7</v>
-      </c>
-      <c r="F53" t="s">
-        <v>240</v>
-      </c>
-      <c r="G53" t="s">
-        <v>241</v>
-      </c>
-      <c r="H53">
-        <v>9</v>
-      </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>242</v>
-      </c>
-      <c r="B54" t="s">
-        <v>243</v>
-      </c>
-      <c r="C54" t="b">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>7</v>
-      </c>
-      <c r="F54" t="s">
-        <v>244</v>
-      </c>
-      <c r="G54" t="s">
-        <v>245</v>
-      </c>
-      <c r="H54">
-        <v>9</v>
-      </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>246</v>
-      </c>
-      <c r="B55" t="s">
-        <v>247</v>
-      </c>
-      <c r="C55" t="b">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>7</v>
-      </c>
-      <c r="F55" t="s">
-        <v>248</v>
-      </c>
-      <c r="G55" t="s">
-        <v>249</v>
-      </c>
-      <c r="H55">
-        <v>9</v>
-      </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>250</v>
-      </c>
-      <c r="B56" t="s">
-        <v>251</v>
-      </c>
-      <c r="C56" t="b">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>7</v>
-      </c>
-      <c r="F56" t="s">
-        <v>252</v>
-      </c>
-      <c r="G56" t="s">
-        <v>253</v>
-      </c>
-      <c r="H56">
-        <v>9</v>
-      </c>
-      <c r="I56" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4874E16E-02EC-4C68-A237-6D6C33364F1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352EF4B0-7182-4D9F-A386-1BD25CAE45F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -1345,9 +1345,9 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
         <v>63</v>
@@ -1503,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
         <v>78</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
         <v>92</v>
@@ -1680,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
         <v>106</v>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352EF4B0-7182-4D9F-A386-1BD25CAE45F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09B4512-A955-463F-A5B6-8C70EF7CF468}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="252">
   <si>
     <t>Actor001</t>
   </si>
@@ -786,6 +786,9 @@
   </si>
   <si>
     <t>LP_Hold</t>
+  </si>
+  <si>
+    <t>LP_Paralyze</t>
   </si>
 </sst>
 </file>
@@ -2749,6 +2752,9 @@
       <c r="D48">
         <v>7</v>
       </c>
+      <c r="E48" t="s">
+        <v>251</v>
+      </c>
       <c r="F48" t="s">
         <v>211</v>
       </c>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09B4512-A955-463F-A5B6-8C70EF7CF468}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B87A1FA-518E-45EB-866C-E7528F676E51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="263">
   <si>
     <t>Actor001</t>
   </si>
@@ -789,6 +789,39 @@
   </si>
   <si>
     <t>LP_Paralyze</t>
+  </si>
+  <si>
+    <t>LP_HealAreaOnEncounter</t>
+  </si>
+  <si>
+    <t>Aura_Light_D</t>
+  </si>
+  <si>
+    <t>P_AMFX03_Shockwave</t>
+  </si>
+  <si>
+    <t>LP_BombOrbOnMove</t>
+  </si>
+  <si>
+    <t>16_D, WavesExplosion_D</t>
+  </si>
+  <si>
+    <t>Effect27_D</t>
+  </si>
+  <si>
+    <t>LP_Transport</t>
+  </si>
+  <si>
+    <t>Effect6_Collision_D, Effect6_Collision_D2</t>
+  </si>
+  <si>
+    <t>LP_SummonShield</t>
+  </si>
+  <si>
+    <t>Magic_circle_11_D</t>
+  </si>
+  <si>
+    <t>Magic_shield_2_D</t>
   </si>
 </sst>
 </file>
@@ -1350,7 +1383,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1846,7 +1879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1875,7 +1908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1904,7 +1937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -1933,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1962,7 +1995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -1991,7 +2024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -2020,7 +2053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -2049,7 +2082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -2078,7 +2111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -2107,7 +2140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -2136,7 +2169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>139</v>
       </c>
@@ -2165,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>144</v>
       </c>
@@ -2194,7 +2227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>152</v>
       </c>
@@ -2222,8 +2255,11 @@
       <c r="I29" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K29" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>156</v>
       </c>
@@ -2251,8 +2287,11 @@
       <c r="I30" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K30" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>159</v>
       </c>
@@ -2281,7 +2320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>163</v>
       </c>
@@ -2310,7 +2349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>166</v>
       </c>
@@ -2339,7 +2378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>170</v>
       </c>
@@ -2368,7 +2407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>174</v>
       </c>
@@ -2397,7 +2436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>177</v>
       </c>
@@ -2426,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>181</v>
       </c>
@@ -2455,7 +2494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>184</v>
       </c>
@@ -2484,7 +2523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>188</v>
       </c>
@@ -2513,7 +2552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>191</v>
       </c>
@@ -2542,7 +2581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>195</v>
       </c>
@@ -2571,7 +2610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>198</v>
       </c>
@@ -2600,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>202</v>
       </c>
@@ -2629,7 +2668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>148</v>
       </c>
@@ -2642,6 +2681,9 @@
       <c r="D44">
         <v>7</v>
       </c>
+      <c r="E44" t="s">
+        <v>252</v>
+      </c>
       <c r="F44" t="s">
         <v>150</v>
       </c>
@@ -2654,8 +2696,11 @@
       <c r="I44" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K44" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>205</v>
       </c>
@@ -2683,8 +2728,11 @@
       <c r="I45" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K45" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>229</v>
       </c>
@@ -2697,6 +2745,9 @@
       <c r="D46">
         <v>7</v>
       </c>
+      <c r="E46" t="s">
+        <v>255</v>
+      </c>
       <c r="F46" t="s">
         <v>231</v>
       </c>
@@ -2709,8 +2760,11 @@
       <c r="I46" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K46" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>225</v>
       </c>
@@ -2739,7 +2793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>209</v>
       </c>
@@ -2768,7 +2822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>213</v>
       </c>
@@ -2796,8 +2850,11 @@
       <c r="I49" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K49" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>217</v>
       </c>
@@ -2810,6 +2867,9 @@
       <c r="D50">
         <v>7</v>
       </c>
+      <c r="E50" t="s">
+        <v>258</v>
+      </c>
       <c r="F50" t="s">
         <v>219</v>
       </c>
@@ -2822,8 +2882,11 @@
       <c r="I50" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K50" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>221</v>
       </c>
@@ -2836,6 +2899,9 @@
       <c r="D51">
         <v>7</v>
       </c>
+      <c r="E51" t="s">
+        <v>260</v>
+      </c>
       <c r="F51" t="s">
         <v>223</v>
       </c>
@@ -2847,6 +2913,9 @@
       </c>
       <c r="I51" t="b">
         <v>0</v>
+      </c>
+      <c r="K51" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B87A1FA-518E-45EB-866C-E7528F676E51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2D5E02-3567-4F17-8D48-23C3E41664C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="260">
   <si>
     <t>Actor001</t>
   </si>
@@ -791,18 +791,6 @@
     <t>LP_Paralyze</t>
   </si>
   <si>
-    <t>LP_HealAreaOnEncounter</t>
-  </si>
-  <si>
-    <t>Aura_Light_D</t>
-  </si>
-  <si>
-    <t>P_AMFX03_Shockwave</t>
-  </si>
-  <si>
-    <t>LP_BombOrbOnMove</t>
-  </si>
-  <si>
     <t>16_D, WavesExplosion_D</t>
   </si>
   <si>
@@ -815,13 +803,16 @@
     <t>Effect6_Collision_D, Effect6_Collision_D2</t>
   </si>
   <si>
-    <t>LP_SummonShield</t>
-  </si>
-  <si>
     <t>Magic_circle_11_D</t>
   </si>
   <si>
     <t>Magic_shield_2_D</t>
+  </si>
+  <si>
+    <t>HealAreaHitObjectInfo</t>
+  </si>
+  <si>
+    <t>P_AMFX03_shockwave</t>
   </si>
 </sst>
 </file>
@@ -1383,7 +1374,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2256,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -2288,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -2681,9 +2672,6 @@
       <c r="D44">
         <v>7</v>
       </c>
-      <c r="E44" t="s">
-        <v>252</v>
-      </c>
       <c r="F44" t="s">
         <v>150</v>
       </c>
@@ -2697,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -2729,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -2745,9 +2733,6 @@
       <c r="D46">
         <v>7</v>
       </c>
-      <c r="E46" t="s">
-        <v>255</v>
-      </c>
       <c r="F46" t="s">
         <v>231</v>
       </c>
@@ -2761,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -2851,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -2868,7 +2853,7 @@
         <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F50" t="s">
         <v>219</v>
@@ -2883,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -2899,9 +2884,6 @@
       <c r="D51">
         <v>7</v>
       </c>
-      <c r="E51" t="s">
-        <v>260</v>
-      </c>
       <c r="F51" t="s">
         <v>223</v>
       </c>
@@ -2915,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2D5E02-3567-4F17-8D48-23C3E41664C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3CD161-C32D-450E-BB33-56207A93135F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
@@ -791,9 +791,6 @@
     <t>LP_Paralyze</t>
   </si>
   <si>
-    <t>16_D, WavesExplosion_D</t>
-  </si>
-  <si>
     <t>Effect27_D</t>
   </si>
   <si>
@@ -813,6 +810,9 @@
   </si>
   <si>
     <t>P_AMFX03_shockwave</t>
+  </si>
+  <si>
+    <t>MineHitObjectInfo</t>
   </si>
 </sst>
 </file>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -2279,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -2685,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -2717,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -2853,7 +2853,7 @@
         <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F50" t="s">
         <v>219</v>
@@ -2868,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3CD161-C32D-450E-BB33-56207A93135F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B0FE36-DD70-4855-8D72-62F4D75B087D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="261">
   <si>
     <t>Actor001</t>
   </si>
@@ -813,6 +813,9 @@
   </si>
   <si>
     <t>MineHitObjectInfo</t>
+  </si>
+  <si>
+    <t>LP_HealAreaOnEncounter</t>
   </si>
 </sst>
 </file>
@@ -1372,9 +1375,9 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2672,6 +2675,9 @@
       <c r="D44">
         <v>7</v>
       </c>
+      <c r="E44" t="s">
+        <v>260</v>
+      </c>
       <c r="F44" t="s">
         <v>150</v>
       </c>
@@ -2679,7 +2685,7 @@
         <v>151</v>
       </c>
       <c r="H44">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I44" t="b">
         <v>0</v>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B0FE36-DD70-4855-8D72-62F4D75B087D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C845F5D5-5C33-4CAF-913A-89CF3757E6A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="262">
   <si>
     <t>Actor001</t>
   </si>
@@ -722,18 +722,9 @@
     <t>LevelPackUIDesc_SlowHitObject</t>
   </si>
   <si>
-    <t>BombOrbOnMove</t>
-  </si>
-  <si>
     <t>FlatIcon_97_NoBG_Gray</t>
   </si>
   <si>
-    <t>LevelPackUIName_BombOrbOnMove</t>
-  </si>
-  <si>
-    <t>LevelPackUIDesc_BombOrbOnMove</t>
-  </si>
-  <si>
     <t>LP_AtkSpeedUpOnEncounter</t>
   </si>
   <si>
@@ -816,6 +807,18 @@
   </si>
   <si>
     <t>LP_HealAreaOnEncounter</t>
+  </si>
+  <si>
+    <t>MineOnMove</t>
+  </si>
+  <si>
+    <t>LP_MineOnMove</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_MineOnMove</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_MineOnMove</t>
   </si>
 </sst>
 </file>
@@ -1375,9 +1378,9 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2235,7 +2238,7 @@
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F29" t="s">
         <v>154</v>
@@ -2250,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -2267,7 +2270,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F30" t="s">
         <v>157</v>
@@ -2282,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -2299,7 +2302,7 @@
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F31" t="s">
         <v>161</v>
@@ -2328,7 +2331,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F32" t="s">
         <v>164</v>
@@ -2357,7 +2360,7 @@
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F33" t="s">
         <v>168</v>
@@ -2386,7 +2389,7 @@
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F34" t="s">
         <v>172</v>
@@ -2415,7 +2418,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F35" t="s">
         <v>175</v>
@@ -2444,7 +2447,7 @@
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F36" t="s">
         <v>179</v>
@@ -2473,7 +2476,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F37" t="s">
         <v>182</v>
@@ -2502,7 +2505,7 @@
         <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F38" t="s">
         <v>186</v>
@@ -2531,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F39" t="s">
         <v>189</v>
@@ -2560,7 +2563,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F40" t="s">
         <v>193</v>
@@ -2589,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F41" t="s">
         <v>196</v>
@@ -2618,7 +2621,7 @@
         <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F42" t="s">
         <v>200</v>
@@ -2647,7 +2650,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F43" t="s">
         <v>203</v>
@@ -2676,7 +2679,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F44" t="s">
         <v>150</v>
@@ -2691,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -2708,7 +2711,7 @@
         <v>7</v>
       </c>
       <c r="E45" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F45" t="s">
         <v>207</v>
@@ -2723,15 +2726,15 @@
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>258</v>
+      </c>
+      <c r="B46" t="s">
         <v>229</v>
-      </c>
-      <c r="B46" t="s">
-        <v>230</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
@@ -2739,20 +2742,23 @@
       <c r="D46">
         <v>7</v>
       </c>
+      <c r="E46" t="s">
+        <v>259</v>
+      </c>
       <c r="F46" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="G46" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="H46">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I46" t="b">
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -2769,7 +2775,7 @@
         <v>7</v>
       </c>
       <c r="E47" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F47" t="s">
         <v>227</v>
@@ -2798,7 +2804,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F48" t="s">
         <v>211</v>
@@ -2827,7 +2833,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F49" t="s">
         <v>215</v>
@@ -2842,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -2859,7 +2865,7 @@
         <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F50" t="s">
         <v>219</v>
@@ -2874,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -2903,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C845F5D5-5C33-4CAF-913A-89CF3757E6A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69615731-22B1-4B44-890E-E7DCFF51A050}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="263">
   <si>
     <t>Actor001</t>
   </si>
@@ -807,6 +807,9 @@
   </si>
   <si>
     <t>LP_HealAreaOnEncounter</t>
+  </si>
+  <si>
+    <t>LP_SummonShield</t>
   </si>
   <si>
     <t>MineOnMove</t>
@@ -2731,7 +2734,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B46" t="s">
         <v>229</v>
@@ -2743,13 +2746,13 @@
         <v>7</v>
       </c>
       <c r="E46" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F46" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G46" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H46">
         <v>6</v>
@@ -2813,7 +2816,7 @@
         <v>212</v>
       </c>
       <c r="H48">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I48" t="b">
         <v>0</v>
@@ -2874,7 +2877,7 @@
         <v>220</v>
       </c>
       <c r="H50">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I50" t="b">
         <v>0</v>
@@ -2896,6 +2899,9 @@
       <c r="D51">
         <v>7</v>
       </c>
+      <c r="E51" t="s">
+        <v>258</v>
+      </c>
       <c r="F51" t="s">
         <v>223</v>
       </c>
@@ -2903,7 +2909,7 @@
         <v>224</v>
       </c>
       <c r="H51">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I51" t="b">
         <v>0</v>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69615731-22B1-4B44-890E-E7DCFF51A050}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB8A563-2626-4B35-9FCA-EED6BB183ADC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>levelPackId|String</t>
   </si>
   <si>
-    <t>icon|String</t>
-  </si>
-  <si>
     <t>affectorValueId|String!</t>
   </si>
   <si>
@@ -822,6 +819,9 @@
   </si>
   <si>
     <t>LevelPackUIDesc_MineOnMove</t>
+  </si>
+  <si>
+    <t>iconAddress|String</t>
   </si>
 </sst>
 </file>
@@ -1196,13 +1196,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1405,42 +1405,42 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
       <c r="K1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
         <v>61</v>
-      </c>
-      <c r="B2" t="s">
-        <v>62</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -1449,13 +1449,13 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
         <v>63</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="H2">
         <v>9</v>
@@ -1466,25 +1466,25 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>66</v>
       </c>
-      <c r="B3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>67</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>68</v>
-      </c>
-      <c r="G3" t="s">
-        <v>69</v>
       </c>
       <c r="H3">
         <v>9</v>
@@ -1493,30 +1493,30 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
         <v>71</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>72</v>
       </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>73</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>74</v>
-      </c>
-      <c r="G4" t="s">
-        <v>75</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -1530,10 +1530,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
         <v>76</v>
-      </c>
-      <c r="B5" t="s">
-        <v>77</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" t="s">
         <v>78</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>79</v>
-      </c>
-      <c r="G5" t="s">
-        <v>80</v>
       </c>
       <c r="H5">
         <v>9</v>
@@ -1559,25 +1559,25 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
         <v>81</v>
       </c>
-      <c r="B6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>82</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>83</v>
-      </c>
-      <c r="G6" t="s">
-        <v>84</v>
       </c>
       <c r="H6">
         <v>9</v>
@@ -1586,30 +1586,30 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s">
         <v>85</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
         <v>86</v>
       </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>87</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>88</v>
-      </c>
-      <c r="G7" t="s">
-        <v>89</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1620,10 +1620,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" t="s">
         <v>90</v>
-      </c>
-      <c r="B8" t="s">
-        <v>91</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -1632,13 +1632,13 @@
         <v>14</v>
       </c>
       <c r="E8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" t="s">
         <v>92</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>93</v>
-      </c>
-      <c r="G8" t="s">
-        <v>94</v>
       </c>
       <c r="H8">
         <v>6</v>
@@ -1649,25 +1649,25 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
         <v>95</v>
       </c>
-      <c r="B9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>96</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>97</v>
-      </c>
-      <c r="G9" t="s">
-        <v>98</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -1678,25 +1678,25 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" t="s">
         <v>99</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
         <v>100</v>
       </c>
-      <c r="C10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>101</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>102</v>
-      </c>
-      <c r="G10" t="s">
-        <v>103</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1707,10 +1707,10 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" t="s">
         <v>104</v>
-      </c>
-      <c r="B11" t="s">
-        <v>105</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -1719,13 +1719,13 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" t="s">
         <v>106</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>107</v>
-      </c>
-      <c r="G11" t="s">
-        <v>108</v>
       </c>
       <c r="H11">
         <v>9</v>
@@ -1736,25 +1736,25 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
         <v>109</v>
       </c>
-      <c r="B12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>110</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>111</v>
-      </c>
-      <c r="G12" t="s">
-        <v>112</v>
       </c>
       <c r="H12">
         <v>9</v>
@@ -1765,25 +1765,25 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" t="s">
         <v>113</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
         <v>114</v>
       </c>
-      <c r="C13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>115</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>116</v>
-      </c>
-      <c r="G13" t="s">
-        <v>117</v>
       </c>
       <c r="H13">
         <v>5</v>
@@ -1794,10 +1794,10 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" t="s">
         <v>118</v>
-      </c>
-      <c r="B14" t="s">
-        <v>119</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -1806,13 +1806,13 @@
         <v>7</v>
       </c>
       <c r="E14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" t="s">
         <v>120</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>121</v>
-      </c>
-      <c r="G14" t="s">
-        <v>122</v>
       </c>
       <c r="H14">
         <v>9</v>
@@ -1823,10 +1823,10 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" t="s">
         <v>123</v>
-      </c>
-      <c r="B15" t="s">
-        <v>124</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -1835,13 +1835,13 @@
         <v>7</v>
       </c>
       <c r="E15" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" t="s">
         <v>125</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>126</v>
-      </c>
-      <c r="G15" t="s">
-        <v>127</v>
       </c>
       <c r="H15">
         <v>9</v>
@@ -1852,10 +1852,10 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -1864,13 +1864,13 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
         <v>17</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>19</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1881,10 +1881,10 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -1893,13 +1893,13 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
         <v>21</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>22</v>
-      </c>
-      <c r="G17" t="s">
-        <v>23</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1910,10 +1910,10 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -1922,13 +1922,13 @@
         <v>7</v>
       </c>
       <c r="E18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" t="s">
         <v>25</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>26</v>
-      </c>
-      <c r="G18" t="s">
-        <v>27</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1939,25 +1939,25 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
         <v>28</v>
       </c>
-      <c r="B19" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" t="b">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>29</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>30</v>
-      </c>
-      <c r="G19" t="s">
-        <v>31</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -1968,25 +1968,25 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
         <v>32</v>
       </c>
-      <c r="B20" t="s">
-        <v>132</v>
-      </c>
-      <c r="C20" t="b">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>33</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>34</v>
-      </c>
-      <c r="G20" t="s">
-        <v>35</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -1997,25 +1997,25 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
         <v>36</v>
       </c>
-      <c r="B21" t="s">
-        <v>133</v>
-      </c>
-      <c r="C21" t="b">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>37</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>38</v>
-      </c>
-      <c r="G21" t="s">
-        <v>39</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2026,25 +2026,25 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
         <v>40</v>
       </c>
-      <c r="B22" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" t="b">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>41</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>42</v>
-      </c>
-      <c r="G22" t="s">
-        <v>43</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2055,25 +2055,25 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
         <v>44</v>
       </c>
-      <c r="B23" t="s">
-        <v>135</v>
-      </c>
-      <c r="C23" t="b">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>45</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>46</v>
-      </c>
-      <c r="G23" t="s">
-        <v>47</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -2084,25 +2084,25 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
         <v>48</v>
       </c>
-      <c r="B24" t="s">
-        <v>136</v>
-      </c>
-      <c r="C24" t="b">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>49</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>50</v>
-      </c>
-      <c r="G24" t="s">
-        <v>51</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2113,25 +2113,25 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
         <v>52</v>
       </c>
-      <c r="B25" t="s">
-        <v>137</v>
-      </c>
-      <c r="C25" t="b">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>53</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>54</v>
-      </c>
-      <c r="G25" t="s">
-        <v>55</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2142,25 +2142,25 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
         <v>56</v>
       </c>
-      <c r="B26" t="s">
-        <v>138</v>
-      </c>
-      <c r="C26" t="b">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>57</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>58</v>
-      </c>
-      <c r="G26" t="s">
-        <v>59</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2171,10 +2171,10 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" t="s">
         <v>139</v>
-      </c>
-      <c r="B27" t="s">
-        <v>140</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -2183,13 +2183,13 @@
         <v>7</v>
       </c>
       <c r="E27" t="s">
+        <v>140</v>
+      </c>
+      <c r="F27" t="s">
         <v>141</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>142</v>
-      </c>
-      <c r="G27" t="s">
-        <v>143</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -2200,25 +2200,25 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
         <v>144</v>
       </c>
-      <c r="B28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C28" t="b">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>145</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>146</v>
-      </c>
-      <c r="G28" t="s">
-        <v>147</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -2229,10 +2229,10 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" t="s">
         <v>152</v>
-      </c>
-      <c r="B29" t="s">
-        <v>153</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -2241,13 +2241,13 @@
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F29" t="s">
+        <v>153</v>
+      </c>
+      <c r="G29" t="s">
         <v>154</v>
-      </c>
-      <c r="G29" t="s">
-        <v>155</v>
       </c>
       <c r="H29">
         <v>9</v>
@@ -2256,30 +2256,30 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>230</v>
+      </c>
+      <c r="F30" t="s">
         <v>156</v>
       </c>
-      <c r="B30" t="s">
-        <v>153</v>
-      </c>
-      <c r="C30" t="b">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
-        <v>231</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>157</v>
-      </c>
-      <c r="G30" t="s">
-        <v>158</v>
       </c>
       <c r="H30">
         <v>5</v>
@@ -2288,15 +2288,15 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>158</v>
+      </c>
+      <c r="B31" t="s">
         <v>159</v>
-      </c>
-      <c r="B31" t="s">
-        <v>160</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
@@ -2305,13 +2305,13 @@
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F31" t="s">
+        <v>160</v>
+      </c>
+      <c r="G31" t="s">
         <v>161</v>
-      </c>
-      <c r="G31" t="s">
-        <v>162</v>
       </c>
       <c r="H31">
         <v>5</v>
@@ -2322,25 +2322,25 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>162</v>
+      </c>
+      <c r="B32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>232</v>
+      </c>
+      <c r="F32" t="s">
         <v>163</v>
       </c>
-      <c r="B32" t="s">
-        <v>160</v>
-      </c>
-      <c r="C32" t="b">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" t="s">
-        <v>233</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>164</v>
-      </c>
-      <c r="G32" t="s">
-        <v>165</v>
       </c>
       <c r="H32">
         <v>5</v>
@@ -2351,10 +2351,10 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>165</v>
+      </c>
+      <c r="B33" t="s">
         <v>166</v>
-      </c>
-      <c r="B33" t="s">
-        <v>167</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
@@ -2363,13 +2363,13 @@
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F33" t="s">
+        <v>167</v>
+      </c>
+      <c r="G33" t="s">
         <v>168</v>
-      </c>
-      <c r="G33" t="s">
-        <v>169</v>
       </c>
       <c r="H33">
         <v>9</v>
@@ -2380,10 +2380,10 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34" t="s">
         <v>170</v>
-      </c>
-      <c r="B34" t="s">
-        <v>171</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
@@ -2392,13 +2392,13 @@
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F34" t="s">
+        <v>171</v>
+      </c>
+      <c r="G34" t="s">
         <v>172</v>
-      </c>
-      <c r="G34" t="s">
-        <v>173</v>
       </c>
       <c r="H34">
         <v>5</v>
@@ -2409,25 +2409,25 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>173</v>
+      </c>
+      <c r="B35" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>235</v>
+      </c>
+      <c r="F35" t="s">
         <v>174</v>
       </c>
-      <c r="B35" t="s">
-        <v>171</v>
-      </c>
-      <c r="C35" t="b">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
-        <v>236</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>175</v>
-      </c>
-      <c r="G35" t="s">
-        <v>176</v>
       </c>
       <c r="H35">
         <v>5</v>
@@ -2438,10 +2438,10 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>176</v>
+      </c>
+      <c r="B36" t="s">
         <v>177</v>
-      </c>
-      <c r="B36" t="s">
-        <v>178</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
@@ -2450,13 +2450,13 @@
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F36" t="s">
+        <v>178</v>
+      </c>
+      <c r="G36" t="s">
         <v>179</v>
-      </c>
-      <c r="G36" t="s">
-        <v>180</v>
       </c>
       <c r="H36">
         <v>5</v>
@@ -2467,25 +2467,25 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37" t="s">
+        <v>177</v>
+      </c>
+      <c r="C37" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>237</v>
+      </c>
+      <c r="F37" t="s">
         <v>181</v>
       </c>
-      <c r="B37" t="s">
-        <v>178</v>
-      </c>
-      <c r="C37" t="b">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>238</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>182</v>
-      </c>
-      <c r="G37" t="s">
-        <v>183</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -2496,10 +2496,10 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>183</v>
+      </c>
+      <c r="B38" t="s">
         <v>184</v>
-      </c>
-      <c r="B38" t="s">
-        <v>185</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
@@ -2508,13 +2508,13 @@
         <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F38" t="s">
+        <v>185</v>
+      </c>
+      <c r="G38" t="s">
         <v>186</v>
-      </c>
-      <c r="G38" t="s">
-        <v>187</v>
       </c>
       <c r="H38">
         <v>3</v>
@@ -2525,25 +2525,25 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>187</v>
+      </c>
+      <c r="B39" t="s">
+        <v>184</v>
+      </c>
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>239</v>
+      </c>
+      <c r="F39" t="s">
         <v>188</v>
       </c>
-      <c r="B39" t="s">
-        <v>185</v>
-      </c>
-      <c r="C39" t="b">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39" t="s">
-        <v>240</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>189</v>
-      </c>
-      <c r="G39" t="s">
-        <v>190</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -2554,10 +2554,10 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>190</v>
+      </c>
+      <c r="B40" t="s">
         <v>191</v>
-      </c>
-      <c r="B40" t="s">
-        <v>192</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
@@ -2566,13 +2566,13 @@
         <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F40" t="s">
+        <v>192</v>
+      </c>
+      <c r="G40" t="s">
         <v>193</v>
-      </c>
-      <c r="G40" t="s">
-        <v>194</v>
       </c>
       <c r="H40">
         <v>9</v>
@@ -2583,25 +2583,25 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>194</v>
+      </c>
+      <c r="B41" t="s">
+        <v>191</v>
+      </c>
+      <c r="C41" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>241</v>
+      </c>
+      <c r="F41" t="s">
         <v>195</v>
       </c>
-      <c r="B41" t="s">
-        <v>192</v>
-      </c>
-      <c r="C41" t="b">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41" t="s">
-        <v>242</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>196</v>
-      </c>
-      <c r="G41" t="s">
-        <v>197</v>
       </c>
       <c r="H41">
         <v>5</v>
@@ -2612,10 +2612,10 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>197</v>
+      </c>
+      <c r="B42" t="s">
         <v>198</v>
-      </c>
-      <c r="B42" t="s">
-        <v>199</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
@@ -2624,13 +2624,13 @@
         <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F42" t="s">
+        <v>199</v>
+      </c>
+      <c r="G42" t="s">
         <v>200</v>
-      </c>
-      <c r="G42" t="s">
-        <v>201</v>
       </c>
       <c r="H42">
         <v>9</v>
@@ -2641,25 +2641,25 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>201</v>
+      </c>
+      <c r="B43" t="s">
+        <v>198</v>
+      </c>
+      <c r="C43" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F43" t="s">
         <v>202</v>
       </c>
-      <c r="B43" t="s">
-        <v>199</v>
-      </c>
-      <c r="C43" t="b">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43" t="s">
-        <v>244</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>203</v>
-      </c>
-      <c r="G43" t="s">
-        <v>204</v>
       </c>
       <c r="H43">
         <v>5</v>
@@ -2670,10 +2670,10 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>147</v>
+      </c>
+      <c r="B44" t="s">
         <v>148</v>
-      </c>
-      <c r="B44" t="s">
-        <v>149</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
@@ -2682,13 +2682,13 @@
         <v>7</v>
       </c>
       <c r="E44" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F44" t="s">
+        <v>149</v>
+      </c>
+      <c r="G44" t="s">
         <v>150</v>
-      </c>
-      <c r="G44" t="s">
-        <v>151</v>
       </c>
       <c r="H44">
         <v>6</v>
@@ -2697,15 +2697,15 @@
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>204</v>
+      </c>
+      <c r="B45" t="s">
         <v>205</v>
-      </c>
-      <c r="B45" t="s">
-        <v>206</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
@@ -2714,13 +2714,13 @@
         <v>7</v>
       </c>
       <c r="E45" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F45" t="s">
+        <v>206</v>
+      </c>
+      <c r="G45" t="s">
         <v>207</v>
-      </c>
-      <c r="G45" t="s">
-        <v>208</v>
       </c>
       <c r="H45">
         <v>6</v>
@@ -2729,15 +2729,15 @@
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B46" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
@@ -2746,13 +2746,13 @@
         <v>7</v>
       </c>
       <c r="E46" t="s">
+        <v>259</v>
+      </c>
+      <c r="F46" t="s">
         <v>260</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>261</v>
-      </c>
-      <c r="G46" t="s">
-        <v>262</v>
       </c>
       <c r="H46">
         <v>6</v>
@@ -2761,15 +2761,15 @@
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>224</v>
+      </c>
+      <c r="B47" t="s">
         <v>225</v>
-      </c>
-      <c r="B47" t="s">
-        <v>226</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
@@ -2778,13 +2778,13 @@
         <v>7</v>
       </c>
       <c r="E47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F47" t="s">
+        <v>226</v>
+      </c>
+      <c r="G47" t="s">
         <v>227</v>
-      </c>
-      <c r="G47" t="s">
-        <v>228</v>
       </c>
       <c r="H47">
         <v>5</v>
@@ -2795,10 +2795,10 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>208</v>
+      </c>
+      <c r="B48" t="s">
         <v>209</v>
-      </c>
-      <c r="B48" t="s">
-        <v>210</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
@@ -2807,16 +2807,16 @@
         <v>7</v>
       </c>
       <c r="E48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F48" t="s">
+        <v>210</v>
+      </c>
+      <c r="G48" t="s">
         <v>211</v>
       </c>
-      <c r="G48" t="s">
-        <v>212</v>
-      </c>
       <c r="H48">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I48" t="b">
         <v>0</v>
@@ -2824,10 +2824,10 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>212</v>
+      </c>
+      <c r="B49" t="s">
         <v>213</v>
-      </c>
-      <c r="B49" t="s">
-        <v>214</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
@@ -2836,13 +2836,13 @@
         <v>7</v>
       </c>
       <c r="E49" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F49" t="s">
+        <v>214</v>
+      </c>
+      <c r="G49" t="s">
         <v>215</v>
-      </c>
-      <c r="G49" t="s">
-        <v>216</v>
       </c>
       <c r="H49">
         <v>5</v>
@@ -2851,15 +2851,15 @@
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>216</v>
+      </c>
+      <c r="B50" t="s">
         <v>217</v>
-      </c>
-      <c r="B50" t="s">
-        <v>218</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
@@ -2868,30 +2868,30 @@
         <v>7</v>
       </c>
       <c r="E50" t="s">
+        <v>249</v>
+      </c>
+      <c r="F50" t="s">
+        <v>218</v>
+      </c>
+      <c r="G50" t="s">
+        <v>219</v>
+      </c>
+      <c r="H50">
+        <v>9</v>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" t="s">
         <v>250</v>
-      </c>
-      <c r="F50" t="s">
-        <v>219</v>
-      </c>
-      <c r="G50" t="s">
-        <v>220</v>
-      </c>
-      <c r="H50">
-        <v>5</v>
-      </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="K50" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>220</v>
+      </c>
+      <c r="B51" t="s">
         <v>221</v>
-      </c>
-      <c r="B51" t="s">
-        <v>222</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
@@ -2900,22 +2900,22 @@
         <v>7</v>
       </c>
       <c r="E51" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F51" t="s">
+        <v>222</v>
+      </c>
+      <c r="G51" t="s">
         <v>223</v>
       </c>
-      <c r="G51" t="s">
-        <v>224</v>
-      </c>
       <c r="H51">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I51" t="b">
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -2942,13 +2942,13 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB8A563-2626-4B35-9FCA-EED6BB183ADC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF278034-41D4-4314-905E-6DD215600D8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -1188,9 +1188,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7688E9-6191-474A-BC61-D0CBD7110CAB}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1221,10 +1221,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1232,10 +1232,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="C4">
-        <v>48</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1243,10 +1243,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="C5">
-        <v>72</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1254,10 +1254,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>24</v>
+        <v>180</v>
       </c>
       <c r="C6">
-        <v>96</v>
+        <v>480</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1265,10 +1265,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>24</v>
+        <v>220</v>
       </c>
       <c r="C7">
-        <v>120</v>
+        <v>700</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1276,10 +1276,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>24</v>
+        <v>260</v>
       </c>
       <c r="C8">
-        <v>144</v>
+        <v>960</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1287,10 +1287,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>24</v>
+        <v>300</v>
       </c>
       <c r="C9">
-        <v>168</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1298,10 +1298,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>24</v>
+        <v>340</v>
       </c>
       <c r="C10">
-        <v>192</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1309,10 +1309,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>24</v>
+        <v>380</v>
       </c>
       <c r="C11">
-        <v>216</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1320,10 +1320,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>24</v>
+        <v>420</v>
       </c>
       <c r="C12">
-        <v>240</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1331,10 +1331,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>24</v>
+        <v>460</v>
       </c>
       <c r="C13">
-        <v>264</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1342,10 +1342,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>24</v>
+        <v>500</v>
       </c>
       <c r="C14">
-        <v>288</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1353,10 +1353,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>24</v>
+        <v>540</v>
       </c>
       <c r="C15">
-        <v>312</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1364,10 +1364,21 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>24</v>
+        <v>580</v>
       </c>
       <c r="C16">
-        <v>336</v>
+        <v>4480</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>620</v>
+      </c>
+      <c r="C17">
+        <v>5100</v>
       </c>
     </row>
   </sheetData>
@@ -1380,7 +1391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF278034-41D4-4314-905E-6DD215600D8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF197CF-36E6-4F66-888F-68E4F5CA6ECA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
@@ -1188,7 +1188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7688E9-6191-474A-BC61-D0CBD7110CAB}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1221,10 +1221,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1232,10 +1232,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="C4">
-        <v>160</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1243,10 +1243,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="C5">
-        <v>300</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1254,10 +1254,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>180</v>
+        <v>37</v>
       </c>
       <c r="C6">
-        <v>480</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1265,10 +1265,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>220</v>
+        <v>52</v>
       </c>
       <c r="C7">
-        <v>700</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1276,10 +1276,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>260</v>
+        <v>98</v>
       </c>
       <c r="C8">
-        <v>960</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1287,10 +1287,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>300</v>
+        <v>133</v>
       </c>
       <c r="C9">
-        <v>1260</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1298,10 +1298,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>340</v>
+        <v>172</v>
       </c>
       <c r="C10">
-        <v>1600</v>
+        <v>573</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1309,10 +1309,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>380</v>
+        <v>194</v>
       </c>
       <c r="C11">
-        <v>1980</v>
+        <v>767</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1320,10 +1320,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>420</v>
+        <v>254</v>
       </c>
       <c r="C12">
-        <v>2400</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1331,10 +1331,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>460</v>
+        <v>308</v>
       </c>
       <c r="C13">
-        <v>2860</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1342,10 +1342,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>500</v>
+        <v>386</v>
       </c>
       <c r="C14">
-        <v>3360</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1353,10 +1353,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>540</v>
+        <v>502</v>
       </c>
       <c r="C15">
-        <v>3900</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1364,21 +1364,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>580</v>
+        <v>748</v>
       </c>
       <c r="C16">
-        <v>4480</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>620</v>
-      </c>
-      <c r="C17">
-        <v>5100</v>
+        <v>2965</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF197CF-36E6-4F66-888F-68E4F5CA6ECA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C254870A-7587-4113-9F05-83E6F867EC7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -1190,7 +1190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7688E9-6191-474A-BC61-D0CBD7110CAB}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1380,7 +1380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1931,7 +1931,7 @@
         <v>26</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C254870A-7587-4113-9F05-83E6F867EC7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151FA2FF-33F0-4942-8EB2-0DA0FD92A978}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -1188,9 +1188,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7688E9-6191-474A-BC61-D0CBD7110CAB}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1298,10 +1298,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="C10">
-        <v>573</v>
+        <v>553</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1309,10 +1309,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C11">
-        <v>767</v>
+        <v>742</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1320,10 +1320,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="C12">
-        <v>1021</v>
+        <v>963</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1331,10 +1331,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>308</v>
+        <v>253</v>
       </c>
       <c r="C13">
-        <v>1329</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1342,10 +1342,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>386</v>
+        <v>304</v>
       </c>
       <c r="C14">
-        <v>1715</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1353,10 +1353,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>502</v>
+        <v>367</v>
       </c>
       <c r="C15">
-        <v>2217</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1364,9 +1364,20 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>748</v>
+        <v>425</v>
       </c>
       <c r="C16">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>653</v>
+      </c>
+      <c r="C17">
         <v>2965</v>
       </c>
     </row>
@@ -1380,7 +1391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151FA2FF-33F0-4942-8EB2-0DA0FD92A978}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CC144C-8EFC-4C08-8F35-C1FE27D0B7B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -1190,7 +1190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7688E9-6191-474A-BC61-D0CBD7110CAB}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1391,7 +1391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2203,7 +2203,7 @@
         <v>142</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I27" t="b">
         <v>0</v>
@@ -2232,7 +2232,7 @@
         <v>146</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I28" t="b">
         <v>0</v>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CC144C-8EFC-4C08-8F35-C1FE27D0B7B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A1050E-CA10-4486-B7EB-ADA8B4CFD302}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
@@ -785,9 +785,6 @@
     <t>LP_Transport</t>
   </si>
   <si>
-    <t>Effect6_Collision_D, Effect6_Collision_D2</t>
-  </si>
-  <si>
     <t>Magic_circle_11_D</t>
   </si>
   <si>
@@ -822,6 +819,9 @@
   </si>
   <si>
     <t>iconAddress|String</t>
+  </si>
+  <si>
+    <t>Effect6_Collision_D, Effect6_Collision_D2, MagicSphere_12_D</t>
   </si>
 </sst>
 </file>
@@ -1416,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
@@ -2267,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -2693,7 +2693,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F44" t="s">
         <v>149</v>
@@ -2708,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -2740,12 +2740,12 @@
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B46" t="s">
         <v>228</v>
@@ -2757,13 +2757,13 @@
         <v>7</v>
       </c>
       <c r="E46" t="s">
+        <v>258</v>
+      </c>
+      <c r="F46" t="s">
         <v>259</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>260</v>
-      </c>
-      <c r="G46" t="s">
-        <v>261</v>
       </c>
       <c r="H46">
         <v>6</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -2911,7 +2911,7 @@
         <v>7</v>
       </c>
       <c r="E51" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F51" t="s">
         <v>222</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A1050E-CA10-4486-B7EB-ADA8B4CFD302}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FB1FA0-6D73-4FEF-9638-DAB1DC020CA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -1190,7 +1190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7688E9-6191-474A-BC61-D0CBD7110CAB}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1243,10 +1243,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C5">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1254,10 +1254,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C6">
-        <v>118</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1265,10 +1265,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="C7">
-        <v>170</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1276,10 +1276,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>98</v>
+        <v>169</v>
       </c>
       <c r="C8">
-        <v>268</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1287,10 +1287,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="C9">
-        <v>401</v>
+        <v>582</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1298,10 +1298,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c r="C10">
-        <v>553</v>
+        <v>780</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1309,10 +1309,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>189</v>
+        <v>275</v>
       </c>
       <c r="C11">
-        <v>742</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1320,10 +1320,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>221</v>
+        <v>287</v>
       </c>
       <c r="C12">
-        <v>963</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1331,10 +1331,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>253</v>
+        <v>298</v>
       </c>
       <c r="C13">
-        <v>1216</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1342,10 +1342,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>304</v>
+        <v>351</v>
       </c>
       <c r="C14">
-        <v>1520</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1353,10 +1353,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C15">
-        <v>1887</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1364,10 +1364,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="C16">
-        <v>2312</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1375,10 +1375,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>653</v>
+        <v>871</v>
       </c>
       <c r="C17">
-        <v>2965</v>
+        <v>3633</v>
       </c>
     </row>
   </sheetData>
@@ -1391,8 +1391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FB1FA0-6D73-4FEF-9638-DAB1DC020CA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B69866-FB0D-4EF7-B089-07AFF105A2AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -1276,10 +1276,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C8">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1287,10 +1287,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="C9">
-        <v>582</v>
+        <v>594</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1301,7 +1301,7 @@
         <v>198</v>
       </c>
       <c r="C10">
-        <v>780</v>
+        <v>792</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1309,7 +1309,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C11">
         <v>1055</v>
@@ -1342,10 +1342,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="C14">
-        <v>1991</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1353,10 +1353,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="C15">
-        <v>2363</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1367,7 +1367,7 @@
         <v>399</v>
       </c>
       <c r="C16">
-        <v>2762</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1378,7 +1378,7 @@
         <v>871</v>
       </c>
       <c r="C17">
-        <v>3633</v>
+        <v>3663</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B69866-FB0D-4EF7-B089-07AFF105A2AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084BF9A8-AC5D-4240-93BA-C6863A7A2F7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="264">
   <si>
     <t>Actor001</t>
   </si>
@@ -822,6 +822,9 @@
   </si>
   <si>
     <t>Effect6_Collision_D, Effect6_Collision_D2, MagicSphere_12_D</t>
+  </si>
+  <si>
+    <t>MonsterThroughForGanfaul</t>
   </si>
 </sst>
 </file>
@@ -1190,7 +1193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7688E9-6191-474A-BC61-D0CBD7110CAB}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1389,10 +1392,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -1979,10 +1982,10 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>263</v>
       </c>
       <c r="B20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
@@ -1991,13 +1994,13 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2005,13 +2008,16 @@
       <c r="I20" t="b">
         <v>0</v>
       </c>
+      <c r="J20" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -2020,13 +2026,13 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2037,10 +2043,10 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -2049,13 +2055,13 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2066,10 +2072,10 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -2078,13 +2084,13 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -2095,10 +2101,10 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
@@ -2107,13 +2113,13 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G24" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2124,10 +2130,10 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
@@ -2136,13 +2142,13 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G25" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2153,10 +2159,10 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
@@ -2165,13 +2171,13 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2182,28 +2188,28 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="F27" t="s">
-        <v>141</v>
+        <v>57</v>
       </c>
       <c r="G27" t="s">
-        <v>142</v>
+        <v>58</v>
       </c>
       <c r="H27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I27" t="b">
         <v>0</v>
@@ -2211,25 +2217,25 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B28" t="s">
         <v>139</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F28" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G28" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H28">
         <v>5</v>
@@ -2240,60 +2246,57 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B29" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>229</v>
+        <v>144</v>
       </c>
       <c r="F29" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="G29" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="H29">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I29" t="b">
         <v>0</v>
-      </c>
-      <c r="K29" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B30" t="s">
         <v>152</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F30" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G30" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H30">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
@@ -2304,25 +2307,25 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B31" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F31" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G31" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H31">
         <v>5</v>
@@ -2330,28 +2333,31 @@
       <c r="I31" t="b">
         <v>0</v>
       </c>
+      <c r="K31" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B32" t="s">
         <v>159</v>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F32" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G32" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H32">
         <v>5</v>
@@ -2362,28 +2368,28 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B33" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F33" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G33" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H33">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I33" t="b">
         <v>0</v>
@@ -2391,10 +2397,10 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B34" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
@@ -2403,16 +2409,16 @@
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F34" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G34" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>
@@ -2420,25 +2426,25 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B35" t="s">
         <v>170</v>
       </c>
       <c r="C35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F35" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G35" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H35">
         <v>5</v>
@@ -2449,25 +2455,25 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B36" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F36" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G36" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H36">
         <v>5</v>
@@ -2478,28 +2484,28 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B37" t="s">
         <v>177</v>
       </c>
       <c r="C37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F37" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G37" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I37" t="b">
         <v>0</v>
@@ -2507,25 +2513,25 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B38" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F38" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H38">
         <v>3</v>
@@ -2536,28 +2542,28 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B39" t="s">
         <v>184</v>
       </c>
       <c r="C39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F39" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G39" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I39" t="b">
         <v>0</v>
@@ -2565,28 +2571,28 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B40" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F40" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G40" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H40">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I40" t="b">
         <v>0</v>
@@ -2594,28 +2600,28 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B41" t="s">
         <v>191</v>
       </c>
       <c r="C41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F41" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G41" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H41">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I41" t="b">
         <v>0</v>
@@ -2623,28 +2629,28 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B42" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F42" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G42" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H42">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I42" t="b">
         <v>0</v>
@@ -2652,28 +2658,28 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B43" t="s">
         <v>198</v>
       </c>
       <c r="C43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F43" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G43" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H43">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I43" t="b">
         <v>0</v>
@@ -2681,42 +2687,39 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>147</v>
+        <v>201</v>
       </c>
       <c r="B44" t="s">
-        <v>148</v>
+        <v>198</v>
       </c>
       <c r="C44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="F44" t="s">
-        <v>149</v>
+        <v>202</v>
       </c>
       <c r="G44" t="s">
-        <v>150</v>
+        <v>203</v>
       </c>
       <c r="H44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I44" t="b">
         <v>0</v>
-      </c>
-      <c r="K44" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="B45" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
@@ -2725,13 +2728,13 @@
         <v>7</v>
       </c>
       <c r="E45" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="F45" t="s">
-        <v>206</v>
+        <v>149</v>
       </c>
       <c r="G45" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="H45">
         <v>6</v>
@@ -2740,15 +2743,15 @@
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>257</v>
+        <v>204</v>
       </c>
       <c r="B46" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
@@ -2757,13 +2760,13 @@
         <v>7</v>
       </c>
       <c r="E46" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="F46" t="s">
-        <v>259</v>
+        <v>206</v>
       </c>
       <c r="G46" t="s">
-        <v>260</v>
+        <v>207</v>
       </c>
       <c r="H46">
         <v>6</v>
@@ -2772,15 +2775,15 @@
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="B47" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
@@ -2789,27 +2792,30 @@
         <v>7</v>
       </c>
       <c r="E47" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="F47" t="s">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="G47" t="s">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="H47">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I47" t="b">
         <v>0</v>
+      </c>
+      <c r="K47" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="B48" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
@@ -2818,16 +2824,16 @@
         <v>7</v>
       </c>
       <c r="E48" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F48" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="G48" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="H48">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I48" t="b">
         <v>0</v>
@@ -2835,10 +2841,10 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B49" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
@@ -2847,30 +2853,27 @@
         <v>7</v>
       </c>
       <c r="E49" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F49" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G49" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H49">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I49" t="b">
         <v>0</v>
-      </c>
-      <c r="K49" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B50" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
@@ -2879,30 +2882,30 @@
         <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F50" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G50" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H50">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I50" t="b">
         <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B51" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
@@ -2911,13 +2914,13 @@
         <v>7</v>
       </c>
       <c r="E51" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="F51" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G51" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H51">
         <v>9</v>
@@ -2926,6 +2929,38 @@
         <v>0</v>
       </c>
       <c r="K51" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>220</v>
+      </c>
+      <c r="B52" t="s">
+        <v>221</v>
+      </c>
+      <c r="C52" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>7</v>
+      </c>
+      <c r="E52" t="s">
+        <v>256</v>
+      </c>
+      <c r="F52" t="s">
+        <v>222</v>
+      </c>
+      <c r="G52" t="s">
+        <v>223</v>
+      </c>
+      <c r="H52">
+        <v>9</v>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" t="s">
         <v>251</v>
       </c>
     </row>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37189FE-3B64-4D90-88BB-C6174021BF68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F629C0-E2C8-47AD-AB47-5B91D8B9DC3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="278">
   <si>
     <t>levelPackId|String</t>
   </si>
@@ -823,12 +823,6 @@
   </si>
   <si>
     <t>AtkBetterForBei</t>
-  </si>
-  <si>
-    <t>AtkBestForGanfaul</t>
-  </si>
-  <si>
-    <t>AtkSpeedBetterForSuccubus</t>
   </si>
   <si>
     <t>actorId|String</t>
@@ -869,6 +863,21 @@
   <si>
     <t>AtkBetterForBei</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkBetterForGanfaul</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_AtkBetterForGanfaul</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_AtkBetterForBei</t>
+  </si>
+  <si>
+    <t>AtkSpeedBetterForBigBatSuccubus</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_AtkSpeedBetterForBigBatSuccubus</t>
   </si>
 </sst>
 </file>
@@ -1512,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
         <v>59</v>
@@ -1547,7 +1556,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
         <v>63</v>
@@ -1567,7 +1576,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -1585,7 +1594,7 @@
         <v>63</v>
       </c>
       <c r="H4" t="s">
-        <v>64</v>
+        <v>274</v>
       </c>
       <c r="I4" t="s">
         <v>65</v>
@@ -1599,34 +1608,31 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>262</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H5" t="s">
-        <v>69</v>
+        <v>275</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
@@ -1634,18 +1640,21 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>263</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
@@ -1681,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
         <v>73</v>
@@ -1716,7 +1725,7 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
         <v>77</v>
@@ -1736,7 +1745,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="B9" t="s">
         <v>72</v>
@@ -1745,7 +1754,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -1754,7 +1763,7 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>277</v>
       </c>
       <c r="I9" t="s">
         <v>79</v>
@@ -1818,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
         <v>87</v>
@@ -1853,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G12" t="s">
         <v>91</v>
@@ -1923,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G14" t="s">
         <v>101</v>
@@ -1958,7 +1967,7 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G15" t="s">
         <v>105</v>
@@ -2028,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G17" t="s">
         <v>115</v>
@@ -2063,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G18" t="s">
         <v>120</v>
@@ -2098,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
@@ -2133,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G20" t="s">
         <v>17</v>
@@ -2168,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G21" t="s">
         <v>21</v>
@@ -2202,9 +2211,6 @@
       <c r="E22" t="b">
         <v>1</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
       <c r="G22" t="s">
         <v>25</v>
       </c>
@@ -2237,9 +2243,6 @@
       <c r="E23" t="b">
         <v>1</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
       <c r="G23" t="s">
         <v>25</v>
       </c>
@@ -2272,9 +2275,6 @@
       <c r="E24" t="b">
         <v>1</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
       <c r="G24" t="s">
         <v>29</v>
       </c>
@@ -2307,9 +2307,6 @@
       <c r="E25" t="b">
         <v>1</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
       <c r="G25" t="s">
         <v>33</v>
       </c>
@@ -2342,9 +2339,6 @@
       <c r="E26" t="b">
         <v>1</v>
       </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
       <c r="G26" t="s">
         <v>37</v>
       </c>
@@ -2377,9 +2371,6 @@
       <c r="E27" t="b">
         <v>1</v>
       </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
       <c r="G27" t="s">
         <v>41</v>
       </c>
@@ -2412,9 +2403,6 @@
       <c r="E28" t="b">
         <v>1</v>
       </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
       <c r="G28" t="s">
         <v>45</v>
       </c>
@@ -2447,9 +2435,6 @@
       <c r="E29" t="b">
         <v>1</v>
       </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
       <c r="G29" t="s">
         <v>49</v>
       </c>
@@ -2482,9 +2467,6 @@
       <c r="E30" t="b">
         <v>1</v>
       </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
       <c r="G30" t="s">
         <v>53</v>
       </c>
@@ -2518,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G31" t="s">
         <v>136</v>
@@ -2553,7 +2535,7 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G32" t="s">
         <v>140</v>
@@ -2588,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G33" t="s">
         <v>225</v>
@@ -2626,7 +2608,7 @@
         <v>1</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G34" t="s">
         <v>226</v>
@@ -2664,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G35" t="s">
         <v>227</v>
@@ -2699,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G36" t="s">
         <v>228</v>
@@ -2734,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G37" t="s">
         <v>229</v>
@@ -2769,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G38" t="s">
         <v>230</v>
@@ -2804,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G39" t="s">
         <v>231</v>
@@ -2839,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G40" t="s">
         <v>232</v>
@@ -2874,7 +2856,7 @@
         <v>1</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G41" t="s">
         <v>233</v>
@@ -2909,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G42" t="s">
         <v>234</v>
@@ -2944,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G43" t="s">
         <v>235</v>
@@ -2979,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G44" t="s">
         <v>236</v>
@@ -3014,7 +2996,7 @@
         <v>1</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G45" t="s">
         <v>237</v>
@@ -3049,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G46" t="s">
         <v>238</v>
@@ -3084,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G47" t="s">
         <v>239</v>
@@ -3119,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G48" t="s">
         <v>251</v>
@@ -3157,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G49" t="s">
         <v>240</v>
@@ -3195,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G50" t="s">
         <v>254</v>
@@ -3233,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G51" t="s">
         <v>241</v>
@@ -3268,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G52" t="s">
         <v>243</v>
@@ -3303,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G53" t="s">
         <v>242</v>
@@ -3341,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G54" t="s">
         <v>245</v>
@@ -3379,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G55" t="s">
         <v>252</v>
@@ -3453,57 +3435,57 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" t="s">
         <v>265</v>
-      </c>
-      <c r="B1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C1" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F629C0-E2C8-47AD-AB47-5B91D8B9DC3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907D514E-C5D1-4499-9A21-6B21EA28F311}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="273">
   <si>
     <t>levelPackId|String</t>
   </si>
@@ -825,59 +825,34 @@
     <t>AtkBetterForBei</t>
   </si>
   <si>
+    <t>AtkBetterForGanfaul</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_AtkBetterForGanfaul</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_AtkBetterForBei</t>
+  </si>
+  <si>
+    <t>AtkSpeedBetterForBigBatSuccubus</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_AtkSpeedBetterForBigBatSuccubus</t>
+  </si>
+  <si>
     <t>actorId|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>levelPack|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Actor001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MonsterThroughForGanfaul</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AtkBestForGanfaul</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Actor003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AtkSpeedBetterForSuccubus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Actor004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AtkBetterForBei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AtkBetterForGanfaul</t>
-  </si>
-  <si>
-    <t>LevelPackUIName_AtkBetterForGanfaul</t>
-  </si>
-  <si>
-    <t>LevelPackUIName_AtkBetterForBei</t>
-  </si>
-  <si>
-    <t>AtkSpeedBetterForBigBatSuccubus</t>
-  </si>
-  <si>
-    <t>LevelPackUIName_AtkSpeedBetterForBigBatSuccubus</t>
   </si>
 </sst>
 </file>
@@ -1447,10 +1422,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1576,7 +1551,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -1594,7 +1569,7 @@
         <v>63</v>
       </c>
       <c r="H4" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="I4" t="s">
         <v>65</v>
@@ -1626,7 +1601,7 @@
         <v>63</v>
       </c>
       <c r="H5" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="I5" t="s">
         <v>65</v>
@@ -1745,7 +1720,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B9" t="s">
         <v>72</v>
@@ -1763,7 +1738,7 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="I9" t="s">
         <v>79</v>
@@ -3425,7 +3400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6239E2D-40EA-4B45-8295-42B35BCC92F9}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3435,57 +3410,57 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B1" t="s">
-        <v>264</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907D514E-C5D1-4499-9A21-6B21EA28F311}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84203B62-D096-40AB-8FE5-097325F7731D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -1422,10 +1422,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
         <v>59</v>
@@ -1531,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3" t="s">
         <v>63</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
         <v>73</v>
@@ -1700,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" t="s">
         <v>77</v>
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
         <v>87</v>
@@ -1837,7 +1837,7 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G12" t="s">
         <v>91</v>
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
         <v>101</v>
@@ -1942,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15" t="s">
         <v>105</v>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G17" t="s">
         <v>115</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G18" t="s">
         <v>120</v>
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
@@ -2117,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G20" t="s">
         <v>17</v>
@@ -2152,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G21" t="s">
         <v>21</v>
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G31" t="s">
         <v>136</v>
@@ -2510,7 +2510,7 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G32" t="s">
         <v>140</v>
@@ -2545,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G33" t="s">
         <v>225</v>
@@ -2583,7 +2583,7 @@
         <v>1</v>
       </c>
       <c r="F34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G34" t="s">
         <v>226</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G35" t="s">
         <v>227</v>
@@ -2656,7 +2656,7 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G36" t="s">
         <v>228</v>
@@ -2691,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G37" t="s">
         <v>229</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G38" t="s">
         <v>230</v>
@@ -2761,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="F39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G39" t="s">
         <v>231</v>
@@ -2796,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G40" t="s">
         <v>232</v>
@@ -2831,7 +2831,7 @@
         <v>1</v>
       </c>
       <c r="F41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G41" t="s">
         <v>233</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G42" t="s">
         <v>234</v>
@@ -2901,7 +2901,7 @@
         <v>1</v>
       </c>
       <c r="F43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G43" t="s">
         <v>235</v>
@@ -2936,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G44" t="s">
         <v>236</v>
@@ -2971,7 +2971,7 @@
         <v>1</v>
       </c>
       <c r="F45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G45" t="s">
         <v>237</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G46" t="s">
         <v>238</v>
@@ -3041,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="F47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G47" t="s">
         <v>239</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G48" t="s">
         <v>251</v>
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G49" t="s">
         <v>240</v>
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G50" t="s">
         <v>254</v>
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G51" t="s">
         <v>241</v>
@@ -3225,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G52" t="s">
         <v>243</v>
@@ -3260,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G53" t="s">
         <v>242</v>
@@ -3298,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G54" t="s">
         <v>245</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G55" t="s">
         <v>252</v>
@@ -3400,7 +3400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6239E2D-40EA-4B45-8295-42B35BCC92F9}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84203B62-D096-40AB-8FE5-097325F7731D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C717D8-39FB-4588-A881-193420154FD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
@@ -1425,7 +1425,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
         <v>59</v>
@@ -1531,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G3" t="s">
         <v>63</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
         <v>73</v>
@@ -1700,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G8" t="s">
         <v>77</v>
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s">
         <v>87</v>
@@ -1837,7 +1837,7 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G12" t="s">
         <v>91</v>
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G14" t="s">
         <v>101</v>
@@ -1942,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G15" t="s">
         <v>105</v>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
         <v>115</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
         <v>120</v>
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
@@ -2117,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
         <v>17</v>
@@ -2152,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
         <v>21</v>
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
         <v>136</v>
@@ -2510,7 +2510,7 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G32" t="s">
         <v>140</v>
@@ -2545,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
         <v>225</v>
@@ -2583,7 +2583,7 @@
         <v>1</v>
       </c>
       <c r="F34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G34" t="s">
         <v>226</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
         <v>227</v>
@@ -2656,7 +2656,7 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G36" t="s">
         <v>228</v>
@@ -2691,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G37" t="s">
         <v>229</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
         <v>230</v>
@@ -2761,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="F39">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G39" t="s">
         <v>231</v>
@@ -2796,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
         <v>232</v>
@@ -2831,7 +2831,7 @@
         <v>1</v>
       </c>
       <c r="F41">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G41" t="s">
         <v>233</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G42" t="s">
         <v>234</v>
@@ -2901,7 +2901,7 @@
         <v>1</v>
       </c>
       <c r="F43">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G43" t="s">
         <v>235</v>
@@ -2936,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
         <v>236</v>
@@ -2971,7 +2971,7 @@
         <v>1</v>
       </c>
       <c r="F45">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G45" t="s">
         <v>237</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
         <v>238</v>
@@ -3041,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="F47">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G47" t="s">
         <v>239</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G48" t="s">
         <v>251</v>
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G49" t="s">
         <v>240</v>
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G50" t="s">
         <v>254</v>
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
         <v>241</v>
@@ -3225,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
         <v>243</v>
@@ -3260,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G53" t="s">
         <v>242</v>
@@ -3298,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G54" t="s">
         <v>245</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
         <v>252</v>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C717D8-39FB-4588-A881-193420154FD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591154C4-DAAD-40DD-BDF9-311B34F72139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -1425,7 +1425,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2094,7 +2094,7 @@
         <v>15</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>19</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591154C4-DAAD-40DD-BDF9-311B34F72139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FC30E6-FC33-440C-A868-A6F8D9ACC87E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
         <v>59</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="G7" t="s">
         <v>73</v>
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
         <v>87</v>
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="G14" t="s">
         <v>101</v>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s">
         <v>115</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s">
         <v>120</v>
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
@@ -2117,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G20" t="s">
         <v>17</v>
@@ -2152,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s">
         <v>21</v>
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s">
         <v>136</v>
@@ -2545,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G33" t="s">
         <v>225</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s">
         <v>227</v>
@@ -2691,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G37" t="s">
         <v>229</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s">
         <v>230</v>
@@ -2796,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G40" t="s">
         <v>232</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s">
         <v>234</v>
@@ -2936,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s">
         <v>236</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G46" t="s">
         <v>238</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G48" t="s">
         <v>251</v>
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G49" t="s">
         <v>240</v>
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s">
         <v>254</v>
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s">
         <v>241</v>
@@ -3225,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G52" t="s">
         <v>243</v>
@@ -3260,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G53" t="s">
         <v>242</v>
@@ -3298,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G54" t="s">
         <v>245</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G55" t="s">
         <v>252</v>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FC30E6-FC33-440C-A868-A6F8D9ACC87E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337F1084-0289-45C5-B730-1195809B9D8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="359">
   <si>
     <t>levelPackId|String</t>
   </si>
@@ -618,9 +618,6 @@
     <t>ImmortalWill</t>
   </si>
   <si>
-    <t>FlatSkill2_77_NoBG_Gray</t>
-  </si>
-  <si>
     <t>LevelPackUIName_ImmortalWill</t>
   </si>
   <si>
@@ -651,9 +648,6 @@
     <t>Paralyze</t>
   </si>
   <si>
-    <t>FlatSkill2_48_NoBG_Gray</t>
-  </si>
-  <si>
     <t>LevelPackUIName_Paralyze</t>
   </si>
   <si>
@@ -853,6 +847,270 @@
   </si>
   <si>
     <t>Actor004</t>
+  </si>
+  <si>
+    <t>openChapter|Int</t>
+  </si>
+  <si>
+    <t>CritDamage</t>
+  </si>
+  <si>
+    <t>FlatIcon_18_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>LP_CritDamage</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_CritDamage</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_CritDamage</t>
+  </si>
+  <si>
+    <t>CritDamageBetter</t>
+  </si>
+  <si>
+    <t>LP_CritDamageBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_CritDamageBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_CritDamageBetter</t>
+  </si>
+  <si>
+    <t>CritDamageBest</t>
+  </si>
+  <si>
+    <t>FlatSkill2_62_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>LP_CritDamageBest</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_CritDamageBest</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_CritDamageBest</t>
+  </si>
+  <si>
+    <t>ReduceDmgProjectileBetter</t>
+  </si>
+  <si>
+    <t>LP_ReduceDmgProjectileBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_ReduceDmgProjectileBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_ReduceDmgProjectileBetter</t>
+  </si>
+  <si>
+    <t>ReduceDmgMelee</t>
+  </si>
+  <si>
+    <t>FlatIcon_156_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>LP_ReduceDmgMelee</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_ReduceDmgMelee</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_ReduceDmgMelee</t>
+  </si>
+  <si>
+    <t>ReduceDmgMeleeBetter</t>
+  </si>
+  <si>
+    <t>LP_ReduceDmgMeleeBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_ReduceDmgMeleeBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_ReduceDmgMeleeBetter</t>
+  </si>
+  <si>
+    <t>ReduceDmgCloseBetter</t>
+  </si>
+  <si>
+    <t>LP_ReduceDmgCloseBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_ReduceDmgCloseBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_ReduceDmgCloseBetter</t>
+  </si>
+  <si>
+    <t>ReduceDmgTrap</t>
+  </si>
+  <si>
+    <t>FlatSkill2_6_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>LP_ReduceDmgTrap</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_ReduceDmgTrap</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_ReduceDmgTrap</t>
+  </si>
+  <si>
+    <t>ReduceDmgTrapBetter</t>
+  </si>
+  <si>
+    <t>LP_ReduceDmgTrapBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_ReduceDmgTrapBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_ReduceDmgTrapBetter</t>
+  </si>
+  <si>
+    <t>ReduceContinuousDmg</t>
+  </si>
+  <si>
+    <t>LP_ReduceContinuousDmg</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_ReduceContinuousDmg</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_ReduceContinuousDmg</t>
+  </si>
+  <si>
+    <t>DefenseStrongDmg</t>
+  </si>
+  <si>
+    <t>FlatSkill2_129_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>LP_DefenseStrongDmg</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_DefenseStrongDmg</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_DefenseStrongDmg</t>
+  </si>
+  <si>
+    <t>ExtraGoldBetter</t>
+  </si>
+  <si>
+    <t>LP_ExtraGoldBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_ExtraGoldBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_ExtraGoldBetter</t>
+  </si>
+  <si>
+    <t>ItemChanceBoostBetter</t>
+  </si>
+  <si>
+    <t>LP_ItemChanceBoostBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_ItemChanceBoostBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_ItemChanceBoostBetter</t>
+  </si>
+  <si>
+    <t>HealChanceBoostBetter</t>
+  </si>
+  <si>
+    <t>LP_HealChanceBoostBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_HealChanceBoostBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_HealChanceBoostBetter</t>
+  </si>
+  <si>
+    <t>FlatSkill2_91_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>FlatIcon_60_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>FlatSkill2_152_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>MoveSpeedUpOnKill</t>
+  </si>
+  <si>
+    <t>LP_MoveSpeedUpOnKill</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_MoveSpeedUpOnKill</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_MoveSpeedUpOnKill</t>
+  </si>
+  <si>
+    <t>SlowHitObjectBetter</t>
+  </si>
+  <si>
+    <t>LP_SlowHitObjectBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_SlowHitObjectBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_SlowHitObjectBetter</t>
+  </si>
+  <si>
+    <t>FlatSkill2_90_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>HealSpOnAttack</t>
+  </si>
+  <si>
+    <t>FlatSkill2_183_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>LP_HealSpOnAttack</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_HealSpOnAttack</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_HealSpOnAttack</t>
+  </si>
+  <si>
+    <t>HealSpOnAttackBetter</t>
+  </si>
+  <si>
+    <t>LP_HealSpOnAttackBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_HealSpOnAttackBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_HealSpOnAttackBetter</t>
+  </si>
+  <si>
+    <t>PaybackSp</t>
+  </si>
+  <si>
+    <t>FlatIcon_57_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>LP_PaybackSp</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_PaybackSp</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_PaybackSp</t>
   </si>
 </sst>
 </file>
@@ -1420,7 +1678,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:M74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1441,21 +1699,21 @@
     <col min="12" max="12" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -1478,8 +1736,11 @@
       <c r="L1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -1496,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="G2" t="s">
         <v>59</v>
@@ -1514,7 +1775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -1531,7 +1792,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G3" t="s">
         <v>63</v>
@@ -1549,9 +1810,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -1569,7 +1830,7 @@
         <v>63</v>
       </c>
       <c r="H4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I4" t="s">
         <v>65</v>
@@ -1581,9 +1842,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -1601,7 +1862,7 @@
         <v>63</v>
       </c>
       <c r="H5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I5" t="s">
         <v>65</v>
@@ -1613,7 +1874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -1648,7 +1909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -1665,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="G7" t="s">
         <v>73</v>
@@ -1683,7 +1944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -1700,7 +1961,7 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G8" t="s">
         <v>77</v>
@@ -1718,9 +1979,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B9" t="s">
         <v>72</v>
@@ -1738,7 +1999,7 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I9" t="s">
         <v>79</v>
@@ -1750,7 +2011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>80</v>
       </c>
@@ -1785,7 +2046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -1802,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="G11" t="s">
         <v>87</v>
@@ -1820,7 +2081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>90</v>
       </c>
@@ -1837,7 +2098,7 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G12" t="s">
         <v>91</v>
@@ -1855,7 +2116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>94</v>
       </c>
@@ -1890,12 +2151,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>272</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>273</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -1907,16 +2168,16 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="G14" t="s">
-        <v>101</v>
+        <v>274</v>
       </c>
       <c r="H14" t="s">
-        <v>102</v>
+        <v>275</v>
       </c>
       <c r="I14" t="s">
-        <v>103</v>
+        <v>276</v>
       </c>
       <c r="J14">
         <v>9</v>
@@ -1925,12 +2186,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>277</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>273</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -1942,16 +2203,16 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G15" t="s">
-        <v>105</v>
+        <v>278</v>
       </c>
       <c r="H15" t="s">
-        <v>106</v>
+        <v>279</v>
       </c>
       <c r="I15" t="s">
-        <v>107</v>
+        <v>280</v>
       </c>
       <c r="J15">
         <v>9</v>
@@ -1960,12 +2221,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>281</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>282</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -1980,16 +2241,16 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>110</v>
+        <v>283</v>
       </c>
       <c r="H16" t="s">
-        <v>111</v>
+        <v>284</v>
       </c>
       <c r="I16" t="s">
-        <v>112</v>
+        <v>285</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
@@ -1997,10 +2258,10 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -2012,16 +2273,16 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="G17" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="H17" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="I17" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="J17">
         <v>9</v>
@@ -2032,31 +2293,31 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="G18" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="H18" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="I18" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="J18">
         <v>9</v>
@@ -2067,34 +2328,34 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="I19" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
@@ -2102,10 +2363,10 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -2117,19 +2378,19 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="I20" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="J20">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
@@ -2137,34 +2398,34 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>286</v>
       </c>
       <c r="B21" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="G21" t="s">
-        <v>21</v>
+        <v>287</v>
       </c>
       <c r="H21" t="s">
-        <v>22</v>
+        <v>288</v>
       </c>
       <c r="I21" t="s">
-        <v>23</v>
+        <v>289</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
@@ -2172,31 +2433,34 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>290</v>
       </c>
       <c r="B22" t="s">
-        <v>126</v>
+        <v>291</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>100</v>
       </c>
       <c r="G22" t="s">
-        <v>25</v>
+        <v>292</v>
       </c>
       <c r="H22" t="s">
-        <v>26</v>
+        <v>293</v>
       </c>
       <c r="I22" t="s">
-        <v>27</v>
+        <v>294</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
@@ -2204,31 +2468,34 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="B23" t="s">
-        <v>126</v>
+        <v>291</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
       <c r="G23" t="s">
-        <v>25</v>
+        <v>296</v>
       </c>
       <c r="H23" t="s">
-        <v>26</v>
+        <v>297</v>
       </c>
       <c r="I23" t="s">
-        <v>27</v>
+        <v>298</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
@@ -2236,31 +2503,34 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="B24" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>100</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="H24" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="I24" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K24" t="b">
         <v>0</v>
@@ -2268,31 +2538,34 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>299</v>
       </c>
       <c r="B25" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>300</v>
       </c>
       <c r="H25" t="s">
-        <v>34</v>
+        <v>301</v>
       </c>
       <c r="I25" t="s">
-        <v>35</v>
+        <v>302</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K25" t="b">
         <v>0</v>
@@ -2300,31 +2573,34 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>303</v>
       </c>
       <c r="B26" t="s">
-        <v>129</v>
+        <v>304</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>100</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="H26" t="s">
-        <v>38</v>
+        <v>306</v>
       </c>
       <c r="I26" t="s">
-        <v>39</v>
+        <v>307</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K26" t="b">
         <v>0</v>
@@ -2332,31 +2608,34 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>308</v>
       </c>
       <c r="B27" t="s">
-        <v>130</v>
+        <v>304</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>1</v>
       </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
       <c r="G27" t="s">
-        <v>41</v>
+        <v>309</v>
       </c>
       <c r="H27" t="s">
-        <v>42</v>
+        <v>310</v>
       </c>
       <c r="I27" t="s">
-        <v>43</v>
+        <v>311</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
@@ -2364,31 +2643,34 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>312</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
       </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>313</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>314</v>
       </c>
       <c r="I28" t="s">
-        <v>47</v>
+        <v>315</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K28" t="b">
         <v>0</v>
@@ -2396,31 +2678,34 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>316</v>
       </c>
       <c r="B29" t="s">
-        <v>132</v>
+        <v>317</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>1</v>
       </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
       <c r="G29" t="s">
-        <v>49</v>
+        <v>318</v>
       </c>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>319</v>
       </c>
       <c r="I29" t="s">
-        <v>51</v>
+        <v>320</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K29" t="b">
         <v>0</v>
@@ -2428,31 +2713,34 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
       </c>
       <c r="E30" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>100</v>
       </c>
       <c r="G30" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="H30" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="I30" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K30" t="b">
         <v>0</v>
@@ -2460,34 +2748,34 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>134</v>
+        <v>321</v>
       </c>
       <c r="B31" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="G31" t="s">
-        <v>136</v>
+        <v>322</v>
       </c>
       <c r="H31" t="s">
-        <v>137</v>
+        <v>323</v>
       </c>
       <c r="I31" t="s">
-        <v>138</v>
+        <v>324</v>
       </c>
       <c r="J31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
@@ -2495,34 +2783,34 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="G32" t="s">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="H32" t="s">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="I32" t="s">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="J32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
@@ -2530,110 +2818,104 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>147</v>
+        <v>325</v>
       </c>
       <c r="B33" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>225</v>
+        <v>326</v>
       </c>
       <c r="H33" t="s">
-        <v>149</v>
+        <v>327</v>
       </c>
       <c r="I33" t="s">
-        <v>150</v>
+        <v>328</v>
       </c>
       <c r="J33">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K33" t="b">
         <v>0</v>
-      </c>
-      <c r="L33" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
       </c>
       <c r="D34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="G34" t="s">
-        <v>226</v>
+        <v>21</v>
       </c>
       <c r="H34" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="I34" t="s">
-        <v>153</v>
+        <v>23</v>
       </c>
       <c r="J34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>
-      </c>
-      <c r="L34" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>154</v>
+        <v>329</v>
       </c>
       <c r="B35" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="G35" t="s">
-        <v>227</v>
+        <v>330</v>
       </c>
       <c r="H35" t="s">
-        <v>156</v>
+        <v>331</v>
       </c>
       <c r="I35" t="s">
-        <v>157</v>
+        <v>332</v>
       </c>
       <c r="J35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K35" t="b">
         <v>0</v>
@@ -2641,34 +2923,31 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="C36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="b">
         <v>1</v>
       </c>
-      <c r="F36">
-        <v>6</v>
-      </c>
       <c r="G36" t="s">
-        <v>228</v>
+        <v>25</v>
       </c>
       <c r="H36" t="s">
-        <v>159</v>
+        <v>26</v>
       </c>
       <c r="I36" t="s">
-        <v>160</v>
+        <v>27</v>
       </c>
       <c r="J36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K36" t="b">
         <v>0</v>
@@ -2676,34 +2955,31 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>161</v>
+        <v>257</v>
       </c>
       <c r="B37" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="C37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
       </c>
       <c r="E37" t="b">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>229</v>
+        <v>25</v>
       </c>
       <c r="H37" t="s">
-        <v>163</v>
+        <v>26</v>
       </c>
       <c r="I37" t="s">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="J37">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
@@ -2711,34 +2987,31 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>165</v>
+        <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="C38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>230</v>
+        <v>29</v>
       </c>
       <c r="H38" t="s">
-        <v>167</v>
+        <v>30</v>
       </c>
       <c r="I38" t="s">
-        <v>168</v>
+        <v>31</v>
       </c>
       <c r="J38">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K38" t="b">
         <v>0</v>
@@ -2746,34 +3019,31 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="C39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="b">
         <v>1</v>
       </c>
-      <c r="F39">
-        <v>6</v>
-      </c>
       <c r="G39" t="s">
-        <v>231</v>
+        <v>33</v>
       </c>
       <c r="H39" t="s">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="I39" t="s">
-        <v>171</v>
+        <v>35</v>
       </c>
       <c r="J39">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K39" t="b">
         <v>0</v>
@@ -2781,34 +3051,31 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="C40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
       </c>
       <c r="E40" t="b">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>232</v>
+        <v>37</v>
       </c>
       <c r="H40" t="s">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="I40" t="s">
-        <v>175</v>
+        <v>39</v>
       </c>
       <c r="J40">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K40" t="b">
         <v>0</v>
@@ -2816,34 +3083,31 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="C41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="b">
         <v>1</v>
       </c>
-      <c r="F41">
-        <v>6</v>
-      </c>
       <c r="G41" t="s">
-        <v>233</v>
+        <v>41</v>
       </c>
       <c r="H41" t="s">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c r="I41" t="s">
-        <v>178</v>
+        <v>43</v>
       </c>
       <c r="J41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
@@ -2851,34 +3115,31 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>179</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="C42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
       </c>
       <c r="E42" t="b">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>234</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s">
-        <v>181</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>182</v>
+        <v>47</v>
       </c>
       <c r="J42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
@@ -2886,34 +3147,31 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>183</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="C43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
-      <c r="F43">
-        <v>6</v>
-      </c>
       <c r="G43" t="s">
-        <v>235</v>
+        <v>49</v>
       </c>
       <c r="H43" t="s">
-        <v>184</v>
+        <v>50</v>
       </c>
       <c r="I43" t="s">
-        <v>185</v>
+        <v>51</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K43" t="b">
         <v>0</v>
@@ -2921,34 +3179,31 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>186</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="C44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
       </c>
       <c r="E44" t="b">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>236</v>
+        <v>53</v>
       </c>
       <c r="H44" t="s">
-        <v>188</v>
+        <v>54</v>
       </c>
       <c r="I44" t="s">
-        <v>189</v>
+        <v>55</v>
       </c>
       <c r="J44">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K44" t="b">
         <v>0</v>
@@ -2956,31 +3211,31 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="B45" t="s">
-        <v>187</v>
+        <v>135</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
       </c>
       <c r="D45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="G45" t="s">
-        <v>237</v>
+        <v>136</v>
       </c>
       <c r="H45" t="s">
-        <v>191</v>
+        <v>137</v>
       </c>
       <c r="I45" t="s">
-        <v>192</v>
+        <v>138</v>
       </c>
       <c r="J45">
         <v>5</v>
@@ -2991,34 +3246,34 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
       <c r="B46" t="s">
-        <v>194</v>
+        <v>135</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
       </c>
       <c r="D46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="G46" t="s">
-        <v>238</v>
+        <v>140</v>
       </c>
       <c r="H46" t="s">
-        <v>195</v>
+        <v>141</v>
       </c>
       <c r="I46" t="s">
-        <v>196</v>
+        <v>142</v>
       </c>
       <c r="J46">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
@@ -3026,83 +3281,86 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>197</v>
+        <v>147</v>
       </c>
       <c r="B47" t="s">
-        <v>194</v>
+        <v>148</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
       </c>
       <c r="D47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="G47" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="H47" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="I47" t="s">
-        <v>199</v>
+        <v>150</v>
       </c>
       <c r="J47">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
+      </c>
+      <c r="L47" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B48" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
       </c>
       <c r="D48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="G48" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="H48" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="I48" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="J48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="B49" t="s">
-        <v>201</v>
+        <v>155</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
@@ -3114,95 +3372,89 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="G49" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="H49" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="I49" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="J49">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
-      </c>
-      <c r="L49" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>253</v>
+        <v>158</v>
       </c>
       <c r="B50" t="s">
-        <v>224</v>
+        <v>155</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
       </c>
       <c r="D50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="G50" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="H50" t="s">
-        <v>255</v>
+        <v>159</v>
       </c>
       <c r="I50" t="s">
-        <v>256</v>
+        <v>160</v>
       </c>
       <c r="J50">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
-      </c>
-      <c r="L50" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>220</v>
+        <v>161</v>
       </c>
       <c r="B51" t="s">
-        <v>221</v>
+        <v>162</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
       </c>
       <c r="D51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="G51" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="H51" t="s">
-        <v>222</v>
+        <v>163</v>
       </c>
       <c r="I51" t="s">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="J51">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
@@ -3210,10 +3462,10 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="B52" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
@@ -3225,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="G52" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="H52" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="I52" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="J52">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
@@ -3245,31 +3497,31 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="B53" t="s">
-        <v>209</v>
+        <v>166</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
       </c>
       <c r="D53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="G53" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="H53" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="I53" t="s">
-        <v>211</v>
+        <v>171</v>
       </c>
       <c r="J53">
         <v>5</v>
@@ -3277,16 +3529,13 @@
       <c r="K53" t="b">
         <v>0</v>
       </c>
-      <c r="L53" t="s">
-        <v>244</v>
-      </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="B54" t="s">
-        <v>213</v>
+        <v>333</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
@@ -3298,63 +3547,743 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="G54" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="H54" t="s">
-        <v>214</v>
+        <v>174</v>
       </c>
       <c r="I54" t="s">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="J54">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
-      </c>
-      <c r="L54" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>176</v>
+      </c>
+      <c r="B55" t="s">
+        <v>333</v>
+      </c>
+      <c r="C55" t="b">
+        <v>0</v>
+      </c>
+      <c r="D55" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" t="b">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
+      </c>
+      <c r="G55" t="s">
+        <v>231</v>
+      </c>
+      <c r="H55" t="s">
+        <v>177</v>
+      </c>
+      <c r="I55" t="s">
+        <v>178</v>
+      </c>
+      <c r="J55">
+        <v>3</v>
+      </c>
+      <c r="K55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>179</v>
+      </c>
+      <c r="B56" t="s">
+        <v>180</v>
+      </c>
+      <c r="C56" t="b">
+        <v>0</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>100</v>
+      </c>
+      <c r="G56" t="s">
+        <v>232</v>
+      </c>
+      <c r="H56" t="s">
+        <v>181</v>
+      </c>
+      <c r="I56" t="s">
+        <v>182</v>
+      </c>
+      <c r="J56">
+        <v>3</v>
+      </c>
+      <c r="K56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>183</v>
+      </c>
+      <c r="B57" t="s">
+        <v>180</v>
+      </c>
+      <c r="C57" t="b">
+        <v>0</v>
+      </c>
+      <c r="D57" t="b">
+        <v>1</v>
+      </c>
+      <c r="E57" t="b">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>4</v>
+      </c>
+      <c r="G57" t="s">
+        <v>233</v>
+      </c>
+      <c r="H57" t="s">
+        <v>184</v>
+      </c>
+      <c r="I57" t="s">
+        <v>185</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>186</v>
+      </c>
+      <c r="B58" t="s">
+        <v>187</v>
+      </c>
+      <c r="C58" t="b">
+        <v>0</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>100</v>
+      </c>
+      <c r="G58" t="s">
+        <v>234</v>
+      </c>
+      <c r="H58" t="s">
+        <v>188</v>
+      </c>
+      <c r="I58" t="s">
+        <v>189</v>
+      </c>
+      <c r="J58">
+        <v>9</v>
+      </c>
+      <c r="K58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>190</v>
+      </c>
+      <c r="B59" t="s">
+        <v>187</v>
+      </c>
+      <c r="C59" t="b">
+        <v>0</v>
+      </c>
+      <c r="D59" t="b">
+        <v>1</v>
+      </c>
+      <c r="E59" t="b">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>4</v>
+      </c>
+      <c r="G59" t="s">
+        <v>235</v>
+      </c>
+      <c r="H59" t="s">
+        <v>191</v>
+      </c>
+      <c r="I59" t="s">
+        <v>192</v>
+      </c>
+      <c r="J59">
+        <v>5</v>
+      </c>
+      <c r="K59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>193</v>
+      </c>
+      <c r="B60" t="s">
+        <v>334</v>
+      </c>
+      <c r="C60" t="b">
+        <v>0</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>100</v>
+      </c>
+      <c r="G60" t="s">
+        <v>236</v>
+      </c>
+      <c r="H60" t="s">
+        <v>194</v>
+      </c>
+      <c r="I60" t="s">
+        <v>195</v>
+      </c>
+      <c r="J60">
+        <v>9</v>
+      </c>
+      <c r="K60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>196</v>
+      </c>
+      <c r="B61" t="s">
+        <v>334</v>
+      </c>
+      <c r="C61" t="b">
+        <v>0</v>
+      </c>
+      <c r="D61" t="b">
+        <v>1</v>
+      </c>
+      <c r="E61" t="b">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>4</v>
+      </c>
+      <c r="G61" t="s">
+        <v>237</v>
+      </c>
+      <c r="H61" t="s">
+        <v>197</v>
+      </c>
+      <c r="I61" t="s">
+        <v>198</v>
+      </c>
+      <c r="J61">
+        <v>5</v>
+      </c>
+      <c r="K61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>143</v>
+      </c>
+      <c r="B62" t="s">
+        <v>144</v>
+      </c>
+      <c r="C62" t="b">
+        <v>0</v>
+      </c>
+      <c r="D62" t="b">
+        <v>1</v>
+      </c>
+      <c r="E62" t="b">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>4</v>
+      </c>
+      <c r="G62" t="s">
+        <v>249</v>
+      </c>
+      <c r="H62" t="s">
+        <v>145</v>
+      </c>
+      <c r="I62" t="s">
+        <v>146</v>
+      </c>
+      <c r="J62">
+        <v>6</v>
+      </c>
+      <c r="K62" t="b">
+        <v>0</v>
+      </c>
+      <c r="L62" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>199</v>
+      </c>
+      <c r="B63" t="s">
+        <v>335</v>
+      </c>
+      <c r="C63" t="b">
+        <v>0</v>
+      </c>
+      <c r="D63" t="b">
+        <v>1</v>
+      </c>
+      <c r="E63" t="b">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>4</v>
+      </c>
+      <c r="G63" t="s">
+        <v>238</v>
+      </c>
+      <c r="H63" t="s">
+        <v>201</v>
+      </c>
+      <c r="I63" t="s">
+        <v>202</v>
+      </c>
+      <c r="J63">
+        <v>6</v>
+      </c>
+      <c r="K63" t="b">
+        <v>0</v>
+      </c>
+      <c r="L63" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>336</v>
+      </c>
+      <c r="B64" t="s">
+        <v>200</v>
+      </c>
+      <c r="C64" t="b">
+        <v>0</v>
+      </c>
+      <c r="D64" t="b">
+        <v>1</v>
+      </c>
+      <c r="E64" t="b">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>4</v>
+      </c>
+      <c r="G64" t="s">
+        <v>337</v>
+      </c>
+      <c r="H64" t="s">
+        <v>338</v>
+      </c>
+      <c r="I64" t="s">
+        <v>339</v>
+      </c>
+      <c r="J64">
+        <v>6</v>
+      </c>
+      <c r="K64" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>251</v>
+      </c>
+      <c r="B65" t="s">
+        <v>222</v>
+      </c>
+      <c r="C65" t="b">
+        <v>0</v>
+      </c>
+      <c r="D65" t="b">
+        <v>1</v>
+      </c>
+      <c r="E65" t="b">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>4</v>
+      </c>
+      <c r="G65" t="s">
+        <v>252</v>
+      </c>
+      <c r="H65" t="s">
+        <v>253</v>
+      </c>
+      <c r="I65" t="s">
+        <v>254</v>
+      </c>
+      <c r="J65">
+        <v>6</v>
+      </c>
+      <c r="K65" t="b">
+        <v>0</v>
+      </c>
+      <c r="L65" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>218</v>
+      </c>
+      <c r="B66" t="s">
+        <v>219</v>
+      </c>
+      <c r="C66" t="b">
+        <v>0</v>
+      </c>
+      <c r="D66" t="b">
+        <v>0</v>
+      </c>
+      <c r="E66" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>100</v>
+      </c>
+      <c r="G66" t="s">
+        <v>239</v>
+      </c>
+      <c r="H66" t="s">
+        <v>220</v>
+      </c>
+      <c r="I66" t="s">
+        <v>221</v>
+      </c>
+      <c r="J66">
+        <v>5</v>
+      </c>
+      <c r="K66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>340</v>
+      </c>
+      <c r="B67" t="s">
+        <v>219</v>
+      </c>
+      <c r="C67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D67" t="b">
+        <v>1</v>
+      </c>
+      <c r="E67" t="b">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>4</v>
+      </c>
+      <c r="G67" t="s">
+        <v>341</v>
+      </c>
+      <c r="H67" t="s">
+        <v>342</v>
+      </c>
+      <c r="I67" t="s">
+        <v>343</v>
+      </c>
+      <c r="J67">
+        <v>5</v>
+      </c>
+      <c r="K67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>203</v>
+      </c>
+      <c r="B68" t="s">
+        <v>344</v>
+      </c>
+      <c r="C68" t="b">
+        <v>0</v>
+      </c>
+      <c r="D68" t="b">
+        <v>1</v>
+      </c>
+      <c r="E68" t="b">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>4</v>
+      </c>
+      <c r="G68" t="s">
+        <v>241</v>
+      </c>
+      <c r="H68" t="s">
+        <v>204</v>
+      </c>
+      <c r="I68" t="s">
+        <v>205</v>
+      </c>
+      <c r="J68">
+        <v>5</v>
+      </c>
+      <c r="K68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>206</v>
+      </c>
+      <c r="B69" t="s">
+        <v>207</v>
+      </c>
+      <c r="C69" t="b">
+        <v>0</v>
+      </c>
+      <c r="D69" t="b">
+        <v>1</v>
+      </c>
+      <c r="E69" t="b">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>4</v>
+      </c>
+      <c r="G69" t="s">
+        <v>240</v>
+      </c>
+      <c r="H69" t="s">
+        <v>208</v>
+      </c>
+      <c r="I69" t="s">
+        <v>209</v>
+      </c>
+      <c r="J69">
+        <v>5</v>
+      </c>
+      <c r="K69" t="b">
+        <v>0</v>
+      </c>
+      <c r="L69" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>210</v>
+      </c>
+      <c r="B70" t="s">
+        <v>211</v>
+      </c>
+      <c r="C70" t="b">
+        <v>0</v>
+      </c>
+      <c r="D70" t="b">
+        <v>1</v>
+      </c>
+      <c r="E70" t="b">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>4</v>
+      </c>
+      <c r="G70" t="s">
+        <v>243</v>
+      </c>
+      <c r="H70" t="s">
+        <v>212</v>
+      </c>
+      <c r="I70" t="s">
+        <v>213</v>
+      </c>
+      <c r="J70">
+        <v>5</v>
+      </c>
+      <c r="K70" t="b">
+        <v>0</v>
+      </c>
+      <c r="L70" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>214</v>
+      </c>
+      <c r="B71" t="s">
+        <v>215</v>
+      </c>
+      <c r="C71" t="b">
+        <v>0</v>
+      </c>
+      <c r="D71" t="b">
+        <v>1</v>
+      </c>
+      <c r="E71" t="b">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>4</v>
+      </c>
+      <c r="G71" t="s">
+        <v>250</v>
+      </c>
+      <c r="H71" t="s">
         <v>216</v>
       </c>
-      <c r="B55" t="s">
+      <c r="I71" t="s">
         <v>217</v>
       </c>
-      <c r="C55" t="b">
-        <v>0</v>
-      </c>
-      <c r="D55" t="b">
-        <v>0</v>
-      </c>
-      <c r="E55" t="b">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>42</v>
-      </c>
-      <c r="G55" t="s">
-        <v>252</v>
-      </c>
-      <c r="H55" t="s">
-        <v>218</v>
-      </c>
-      <c r="I55" t="s">
-        <v>219</v>
-      </c>
-      <c r="J55">
-        <v>9</v>
-      </c>
-      <c r="K55" t="b">
-        <v>0</v>
-      </c>
-      <c r="L55" t="s">
-        <v>247</v>
+      <c r="J71">
+        <v>5</v>
+      </c>
+      <c r="K71" t="b">
+        <v>0</v>
+      </c>
+      <c r="L71" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>345</v>
+      </c>
+      <c r="B72" t="s">
+        <v>346</v>
+      </c>
+      <c r="C72" t="b">
+        <v>0</v>
+      </c>
+      <c r="D72" t="b">
+        <v>0</v>
+      </c>
+      <c r="E72" t="b">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>100</v>
+      </c>
+      <c r="G72" t="s">
+        <v>347</v>
+      </c>
+      <c r="H72" t="s">
+        <v>348</v>
+      </c>
+      <c r="I72" t="s">
+        <v>349</v>
+      </c>
+      <c r="J72">
+        <v>3</v>
+      </c>
+      <c r="K72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>350</v>
+      </c>
+      <c r="B73" t="s">
+        <v>346</v>
+      </c>
+      <c r="C73" t="b">
+        <v>0</v>
+      </c>
+      <c r="D73" t="b">
+        <v>1</v>
+      </c>
+      <c r="E73" t="b">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>4</v>
+      </c>
+      <c r="G73" t="s">
+        <v>351</v>
+      </c>
+      <c r="H73" t="s">
+        <v>352</v>
+      </c>
+      <c r="I73" t="s">
+        <v>353</v>
+      </c>
+      <c r="J73">
+        <v>3</v>
+      </c>
+      <c r="K73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>354</v>
+      </c>
+      <c r="B74" t="s">
+        <v>355</v>
+      </c>
+      <c r="C74" t="b">
+        <v>0</v>
+      </c>
+      <c r="D74" t="b">
+        <v>1</v>
+      </c>
+      <c r="E74" t="b">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>4</v>
+      </c>
+      <c r="G74" t="s">
+        <v>356</v>
+      </c>
+      <c r="H74" t="s">
+        <v>357</v>
+      </c>
+      <c r="I74" t="s">
+        <v>358</v>
+      </c>
+      <c r="J74">
+        <v>5</v>
+      </c>
+      <c r="K74" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3410,57 +4339,57 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337F1084-0289-45C5-B730-1195809B9D8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9A1F20-A778-408F-8110-332CDBFCF8F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G20" t="s">
         <v>115</v>
@@ -2413,7 +2413,7 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G21" t="s">
         <v>287</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G22" t="s">
         <v>292</v>
@@ -2483,7 +2483,7 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G23" t="s">
         <v>296</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G24" t="s">
         <v>120</v>
@@ -2553,7 +2553,7 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G25" t="s">
         <v>300</v>
@@ -2588,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G26" t="s">
         <v>305</v>
@@ -2623,7 +2623,7 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G27" t="s">
         <v>309</v>
@@ -2763,7 +2763,7 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G31" t="s">
         <v>322</v>
@@ -2833,7 +2833,7 @@
         <v>1</v>
       </c>
       <c r="F33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G33" t="s">
         <v>326</v>
@@ -2903,7 +2903,7 @@
         <v>1</v>
       </c>
       <c r="F35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G35" t="s">
         <v>330</v>
@@ -3261,7 +3261,7 @@
         <v>1</v>
       </c>
       <c r="F46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G46" t="s">
         <v>140</v>
@@ -3334,7 +3334,7 @@
         <v>1</v>
       </c>
       <c r="F48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G48" t="s">
         <v>224</v>
@@ -3407,7 +3407,7 @@
         <v>1</v>
       </c>
       <c r="F50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G50" t="s">
         <v>226</v>
@@ -3512,7 +3512,7 @@
         <v>1</v>
       </c>
       <c r="F53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G53" t="s">
         <v>229</v>
@@ -3582,7 +3582,7 @@
         <v>1</v>
       </c>
       <c r="F55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G55" t="s">
         <v>231</v>
@@ -3652,7 +3652,7 @@
         <v>1</v>
       </c>
       <c r="F57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G57" t="s">
         <v>233</v>
@@ -3722,7 +3722,7 @@
         <v>1</v>
       </c>
       <c r="F59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G59" t="s">
         <v>235</v>
@@ -3792,7 +3792,7 @@
         <v>1</v>
       </c>
       <c r="F61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G61" t="s">
         <v>237</v>
@@ -4014,7 +4014,7 @@
         <v>1</v>
       </c>
       <c r="F67">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G67" t="s">
         <v>341</v>
@@ -4233,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="F73">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G73" t="s">
         <v>351</v>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9A1F20-A778-408F-8110-332CDBFCF8F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE253F7-FFB1-4068-B28E-031EA7D232E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="345">
   <si>
     <t>levelPackId|String</t>
   </si>
@@ -850,48 +850,6 @@
   </si>
   <si>
     <t>openChapter|Int</t>
-  </si>
-  <si>
-    <t>CritDamage</t>
-  </si>
-  <si>
-    <t>FlatIcon_18_NoBG_Gray</t>
-  </si>
-  <si>
-    <t>LP_CritDamage</t>
-  </si>
-  <si>
-    <t>LevelPackUIName_CritDamage</t>
-  </si>
-  <si>
-    <t>LevelPackUIDesc_CritDamage</t>
-  </si>
-  <si>
-    <t>CritDamageBetter</t>
-  </si>
-  <si>
-    <t>LP_CritDamageBetter</t>
-  </si>
-  <si>
-    <t>LevelPackUIName_CritDamageBetter</t>
-  </si>
-  <si>
-    <t>LevelPackUIDesc_CritDamageBetter</t>
-  </si>
-  <si>
-    <t>CritDamageBest</t>
-  </si>
-  <si>
-    <t>FlatSkill2_62_NoBG_Gray</t>
-  </si>
-  <si>
-    <t>LP_CritDamageBest</t>
-  </si>
-  <si>
-    <t>LevelPackUIName_CritDamageBest</t>
-  </si>
-  <si>
-    <t>LevelPackUIDesc_CritDamageBest</t>
   </si>
   <si>
     <t>ReduceDmgProjectileBetter</t>
@@ -1678,7 +1636,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
-  <dimension ref="A1:M74"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2040,7 +1998,7 @@
         <v>84</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
@@ -2075,7 +2033,7 @@
         <v>89</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
@@ -2145,7 +2103,7 @@
         <v>98</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
@@ -2153,10 +2111,10 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>272</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s">
-        <v>273</v>
+        <v>100</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -2171,13 +2129,13 @@
         <v>130</v>
       </c>
       <c r="G14" t="s">
-        <v>274</v>
+        <v>101</v>
       </c>
       <c r="H14" t="s">
-        <v>275</v>
+        <v>102</v>
       </c>
       <c r="I14" t="s">
-        <v>276</v>
+        <v>103</v>
       </c>
       <c r="J14">
         <v>9</v>
@@ -2188,10 +2146,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>277</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
-        <v>273</v>
+        <v>100</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -2206,13 +2164,13 @@
         <v>4</v>
       </c>
       <c r="G15" t="s">
-        <v>278</v>
+        <v>105</v>
       </c>
       <c r="H15" t="s">
-        <v>279</v>
+        <v>106</v>
       </c>
       <c r="I15" t="s">
-        <v>280</v>
+        <v>107</v>
       </c>
       <c r="J15">
         <v>9</v>
@@ -2223,10 +2181,10 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>281</v>
+        <v>108</v>
       </c>
       <c r="B16" t="s">
-        <v>282</v>
+        <v>109</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -2241,27 +2199,27 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>283</v>
+        <v>110</v>
       </c>
       <c r="H16" t="s">
-        <v>284</v>
+        <v>111</v>
       </c>
       <c r="I16" t="s">
-        <v>285</v>
+        <v>112</v>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -2273,16 +2231,16 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="G17" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H17" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="I17" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="J17">
         <v>9</v>
@@ -2291,12 +2249,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>272</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -2308,16 +2266,16 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>105</v>
+        <v>273</v>
       </c>
       <c r="H18" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
       <c r="I18" t="s">
-        <v>107</v>
+        <v>275</v>
       </c>
       <c r="J18">
         <v>9</v>
@@ -2326,68 +2284,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>276</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>277</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="G19" t="s">
-        <v>110</v>
+        <v>278</v>
       </c>
       <c r="H19" t="s">
-        <v>111</v>
+        <v>279</v>
       </c>
       <c r="I19" t="s">
-        <v>112</v>
+        <v>280</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>281</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>277</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>115</v>
+        <v>282</v>
       </c>
       <c r="H20" t="s">
-        <v>116</v>
+        <v>283</v>
       </c>
       <c r="I20" t="s">
-        <v>117</v>
+        <v>284</v>
       </c>
       <c r="J20">
         <v>9</v>
@@ -2396,68 +2354,71 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>70</v>
+      </c>
+      <c r="G21" t="s">
+        <v>120</v>
+      </c>
+      <c r="H21" t="s">
+        <v>121</v>
+      </c>
+      <c r="I21" t="s">
+        <v>122</v>
+      </c>
+      <c r="J21">
+        <v>9</v>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>285</v>
+      </c>
+      <c r="B22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s">
         <v>286</v>
       </c>
-      <c r="B21" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21" t="b">
-        <v>0</v>
-      </c>
-      <c r="D21" t="b">
-        <v>1</v>
-      </c>
-      <c r="E21" t="b">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="H22" t="s">
         <v>287</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I22" t="s">
         <v>288</v>
-      </c>
-      <c r="I21" t="s">
-        <v>289</v>
-      </c>
-      <c r="J21">
-        <v>4</v>
-      </c>
-      <c r="K21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>290</v>
-      </c>
-      <c r="B22" t="s">
-        <v>291</v>
-      </c>
-      <c r="C22" t="b">
-        <v>0</v>
-      </c>
-      <c r="D22" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>70</v>
-      </c>
-      <c r="G22" t="s">
-        <v>292</v>
-      </c>
-      <c r="H22" t="s">
-        <v>293</v>
-      </c>
-      <c r="I22" t="s">
-        <v>294</v>
       </c>
       <c r="J22">
         <v>9</v>
@@ -2465,69 +2426,75 @@
       <c r="K22" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B23" t="s">
+        <v>290</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>70</v>
+      </c>
+      <c r="G23" t="s">
+        <v>291</v>
+      </c>
+      <c r="H23" t="s">
+        <v>292</v>
+      </c>
+      <c r="I23" t="s">
+        <v>293</v>
+      </c>
+      <c r="J23">
+        <v>9</v>
+      </c>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>294</v>
+      </c>
+      <c r="B24" t="s">
+        <v>290</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
         <v>295</v>
       </c>
-      <c r="B23" t="s">
-        <v>291</v>
-      </c>
-      <c r="C23" t="b">
-        <v>0</v>
-      </c>
-      <c r="D23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="H24" t="s">
         <v>296</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I24" t="s">
         <v>297</v>
-      </c>
-      <c r="I23" t="s">
-        <v>298</v>
-      </c>
-      <c r="J23">
-        <v>4</v>
-      </c>
-      <c r="K23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>118</v>
-      </c>
-      <c r="B24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C24" t="b">
-        <v>0</v>
-      </c>
-      <c r="D24" t="b">
-        <v>0</v>
-      </c>
-      <c r="E24" t="b">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>70</v>
-      </c>
-      <c r="G24" t="s">
-        <v>120</v>
-      </c>
-      <c r="H24" t="s">
-        <v>121</v>
-      </c>
-      <c r="I24" t="s">
-        <v>122</v>
       </c>
       <c r="J24">
         <v>9</v>
@@ -2535,209 +2502,221 @@
       <c r="K24" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>298</v>
+      </c>
+      <c r="B25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
         <v>299</v>
       </c>
-      <c r="B25" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" t="b">
-        <v>0</v>
-      </c>
-      <c r="D25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E25" t="b">
-        <v>1</v>
-      </c>
-      <c r="F25">
+      <c r="H25" t="s">
+        <v>300</v>
+      </c>
+      <c r="I25" t="s">
+        <v>301</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>302</v>
+      </c>
+      <c r="B26" t="s">
+        <v>303</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>304</v>
+      </c>
+      <c r="H26" t="s">
+        <v>305</v>
+      </c>
+      <c r="I26" t="s">
+        <v>306</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+      <c r="K26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>100</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>307</v>
+      </c>
+      <c r="B28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28">
         <v>2</v>
       </c>
-      <c r="G25" t="s">
-        <v>300</v>
-      </c>
-      <c r="H25" t="s">
-        <v>301</v>
-      </c>
-      <c r="I25" t="s">
-        <v>302</v>
-      </c>
-      <c r="J25">
+      <c r="G28" t="s">
+        <v>308</v>
+      </c>
+      <c r="H28" t="s">
+        <v>309</v>
+      </c>
+      <c r="I28" t="s">
+        <v>310</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28">
         <v>4</v>
       </c>
-      <c r="K25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>303</v>
-      </c>
-      <c r="B26" t="s">
-        <v>304</v>
-      </c>
-      <c r="C26" t="b">
-        <v>0</v>
-      </c>
-      <c r="D26" t="b">
-        <v>0</v>
-      </c>
-      <c r="E26" t="b">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>70</v>
-      </c>
-      <c r="G26" t="s">
-        <v>305</v>
-      </c>
-      <c r="H26" t="s">
-        <v>306</v>
-      </c>
-      <c r="I26" t="s">
-        <v>307</v>
-      </c>
-      <c r="J26">
-        <v>9</v>
-      </c>
-      <c r="K26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>308</v>
-      </c>
-      <c r="B27" t="s">
-        <v>304</v>
-      </c>
-      <c r="C27" t="b">
-        <v>0</v>
-      </c>
-      <c r="D27" t="b">
-        <v>1</v>
-      </c>
-      <c r="E27" t="b">
-        <v>1</v>
-      </c>
-      <c r="F27">
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>100</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+      <c r="K29" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>311</v>
+      </c>
+      <c r="B30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30">
         <v>2</v>
       </c>
-      <c r="G27" t="s">
-        <v>309</v>
-      </c>
-      <c r="H27" t="s">
-        <v>310</v>
-      </c>
-      <c r="I27" t="s">
-        <v>311</v>
-      </c>
-      <c r="J27">
-        <v>4</v>
-      </c>
-      <c r="K27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="G30" t="s">
         <v>312</v>
       </c>
-      <c r="B28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C28" t="b">
-        <v>0</v>
-      </c>
-      <c r="D28" t="b">
-        <v>1</v>
-      </c>
-      <c r="E28" t="b">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>4</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="H30" t="s">
         <v>313</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I30" t="s">
         <v>314</v>
-      </c>
-      <c r="I28" t="s">
-        <v>315</v>
-      </c>
-      <c r="J28">
-        <v>5</v>
-      </c>
-      <c r="K28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>316</v>
-      </c>
-      <c r="B29" t="s">
-        <v>317</v>
-      </c>
-      <c r="C29" t="b">
-        <v>0</v>
-      </c>
-      <c r="D29" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29" t="b">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>4</v>
-      </c>
-      <c r="G29" t="s">
-        <v>318</v>
-      </c>
-      <c r="H29" t="s">
-        <v>319</v>
-      </c>
-      <c r="I29" t="s">
-        <v>320</v>
-      </c>
-      <c r="J29">
-        <v>5</v>
-      </c>
-      <c r="K29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C30" t="b">
-        <v>0</v>
-      </c>
-      <c r="D30" t="b">
-        <v>0</v>
-      </c>
-      <c r="E30" t="b">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>100</v>
-      </c>
-      <c r="G30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" t="s">
-        <v>15</v>
       </c>
       <c r="J30">
         <v>3</v>
@@ -2745,34 +2724,37 @@
       <c r="K30" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>321</v>
+        <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G31" t="s">
-        <v>322</v>
+        <v>21</v>
       </c>
       <c r="H31" t="s">
-        <v>323</v>
+        <v>22</v>
       </c>
       <c r="I31" t="s">
-        <v>324</v>
+        <v>23</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -2781,33 +2763,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>315</v>
       </c>
       <c r="B32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G32" t="s">
-        <v>17</v>
+        <v>316</v>
       </c>
       <c r="H32" t="s">
-        <v>18</v>
+        <v>317</v>
       </c>
       <c r="I32" t="s">
-        <v>19</v>
+        <v>318</v>
       </c>
       <c r="J32">
         <v>3</v>
@@ -2818,34 +2800,31 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>325</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
-      <c r="F33">
+      <c r="G33" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J33">
         <v>2</v>
-      </c>
-      <c r="G33" t="s">
-        <v>326</v>
-      </c>
-      <c r="H33" t="s">
-        <v>327</v>
-      </c>
-      <c r="I33" t="s">
-        <v>328</v>
-      </c>
-      <c r="J33">
-        <v>3</v>
       </c>
       <c r="K33" t="b">
         <v>0</v>
@@ -2853,34 +2832,31 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>257</v>
       </c>
       <c r="B34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
       </c>
       <c r="E34" t="b">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H34" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I34" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>
@@ -2888,34 +2864,31 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>329</v>
+        <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
-      <c r="F35">
+      <c r="G35" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" t="s">
+        <v>31</v>
+      </c>
+      <c r="J35">
         <v>2</v>
-      </c>
-      <c r="G35" t="s">
-        <v>330</v>
-      </c>
-      <c r="H35" t="s">
-        <v>331</v>
-      </c>
-      <c r="I35" t="s">
-        <v>332</v>
-      </c>
-      <c r="J35">
-        <v>3</v>
       </c>
       <c r="K35" t="b">
         <v>0</v>
@@ -2923,10 +2896,10 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C36" t="b">
         <v>1</v>
@@ -2938,13 +2911,13 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H36" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I36" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J36">
         <v>2</v>
@@ -2955,10 +2928,10 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C37" t="b">
         <v>1</v>
@@ -2970,13 +2943,13 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="H37" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I37" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -2987,10 +2960,10 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
@@ -3002,13 +2975,13 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H38" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I38" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -3019,10 +2992,10 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C39" t="b">
         <v>1</v>
@@ -3034,13 +3007,13 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="J39">
         <v>2</v>
@@ -3051,10 +3024,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C40" t="b">
         <v>1</v>
@@ -3066,13 +3039,13 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H40" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I40" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J40">
         <v>2</v>
@@ -3083,10 +3056,10 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
@@ -3098,13 +3071,13 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H41" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="I41" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="J41">
         <v>2</v>
@@ -3115,31 +3088,34 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="B42" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>100</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="I42" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="J42">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
@@ -3147,31 +3123,34 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="B43" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
       <c r="G43" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="H43" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="I43" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="J43">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K43" t="b">
         <v>0</v>
@@ -3179,63 +3158,69 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>147</v>
       </c>
       <c r="B44" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="C44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
       </c>
       <c r="E44" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>100</v>
       </c>
       <c r="G44" t="s">
-        <v>53</v>
+        <v>223</v>
       </c>
       <c r="H44" t="s">
-        <v>54</v>
+        <v>149</v>
       </c>
       <c r="I44" t="s">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="J44">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K44" t="b">
         <v>0</v>
+      </c>
+      <c r="L44" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="B45" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
       </c>
       <c r="D45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G45" t="s">
-        <v>136</v>
+        <v>224</v>
       </c>
       <c r="H45" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="I45" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="J45">
         <v>5</v>
@@ -3243,37 +3228,40 @@
       <c r="K45" t="b">
         <v>0</v>
       </c>
+      <c r="L45" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="B46" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
       </c>
       <c r="D46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G46" t="s">
-        <v>140</v>
+        <v>225</v>
       </c>
       <c r="H46" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="I46" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="J46">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
@@ -3281,48 +3269,45 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="B47" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
       </c>
       <c r="D47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G47" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H47" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I47" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="J47">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
-      </c>
-      <c r="L47" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B48" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
@@ -3334,16 +3319,16 @@
         <v>1</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G48" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H48" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="I48" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="J48">
         <v>5</v>
@@ -3351,16 +3336,13 @@
       <c r="K48" t="b">
         <v>0</v>
       </c>
-      <c r="L48" t="s">
-        <v>244</v>
-      </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B49" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
@@ -3375,13 +3357,13 @@
         <v>100</v>
       </c>
       <c r="G49" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H49" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="I49" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="J49">
         <v>5</v>
@@ -3392,10 +3374,10 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="B50" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
@@ -3410,16 +3392,16 @@
         <v>2</v>
       </c>
       <c r="G50" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H50" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="I50" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="J50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
@@ -3427,31 +3409,31 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="B51" t="s">
-        <v>162</v>
+        <v>319</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
       </c>
       <c r="D51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="G51" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H51" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="I51" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="J51">
         <v>9</v>
@@ -3462,31 +3444,31 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="B52" t="s">
-        <v>166</v>
+        <v>319</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
       </c>
       <c r="D52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G52" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H52" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="I52" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="J52">
         <v>5</v>
@@ -3497,31 +3479,31 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="B53" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
       </c>
       <c r="D53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G53" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H53" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="I53" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="J53">
         <v>5</v>
@@ -3532,34 +3514,34 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B54" t="s">
-        <v>333</v>
+        <v>180</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
       </c>
       <c r="D54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G54" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H54" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="I54" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="J54">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
@@ -3567,34 +3549,34 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B55" t="s">
-        <v>333</v>
+        <v>187</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
       </c>
       <c r="D55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G55" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H55" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="I55" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="J55">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
@@ -3602,34 +3584,34 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="B56" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
       </c>
       <c r="D56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G56" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H56" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="I56" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="J56">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
@@ -3637,34 +3619,34 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="B57" t="s">
-        <v>180</v>
+        <v>320</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
       </c>
       <c r="D57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G57" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H57" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="I57" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="J57">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
@@ -3672,34 +3654,34 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B58" t="s">
-        <v>187</v>
+        <v>320</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
       </c>
       <c r="D58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G58" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H58" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="I58" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="J58">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
@@ -3707,10 +3689,10 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>190</v>
+        <v>143</v>
       </c>
       <c r="B59" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
@@ -3722,16 +3704,16 @@
         <v>1</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G59" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="H59" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="I59" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="J59">
         <v>5</v>
@@ -3739,48 +3721,54 @@
       <c r="K59" t="b">
         <v>0</v>
       </c>
+      <c r="L59" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B60" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
       </c>
       <c r="D60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G60" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H60" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="I60" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="J60">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
+      </c>
+      <c r="L60" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>196</v>
+        <v>322</v>
       </c>
       <c r="B61" t="s">
-        <v>334</v>
+        <v>200</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
@@ -3792,30 +3780,33 @@
         <v>1</v>
       </c>
       <c r="F61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G61" t="s">
-        <v>237</v>
+        <v>323</v>
       </c>
       <c r="H61" t="s">
-        <v>197</v>
+        <v>324</v>
       </c>
       <c r="I61" t="s">
-        <v>198</v>
+        <v>325</v>
       </c>
       <c r="J61">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
+      </c>
+      <c r="L61" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>143</v>
+        <v>251</v>
       </c>
       <c r="B62" t="s">
-        <v>144</v>
+        <v>222</v>
       </c>
       <c r="C62" t="b">
         <v>0</v>
@@ -3830,68 +3821,65 @@
         <v>4</v>
       </c>
       <c r="G62" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H62" t="s">
-        <v>145</v>
+        <v>253</v>
       </c>
       <c r="I62" t="s">
-        <v>146</v>
+        <v>254</v>
       </c>
       <c r="J62">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
       </c>
       <c r="L62" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="B63" t="s">
-        <v>335</v>
+        <v>219</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
       </c>
       <c r="D63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="G63" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H63" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="I63" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="J63">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K63" t="b">
         <v>0</v>
-      </c>
-      <c r="L63" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="B64" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="C64" t="b">
         <v>0</v>
@@ -3903,33 +3891,30 @@
         <v>1</v>
       </c>
       <c r="F64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G64" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="H64" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="I64" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="J64">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
-      </c>
-      <c r="L64" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="B65" t="s">
-        <v>222</v>
+        <v>330</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
@@ -3944,65 +3929,65 @@
         <v>4</v>
       </c>
       <c r="G65" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="H65" t="s">
-        <v>253</v>
+        <v>204</v>
       </c>
       <c r="I65" t="s">
-        <v>254</v>
+        <v>205</v>
       </c>
       <c r="J65">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K65" t="b">
         <v>0</v>
-      </c>
-      <c r="L65" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="B66" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C66" t="b">
         <v>0</v>
       </c>
       <c r="D66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G66" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H66" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="I66" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="J66">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K66" t="b">
         <v>0</v>
+      </c>
+      <c r="L66" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>340</v>
+        <v>210</v>
       </c>
       <c r="B67" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>
@@ -4014,30 +3999,33 @@
         <v>1</v>
       </c>
       <c r="F67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G67" t="s">
-        <v>341</v>
+        <v>243</v>
       </c>
       <c r="H67" t="s">
-        <v>342</v>
+        <v>212</v>
       </c>
       <c r="I67" t="s">
-        <v>343</v>
+        <v>213</v>
       </c>
       <c r="J67">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
+      </c>
+      <c r="L67" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="B68" t="s">
-        <v>344</v>
+        <v>215</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
@@ -4052,13 +4040,13 @@
         <v>4</v>
       </c>
       <c r="G68" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="H68" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="I68" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="J68">
         <v>5</v>
@@ -4066,51 +4054,51 @@
       <c r="K68" t="b">
         <v>0</v>
       </c>
+      <c r="L68" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>206</v>
+        <v>331</v>
       </c>
       <c r="B69" t="s">
-        <v>207</v>
+        <v>332</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
       </c>
       <c r="D69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="G69" t="s">
-        <v>240</v>
+        <v>333</v>
       </c>
       <c r="H69" t="s">
-        <v>208</v>
+        <v>334</v>
       </c>
       <c r="I69" t="s">
-        <v>209</v>
+        <v>335</v>
       </c>
       <c r="J69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
-      </c>
-      <c r="L69" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>210</v>
+        <v>336</v>
       </c>
       <c r="B70" t="s">
-        <v>211</v>
+        <v>332</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
@@ -4122,33 +4110,30 @@
         <v>1</v>
       </c>
       <c r="F70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G70" t="s">
-        <v>243</v>
+        <v>337</v>
       </c>
       <c r="H70" t="s">
-        <v>212</v>
+        <v>338</v>
       </c>
       <c r="I70" t="s">
-        <v>213</v>
+        <v>339</v>
       </c>
       <c r="J70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K70" t="b">
         <v>0</v>
-      </c>
-      <c r="L70" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>214</v>
+        <v>340</v>
       </c>
       <c r="B71" t="s">
-        <v>215</v>
+        <v>341</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
@@ -4163,126 +4148,18 @@
         <v>4</v>
       </c>
       <c r="G71" t="s">
-        <v>250</v>
+        <v>342</v>
       </c>
       <c r="H71" t="s">
-        <v>216</v>
+        <v>343</v>
       </c>
       <c r="I71" t="s">
-        <v>217</v>
+        <v>344</v>
       </c>
       <c r="J71">
         <v>5</v>
       </c>
       <c r="K71" t="b">
-        <v>0</v>
-      </c>
-      <c r="L71" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>345</v>
-      </c>
-      <c r="B72" t="s">
-        <v>346</v>
-      </c>
-      <c r="C72" t="b">
-        <v>0</v>
-      </c>
-      <c r="D72" t="b">
-        <v>0</v>
-      </c>
-      <c r="E72" t="b">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>100</v>
-      </c>
-      <c r="G72" t="s">
-        <v>347</v>
-      </c>
-      <c r="H72" t="s">
-        <v>348</v>
-      </c>
-      <c r="I72" t="s">
-        <v>349</v>
-      </c>
-      <c r="J72">
-        <v>3</v>
-      </c>
-      <c r="K72" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>350</v>
-      </c>
-      <c r="B73" t="s">
-        <v>346</v>
-      </c>
-      <c r="C73" t="b">
-        <v>0</v>
-      </c>
-      <c r="D73" t="b">
-        <v>1</v>
-      </c>
-      <c r="E73" t="b">
-        <v>1</v>
-      </c>
-      <c r="F73">
-        <v>2</v>
-      </c>
-      <c r="G73" t="s">
-        <v>351</v>
-      </c>
-      <c r="H73" t="s">
-        <v>352</v>
-      </c>
-      <c r="I73" t="s">
-        <v>353</v>
-      </c>
-      <c r="J73">
-        <v>3</v>
-      </c>
-      <c r="K73" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>354</v>
-      </c>
-      <c r="B74" t="s">
-        <v>355</v>
-      </c>
-      <c r="C74" t="b">
-        <v>0</v>
-      </c>
-      <c r="D74" t="b">
-        <v>1</v>
-      </c>
-      <c r="E74" t="b">
-        <v>1</v>
-      </c>
-      <c r="F74">
-        <v>4</v>
-      </c>
-      <c r="G74" t="s">
-        <v>356</v>
-      </c>
-      <c r="H74" t="s">
-        <v>357</v>
-      </c>
-      <c r="I74" t="s">
-        <v>358</v>
-      </c>
-      <c r="J74">
-        <v>5</v>
-      </c>
-      <c r="K74" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE253F7-FFB1-4068-B28E-031EA7D232E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A78519F-3C50-4C70-829A-CD93FE0C9940}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -2033,7 +2033,7 @@
         <v>89</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>93</v>
       </c>
       <c r="J12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
@@ -2318,6 +2318,9 @@
       <c r="K19" t="b">
         <v>0</v>
       </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -2353,6 +2356,9 @@
       <c r="K20" t="b">
         <v>0</v>
       </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -2389,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -2427,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -2465,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -2503,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A78519F-3C50-4C70-829A-CD93FE0C9940}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5FC221-EFD2-43FC-A93B-D07A46B47982}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -2395,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5FC221-EFD2-43FC-A93B-D07A46B47982}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F764C6-CAD3-474E-9C9E-9BE75E2350A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -840,15 +840,6 @@
     <t>levelPack|String</t>
   </si>
   <si>
-    <t>Actor001</t>
-  </si>
-  <si>
-    <t>Actor003</t>
-  </si>
-  <si>
-    <t>Actor004</t>
-  </si>
-  <si>
     <t>openChapter|Int</t>
   </si>
   <si>
@@ -1069,6 +1060,15 @@
   </si>
   <si>
     <t>LevelPackUIDesc_PaybackSp</t>
+  </si>
+  <si>
+    <t>Actor0201</t>
+  </si>
+  <si>
+    <t>Actor2103</t>
+  </si>
+  <si>
+    <t>Actor0104</t>
   </si>
 </sst>
 </file>
@@ -1638,7 +1638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1695,7 +1695,7 @@
         <v>56</v>
       </c>
       <c r="M1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -2251,7 +2251,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B18" t="s">
         <v>114</v>
@@ -2269,13 +2269,13 @@
         <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H18" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I18" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="J18">
         <v>9</v>
@@ -2286,10 +2286,10 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B19" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -2304,13 +2304,13 @@
         <v>70</v>
       </c>
       <c r="G19" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H19" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="I19" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J19">
         <v>9</v>
@@ -2324,10 +2324,10 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B20" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -2342,13 +2342,13 @@
         <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H20" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I20" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="J20">
         <v>9</v>
@@ -2400,7 +2400,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B22" t="s">
         <v>119</v>
@@ -2418,13 +2418,13 @@
         <v>2</v>
       </c>
       <c r="G22" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H22" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I22" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J22">
         <v>9</v>
@@ -2438,10 +2438,10 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B23" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -2456,13 +2456,13 @@
         <v>70</v>
       </c>
       <c r="G23" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H23" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I23" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="J23">
         <v>9</v>
@@ -2476,10 +2476,10 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B24" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -2494,13 +2494,13 @@
         <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H24" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I24" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J24">
         <v>9</v>
@@ -2514,7 +2514,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B25" t="s">
         <v>173</v>
@@ -2532,13 +2532,13 @@
         <v>4</v>
       </c>
       <c r="G25" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H25" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I25" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -2549,10 +2549,10 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B26" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -2567,13 +2567,13 @@
         <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H26" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I26" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="J26">
         <v>3</v>
@@ -2622,7 +2622,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B28" t="s">
         <v>123</v>
@@ -2640,13 +2640,13 @@
         <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H28" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="I28" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="J28">
         <v>3</v>
@@ -2698,7 +2698,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B30" t="s">
         <v>124</v>
@@ -2716,13 +2716,13 @@
         <v>2</v>
       </c>
       <c r="G30" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H30" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="I30" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="J30">
         <v>3</v>
@@ -2771,7 +2771,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B32" t="s">
         <v>125</v>
@@ -2789,13 +2789,13 @@
         <v>2</v>
       </c>
       <c r="G32" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H32" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="I32" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="J32">
         <v>3</v>
@@ -3418,7 +3418,7 @@
         <v>172</v>
       </c>
       <c r="B51" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
@@ -3453,7 +3453,7 @@
         <v>176</v>
       </c>
       <c r="B52" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
@@ -3628,7 +3628,7 @@
         <v>193</v>
       </c>
       <c r="B57" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>196</v>
       </c>
       <c r="B58" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
@@ -3736,7 +3736,7 @@
         <v>199</v>
       </c>
       <c r="B60" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
@@ -3771,7 +3771,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B61" t="s">
         <v>200</v>
@@ -3789,13 +3789,13 @@
         <v>4</v>
       </c>
       <c r="G61" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H61" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I61" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="J61">
         <v>3</v>
@@ -3882,7 +3882,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B64" t="s">
         <v>219</v>
@@ -3900,13 +3900,13 @@
         <v>2</v>
       </c>
       <c r="G64" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H64" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="I64" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="J64">
         <v>5</v>
@@ -3920,7 +3920,7 @@
         <v>203</v>
       </c>
       <c r="B65" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
@@ -4066,10 +4066,10 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B69" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
@@ -4084,13 +4084,13 @@
         <v>100</v>
       </c>
       <c r="G69" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H69" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="I69" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="J69">
         <v>3</v>
@@ -4101,10 +4101,10 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B70" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
@@ -4119,13 +4119,13 @@
         <v>2</v>
       </c>
       <c r="G70" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H70" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="I70" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="J70">
         <v>3</v>
@@ -4136,10 +4136,10 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B71" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
@@ -4154,13 +4154,13 @@
         <v>4</v>
       </c>
       <c r="G71" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H71" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="I71" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J71">
         <v>5</v>
@@ -4212,10 +4212,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6239E2D-40EA-4B45-8295-42B35BCC92F9}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="2" width="10.75" customWidth="1"/>
     <col min="3" max="3" width="25.625" customWidth="1"/>
   </cols>
@@ -4233,7 +4234,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>268</v>
+        <v>342</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -4244,7 +4245,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>268</v>
+        <v>342</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -4255,7 +4256,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>269</v>
+        <v>343</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -4266,7 +4267,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>270</v>
+        <v>344</v>
       </c>
       <c r="B5">
         <v>5</v>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F764C6-CAD3-474E-9C9E-9BE75E2350A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAE600F-F3FB-4A94-8841-94B1C0A85093}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="355">
   <si>
     <t>levelPackId|String</t>
   </si>
@@ -807,33 +807,12 @@
     <t>Effect6_Collision_D, Effect6_Collision_D2, MagicSphere_12_D</t>
   </si>
   <si>
-    <t>MonsterThroughForGanfaul</t>
-  </si>
-  <si>
     <t>noHit|Bool</t>
   </si>
   <si>
     <t>colored|Bool</t>
   </si>
   <si>
-    <t>AtkBetterForBei</t>
-  </si>
-  <si>
-    <t>AtkBetterForGanfaul</t>
-  </si>
-  <si>
-    <t>LevelPackUIName_AtkBetterForGanfaul</t>
-  </si>
-  <si>
-    <t>LevelPackUIName_AtkBetterForBei</t>
-  </si>
-  <si>
-    <t>AtkSpeedBetterForBigBatSuccubus</t>
-  </si>
-  <si>
-    <t>LevelPackUIName_AtkSpeedBetterForBigBatSuccubus</t>
-  </si>
-  <si>
     <t>actorId|String</t>
   </si>
   <si>
@@ -1069,6 +1048,57 @@
   </si>
   <si>
     <t>Actor0104</t>
+  </si>
+  <si>
+    <t>MonsterThroughGanfaul</t>
+  </si>
+  <si>
+    <t>AtkBetterGanfaul</t>
+  </si>
+  <si>
+    <t>AtkSpeedBetterBigBatSuccubus</t>
+  </si>
+  <si>
+    <t>AtkBetterBei</t>
+  </si>
+  <si>
+    <t>Actor3114</t>
+  </si>
+  <si>
+    <t>ArcFormAkai</t>
+  </si>
+  <si>
+    <t>Actor2128</t>
+  </si>
+  <si>
+    <t>RicochetBetterMobileFemale</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_AtkBetterGanfaul</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_AtkBetterBei</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_AtkSpeedBetterBigBatSuccubus</t>
+  </si>
+  <si>
+    <t>LP_RicochetBetterMobileFemale</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_RicochetBetterMobileFemale</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_RicochetBetterMobileFemale</t>
+  </si>
+  <si>
+    <t>LP_ArcFormAkai</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_ArcFormAkai</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_ArcFormAkai</t>
   </si>
 </sst>
 </file>
@@ -1636,12 +1666,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
-  <dimension ref="A1:M71"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1668,10 +1698,10 @@
         <v>9</v>
       </c>
       <c r="D1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1" t="s">
         <v>258</v>
-      </c>
-      <c r="E1" t="s">
-        <v>259</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -1695,7 +1725,7 @@
         <v>56</v>
       </c>
       <c r="M1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1770,7 +1800,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>261</v>
+        <v>339</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -1788,7 +1818,7 @@
         <v>63</v>
       </c>
       <c r="H4" t="s">
-        <v>262</v>
+        <v>346</v>
       </c>
       <c r="I4" t="s">
         <v>65</v>
@@ -1802,7 +1832,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>260</v>
+        <v>341</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -1820,7 +1850,7 @@
         <v>63</v>
       </c>
       <c r="H5" t="s">
-        <v>263</v>
+        <v>347</v>
       </c>
       <c r="I5" t="s">
         <v>65</v>
@@ -1939,7 +1969,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>264</v>
+        <v>340</v>
       </c>
       <c r="B9" t="s">
         <v>72</v>
@@ -1957,7 +1987,7 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>265</v>
+        <v>348</v>
       </c>
       <c r="I9" t="s">
         <v>79</v>
@@ -2251,7 +2281,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B18" t="s">
         <v>114</v>
@@ -2269,13 +2299,13 @@
         <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="H18" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="I18" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="J18">
         <v>9</v>
@@ -2286,10 +2316,10 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B19" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -2304,13 +2334,13 @@
         <v>70</v>
       </c>
       <c r="G19" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="H19" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="I19" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="J19">
         <v>9</v>
@@ -2324,10 +2354,10 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B20" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -2342,13 +2372,13 @@
         <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="H20" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="I20" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J20">
         <v>9</v>
@@ -2400,7 +2430,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B22" t="s">
         <v>119</v>
@@ -2418,13 +2448,13 @@
         <v>2</v>
       </c>
       <c r="G22" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="H22" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I22" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="J22">
         <v>9</v>
@@ -2438,10 +2468,10 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B23" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -2456,13 +2486,13 @@
         <v>70</v>
       </c>
       <c r="G23" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="H23" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="I23" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="J23">
         <v>9</v>
@@ -2476,10 +2506,10 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B24" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -2494,13 +2524,13 @@
         <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="H24" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="I24" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="J24">
         <v>9</v>
@@ -2514,7 +2544,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B25" t="s">
         <v>173</v>
@@ -2532,13 +2562,13 @@
         <v>4</v>
       </c>
       <c r="G25" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H25" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="I25" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -2549,10 +2579,10 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B26" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -2567,13 +2597,13 @@
         <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="H26" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="I26" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="J26">
         <v>3</v>
@@ -2622,7 +2652,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B28" t="s">
         <v>123</v>
@@ -2640,13 +2670,13 @@
         <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="H28" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="I28" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="J28">
         <v>3</v>
@@ -2698,7 +2728,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B30" t="s">
         <v>124</v>
@@ -2716,13 +2746,13 @@
         <v>2</v>
       </c>
       <c r="G30" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="H30" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="I30" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="J30">
         <v>3</v>
@@ -2771,7 +2801,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B32" t="s">
         <v>125</v>
@@ -2789,13 +2819,13 @@
         <v>2</v>
       </c>
       <c r="G32" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="H32" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="I32" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="J32">
         <v>3</v>
@@ -2838,7 +2868,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>257</v>
+        <v>338</v>
       </c>
       <c r="B34" t="s">
         <v>126</v>
@@ -2862,7 +2892,7 @@
         <v>27</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>
@@ -2902,10 +2932,10 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>345</v>
       </c>
       <c r="B36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C36" t="b">
         <v>1</v>
@@ -2917,16 +2947,16 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>349</v>
       </c>
       <c r="H36" t="s">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="I36" t="s">
-        <v>35</v>
+        <v>351</v>
       </c>
       <c r="J36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K36" t="b">
         <v>0</v>
@@ -2934,10 +2964,10 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C37" t="b">
         <v>1</v>
@@ -2949,13 +2979,13 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H37" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I37" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -2966,10 +2996,10 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
@@ -2981,13 +3011,13 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H38" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I38" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -2998,10 +3028,10 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C39" t="b">
         <v>1</v>
@@ -3013,13 +3043,13 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I39" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J39">
         <v>2</v>
@@ -3030,10 +3060,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C40" t="b">
         <v>1</v>
@@ -3045,13 +3075,13 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J40">
         <v>2</v>
@@ -3062,10 +3092,10 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
@@ -3077,13 +3107,13 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H41" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I41" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J41">
         <v>2</v>
@@ -3094,34 +3124,31 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
       </c>
       <c r="E42" t="b">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="H42" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="I42" t="s">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c r="J42">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
@@ -3129,7 +3156,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B43" t="s">
         <v>135</v>
@@ -3138,25 +3165,25 @@
         <v>0</v>
       </c>
       <c r="D43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G43" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H43" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I43" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J43">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K43" t="b">
         <v>0</v>
@@ -3164,45 +3191,42 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B44" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
       </c>
       <c r="D44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G44" t="s">
-        <v>223</v>
+        <v>140</v>
       </c>
       <c r="H44" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="I44" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="J44">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K44" t="b">
         <v>0</v>
-      </c>
-      <c r="L44" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B45" t="s">
         <v>148</v>
@@ -3211,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="D45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G45" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H45" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I45" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J45">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K45" t="b">
         <v>0</v>
@@ -3240,42 +3264,45 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B46" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
       </c>
       <c r="D46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G46" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H46" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I46" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J46">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
+      </c>
+      <c r="L46" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B47" t="s">
         <v>155</v>
@@ -3284,25 +3311,25 @@
         <v>0</v>
       </c>
       <c r="D47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H47" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I47" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J47">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
@@ -3310,10 +3337,10 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B48" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
@@ -3325,16 +3352,16 @@
         <v>1</v>
       </c>
       <c r="F48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G48" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H48" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I48" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J48">
         <v>5</v>
@@ -3345,31 +3372,31 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B49" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
       </c>
       <c r="D49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G49" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H49" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I49" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J49">
         <v>5</v>
@@ -3380,7 +3407,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B50" t="s">
         <v>166</v>
@@ -3389,25 +3416,25 @@
         <v>0</v>
       </c>
       <c r="D50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G50" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H50" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I50" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J50">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
@@ -3415,34 +3442,34 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B51" t="s">
-        <v>316</v>
+        <v>166</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
       </c>
       <c r="D51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H51" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I51" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J51">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
@@ -3450,34 +3477,34 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B52" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
       </c>
       <c r="D52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G52" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H52" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I52" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J52">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
@@ -3485,31 +3512,31 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B53" t="s">
-        <v>180</v>
+        <v>309</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
       </c>
       <c r="D53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G53" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H53" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I53" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J53">
         <v>5</v>
@@ -3520,7 +3547,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B54" t="s">
         <v>180</v>
@@ -3529,25 +3556,25 @@
         <v>0</v>
       </c>
       <c r="D54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G54" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H54" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I54" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J54">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
@@ -3555,34 +3582,34 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B55" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
       </c>
       <c r="D55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G55" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H55" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I55" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J55">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
@@ -3590,7 +3617,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B56" t="s">
         <v>187</v>
@@ -3599,25 +3626,25 @@
         <v>0</v>
       </c>
       <c r="D56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G56" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H56" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I56" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J56">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
@@ -3625,34 +3652,34 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B57" t="s">
-        <v>317</v>
+        <v>187</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
       </c>
       <c r="D57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G57" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H57" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I57" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J57">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
@@ -3660,34 +3687,34 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B58" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
       </c>
       <c r="D58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G58" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H58" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I58" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J58">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
@@ -3695,10 +3722,10 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>143</v>
+        <v>196</v>
       </c>
       <c r="B59" t="s">
-        <v>144</v>
+        <v>310</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
@@ -3710,16 +3737,16 @@
         <v>1</v>
       </c>
       <c r="F59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G59" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="H59" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="I59" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="J59">
         <v>5</v>
@@ -3727,16 +3754,13 @@
       <c r="K59" t="b">
         <v>0</v>
       </c>
-      <c r="L59" t="s">
-        <v>246</v>
-      </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="B60" t="s">
-        <v>318</v>
+        <v>144</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
@@ -3751,30 +3775,30 @@
         <v>4</v>
       </c>
       <c r="G60" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="H60" t="s">
-        <v>201</v>
+        <v>145</v>
       </c>
       <c r="I60" t="s">
-        <v>202</v>
+        <v>146</v>
       </c>
       <c r="J60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
       </c>
       <c r="L60" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>319</v>
+        <v>199</v>
       </c>
       <c r="B61" t="s">
-        <v>200</v>
+        <v>311</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
@@ -3789,13 +3813,13 @@
         <v>4</v>
       </c>
       <c r="G61" t="s">
-        <v>320</v>
+        <v>238</v>
       </c>
       <c r="H61" t="s">
-        <v>321</v>
+        <v>201</v>
       </c>
       <c r="I61" t="s">
-        <v>322</v>
+        <v>202</v>
       </c>
       <c r="J61">
         <v>3</v>
@@ -3809,10 +3833,10 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>251</v>
+        <v>312</v>
       </c>
       <c r="B62" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="C62" t="b">
         <v>0</v>
@@ -3827,13 +3851,13 @@
         <v>4</v>
       </c>
       <c r="G62" t="s">
-        <v>252</v>
+        <v>313</v>
       </c>
       <c r="H62" t="s">
-        <v>253</v>
+        <v>314</v>
       </c>
       <c r="I62" t="s">
-        <v>254</v>
+        <v>315</v>
       </c>
       <c r="J62">
         <v>3</v>
@@ -3842,47 +3866,50 @@
         <v>0</v>
       </c>
       <c r="L62" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="B63" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
       </c>
       <c r="D63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G63" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="H63" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="I63" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="J63">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K63" t="b">
         <v>0</v>
+      </c>
+      <c r="L63" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>323</v>
+        <v>218</v>
       </c>
       <c r="B64" t="s">
         <v>219</v>
@@ -3891,22 +3918,22 @@
         <v>0</v>
       </c>
       <c r="D64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G64" t="s">
-        <v>324</v>
+        <v>239</v>
       </c>
       <c r="H64" t="s">
-        <v>325</v>
+        <v>220</v>
       </c>
       <c r="I64" t="s">
-        <v>326</v>
+        <v>221</v>
       </c>
       <c r="J64">
         <v>5</v>
@@ -3917,10 +3944,10 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>203</v>
+        <v>316</v>
       </c>
       <c r="B65" t="s">
-        <v>327</v>
+        <v>219</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
@@ -3932,19 +3959,19 @@
         <v>1</v>
       </c>
       <c r="F65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G65" t="s">
-        <v>241</v>
+        <v>317</v>
       </c>
       <c r="H65" t="s">
-        <v>204</v>
+        <v>318</v>
       </c>
       <c r="I65" t="s">
-        <v>205</v>
+        <v>319</v>
       </c>
       <c r="J65">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K65" t="b">
         <v>0</v>
@@ -3952,10 +3979,10 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B66" t="s">
-        <v>207</v>
+        <v>320</v>
       </c>
       <c r="C66" t="b">
         <v>0</v>
@@ -3970,13 +3997,13 @@
         <v>4</v>
       </c>
       <c r="G66" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H66" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I66" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J66">
         <v>3</v>
@@ -3984,16 +4011,13 @@
       <c r="K66" t="b">
         <v>0</v>
       </c>
-      <c r="L66" t="s">
-        <v>242</v>
-      </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B67" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>
@@ -4008,13 +4032,13 @@
         <v>4</v>
       </c>
       <c r="G67" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H67" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I67" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="J67">
         <v>3</v>
@@ -4023,15 +4047,15 @@
         <v>0</v>
       </c>
       <c r="L67" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B68" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
@@ -4046,86 +4070,89 @@
         <v>4</v>
       </c>
       <c r="G68" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="H68" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I68" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J68">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K68" t="b">
         <v>0</v>
       </c>
       <c r="L68" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>328</v>
+        <v>214</v>
       </c>
       <c r="B69" t="s">
-        <v>329</v>
+        <v>215</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
       </c>
       <c r="D69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G69" t="s">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="H69" t="s">
-        <v>331</v>
+        <v>216</v>
       </c>
       <c r="I69" t="s">
-        <v>332</v>
+        <v>217</v>
       </c>
       <c r="J69">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
+      </c>
+      <c r="L69" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="B70" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
       </c>
       <c r="D70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G70" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="H70" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="I70" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="J70">
         <v>3</v>
@@ -4136,10 +4163,10 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B71" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
@@ -4151,21 +4178,88 @@
         <v>1</v>
       </c>
       <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71" t="s">
+        <v>327</v>
+      </c>
+      <c r="H71" t="s">
+        <v>328</v>
+      </c>
+      <c r="I71" t="s">
+        <v>329</v>
+      </c>
+      <c r="J71">
+        <v>3</v>
+      </c>
+      <c r="K71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>330</v>
+      </c>
+      <c r="B72" t="s">
+        <v>331</v>
+      </c>
+      <c r="C72" t="b">
+        <v>0</v>
+      </c>
+      <c r="D72" t="b">
+        <v>1</v>
+      </c>
+      <c r="E72" t="b">
+        <v>1</v>
+      </c>
+      <c r="F72">
         <v>4</v>
       </c>
-      <c r="G71" t="s">
-        <v>339</v>
-      </c>
-      <c r="H71" t="s">
-        <v>340</v>
-      </c>
-      <c r="I71" t="s">
-        <v>341</v>
-      </c>
-      <c r="J71">
+      <c r="G72" t="s">
+        <v>332</v>
+      </c>
+      <c r="H72" t="s">
+        <v>333</v>
+      </c>
+      <c r="I72" t="s">
+        <v>334</v>
+      </c>
+      <c r="J72">
         <v>5</v>
       </c>
-      <c r="K71" t="b">
+      <c r="K72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>343</v>
+      </c>
+      <c r="B73" t="s">
+        <v>133</v>
+      </c>
+      <c r="C73" t="b">
+        <v>1</v>
+      </c>
+      <c r="D73" t="b">
+        <v>0</v>
+      </c>
+      <c r="E73" t="b">
+        <v>1</v>
+      </c>
+      <c r="G73" t="s">
+        <v>352</v>
+      </c>
+      <c r="H73" t="s">
+        <v>353</v>
+      </c>
+      <c r="I73" t="s">
+        <v>354</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4210,9 +4304,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6239E2D-40EA-4B45-8295-42B35BCC92F9}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4223,57 +4319,79 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>257</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>261</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>264</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>260</v>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>342</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAE600F-F3FB-4A94-8841-94B1C0A85093}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9986040-15BD-4CCF-B910-F98C5EBB9362}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
@@ -1669,9 +1669,9 @@
   <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4236,7 +4236,7 @@
         <v>343</v>
       </c>
       <c r="B73" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C73" t="b">
         <v>1</v>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9986040-15BD-4CCF-B910-F98C5EBB9362}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBE521D-9408-455C-9249-1500E239078C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -1668,7 +1668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -4306,8 +4306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6239E2D-40EA-4B45-8295-42B35BCC92F9}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4388,7 +4388,7 @@
         <v>344</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>345</v>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBE521D-9408-455C-9249-1500E239078C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E428699D-18A9-4237-B83E-B59858BE0A54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="358">
   <si>
     <t>levelPackId|String</t>
   </si>
@@ -1099,6 +1099,15 @@
   </si>
   <si>
     <t>LevelPackUIDesc_ArcFormAkai</t>
+  </si>
+  <si>
+    <t>Actor0113</t>
+  </si>
+  <si>
+    <t>AtkUpOnLowerHpBetterGreekWarrior</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_AtkUpOnLowerHpBetterGreekWarrior</t>
   </si>
 </sst>
 </file>
@@ -1666,10 +1675,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
-  <dimension ref="A1:M73"/>
+  <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -3547,34 +3556,34 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>179</v>
+        <v>356</v>
       </c>
       <c r="B54" t="s">
-        <v>180</v>
+        <v>309</v>
       </c>
       <c r="C54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
       </c>
       <c r="E54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G54" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H54" t="s">
-        <v>181</v>
+        <v>357</v>
       </c>
       <c r="I54" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
@@ -3582,7 +3591,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B55" t="s">
         <v>180</v>
@@ -3591,25 +3600,25 @@
         <v>0</v>
       </c>
       <c r="D55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G55" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H55" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I55" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J55">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
@@ -3617,34 +3626,34 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B56" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
       </c>
       <c r="D56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G56" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H56" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I56" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J56">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
@@ -3652,7 +3661,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B57" t="s">
         <v>187</v>
@@ -3661,25 +3670,25 @@
         <v>0</v>
       </c>
       <c r="D57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G57" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H57" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I57" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J57">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
@@ -3687,34 +3696,34 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B58" t="s">
-        <v>310</v>
+        <v>187</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
       </c>
       <c r="D58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G58" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H58" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I58" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J58">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
@@ -3722,7 +3731,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B59" t="s">
         <v>310</v>
@@ -3731,25 +3740,25 @@
         <v>0</v>
       </c>
       <c r="D59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G59" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H59" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I59" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J59">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
@@ -3757,10 +3766,10 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>143</v>
+        <v>196</v>
       </c>
       <c r="B60" t="s">
-        <v>144</v>
+        <v>310</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
@@ -3772,16 +3781,16 @@
         <v>1</v>
       </c>
       <c r="F60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G60" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="H60" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="I60" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="J60">
         <v>5</v>
@@ -3789,16 +3798,13 @@
       <c r="K60" t="b">
         <v>0</v>
       </c>
-      <c r="L60" t="s">
-        <v>246</v>
-      </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="B61" t="s">
-        <v>311</v>
+        <v>144</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
@@ -3813,30 +3819,30 @@
         <v>4</v>
       </c>
       <c r="G61" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="H61" t="s">
-        <v>201</v>
+        <v>145</v>
       </c>
       <c r="I61" t="s">
-        <v>202</v>
+        <v>146</v>
       </c>
       <c r="J61">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
       </c>
       <c r="L61" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>312</v>
+        <v>199</v>
       </c>
       <c r="B62" t="s">
-        <v>200</v>
+        <v>311</v>
       </c>
       <c r="C62" t="b">
         <v>0</v>
@@ -3851,13 +3857,13 @@
         <v>4</v>
       </c>
       <c r="G62" t="s">
-        <v>313</v>
+        <v>238</v>
       </c>
       <c r="H62" t="s">
-        <v>314</v>
+        <v>201</v>
       </c>
       <c r="I62" t="s">
-        <v>315</v>
+        <v>202</v>
       </c>
       <c r="J62">
         <v>3</v>
@@ -3871,10 +3877,10 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>251</v>
+        <v>312</v>
       </c>
       <c r="B63" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
@@ -3889,13 +3895,13 @@
         <v>4</v>
       </c>
       <c r="G63" t="s">
-        <v>252</v>
+        <v>313</v>
       </c>
       <c r="H63" t="s">
-        <v>253</v>
+        <v>314</v>
       </c>
       <c r="I63" t="s">
-        <v>254</v>
+        <v>315</v>
       </c>
       <c r="J63">
         <v>3</v>
@@ -3904,47 +3910,50 @@
         <v>0</v>
       </c>
       <c r="L63" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="B64" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C64" t="b">
         <v>0</v>
       </c>
       <c r="D64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G64" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="H64" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="I64" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="J64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
+      </c>
+      <c r="L64" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>316</v>
+        <v>218</v>
       </c>
       <c r="B65" t="s">
         <v>219</v>
@@ -3953,22 +3962,22 @@
         <v>0</v>
       </c>
       <c r="D65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G65" t="s">
-        <v>317</v>
+        <v>239</v>
       </c>
       <c r="H65" t="s">
-        <v>318</v>
+        <v>220</v>
       </c>
       <c r="I65" t="s">
-        <v>319</v>
+        <v>221</v>
       </c>
       <c r="J65">
         <v>5</v>
@@ -3979,10 +3988,10 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>203</v>
+        <v>316</v>
       </c>
       <c r="B66" t="s">
-        <v>320</v>
+        <v>219</v>
       </c>
       <c r="C66" t="b">
         <v>0</v>
@@ -3994,19 +4003,19 @@
         <v>1</v>
       </c>
       <c r="F66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G66" t="s">
-        <v>241</v>
+        <v>317</v>
       </c>
       <c r="H66" t="s">
-        <v>204</v>
+        <v>318</v>
       </c>
       <c r="I66" t="s">
-        <v>205</v>
+        <v>319</v>
       </c>
       <c r="J66">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K66" t="b">
         <v>0</v>
@@ -4014,10 +4023,10 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B67" t="s">
-        <v>207</v>
+        <v>320</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>
@@ -4032,13 +4041,13 @@
         <v>4</v>
       </c>
       <c r="G67" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H67" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I67" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J67">
         <v>3</v>
@@ -4046,16 +4055,13 @@
       <c r="K67" t="b">
         <v>0</v>
       </c>
-      <c r="L67" t="s">
-        <v>242</v>
-      </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B68" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
@@ -4070,13 +4076,13 @@
         <v>4</v>
       </c>
       <c r="G68" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H68" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I68" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="J68">
         <v>3</v>
@@ -4085,15 +4091,15 @@
         <v>0</v>
       </c>
       <c r="L68" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B69" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
@@ -4108,62 +4114,65 @@
         <v>4</v>
       </c>
       <c r="G69" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="H69" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I69" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>321</v>
+        <v>214</v>
       </c>
       <c r="B70" t="s">
-        <v>322</v>
+        <v>215</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
       </c>
       <c r="D70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G70" t="s">
-        <v>323</v>
+        <v>250</v>
       </c>
       <c r="H70" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="I70" t="s">
-        <v>325</v>
+        <v>217</v>
       </c>
       <c r="J70">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K70" t="b">
         <v>0</v>
+      </c>
+      <c r="L70" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B71" t="s">
         <v>322</v>
@@ -4172,22 +4181,22 @@
         <v>0</v>
       </c>
       <c r="D71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G71" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H71" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I71" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J71">
         <v>3</v>
@@ -4198,10 +4207,10 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B72" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C72" t="b">
         <v>0</v>
@@ -4213,19 +4222,19 @@
         <v>1</v>
       </c>
       <c r="F72">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G72" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="H72" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="I72" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="J72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K72" t="b">
         <v>0</v>
@@ -4233,33 +4242,68 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>330</v>
+      </c>
+      <c r="B73" t="s">
+        <v>331</v>
+      </c>
+      <c r="C73" t="b">
+        <v>0</v>
+      </c>
+      <c r="D73" t="b">
+        <v>1</v>
+      </c>
+      <c r="E73" t="b">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>4</v>
+      </c>
+      <c r="G73" t="s">
+        <v>332</v>
+      </c>
+      <c r="H73" t="s">
+        <v>333</v>
+      </c>
+      <c r="I73" t="s">
+        <v>334</v>
+      </c>
+      <c r="J73">
+        <v>5</v>
+      </c>
+      <c r="K73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>343</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>130</v>
       </c>
-      <c r="C73" t="b">
-        <v>1</v>
-      </c>
-      <c r="D73" t="b">
-        <v>0</v>
-      </c>
-      <c r="E73" t="b">
-        <v>1</v>
-      </c>
-      <c r="G73" t="s">
+      <c r="C74" t="b">
+        <v>1</v>
+      </c>
+      <c r="D74" t="b">
+        <v>0</v>
+      </c>
+      <c r="E74" t="b">
+        <v>1</v>
+      </c>
+      <c r="G74" t="s">
         <v>352</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H74" t="s">
         <v>353</v>
       </c>
-      <c r="I73" t="s">
+      <c r="I74" t="s">
         <v>354</v>
       </c>
-      <c r="J73">
-        <v>1</v>
-      </c>
-      <c r="K73" t="b">
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4304,11 +4348,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6239E2D-40EA-4B45-8295-42B35BCC92F9}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4394,6 +4436,17 @@
         <v>345</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>356</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E428699D-18A9-4237-B83E-B59858BE0A54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F868D77-468C-42D9-B896-48B78A65D869}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -1677,7 +1677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -4350,7 +4350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6239E2D-40EA-4B45-8295-42B35BCC92F9}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4419,7 +4419,7 @@
         <v>342</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>343</v>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F868D77-468C-42D9-B896-48B78A65D869}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EC52EC-2611-4DD7-8D60-08C4CA488A8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="363">
   <si>
     <t>levelPackId|String</t>
   </si>
@@ -1108,6 +1108,21 @@
   </si>
   <si>
     <t>LevelPackUIName_AtkUpOnLowerHpBetterGreekWarrior</t>
+  </si>
+  <si>
+    <t>Actor2238</t>
+  </si>
+  <si>
+    <t>AddGeneratorCreateCountGirlArcher</t>
+  </si>
+  <si>
+    <t>LP_AddGeneratorCreateCountGirlArcher</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_AddGeneratorCreateCountGirlArcher</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_AddGeneratorCreateCountGirlArcher</t>
   </si>
 </sst>
 </file>
@@ -1675,12 +1690,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
-  <dimension ref="A1:M74"/>
+  <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4304,6 +4319,38 @@
         <v>1</v>
       </c>
       <c r="K74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>359</v>
+      </c>
+      <c r="B75" t="s">
+        <v>130</v>
+      </c>
+      <c r="C75" t="b">
+        <v>1</v>
+      </c>
+      <c r="D75" t="b">
+        <v>0</v>
+      </c>
+      <c r="E75" t="b">
+        <v>1</v>
+      </c>
+      <c r="G75" t="s">
+        <v>360</v>
+      </c>
+      <c r="H75" t="s">
+        <v>361</v>
+      </c>
+      <c r="I75" t="s">
+        <v>362</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4348,9 +4395,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6239E2D-40EA-4B45-8295-42B35BCC92F9}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4447,6 +4496,17 @@
         <v>356</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>358</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>359</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EC52EC-2611-4DD7-8D60-08C4CA488A8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDDB180-3385-4FE0-BADD-242ED88ABFEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="365">
   <si>
     <t>levelPackId|String</t>
   </si>
@@ -1123,6 +1123,12 @@
   </si>
   <si>
     <t>LevelPackUIDesc_AddGeneratorCreateCountGirlArcher</t>
+  </si>
+  <si>
+    <t>Actor2235</t>
+  </si>
+  <si>
+    <t>ParallelLinhi</t>
   </si>
 </sst>
 </file>
@@ -1690,12 +1696,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
-  <dimension ref="A1:M75"/>
+  <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A75" sqref="A75"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3052,10 +3058,10 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>364</v>
       </c>
       <c r="B39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C39" t="b">
         <v>1</v>
@@ -3067,16 +3073,16 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H39" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I39" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K39" t="b">
         <v>0</v>
@@ -3084,10 +3090,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C40" t="b">
         <v>1</v>
@@ -3099,13 +3105,13 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I40" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J40">
         <v>2</v>
@@ -3116,10 +3122,10 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
@@ -3131,13 +3137,13 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J41">
         <v>2</v>
@@ -3148,10 +3154,10 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C42" t="b">
         <v>1</v>
@@ -3163,13 +3169,13 @@
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H42" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I42" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J42">
         <v>2</v>
@@ -3180,34 +3186,31 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
       </c>
       <c r="E43" t="b">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="H43" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="I43" t="s">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c r="J43">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K43" t="b">
         <v>0</v>
@@ -3215,7 +3218,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B44" t="s">
         <v>135</v>
@@ -3224,25 +3227,25 @@
         <v>0</v>
       </c>
       <c r="D44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G44" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H44" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I44" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J44">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K44" t="b">
         <v>0</v>
@@ -3250,45 +3253,42 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B45" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
       </c>
       <c r="D45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G45" t="s">
-        <v>223</v>
+        <v>140</v>
       </c>
       <c r="H45" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="I45" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="J45">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K45" t="b">
         <v>0</v>
-      </c>
-      <c r="L45" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B46" t="s">
         <v>148</v>
@@ -3297,25 +3297,25 @@
         <v>0</v>
       </c>
       <c r="D46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H46" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I46" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J46">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
@@ -3326,42 +3326,45 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B47" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
       </c>
       <c r="D47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G47" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H47" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I47" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J47">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
+      </c>
+      <c r="L47" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B48" t="s">
         <v>155</v>
@@ -3370,25 +3373,25 @@
         <v>0</v>
       </c>
       <c r="D48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G48" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H48" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I48" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J48">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
@@ -3396,10 +3399,10 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B49" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
@@ -3411,16 +3414,16 @@
         <v>1</v>
       </c>
       <c r="F49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G49" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H49" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I49" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J49">
         <v>5</v>
@@ -3431,31 +3434,31 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B50" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
       </c>
       <c r="D50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H50" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I50" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J50">
         <v>5</v>
@@ -3466,7 +3469,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B51" t="s">
         <v>166</v>
@@ -3475,25 +3478,25 @@
         <v>0</v>
       </c>
       <c r="D51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H51" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I51" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
@@ -3501,34 +3504,34 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B52" t="s">
-        <v>309</v>
+        <v>166</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
       </c>
       <c r="D52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H52" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I52" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J52">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
@@ -3536,7 +3539,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B53" t="s">
         <v>309</v>
@@ -3545,25 +3548,25 @@
         <v>0</v>
       </c>
       <c r="D53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G53" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H53" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I53" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J53">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
@@ -3571,16 +3574,16 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>356</v>
+        <v>176</v>
       </c>
       <c r="B54" t="s">
         <v>309</v>
       </c>
       <c r="C54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="b">
         <v>1</v>
@@ -3592,13 +3595,13 @@
         <v>231</v>
       </c>
       <c r="H54" t="s">
-        <v>357</v>
+        <v>177</v>
       </c>
       <c r="I54" t="s">
         <v>178</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
@@ -3606,34 +3609,34 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>179</v>
+        <v>356</v>
       </c>
       <c r="B55" t="s">
-        <v>180</v>
+        <v>309</v>
       </c>
       <c r="C55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
       </c>
       <c r="E55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G55" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H55" t="s">
-        <v>181</v>
+        <v>357</v>
       </c>
       <c r="I55" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J55">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
@@ -3641,7 +3644,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B56" t="s">
         <v>180</v>
@@ -3650,25 +3653,25 @@
         <v>0</v>
       </c>
       <c r="D56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G56" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H56" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I56" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J56">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
@@ -3676,34 +3679,34 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B57" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
       </c>
       <c r="D57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G57" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H57" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I57" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J57">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
@@ -3711,7 +3714,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B58" t="s">
         <v>187</v>
@@ -3720,25 +3723,25 @@
         <v>0</v>
       </c>
       <c r="D58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G58" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H58" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I58" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J58">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
@@ -3746,34 +3749,34 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B59" t="s">
-        <v>310</v>
+        <v>187</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
       </c>
       <c r="D59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G59" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H59" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I59" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J59">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
@@ -3781,7 +3784,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B60" t="s">
         <v>310</v>
@@ -3790,25 +3793,25 @@
         <v>0</v>
       </c>
       <c r="D60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G60" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H60" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I60" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J60">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
@@ -3816,10 +3819,10 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>143</v>
+        <v>196</v>
       </c>
       <c r="B61" t="s">
-        <v>144</v>
+        <v>310</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
@@ -3831,16 +3834,16 @@
         <v>1</v>
       </c>
       <c r="F61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G61" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="H61" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="I61" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="J61">
         <v>5</v>
@@ -3848,16 +3851,13 @@
       <c r="K61" t="b">
         <v>0</v>
       </c>
-      <c r="L61" t="s">
-        <v>246</v>
-      </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="B62" t="s">
-        <v>311</v>
+        <v>144</v>
       </c>
       <c r="C62" t="b">
         <v>0</v>
@@ -3872,30 +3872,30 @@
         <v>4</v>
       </c>
       <c r="G62" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="H62" t="s">
-        <v>201</v>
+        <v>145</v>
       </c>
       <c r="I62" t="s">
-        <v>202</v>
+        <v>146</v>
       </c>
       <c r="J62">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
       </c>
       <c r="L62" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>312</v>
+        <v>199</v>
       </c>
       <c r="B63" t="s">
-        <v>200</v>
+        <v>311</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>4</v>
       </c>
       <c r="G63" t="s">
-        <v>313</v>
+        <v>238</v>
       </c>
       <c r="H63" t="s">
-        <v>314</v>
+        <v>201</v>
       </c>
       <c r="I63" t="s">
-        <v>315</v>
+        <v>202</v>
       </c>
       <c r="J63">
         <v>3</v>
@@ -3930,10 +3930,10 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>251</v>
+        <v>312</v>
       </c>
       <c r="B64" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="C64" t="b">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>4</v>
       </c>
       <c r="G64" t="s">
-        <v>252</v>
+        <v>313</v>
       </c>
       <c r="H64" t="s">
-        <v>253</v>
+        <v>314</v>
       </c>
       <c r="I64" t="s">
-        <v>254</v>
+        <v>315</v>
       </c>
       <c r="J64">
         <v>3</v>
@@ -3963,47 +3963,50 @@
         <v>0</v>
       </c>
       <c r="L64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="B65" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
       </c>
       <c r="D65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G65" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="H65" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="I65" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="J65">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K65" t="b">
         <v>0</v>
+      </c>
+      <c r="L65" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>316</v>
+        <v>218</v>
       </c>
       <c r="B66" t="s">
         <v>219</v>
@@ -4012,22 +4015,22 @@
         <v>0</v>
       </c>
       <c r="D66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G66" t="s">
-        <v>317</v>
+        <v>239</v>
       </c>
       <c r="H66" t="s">
-        <v>318</v>
+        <v>220</v>
       </c>
       <c r="I66" t="s">
-        <v>319</v>
+        <v>221</v>
       </c>
       <c r="J66">
         <v>5</v>
@@ -4038,10 +4041,10 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>203</v>
+        <v>316</v>
       </c>
       <c r="B67" t="s">
-        <v>320</v>
+        <v>219</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>
@@ -4053,19 +4056,19 @@
         <v>1</v>
       </c>
       <c r="F67">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G67" t="s">
-        <v>241</v>
+        <v>317</v>
       </c>
       <c r="H67" t="s">
-        <v>204</v>
+        <v>318</v>
       </c>
       <c r="I67" t="s">
-        <v>205</v>
+        <v>319</v>
       </c>
       <c r="J67">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
@@ -4073,10 +4076,10 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B68" t="s">
-        <v>207</v>
+        <v>320</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
@@ -4091,13 +4094,13 @@
         <v>4</v>
       </c>
       <c r="G68" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H68" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I68" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J68">
         <v>3</v>
@@ -4105,16 +4108,13 @@
       <c r="K68" t="b">
         <v>0</v>
       </c>
-      <c r="L68" t="s">
-        <v>242</v>
-      </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B69" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="G69" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H69" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I69" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="J69">
         <v>3</v>
@@ -4144,15 +4144,15 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B70" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
@@ -4167,62 +4167,65 @@
         <v>4</v>
       </c>
       <c r="G70" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="H70" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I70" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K70" t="b">
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>321</v>
+        <v>214</v>
       </c>
       <c r="B71" t="s">
-        <v>322</v>
+        <v>215</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
       </c>
       <c r="D71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G71" t="s">
-        <v>323</v>
+        <v>250</v>
       </c>
       <c r="H71" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="I71" t="s">
-        <v>325</v>
+        <v>217</v>
       </c>
       <c r="J71">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K71" t="b">
         <v>0</v>
+      </c>
+      <c r="L71" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B72" t="s">
         <v>322</v>
@@ -4231,22 +4234,22 @@
         <v>0</v>
       </c>
       <c r="D72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G72" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H72" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I72" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J72">
         <v>3</v>
@@ -4257,10 +4260,10 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B73" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
@@ -4272,19 +4275,19 @@
         <v>1</v>
       </c>
       <c r="F73">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G73" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="H73" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="I73" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="J73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K73" t="b">
         <v>0</v>
@@ -4292,31 +4295,34 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="B74" t="s">
-        <v>130</v>
+        <v>331</v>
       </c>
       <c r="C74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="b">
         <v>1</v>
       </c>
+      <c r="F74">
+        <v>4</v>
+      </c>
       <c r="G74" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="H74" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="I74" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="J74">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K74" t="b">
         <v>0</v>
@@ -4324,7 +4330,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="B75" t="s">
         <v>130</v>
@@ -4339,18 +4345,50 @@
         <v>1</v>
       </c>
       <c r="G75" t="s">
+        <v>352</v>
+      </c>
+      <c r="H75" t="s">
+        <v>353</v>
+      </c>
+      <c r="I75" t="s">
+        <v>354</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>359</v>
+      </c>
+      <c r="B76" t="s">
+        <v>130</v>
+      </c>
+      <c r="C76" t="b">
+        <v>1</v>
+      </c>
+      <c r="D76" t="b">
+        <v>0</v>
+      </c>
+      <c r="E76" t="b">
+        <v>1</v>
+      </c>
+      <c r="G76" t="s">
         <v>360</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H76" t="s">
         <v>361</v>
       </c>
-      <c r="I75" t="s">
+      <c r="I76" t="s">
         <v>362</v>
       </c>
-      <c r="J75">
-        <v>1</v>
-      </c>
-      <c r="K75" t="b">
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4395,10 +4433,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6239E2D-40EA-4B45-8295-42B35BCC92F9}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4507,6 +4545,17 @@
         <v>359</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>363</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>364</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDDB180-3385-4FE0-BADD-242ED88ABFEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCAF582-C5F5-41BA-A15A-264AE862F554}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="368">
   <si>
     <t>levelPackId|String</t>
   </si>
@@ -1129,6 +1129,15 @@
   </si>
   <si>
     <t>ParallelLinhi</t>
+  </si>
+  <si>
+    <t>Actor1216</t>
+  </si>
+  <si>
+    <t>HealSpOnAttackBetterSteampunkRobot</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_HealSpOnAttackBetterSteampunkRobot</t>
   </si>
 </sst>
 </file>
@@ -1696,12 +1705,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
-  <dimension ref="A1:M76"/>
+  <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4295,34 +4304,31 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="B74" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" t="b">
         <v>1</v>
       </c>
-      <c r="F74">
-        <v>4</v>
-      </c>
       <c r="G74" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="H74" t="s">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="I74" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="J74">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K74" t="b">
         <v>0</v>
@@ -4330,31 +4336,34 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="B75" t="s">
-        <v>130</v>
+        <v>331</v>
       </c>
       <c r="C75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="b">
         <v>1</v>
       </c>
+      <c r="F75">
+        <v>4</v>
+      </c>
       <c r="G75" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="H75" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="I75" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="J75">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K75" t="b">
         <v>0</v>
@@ -4362,7 +4371,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="B76" t="s">
         <v>130</v>
@@ -4377,18 +4386,50 @@
         <v>1</v>
       </c>
       <c r="G76" t="s">
+        <v>352</v>
+      </c>
+      <c r="H76" t="s">
+        <v>353</v>
+      </c>
+      <c r="I76" t="s">
+        <v>354</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>359</v>
+      </c>
+      <c r="B77" t="s">
+        <v>130</v>
+      </c>
+      <c r="C77" t="b">
+        <v>1</v>
+      </c>
+      <c r="D77" t="b">
+        <v>0</v>
+      </c>
+      <c r="E77" t="b">
+        <v>1</v>
+      </c>
+      <c r="G77" t="s">
         <v>360</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H77" t="s">
         <v>361</v>
       </c>
-      <c r="I76" t="s">
+      <c r="I77" t="s">
         <v>362</v>
       </c>
-      <c r="J76">
-        <v>1</v>
-      </c>
-      <c r="K76" t="b">
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4433,11 +4474,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6239E2D-40EA-4B45-8295-42B35BCC92F9}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4556,6 +4595,17 @@
         <v>364</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>365</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>366</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCAF582-C5F5-41BA-A15A-264AE862F554}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591C2786-88B7-4521-AD79-3E2D31CCCA49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="370">
   <si>
     <t>levelPackId|String</t>
   </si>
@@ -1138,6 +1138,12 @@
   </si>
   <si>
     <t>LevelPackUIName_HealSpOnAttackBetterSteampunkRobot</t>
+  </si>
+  <si>
+    <t>Actor2342</t>
+  </si>
+  <si>
+    <t>RepeatUnicornCharacter</t>
   </si>
 </sst>
 </file>
@@ -1705,12 +1711,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3227,34 +3233,31 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>134</v>
+        <v>369</v>
       </c>
       <c r="B44" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
       </c>
       <c r="E44" t="b">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="H44" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="I44" t="s">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c r="J44">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K44" t="b">
         <v>0</v>
@@ -3262,7 +3265,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B45" t="s">
         <v>135</v>
@@ -3271,25 +3274,25 @@
         <v>0</v>
       </c>
       <c r="D45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G45" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H45" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I45" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J45">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K45" t="b">
         <v>0</v>
@@ -3297,45 +3300,42 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B46" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
       </c>
       <c r="D46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G46" t="s">
-        <v>223</v>
+        <v>140</v>
       </c>
       <c r="H46" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="I46" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="J46">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
-      </c>
-      <c r="L46" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B47" t="s">
         <v>148</v>
@@ -3344,25 +3344,25 @@
         <v>0</v>
       </c>
       <c r="D47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H47" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I47" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J47">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
@@ -3373,42 +3373,45 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B48" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
       </c>
       <c r="D48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G48" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H48" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I48" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J48">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
+      </c>
+      <c r="L48" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B49" t="s">
         <v>155</v>
@@ -3417,25 +3420,25 @@
         <v>0</v>
       </c>
       <c r="D49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G49" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H49" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I49" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J49">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
@@ -3443,10 +3446,10 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B50" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
@@ -3458,16 +3461,16 @@
         <v>1</v>
       </c>
       <c r="F50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G50" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H50" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I50" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J50">
         <v>5</v>
@@ -3478,31 +3481,31 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B51" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
       </c>
       <c r="D51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H51" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I51" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J51">
         <v>5</v>
@@ -3513,7 +3516,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B52" t="s">
         <v>166</v>
@@ -3522,25 +3525,25 @@
         <v>0</v>
       </c>
       <c r="D52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H52" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I52" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J52">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
@@ -3548,34 +3551,34 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B53" t="s">
-        <v>309</v>
+        <v>166</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
       </c>
       <c r="D53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G53" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H53" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I53" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J53">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
@@ -3583,7 +3586,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B54" t="s">
         <v>309</v>
@@ -3592,25 +3595,25 @@
         <v>0</v>
       </c>
       <c r="D54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G54" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H54" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I54" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J54">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
@@ -3618,16 +3621,16 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>356</v>
+        <v>176</v>
       </c>
       <c r="B55" t="s">
         <v>309</v>
       </c>
       <c r="C55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="b">
         <v>1</v>
@@ -3639,13 +3642,13 @@
         <v>231</v>
       </c>
       <c r="H55" t="s">
-        <v>357</v>
+        <v>177</v>
       </c>
       <c r="I55" t="s">
         <v>178</v>
       </c>
       <c r="J55">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
@@ -3653,34 +3656,34 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>179</v>
+        <v>356</v>
       </c>
       <c r="B56" t="s">
-        <v>180</v>
+        <v>309</v>
       </c>
       <c r="C56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
       </c>
       <c r="E56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G56" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H56" t="s">
-        <v>181</v>
+        <v>357</v>
       </c>
       <c r="I56" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J56">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
@@ -3688,7 +3691,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B57" t="s">
         <v>180</v>
@@ -3697,25 +3700,25 @@
         <v>0</v>
       </c>
       <c r="D57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G57" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H57" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I57" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J57">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
@@ -3723,34 +3726,34 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B58" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
       </c>
       <c r="D58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G58" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H58" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I58" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J58">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
@@ -3758,7 +3761,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B59" t="s">
         <v>187</v>
@@ -3767,25 +3770,25 @@
         <v>0</v>
       </c>
       <c r="D59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G59" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H59" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I59" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J59">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
@@ -3793,34 +3796,34 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B60" t="s">
-        <v>310</v>
+        <v>187</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
       </c>
       <c r="D60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G60" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H60" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I60" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J60">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
@@ -3828,7 +3831,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B61" t="s">
         <v>310</v>
@@ -3837,25 +3840,25 @@
         <v>0</v>
       </c>
       <c r="D61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G61" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H61" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I61" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J61">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
@@ -3863,10 +3866,10 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>143</v>
+        <v>196</v>
       </c>
       <c r="B62" t="s">
-        <v>144</v>
+        <v>310</v>
       </c>
       <c r="C62" t="b">
         <v>0</v>
@@ -3878,16 +3881,16 @@
         <v>1</v>
       </c>
       <c r="F62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G62" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="H62" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="I62" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="J62">
         <v>5</v>
@@ -3895,16 +3898,13 @@
       <c r="K62" t="b">
         <v>0</v>
       </c>
-      <c r="L62" t="s">
-        <v>246</v>
-      </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="B63" t="s">
-        <v>311</v>
+        <v>144</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
@@ -3919,30 +3919,30 @@
         <v>4</v>
       </c>
       <c r="G63" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="H63" t="s">
-        <v>201</v>
+        <v>145</v>
       </c>
       <c r="I63" t="s">
-        <v>202</v>
+        <v>146</v>
       </c>
       <c r="J63">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K63" t="b">
         <v>0</v>
       </c>
       <c r="L63" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>312</v>
+        <v>199</v>
       </c>
       <c r="B64" t="s">
-        <v>200</v>
+        <v>311</v>
       </c>
       <c r="C64" t="b">
         <v>0</v>
@@ -3957,13 +3957,13 @@
         <v>4</v>
       </c>
       <c r="G64" t="s">
-        <v>313</v>
+        <v>238</v>
       </c>
       <c r="H64" t="s">
-        <v>314</v>
+        <v>201</v>
       </c>
       <c r="I64" t="s">
-        <v>315</v>
+        <v>202</v>
       </c>
       <c r="J64">
         <v>3</v>
@@ -3977,10 +3977,10 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>251</v>
+        <v>312</v>
       </c>
       <c r="B65" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
@@ -3995,13 +3995,13 @@
         <v>4</v>
       </c>
       <c r="G65" t="s">
-        <v>252</v>
+        <v>313</v>
       </c>
       <c r="H65" t="s">
-        <v>253</v>
+        <v>314</v>
       </c>
       <c r="I65" t="s">
-        <v>254</v>
+        <v>315</v>
       </c>
       <c r="J65">
         <v>3</v>
@@ -4010,47 +4010,50 @@
         <v>0</v>
       </c>
       <c r="L65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="B66" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C66" t="b">
         <v>0</v>
       </c>
       <c r="D66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G66" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="H66" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="I66" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="J66">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K66" t="b">
         <v>0</v>
+      </c>
+      <c r="L66" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>316</v>
+        <v>218</v>
       </c>
       <c r="B67" t="s">
         <v>219</v>
@@ -4059,22 +4062,22 @@
         <v>0</v>
       </c>
       <c r="D67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G67" t="s">
-        <v>317</v>
+        <v>239</v>
       </c>
       <c r="H67" t="s">
-        <v>318</v>
+        <v>220</v>
       </c>
       <c r="I67" t="s">
-        <v>319</v>
+        <v>221</v>
       </c>
       <c r="J67">
         <v>5</v>
@@ -4085,10 +4088,10 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>203</v>
+        <v>316</v>
       </c>
       <c r="B68" t="s">
-        <v>320</v>
+        <v>219</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
@@ -4100,19 +4103,19 @@
         <v>1</v>
       </c>
       <c r="F68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G68" t="s">
-        <v>241</v>
+        <v>317</v>
       </c>
       <c r="H68" t="s">
-        <v>204</v>
+        <v>318</v>
       </c>
       <c r="I68" t="s">
-        <v>205</v>
+        <v>319</v>
       </c>
       <c r="J68">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K68" t="b">
         <v>0</v>
@@ -4120,10 +4123,10 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B69" t="s">
-        <v>207</v>
+        <v>320</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
@@ -4138,13 +4141,13 @@
         <v>4</v>
       </c>
       <c r="G69" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H69" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I69" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J69">
         <v>3</v>
@@ -4152,16 +4155,13 @@
       <c r="K69" t="b">
         <v>0</v>
       </c>
-      <c r="L69" t="s">
-        <v>242</v>
-      </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B70" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
@@ -4176,13 +4176,13 @@
         <v>4</v>
       </c>
       <c r="G70" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H70" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I70" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="J70">
         <v>3</v>
@@ -4191,15 +4191,15 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B71" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
@@ -4214,62 +4214,65 @@
         <v>4</v>
       </c>
       <c r="G71" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="H71" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I71" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J71">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K71" t="b">
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>321</v>
+        <v>214</v>
       </c>
       <c r="B72" t="s">
-        <v>322</v>
+        <v>215</v>
       </c>
       <c r="C72" t="b">
         <v>0</v>
       </c>
       <c r="D72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G72" t="s">
-        <v>323</v>
+        <v>250</v>
       </c>
       <c r="H72" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="I72" t="s">
-        <v>325</v>
+        <v>217</v>
       </c>
       <c r="J72">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K72" t="b">
         <v>0</v>
+      </c>
+      <c r="L72" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B73" t="s">
         <v>322</v>
@@ -4278,22 +4281,22 @@
         <v>0</v>
       </c>
       <c r="D73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G73" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H73" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I73" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J73">
         <v>3</v>
@@ -4304,31 +4307,34 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>366</v>
+        <v>326</v>
       </c>
       <c r="B74" t="s">
         <v>322</v>
       </c>
       <c r="C74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="b">
         <v>1</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
       </c>
       <c r="G74" t="s">
         <v>327</v>
       </c>
       <c r="H74" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="I74" t="s">
         <v>329</v>
       </c>
       <c r="J74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K74" t="b">
         <v>0</v>
@@ -4336,34 +4342,31 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="B75" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" t="b">
         <v>1</v>
       </c>
-      <c r="F75">
-        <v>4</v>
-      </c>
       <c r="G75" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="H75" t="s">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="I75" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="J75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K75" t="b">
         <v>0</v>
@@ -4371,31 +4374,34 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="B76" t="s">
-        <v>130</v>
+        <v>331</v>
       </c>
       <c r="C76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
+      <c r="F76">
+        <v>4</v>
+      </c>
       <c r="G76" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="H76" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="I76" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="J76">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K76" t="b">
         <v>0</v>
@@ -4403,7 +4409,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="B77" t="s">
         <v>130</v>
@@ -4418,18 +4424,50 @@
         <v>1</v>
       </c>
       <c r="G77" t="s">
+        <v>352</v>
+      </c>
+      <c r="H77" t="s">
+        <v>353</v>
+      </c>
+      <c r="I77" t="s">
+        <v>354</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>359</v>
+      </c>
+      <c r="B78" t="s">
+        <v>130</v>
+      </c>
+      <c r="C78" t="b">
+        <v>1</v>
+      </c>
+      <c r="D78" t="b">
+        <v>0</v>
+      </c>
+      <c r="E78" t="b">
+        <v>1</v>
+      </c>
+      <c r="G78" t="s">
         <v>360</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H78" t="s">
         <v>361</v>
       </c>
-      <c r="I77" t="s">
+      <c r="I78" t="s">
         <v>362</v>
       </c>
-      <c r="J77">
-        <v>1</v>
-      </c>
-      <c r="K77" t="b">
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4474,9 +4512,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6239E2D-40EA-4B45-8295-42B35BCC92F9}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4606,6 +4646,17 @@
         <v>366</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>368</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>369</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591C2786-88B7-4521-AD79-3E2D31CCCA49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C604738-7B78-4C4C-9F08-A93D9F335B0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -1140,10 +1140,10 @@
     <t>LevelPackUIName_HealSpOnAttackBetterSteampunkRobot</t>
   </si>
   <si>
-    <t>Actor2342</t>
-  </si>
-  <si>
     <t>RepeatUnicornCharacter</t>
+  </si>
+  <si>
+    <t>Actor3242</t>
   </si>
 </sst>
 </file>
@@ -1713,7 +1713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A60" sqref="A60"/>
@@ -3233,7 +3233,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B44" t="s">
         <v>133</v>
@@ -4514,8 +4514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6239E2D-40EA-4B45-8295-42B35BCC92F9}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4648,13 +4648,13 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C604738-7B78-4C4C-9F08-A93D9F335B0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE67FFDE-7F79-4D8E-8AA9-1307B55C8FE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="382">
   <si>
     <t>levelPackId|String</t>
   </si>
@@ -1128,9 +1128,6 @@
     <t>Actor2235</t>
   </si>
   <si>
-    <t>ParallelLinhi</t>
-  </si>
-  <si>
     <t>Actor1216</t>
   </si>
   <si>
@@ -1144,6 +1141,45 @@
   </si>
   <si>
     <t>Actor3242</t>
+  </si>
+  <si>
+    <t>AtkBestMeryl</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_AtkBestMeryl</t>
+  </si>
+  <si>
+    <t>ParallelBetterLinhi</t>
+  </si>
+  <si>
+    <t>LP_ParallelBetterLinhi</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_ParallelBetterLinhi</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_ParallelBetterLinhi</t>
+  </si>
+  <si>
+    <t>WallThroughLinhi</t>
+  </si>
+  <si>
+    <t>LP_WallThroughLinhi</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_WallThroughLinhi</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_WallThroughLinhi</t>
+  </si>
+  <si>
+    <t>Actor3212</t>
+  </si>
+  <si>
+    <t>FlatSkill2_69_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>FlatSkill2_139_NoBG_Gray</t>
   </si>
 </sst>
 </file>
@@ -1711,12 +1747,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
-  <dimension ref="A1:M78"/>
+  <dimension ref="A1:M80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A60" sqref="A60"/>
+      <selection pane="bottomLeft" activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1869,7 +1905,7 @@
         <v>65</v>
       </c>
       <c r="J4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
@@ -1901,7 +1937,7 @@
         <v>65</v>
       </c>
       <c r="J5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
@@ -1944,34 +1980,31 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>369</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>380</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>130</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H7" t="s">
-        <v>74</v>
+        <v>370</v>
       </c>
       <c r="I7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
@@ -1979,7 +2012,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
         <v>72</v>
@@ -1988,22 +2021,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>130</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J8">
         <v>9</v>
@@ -2014,25 +2047,28 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>340</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
         <v>72</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
       </c>
       <c r="G9" t="s">
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>348</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s">
         <v>79</v>
@@ -2046,34 +2082,31 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
       <c r="G10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s">
-        <v>83</v>
+        <v>348</v>
       </c>
       <c r="I10" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
@@ -2081,34 +2114,34 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>130</v>
+        <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J11">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
@@ -2116,7 +2149,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
         <v>86</v>
@@ -2125,25 +2158,25 @@
         <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>130</v>
       </c>
       <c r="G12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
@@ -2151,10 +2184,10 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -2166,19 +2199,19 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G13" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
@@ -2186,34 +2219,34 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>130</v>
+        <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H14" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I14" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J14">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
@@ -2221,7 +2254,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s">
         <v>100</v>
@@ -2230,22 +2263,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>130</v>
       </c>
       <c r="G15" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H15" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J15">
         <v>9</v>
@@ -2256,10 +2289,10 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -2271,19 +2304,19 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G16" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H16" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I16" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
@@ -2291,34 +2324,34 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H17" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I17" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="J17">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
@@ -2326,7 +2359,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>262</v>
+        <v>113</v>
       </c>
       <c r="B18" t="s">
         <v>114</v>
@@ -2335,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>263</v>
+        <v>115</v>
       </c>
       <c r="H18" t="s">
-        <v>264</v>
+        <v>116</v>
       </c>
       <c r="I18" t="s">
-        <v>265</v>
+        <v>117</v>
       </c>
       <c r="J18">
         <v>9</v>
@@ -2361,31 +2394,31 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B19" t="s">
-        <v>267</v>
+        <v>114</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H19" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="I19" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="J19">
         <v>9</v>
@@ -2393,13 +2426,10 @@
       <c r="K19" t="b">
         <v>0</v>
       </c>
-      <c r="M19">
-        <v>2</v>
-      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B20" t="s">
         <v>267</v>
@@ -2408,22 +2438,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="G20" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H20" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I20" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="J20">
         <v>9</v>
@@ -2437,31 +2467,31 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>271</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>267</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="G21" t="s">
-        <v>120</v>
+        <v>272</v>
       </c>
       <c r="H21" t="s">
-        <v>121</v>
+        <v>273</v>
       </c>
       <c r="I21" t="s">
-        <v>122</v>
+        <v>274</v>
       </c>
       <c r="J21">
         <v>9</v>
@@ -2470,12 +2500,12 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>275</v>
+        <v>118</v>
       </c>
       <c r="B22" t="s">
         <v>119</v>
@@ -2484,22 +2514,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="G22" t="s">
-        <v>276</v>
+        <v>120</v>
       </c>
       <c r="H22" t="s">
-        <v>277</v>
+        <v>121</v>
       </c>
       <c r="I22" t="s">
-        <v>278</v>
+        <v>122</v>
       </c>
       <c r="J22">
         <v>9</v>
@@ -2513,31 +2543,31 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B23" t="s">
-        <v>280</v>
+        <v>119</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H23" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="I23" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="J23">
         <v>9</v>
@@ -2546,12 +2576,12 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B24" t="s">
         <v>280</v>
@@ -2560,22 +2590,22 @@
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="G24" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H24" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="I24" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="J24">
         <v>9</v>
@@ -2589,10 +2619,10 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B25" t="s">
-        <v>173</v>
+        <v>280</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -2604,30 +2634,33 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G25" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H25" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I25" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J25">
+        <v>9</v>
+      </c>
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>3</v>
-      </c>
-      <c r="K25" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B26" t="s">
-        <v>293</v>
+        <v>173</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -2642,13 +2675,13 @@
         <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H26" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="I26" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="J26">
         <v>3</v>
@@ -2659,31 +2692,31 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>292</v>
       </c>
       <c r="B27" t="s">
-        <v>123</v>
+        <v>293</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>294</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>295</v>
       </c>
       <c r="I27" t="s">
-        <v>15</v>
+        <v>296</v>
       </c>
       <c r="J27">
         <v>3</v>
@@ -2691,13 +2724,10 @@
       <c r="K27" t="b">
         <v>0</v>
       </c>
-      <c r="M27">
-        <v>4</v>
-      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>297</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
         <v>123</v>
@@ -2706,22 +2736,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G28" t="s">
-        <v>298</v>
+        <v>13</v>
       </c>
       <c r="H28" t="s">
-        <v>299</v>
+        <v>14</v>
       </c>
       <c r="I28" t="s">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c r="J28">
         <v>3</v>
@@ -2735,31 +2765,31 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>297</v>
       </c>
       <c r="B29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>298</v>
       </c>
       <c r="H29" t="s">
-        <v>18</v>
+        <v>299</v>
       </c>
       <c r="I29" t="s">
-        <v>19</v>
+        <v>300</v>
       </c>
       <c r="J29">
         <v>3</v>
@@ -2768,12 +2798,12 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>301</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
         <v>124</v>
@@ -2782,22 +2812,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G30" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="H30" t="s">
-        <v>303</v>
+        <v>18</v>
       </c>
       <c r="I30" t="s">
-        <v>304</v>
+        <v>19</v>
       </c>
       <c r="J30">
         <v>3</v>
@@ -2811,31 +2841,31 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>301</v>
       </c>
       <c r="B31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G31" t="s">
-        <v>21</v>
+        <v>302</v>
       </c>
       <c r="H31" t="s">
-        <v>22</v>
+        <v>303</v>
       </c>
       <c r="I31" t="s">
-        <v>23</v>
+        <v>304</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -2843,10 +2873,13 @@
       <c r="K31" t="b">
         <v>0</v>
       </c>
+      <c r="M31">
+        <v>7</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>305</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s">
         <v>125</v>
@@ -2855,22 +2888,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G32" t="s">
-        <v>306</v>
+        <v>21</v>
       </c>
       <c r="H32" t="s">
-        <v>307</v>
+        <v>22</v>
       </c>
       <c r="I32" t="s">
-        <v>308</v>
+        <v>23</v>
       </c>
       <c r="J32">
         <v>3</v>
@@ -2881,31 +2914,34 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>305</v>
       </c>
       <c r="B33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
       <c r="G33" t="s">
-        <v>25</v>
+        <v>306</v>
       </c>
       <c r="H33" t="s">
-        <v>26</v>
+        <v>307</v>
       </c>
       <c r="I33" t="s">
-        <v>27</v>
+        <v>308</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K33" t="b">
         <v>0</v>
@@ -2913,7 +2949,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>338</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s">
         <v>126</v>
@@ -2937,7 +2973,7 @@
         <v>27</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>
@@ -2945,10 +2981,10 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>338</v>
       </c>
       <c r="B35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C35" t="b">
         <v>1</v>
@@ -2960,16 +2996,16 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H35" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I35" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K35" t="b">
         <v>0</v>
@@ -2977,7 +3013,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>345</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s">
         <v>127</v>
@@ -2992,16 +3028,16 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>349</v>
+        <v>29</v>
       </c>
       <c r="H36" t="s">
-        <v>350</v>
+        <v>30</v>
       </c>
       <c r="I36" t="s">
-        <v>351</v>
+        <v>31</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K36" t="b">
         <v>0</v>
@@ -3009,10 +3045,10 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>345</v>
       </c>
       <c r="B37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C37" t="b">
         <v>1</v>
@@ -3024,16 +3060,16 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>349</v>
       </c>
       <c r="H37" t="s">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="I37" t="s">
-        <v>35</v>
+        <v>351</v>
       </c>
       <c r="J37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
@@ -3041,10 +3077,10 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
@@ -3056,13 +3092,13 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H38" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I38" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -3073,7 +3109,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>364</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
         <v>129</v>
@@ -3097,7 +3133,7 @@
         <v>39</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K39" t="b">
         <v>0</v>
@@ -3105,10 +3141,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>371</v>
       </c>
       <c r="B40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C40" t="b">
         <v>1</v>
@@ -3120,16 +3156,16 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>41</v>
+        <v>372</v>
       </c>
       <c r="H40" t="s">
-        <v>42</v>
+        <v>373</v>
       </c>
       <c r="I40" t="s">
-        <v>43</v>
+        <v>374</v>
       </c>
       <c r="J40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K40" t="b">
         <v>0</v>
@@ -3137,10 +3173,10 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
@@ -3152,13 +3188,13 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I41" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J41">
         <v>2</v>
@@ -3169,10 +3205,10 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C42" t="b">
         <v>1</v>
@@ -3184,13 +3220,13 @@
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J42">
         <v>2</v>
@@ -3201,10 +3237,10 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C43" t="b">
         <v>1</v>
@@ -3216,13 +3252,13 @@
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H43" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I43" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J43">
         <v>2</v>
@@ -3233,7 +3269,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>368</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
         <v>133</v>
@@ -3257,7 +3293,7 @@
         <v>55</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K44" t="b">
         <v>0</v>
@@ -3265,34 +3301,31 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>134</v>
+        <v>367</v>
       </c>
       <c r="B45" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
       </c>
       <c r="E45" t="b">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="H45" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="I45" t="s">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c r="J45">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K45" t="b">
         <v>0</v>
@@ -3300,7 +3333,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B46" t="s">
         <v>135</v>
@@ -3309,25 +3342,25 @@
         <v>0</v>
       </c>
       <c r="D46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G46" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H46" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I46" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J46">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
@@ -3335,45 +3368,42 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B47" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
       </c>
       <c r="D47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G47" t="s">
-        <v>223</v>
+        <v>140</v>
       </c>
       <c r="H47" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="I47" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="J47">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
-      </c>
-      <c r="L47" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B48" t="s">
         <v>148</v>
@@ -3382,25 +3412,25 @@
         <v>0</v>
       </c>
       <c r="D48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H48" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I48" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J48">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
@@ -3411,42 +3441,45 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B49" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
       </c>
       <c r="D49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G49" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H49" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I49" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J49">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
+      </c>
+      <c r="L49" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B50" t="s">
         <v>155</v>
@@ -3455,25 +3488,25 @@
         <v>0</v>
       </c>
       <c r="D50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G50" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H50" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I50" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J50">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
@@ -3481,10 +3514,10 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B51" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
@@ -3496,16 +3529,16 @@
         <v>1</v>
       </c>
       <c r="F51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H51" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I51" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J51">
         <v>5</v>
@@ -3516,31 +3549,31 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B52" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
       </c>
       <c r="D52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G52" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H52" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I52" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J52">
         <v>5</v>
@@ -3551,7 +3584,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B53" t="s">
         <v>166</v>
@@ -3560,25 +3593,25 @@
         <v>0</v>
       </c>
       <c r="D53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G53" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H53" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I53" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J53">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
@@ -3586,34 +3619,34 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B54" t="s">
-        <v>309</v>
+        <v>166</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
       </c>
       <c r="D54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G54" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H54" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I54" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J54">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
@@ -3621,7 +3654,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B55" t="s">
         <v>309</v>
@@ -3630,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="D55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G55" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H55" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I55" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J55">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
@@ -3656,16 +3689,16 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>356</v>
+        <v>176</v>
       </c>
       <c r="B56" t="s">
         <v>309</v>
       </c>
       <c r="C56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="b">
         <v>1</v>
@@ -3677,13 +3710,13 @@
         <v>231</v>
       </c>
       <c r="H56" t="s">
-        <v>357</v>
+        <v>177</v>
       </c>
       <c r="I56" t="s">
         <v>178</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
@@ -3691,34 +3724,34 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>179</v>
+        <v>356</v>
       </c>
       <c r="B57" t="s">
-        <v>180</v>
+        <v>309</v>
       </c>
       <c r="C57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
       </c>
       <c r="E57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G57" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H57" t="s">
-        <v>181</v>
+        <v>357</v>
       </c>
       <c r="I57" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
@@ -3726,7 +3759,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B58" t="s">
         <v>180</v>
@@ -3735,25 +3768,25 @@
         <v>0</v>
       </c>
       <c r="D58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G58" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H58" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I58" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
@@ -3761,34 +3794,34 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B59" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
       </c>
       <c r="D59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G59" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H59" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I59" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J59">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
@@ -3796,7 +3829,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B60" t="s">
         <v>187</v>
@@ -3805,25 +3838,25 @@
         <v>0</v>
       </c>
       <c r="D60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G60" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H60" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I60" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J60">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
@@ -3831,34 +3864,34 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B61" t="s">
-        <v>310</v>
+        <v>187</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
       </c>
       <c r="D61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G61" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H61" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I61" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J61">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
@@ -3866,7 +3899,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B62" t="s">
         <v>310</v>
@@ -3875,25 +3908,25 @@
         <v>0</v>
       </c>
       <c r="D62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G62" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H62" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I62" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J62">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
@@ -3901,10 +3934,10 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>143</v>
+        <v>196</v>
       </c>
       <c r="B63" t="s">
-        <v>144</v>
+        <v>310</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
@@ -3916,16 +3949,16 @@
         <v>1</v>
       </c>
       <c r="F63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G63" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="H63" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="I63" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="J63">
         <v>5</v>
@@ -3933,16 +3966,13 @@
       <c r="K63" t="b">
         <v>0</v>
       </c>
-      <c r="L63" t="s">
-        <v>246</v>
-      </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="B64" t="s">
-        <v>311</v>
+        <v>144</v>
       </c>
       <c r="C64" t="b">
         <v>0</v>
@@ -3957,30 +3987,30 @@
         <v>4</v>
       </c>
       <c r="G64" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="H64" t="s">
-        <v>201</v>
+        <v>145</v>
       </c>
       <c r="I64" t="s">
-        <v>202</v>
+        <v>146</v>
       </c>
       <c r="J64">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
       </c>
       <c r="L64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>312</v>
+        <v>199</v>
       </c>
       <c r="B65" t="s">
-        <v>200</v>
+        <v>311</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
@@ -3995,13 +4025,13 @@
         <v>4</v>
       </c>
       <c r="G65" t="s">
-        <v>313</v>
+        <v>238</v>
       </c>
       <c r="H65" t="s">
-        <v>314</v>
+        <v>201</v>
       </c>
       <c r="I65" t="s">
-        <v>315</v>
+        <v>202</v>
       </c>
       <c r="J65">
         <v>3</v>
@@ -4015,10 +4045,10 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>251</v>
+        <v>312</v>
       </c>
       <c r="B66" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="C66" t="b">
         <v>0</v>
@@ -4033,13 +4063,13 @@
         <v>4</v>
       </c>
       <c r="G66" t="s">
-        <v>252</v>
+        <v>313</v>
       </c>
       <c r="H66" t="s">
-        <v>253</v>
+        <v>314</v>
       </c>
       <c r="I66" t="s">
-        <v>254</v>
+        <v>315</v>
       </c>
       <c r="J66">
         <v>3</v>
@@ -4048,47 +4078,50 @@
         <v>0</v>
       </c>
       <c r="L66" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="B67" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>
       </c>
       <c r="D67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G67" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="H67" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="I67" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="J67">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
+      </c>
+      <c r="L67" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>316</v>
+        <v>218</v>
       </c>
       <c r="B68" t="s">
         <v>219</v>
@@ -4097,22 +4130,22 @@
         <v>0</v>
       </c>
       <c r="D68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G68" t="s">
-        <v>317</v>
+        <v>239</v>
       </c>
       <c r="H68" t="s">
-        <v>318</v>
+        <v>220</v>
       </c>
       <c r="I68" t="s">
-        <v>319</v>
+        <v>221</v>
       </c>
       <c r="J68">
         <v>5</v>
@@ -4123,10 +4156,10 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>203</v>
+        <v>316</v>
       </c>
       <c r="B69" t="s">
-        <v>320</v>
+        <v>219</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
@@ -4138,19 +4171,19 @@
         <v>1</v>
       </c>
       <c r="F69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G69" t="s">
-        <v>241</v>
+        <v>317</v>
       </c>
       <c r="H69" t="s">
-        <v>204</v>
+        <v>318</v>
       </c>
       <c r="I69" t="s">
-        <v>205</v>
+        <v>319</v>
       </c>
       <c r="J69">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
@@ -4158,10 +4191,10 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B70" t="s">
-        <v>207</v>
+        <v>320</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
@@ -4176,13 +4209,13 @@
         <v>4</v>
       </c>
       <c r="G70" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H70" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I70" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J70">
         <v>3</v>
@@ -4190,16 +4223,13 @@
       <c r="K70" t="b">
         <v>0</v>
       </c>
-      <c r="L70" t="s">
-        <v>242</v>
-      </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B71" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
@@ -4214,13 +4244,13 @@
         <v>4</v>
       </c>
       <c r="G71" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H71" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I71" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="J71">
         <v>3</v>
@@ -4229,15 +4259,15 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B72" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C72" t="b">
         <v>0</v>
@@ -4252,62 +4282,65 @@
         <v>4</v>
       </c>
       <c r="G72" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="H72" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I72" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K72" t="b">
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>321</v>
+        <v>214</v>
       </c>
       <c r="B73" t="s">
-        <v>322</v>
+        <v>215</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
       </c>
       <c r="D73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G73" t="s">
-        <v>323</v>
+        <v>250</v>
       </c>
       <c r="H73" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="I73" t="s">
-        <v>325</v>
+        <v>217</v>
       </c>
       <c r="J73">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K73" t="b">
         <v>0</v>
+      </c>
+      <c r="L73" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B74" t="s">
         <v>322</v>
@@ -4316,22 +4349,22 @@
         <v>0</v>
       </c>
       <c r="D74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G74" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H74" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I74" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J74">
         <v>3</v>
@@ -4342,31 +4375,34 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>366</v>
+        <v>326</v>
       </c>
       <c r="B75" t="s">
         <v>322</v>
       </c>
       <c r="C75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="b">
         <v>1</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
       </c>
       <c r="G75" t="s">
         <v>327</v>
       </c>
       <c r="H75" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="I75" t="s">
         <v>329</v>
       </c>
       <c r="J75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K75" t="b">
         <v>0</v>
@@ -4374,34 +4410,31 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="B76" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
-      <c r="F76">
-        <v>4</v>
-      </c>
       <c r="G76" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="H76" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="I76" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="J76">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K76" t="b">
         <v>0</v>
@@ -4409,31 +4442,34 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="B77" t="s">
-        <v>130</v>
+        <v>331</v>
       </c>
       <c r="C77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" t="b">
         <v>1</v>
       </c>
+      <c r="F77">
+        <v>4</v>
+      </c>
       <c r="G77" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="H77" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="I77" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="J77">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K77" t="b">
         <v>0</v>
@@ -4441,7 +4477,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="B78" t="s">
         <v>130</v>
@@ -4456,18 +4492,82 @@
         <v>1</v>
       </c>
       <c r="G78" t="s">
+        <v>352</v>
+      </c>
+      <c r="H78" t="s">
+        <v>353</v>
+      </c>
+      <c r="I78" t="s">
+        <v>354</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>359</v>
+      </c>
+      <c r="B79" t="s">
+        <v>130</v>
+      </c>
+      <c r="C79" t="b">
+        <v>1</v>
+      </c>
+      <c r="D79" t="b">
+        <v>0</v>
+      </c>
+      <c r="E79" t="b">
+        <v>1</v>
+      </c>
+      <c r="G79" t="s">
         <v>360</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H79" t="s">
         <v>361</v>
       </c>
-      <c r="I78" t="s">
+      <c r="I79" t="s">
         <v>362</v>
       </c>
-      <c r="J78">
-        <v>1</v>
-      </c>
-      <c r="K78" t="b">
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>375</v>
+      </c>
+      <c r="B80" t="s">
+        <v>381</v>
+      </c>
+      <c r="C80" t="b">
+        <v>1</v>
+      </c>
+      <c r="D80" t="b">
+        <v>0</v>
+      </c>
+      <c r="E80" t="b">
+        <v>1</v>
+      </c>
+      <c r="G80" t="s">
+        <v>376</v>
+      </c>
+      <c r="H80" t="s">
+        <v>377</v>
+      </c>
+      <c r="I80" t="s">
+        <v>378</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4512,9 +4612,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6239E2D-40EA-4B45-8295-42B35BCC92F9}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4629,32 +4729,54 @@
         <v>363</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>368</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>379</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>369</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE67FFDE-7F79-4D8E-8AA9-1307B55C8FE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E410A0B-B51C-48AD-8D9F-479FAE0EA8FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
@@ -1176,10 +1176,10 @@
     <t>Actor3212</t>
   </si>
   <si>
-    <t>FlatSkill2_69_NoBG_Gray</t>
-  </si>
-  <si>
     <t>FlatSkill2_139_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>FlatSkill2_137_NoBG_Gray</t>
   </si>
 </sst>
 </file>
@@ -1750,9 +1750,9 @@
   <dimension ref="A1:M80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A78" sqref="A78"/>
+      <selection pane="bottomLeft" activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1983,7 +1983,7 @@
         <v>369</v>
       </c>
       <c r="B7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -4544,7 +4544,7 @@
         <v>375</v>
       </c>
       <c r="B80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C80" t="b">
         <v>1</v>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E410A0B-B51C-48AD-8D9F-479FAE0EA8FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B1242E-B6EF-4970-8511-7F1085A3B30B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="384">
   <si>
     <t>levelPackId|String</t>
   </si>
@@ -1143,12 +1143,6 @@
     <t>Actor3242</t>
   </si>
   <si>
-    <t>AtkBestMeryl</t>
-  </si>
-  <si>
-    <t>LevelPackUIName_AtkBestMeryl</t>
-  </si>
-  <si>
     <t>ParallelBetterLinhi</t>
   </si>
   <si>
@@ -1177,6 +1171,18 @@
   </si>
   <si>
     <t>FlatSkill2_139_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>AtkUpOnFoeMaxHpMeryl</t>
+  </si>
+  <si>
+    <t>LP_AtkUpOnFoeMaxHpMeryl</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_AtkUpOnFoeMaxHpMeryl</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_AtkUpOnFoeMaxHpMeryl</t>
   </si>
   <si>
     <t>FlatSkill2_137_NoBG_Gray</t>
@@ -1750,9 +1756,9 @@
   <dimension ref="A1:M80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A80" sqref="A80"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1980,31 +1986,34 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>369</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>381</v>
+        <v>72</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>130</v>
       </c>
       <c r="G7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H7" t="s">
-        <v>370</v>
+        <v>74</v>
       </c>
       <c r="I7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
@@ -2012,7 +2021,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
         <v>72</v>
@@ -2021,22 +2030,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>130</v>
+        <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J8">
         <v>9</v>
@@ -2047,34 +2056,31 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>340</v>
       </c>
       <c r="B9" t="s">
         <v>72</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
       </c>
       <c r="G9" t="s">
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>348</v>
       </c>
       <c r="I9" t="s">
         <v>79</v>
       </c>
       <c r="J9">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
@@ -2082,31 +2088,34 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>340</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
       <c r="G10" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s">
-        <v>348</v>
+        <v>83</v>
       </c>
       <c r="I10" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
@@ -2114,34 +2123,34 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="G11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="I11" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
@@ -2149,7 +2158,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
         <v>86</v>
@@ -2158,25 +2167,25 @@
         <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>130</v>
+        <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H12" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I12" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J12">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
@@ -2184,10 +2193,10 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -2199,19 +2208,19 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H13" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I13" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
@@ -2219,34 +2228,34 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="G14" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="H14" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="I14" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
@@ -2254,7 +2263,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
         <v>100</v>
@@ -2263,22 +2272,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>130</v>
+        <v>4</v>
       </c>
       <c r="G15" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H15" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I15" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="J15">
         <v>9</v>
@@ -2289,10 +2298,10 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -2304,19 +2313,19 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H16" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="I16" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="J16">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
@@ -2324,34 +2333,34 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="G17" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H17" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I17" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
@@ -2359,7 +2368,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>262</v>
       </c>
       <c r="B18" t="s">
         <v>114</v>
@@ -2368,22 +2377,22 @@
         <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>115</v>
+        <v>263</v>
       </c>
       <c r="H18" t="s">
-        <v>116</v>
+        <v>264</v>
       </c>
       <c r="I18" t="s">
-        <v>117</v>
+        <v>265</v>
       </c>
       <c r="J18">
         <v>9</v>
@@ -2394,31 +2403,31 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>267</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="G19" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="H19" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="I19" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="J19">
         <v>9</v>
@@ -2426,10 +2435,13 @@
       <c r="K19" t="b">
         <v>0</v>
       </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B20" t="s">
         <v>267</v>
@@ -2438,22 +2450,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="H20" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="I20" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="J20">
         <v>9</v>
@@ -2467,31 +2479,31 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>271</v>
+        <v>118</v>
       </c>
       <c r="B21" t="s">
-        <v>267</v>
+        <v>119</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="G21" t="s">
-        <v>272</v>
+        <v>120</v>
       </c>
       <c r="H21" t="s">
-        <v>273</v>
+        <v>121</v>
       </c>
       <c r="I21" t="s">
-        <v>274</v>
+        <v>122</v>
       </c>
       <c r="J21">
         <v>9</v>
@@ -2500,12 +2512,12 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>275</v>
       </c>
       <c r="B22" t="s">
         <v>119</v>
@@ -2514,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="G22" t="s">
-        <v>120</v>
+        <v>276</v>
       </c>
       <c r="H22" t="s">
-        <v>121</v>
+        <v>277</v>
       </c>
       <c r="I22" t="s">
-        <v>122</v>
+        <v>278</v>
       </c>
       <c r="J22">
         <v>9</v>
@@ -2543,31 +2555,31 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>280</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="G23" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="H23" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="I23" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="J23">
         <v>9</v>
@@ -2576,12 +2588,12 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B24" t="s">
         <v>280</v>
@@ -2590,22 +2602,22 @@
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="H24" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="I24" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="J24">
         <v>9</v>
@@ -2619,10 +2631,10 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B25" t="s">
-        <v>280</v>
+        <v>173</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -2634,33 +2646,30 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G25" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="H25" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="I25" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="J25">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K25" t="b">
         <v>0</v>
-      </c>
-      <c r="M25">
-        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B26" t="s">
-        <v>173</v>
+        <v>293</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -2675,13 +2684,13 @@
         <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="H26" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="I26" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="J26">
         <v>3</v>
@@ -2692,31 +2701,31 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>292</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>293</v>
+        <v>123</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="G27" t="s">
-        <v>294</v>
+        <v>13</v>
       </c>
       <c r="H27" t="s">
-        <v>295</v>
+        <v>14</v>
       </c>
       <c r="I27" t="s">
-        <v>296</v>
+        <v>15</v>
       </c>
       <c r="J27">
         <v>3</v>
@@ -2724,10 +2733,13 @@
       <c r="K27" t="b">
         <v>0</v>
       </c>
+      <c r="M27">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>297</v>
       </c>
       <c r="B28" t="s">
         <v>123</v>
@@ -2736,22 +2748,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>298</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>299</v>
       </c>
       <c r="I28" t="s">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="J28">
         <v>3</v>
@@ -2765,31 +2777,31 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>297</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G29" t="s">
-        <v>298</v>
+        <v>17</v>
       </c>
       <c r="H29" t="s">
-        <v>299</v>
+        <v>18</v>
       </c>
       <c r="I29" t="s">
-        <v>300</v>
+        <v>19</v>
       </c>
       <c r="J29">
         <v>3</v>
@@ -2798,12 +2810,12 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>301</v>
       </c>
       <c r="B30" t="s">
         <v>124</v>
@@ -2812,22 +2824,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>302</v>
       </c>
       <c r="H30" t="s">
-        <v>18</v>
+        <v>303</v>
       </c>
       <c r="I30" t="s">
-        <v>19</v>
+        <v>304</v>
       </c>
       <c r="J30">
         <v>3</v>
@@ -2841,31 +2853,31 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>301</v>
+        <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G31" t="s">
-        <v>302</v>
+        <v>21</v>
       </c>
       <c r="H31" t="s">
-        <v>303</v>
+        <v>22</v>
       </c>
       <c r="I31" t="s">
-        <v>304</v>
+        <v>23</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -2873,13 +2885,10 @@
       <c r="K31" t="b">
         <v>0</v>
       </c>
-      <c r="M31">
-        <v>7</v>
-      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>305</v>
       </c>
       <c r="B32" t="s">
         <v>125</v>
@@ -2888,22 +2897,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G32" t="s">
-        <v>21</v>
+        <v>306</v>
       </c>
       <c r="H32" t="s">
-        <v>22</v>
+        <v>307</v>
       </c>
       <c r="I32" t="s">
-        <v>23</v>
+        <v>308</v>
       </c>
       <c r="J32">
         <v>3</v>
@@ -2914,34 +2923,31 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>305</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
-      <c r="F33">
+      <c r="G33" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J33">
         <v>2</v>
-      </c>
-      <c r="G33" t="s">
-        <v>306</v>
-      </c>
-      <c r="H33" t="s">
-        <v>307</v>
-      </c>
-      <c r="I33" t="s">
-        <v>308</v>
-      </c>
-      <c r="J33">
-        <v>3</v>
       </c>
       <c r="K33" t="b">
         <v>0</v>
@@ -2949,7 +2955,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>338</v>
       </c>
       <c r="B34" t="s">
         <v>126</v>
@@ -2973,7 +2979,7 @@
         <v>27</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>
@@ -2981,10 +2987,10 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>338</v>
+        <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C35" t="b">
         <v>1</v>
@@ -2996,16 +3002,16 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H35" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I35" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K35" t="b">
         <v>0</v>
@@ -3013,7 +3019,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>345</v>
       </c>
       <c r="B36" t="s">
         <v>127</v>
@@ -3028,16 +3034,16 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>29</v>
+        <v>349</v>
       </c>
       <c r="H36" t="s">
-        <v>30</v>
+        <v>350</v>
       </c>
       <c r="I36" t="s">
-        <v>31</v>
+        <v>351</v>
       </c>
       <c r="J36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K36" t="b">
         <v>0</v>
@@ -3045,10 +3051,10 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>345</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C37" t="b">
         <v>1</v>
@@ -3060,16 +3066,16 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>349</v>
+        <v>33</v>
       </c>
       <c r="H37" t="s">
-        <v>350</v>
+        <v>34</v>
       </c>
       <c r="I37" t="s">
-        <v>351</v>
+        <v>35</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
@@ -3077,10 +3083,10 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
@@ -3092,13 +3098,13 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H38" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I38" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -3109,7 +3115,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>369</v>
       </c>
       <c r="B39" t="s">
         <v>129</v>
@@ -3124,16 +3130,16 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>37</v>
+        <v>370</v>
       </c>
       <c r="H39" t="s">
-        <v>38</v>
+        <v>371</v>
       </c>
       <c r="I39" t="s">
-        <v>39</v>
+        <v>372</v>
       </c>
       <c r="J39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K39" t="b">
         <v>0</v>
@@ -3141,10 +3147,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>371</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C40" t="b">
         <v>1</v>
@@ -3156,16 +3162,16 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>372</v>
+        <v>41</v>
       </c>
       <c r="H40" t="s">
-        <v>373</v>
+        <v>42</v>
       </c>
       <c r="I40" t="s">
-        <v>374</v>
+        <v>43</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K40" t="b">
         <v>0</v>
@@ -3173,10 +3179,10 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
@@ -3188,13 +3194,13 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J41">
         <v>2</v>
@@ -3205,10 +3211,10 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C42" t="b">
         <v>1</v>
@@ -3220,13 +3226,13 @@
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I42" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J42">
         <v>2</v>
@@ -3237,10 +3243,10 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C43" t="b">
         <v>1</v>
@@ -3252,13 +3258,13 @@
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H43" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I43" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J43">
         <v>2</v>
@@ -3269,7 +3275,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>367</v>
       </c>
       <c r="B44" t="s">
         <v>133</v>
@@ -3293,7 +3299,7 @@
         <v>55</v>
       </c>
       <c r="J44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K44" t="b">
         <v>0</v>
@@ -3301,31 +3307,34 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>367</v>
+        <v>134</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
       </c>
       <c r="E45" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>100</v>
       </c>
       <c r="G45" t="s">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="H45" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="I45" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K45" t="b">
         <v>0</v>
@@ -3333,7 +3342,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B46" t="s">
         <v>135</v>
@@ -3342,25 +3351,25 @@
         <v>0</v>
       </c>
       <c r="D46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G46" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H46" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I46" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J46">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
@@ -3368,42 +3377,45 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B47" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
       </c>
       <c r="D47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G47" t="s">
-        <v>140</v>
+        <v>223</v>
       </c>
       <c r="H47" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="I47" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="J47">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
+      </c>
+      <c r="L47" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B48" t="s">
         <v>148</v>
@@ -3412,25 +3424,25 @@
         <v>0</v>
       </c>
       <c r="D48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G48" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H48" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="I48" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="J48">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
@@ -3441,45 +3453,42 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B49" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
       </c>
       <c r="D49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G49" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H49" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="I49" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="J49">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
-      </c>
-      <c r="L49" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B50" t="s">
         <v>155</v>
@@ -3488,25 +3497,25 @@
         <v>0</v>
       </c>
       <c r="D50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G50" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H50" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I50" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="J50">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
@@ -3514,10 +3523,10 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B51" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
@@ -3529,16 +3538,16 @@
         <v>1</v>
       </c>
       <c r="F51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G51" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H51" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="I51" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="J51">
         <v>5</v>
@@ -3549,31 +3558,31 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B52" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
       </c>
       <c r="D52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="G52" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H52" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="I52" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J52">
         <v>5</v>
@@ -3584,7 +3593,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B53" t="s">
         <v>166</v>
@@ -3593,25 +3602,25 @@
         <v>0</v>
       </c>
       <c r="D53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G53" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H53" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I53" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="J53">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
@@ -3619,34 +3628,34 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B54" t="s">
-        <v>166</v>
+        <v>309</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
       </c>
       <c r="D54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G54" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H54" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="I54" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="J54">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
@@ -3654,7 +3663,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B55" t="s">
         <v>309</v>
@@ -3663,25 +3672,25 @@
         <v>0</v>
       </c>
       <c r="D55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G55" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H55" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I55" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="J55">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
@@ -3689,16 +3698,16 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>176</v>
+        <v>356</v>
       </c>
       <c r="B56" t="s">
         <v>309</v>
       </c>
       <c r="C56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" t="b">
         <v>1</v>
@@ -3710,13 +3719,13 @@
         <v>231</v>
       </c>
       <c r="H56" t="s">
-        <v>177</v>
+        <v>357</v>
       </c>
       <c r="I56" t="s">
         <v>178</v>
       </c>
       <c r="J56">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
@@ -3724,34 +3733,34 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>356</v>
+        <v>179</v>
       </c>
       <c r="B57" t="s">
-        <v>309</v>
+        <v>180</v>
       </c>
       <c r="C57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
       </c>
       <c r="E57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G57" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H57" t="s">
-        <v>357</v>
+        <v>181</v>
       </c>
       <c r="I57" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="J57">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
@@ -3759,7 +3768,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B58" t="s">
         <v>180</v>
@@ -3768,25 +3777,25 @@
         <v>0</v>
       </c>
       <c r="D58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G58" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H58" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I58" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J58">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
@@ -3794,34 +3803,34 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B59" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
       </c>
       <c r="D59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G59" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H59" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="I59" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="J59">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
@@ -3829,7 +3838,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B60" t="s">
         <v>187</v>
@@ -3838,25 +3847,25 @@
         <v>0</v>
       </c>
       <c r="D60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G60" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H60" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I60" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="J60">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
@@ -3864,34 +3873,34 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B61" t="s">
-        <v>187</v>
+        <v>310</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
       </c>
       <c r="D61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G61" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H61" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I61" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="J61">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
@@ -3899,7 +3908,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B62" t="s">
         <v>310</v>
@@ -3908,25 +3917,25 @@
         <v>0</v>
       </c>
       <c r="D62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G62" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H62" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="I62" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="J62">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
@@ -3934,10 +3943,10 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>196</v>
+        <v>143</v>
       </c>
       <c r="B63" t="s">
-        <v>310</v>
+        <v>144</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
@@ -3949,16 +3958,16 @@
         <v>1</v>
       </c>
       <c r="F63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G63" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="H63" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
       <c r="I63" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
       <c r="J63">
         <v>5</v>
@@ -3966,13 +3975,16 @@
       <c r="K63" t="b">
         <v>0</v>
       </c>
+      <c r="L63" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>143</v>
+        <v>199</v>
       </c>
       <c r="B64" t="s">
-        <v>144</v>
+        <v>311</v>
       </c>
       <c r="C64" t="b">
         <v>0</v>
@@ -3987,30 +3999,30 @@
         <v>4</v>
       </c>
       <c r="G64" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="H64" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="I64" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="J64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
       </c>
       <c r="L64" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>199</v>
+        <v>312</v>
       </c>
       <c r="B65" t="s">
-        <v>311</v>
+        <v>200</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
@@ -4025,13 +4037,13 @@
         <v>4</v>
       </c>
       <c r="G65" t="s">
-        <v>238</v>
+        <v>313</v>
       </c>
       <c r="H65" t="s">
-        <v>201</v>
+        <v>314</v>
       </c>
       <c r="I65" t="s">
-        <v>202</v>
+        <v>315</v>
       </c>
       <c r="J65">
         <v>3</v>
@@ -4045,10 +4057,10 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>312</v>
+        <v>251</v>
       </c>
       <c r="B66" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="C66" t="b">
         <v>0</v>
@@ -4063,13 +4075,13 @@
         <v>4</v>
       </c>
       <c r="G66" t="s">
-        <v>313</v>
+        <v>252</v>
       </c>
       <c r="H66" t="s">
-        <v>314</v>
+        <v>253</v>
       </c>
       <c r="I66" t="s">
-        <v>315</v>
+        <v>254</v>
       </c>
       <c r="J66">
         <v>3</v>
@@ -4078,50 +4090,47 @@
         <v>0</v>
       </c>
       <c r="L66" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="B67" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>
       </c>
       <c r="D67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="G67" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="H67" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="I67" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="J67">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
-      </c>
-      <c r="L67" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>218</v>
+        <v>316</v>
       </c>
       <c r="B68" t="s">
         <v>219</v>
@@ -4130,22 +4139,22 @@
         <v>0</v>
       </c>
       <c r="D68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G68" t="s">
-        <v>239</v>
+        <v>317</v>
       </c>
       <c r="H68" t="s">
-        <v>220</v>
+        <v>318</v>
       </c>
       <c r="I68" t="s">
-        <v>221</v>
+        <v>319</v>
       </c>
       <c r="J68">
         <v>5</v>
@@ -4156,10 +4165,10 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>316</v>
+        <v>203</v>
       </c>
       <c r="B69" t="s">
-        <v>219</v>
+        <v>320</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
@@ -4171,19 +4180,19 @@
         <v>1</v>
       </c>
       <c r="F69">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G69" t="s">
-        <v>317</v>
+        <v>241</v>
       </c>
       <c r="H69" t="s">
-        <v>318</v>
+        <v>204</v>
       </c>
       <c r="I69" t="s">
-        <v>319</v>
+        <v>205</v>
       </c>
       <c r="J69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
@@ -4191,10 +4200,10 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B70" t="s">
-        <v>320</v>
+        <v>207</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
@@ -4209,13 +4218,13 @@
         <v>4</v>
       </c>
       <c r="G70" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H70" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="I70" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="J70">
         <v>3</v>
@@ -4223,13 +4232,16 @@
       <c r="K70" t="b">
         <v>0</v>
       </c>
+      <c r="L70" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B71" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
@@ -4244,13 +4256,13 @@
         <v>4</v>
       </c>
       <c r="G71" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H71" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="I71" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="J71">
         <v>3</v>
@@ -4259,15 +4271,15 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B72" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C72" t="b">
         <v>0</v>
@@ -4282,65 +4294,62 @@
         <v>4</v>
       </c>
       <c r="G72" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="H72" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="I72" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="J72">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K72" t="b">
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>214</v>
+        <v>321</v>
       </c>
       <c r="B73" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
       </c>
       <c r="D73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="G73" t="s">
-        <v>250</v>
+        <v>323</v>
       </c>
       <c r="H73" t="s">
-        <v>216</v>
+        <v>324</v>
       </c>
       <c r="I73" t="s">
-        <v>217</v>
+        <v>325</v>
       </c>
       <c r="J73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K73" t="b">
         <v>0</v>
-      </c>
-      <c r="L73" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B74" t="s">
         <v>322</v>
@@ -4349,22 +4358,22 @@
         <v>0</v>
       </c>
       <c r="D74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G74" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H74" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="I74" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="J74">
         <v>3</v>
@@ -4375,34 +4384,31 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="B75" t="s">
         <v>322</v>
       </c>
       <c r="C75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" t="b">
         <v>1</v>
-      </c>
-      <c r="F75">
-        <v>2</v>
       </c>
       <c r="G75" t="s">
         <v>327</v>
       </c>
       <c r="H75" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="I75" t="s">
         <v>329</v>
       </c>
       <c r="J75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K75" t="b">
         <v>0</v>
@@ -4410,31 +4416,34 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>365</v>
+        <v>330</v>
       </c>
       <c r="B76" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="C76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
+      <c r="F76">
+        <v>4</v>
+      </c>
       <c r="G76" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="H76" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="I76" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="J76">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K76" t="b">
         <v>0</v>
@@ -4442,34 +4451,31 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="B77" t="s">
-        <v>331</v>
+        <v>130</v>
       </c>
       <c r="C77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" t="b">
         <v>1</v>
       </c>
-      <c r="F77">
-        <v>4</v>
-      </c>
       <c r="G77" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="H77" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="I77" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="J77">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K77" t="b">
         <v>0</v>
@@ -4477,7 +4483,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="B78" t="s">
         <v>130</v>
@@ -4492,13 +4498,13 @@
         <v>1</v>
       </c>
       <c r="G78" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="H78" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="I78" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -4509,10 +4515,10 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="B79" t="s">
-        <v>130</v>
+        <v>378</v>
       </c>
       <c r="C79" t="b">
         <v>1</v>
@@ -4524,13 +4530,13 @@
         <v>1</v>
       </c>
       <c r="G79" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="H79" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="I79" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="J79">
         <v>1</v>
@@ -4541,28 +4547,28 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B80" t="s">
+        <v>383</v>
+      </c>
+      <c r="C80" t="b">
+        <v>1</v>
+      </c>
+      <c r="D80" t="b">
+        <v>0</v>
+      </c>
+      <c r="E80" t="b">
+        <v>1</v>
+      </c>
+      <c r="G80" t="s">
         <v>380</v>
       </c>
-      <c r="C80" t="b">
-        <v>1</v>
-      </c>
-      <c r="D80" t="b">
-        <v>0</v>
-      </c>
-      <c r="E80" t="b">
-        <v>1</v>
-      </c>
-      <c r="G80" t="s">
-        <v>376</v>
-      </c>
       <c r="H80" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="I80" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -4732,7 +4738,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -4743,7 +4749,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -4770,13 +4776,13 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B14">
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B1242E-B6EF-4970-8511-7F1085A3B30B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5917720A-FFF3-4454-8864-86D180633C73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -1755,7 +1755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
   <dimension ref="A1:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -4620,7 +4620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6239E2D-40EA-4B45-8295-42B35BCC92F9}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4680,7 +4680,7 @@
         <v>337</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>341</v>
@@ -4735,7 +4735,7 @@
         <v>363</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>369</v>
@@ -4746,7 +4746,7 @@
         <v>363</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>373</v>
@@ -4768,7 +4768,7 @@
         <v>368</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>367</v>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5917720A-FFF3-4454-8864-86D180633C73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621581C4-5752-40A4-8426-FFE4B02DCE1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="389">
   <si>
     <t>levelPackId|String</t>
   </si>
@@ -1186,6 +1186,21 @@
   </si>
   <si>
     <t>FlatSkill2_137_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>MaxHpPowerSource</t>
+  </si>
+  <si>
+    <t>FlatLightArmorTop_7_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>LP_MaxHpPowerSource</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_MaxHpPowerSource</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_MaxHpPowerSource</t>
   </si>
 </sst>
 </file>
@@ -1753,12 +1768,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
-  <dimension ref="A1:M80"/>
+  <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2333,13 +2348,13 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>384</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>385</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -2347,20 +2362,17 @@
       <c r="E17" t="b">
         <v>0</v>
       </c>
-      <c r="F17">
-        <v>70</v>
-      </c>
       <c r="G17" t="s">
-        <v>115</v>
+        <v>386</v>
       </c>
       <c r="H17" t="s">
-        <v>116</v>
+        <v>387</v>
       </c>
       <c r="I17" t="s">
-        <v>117</v>
+        <v>388</v>
       </c>
       <c r="J17">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
@@ -2368,7 +2380,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>262</v>
+        <v>113</v>
       </c>
       <c r="B18" t="s">
         <v>114</v>
@@ -2377,22 +2389,22 @@
         <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>263</v>
+        <v>115</v>
       </c>
       <c r="H18" t="s">
-        <v>264</v>
+        <v>116</v>
       </c>
       <c r="I18" t="s">
-        <v>265</v>
+        <v>117</v>
       </c>
       <c r="J18">
         <v>9</v>
@@ -2403,31 +2415,31 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B19" t="s">
-        <v>267</v>
+        <v>114</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H19" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="I19" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="J19">
         <v>9</v>
@@ -2435,13 +2447,10 @@
       <c r="K19" t="b">
         <v>0</v>
       </c>
-      <c r="M19">
-        <v>2</v>
-      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B20" t="s">
         <v>267</v>
@@ -2450,22 +2459,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="G20" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H20" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I20" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="J20">
         <v>9</v>
@@ -2479,31 +2488,31 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>271</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>267</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="G21" t="s">
-        <v>120</v>
+        <v>272</v>
       </c>
       <c r="H21" t="s">
-        <v>121</v>
+        <v>273</v>
       </c>
       <c r="I21" t="s">
-        <v>122</v>
+        <v>274</v>
       </c>
       <c r="J21">
         <v>9</v>
@@ -2512,12 +2521,12 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>275</v>
+        <v>118</v>
       </c>
       <c r="B22" t="s">
         <v>119</v>
@@ -2526,22 +2535,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="G22" t="s">
-        <v>276</v>
+        <v>120</v>
       </c>
       <c r="H22" t="s">
-        <v>277</v>
+        <v>121</v>
       </c>
       <c r="I22" t="s">
-        <v>278</v>
+        <v>122</v>
       </c>
       <c r="J22">
         <v>9</v>
@@ -2555,31 +2564,31 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B23" t="s">
-        <v>280</v>
+        <v>119</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H23" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="I23" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="J23">
         <v>9</v>
@@ -2588,12 +2597,12 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B24" t="s">
         <v>280</v>
@@ -2602,22 +2611,22 @@
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="G24" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H24" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="I24" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="J24">
         <v>9</v>
@@ -2631,10 +2640,10 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B25" t="s">
-        <v>173</v>
+        <v>280</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -2646,30 +2655,33 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G25" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H25" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I25" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J25">
+        <v>9</v>
+      </c>
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>3</v>
-      </c>
-      <c r="K25" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B26" t="s">
-        <v>293</v>
+        <v>173</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -2684,13 +2696,13 @@
         <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H26" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="I26" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="J26">
         <v>3</v>
@@ -2701,31 +2713,31 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>292</v>
       </c>
       <c r="B27" t="s">
-        <v>123</v>
+        <v>293</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>294</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>295</v>
       </c>
       <c r="I27" t="s">
-        <v>15</v>
+        <v>296</v>
       </c>
       <c r="J27">
         <v>3</v>
@@ -2733,13 +2745,10 @@
       <c r="K27" t="b">
         <v>0</v>
       </c>
-      <c r="M27">
-        <v>4</v>
-      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>297</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
         <v>123</v>
@@ -2748,22 +2757,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G28" t="s">
-        <v>298</v>
+        <v>13</v>
       </c>
       <c r="H28" t="s">
-        <v>299</v>
+        <v>14</v>
       </c>
       <c r="I28" t="s">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c r="J28">
         <v>3</v>
@@ -2777,31 +2786,31 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>297</v>
       </c>
       <c r="B29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>298</v>
       </c>
       <c r="H29" t="s">
-        <v>18</v>
+        <v>299</v>
       </c>
       <c r="I29" t="s">
-        <v>19</v>
+        <v>300</v>
       </c>
       <c r="J29">
         <v>3</v>
@@ -2810,12 +2819,12 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>301</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
         <v>124</v>
@@ -2824,22 +2833,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G30" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="H30" t="s">
-        <v>303</v>
+        <v>18</v>
       </c>
       <c r="I30" t="s">
-        <v>304</v>
+        <v>19</v>
       </c>
       <c r="J30">
         <v>3</v>
@@ -2853,31 +2862,31 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>301</v>
       </c>
       <c r="B31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G31" t="s">
-        <v>21</v>
+        <v>302</v>
       </c>
       <c r="H31" t="s">
-        <v>22</v>
+        <v>303</v>
       </c>
       <c r="I31" t="s">
-        <v>23</v>
+        <v>304</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -2885,10 +2894,13 @@
       <c r="K31" t="b">
         <v>0</v>
       </c>
+      <c r="M31">
+        <v>7</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>305</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s">
         <v>125</v>
@@ -2897,22 +2909,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G32" t="s">
-        <v>306</v>
+        <v>21</v>
       </c>
       <c r="H32" t="s">
-        <v>307</v>
+        <v>22</v>
       </c>
       <c r="I32" t="s">
-        <v>308</v>
+        <v>23</v>
       </c>
       <c r="J32">
         <v>3</v>
@@ -2923,31 +2935,34 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>305</v>
       </c>
       <c r="B33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
       <c r="G33" t="s">
-        <v>25</v>
+        <v>306</v>
       </c>
       <c r="H33" t="s">
-        <v>26</v>
+        <v>307</v>
       </c>
       <c r="I33" t="s">
-        <v>27</v>
+        <v>308</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K33" t="b">
         <v>0</v>
@@ -2955,7 +2970,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>338</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s">
         <v>126</v>
@@ -2979,7 +2994,7 @@
         <v>27</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>
@@ -2987,10 +3002,10 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>338</v>
       </c>
       <c r="B35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C35" t="b">
         <v>1</v>
@@ -3002,16 +3017,16 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H35" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I35" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K35" t="b">
         <v>0</v>
@@ -3019,7 +3034,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>345</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s">
         <v>127</v>
@@ -3034,16 +3049,16 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>349</v>
+        <v>29</v>
       </c>
       <c r="H36" t="s">
-        <v>350</v>
+        <v>30</v>
       </c>
       <c r="I36" t="s">
-        <v>351</v>
+        <v>31</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K36" t="b">
         <v>0</v>
@@ -3051,10 +3066,10 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>345</v>
       </c>
       <c r="B37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C37" t="b">
         <v>1</v>
@@ -3066,16 +3081,16 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>349</v>
       </c>
       <c r="H37" t="s">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="I37" t="s">
-        <v>35</v>
+        <v>351</v>
       </c>
       <c r="J37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
@@ -3083,10 +3098,10 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
@@ -3098,13 +3113,13 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H38" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I38" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -3115,7 +3130,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>369</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
         <v>129</v>
@@ -3130,16 +3145,16 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>370</v>
+        <v>37</v>
       </c>
       <c r="H39" t="s">
-        <v>371</v>
+        <v>38</v>
       </c>
       <c r="I39" t="s">
-        <v>372</v>
+        <v>39</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K39" t="b">
         <v>0</v>
@@ -3147,10 +3162,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>369</v>
       </c>
       <c r="B40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C40" t="b">
         <v>1</v>
@@ -3162,16 +3177,16 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>41</v>
+        <v>370</v>
       </c>
       <c r="H40" t="s">
-        <v>42</v>
+        <v>371</v>
       </c>
       <c r="I40" t="s">
-        <v>43</v>
+        <v>372</v>
       </c>
       <c r="J40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K40" t="b">
         <v>0</v>
@@ -3179,10 +3194,10 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
@@ -3194,13 +3209,13 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I41" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J41">
         <v>2</v>
@@ -3211,10 +3226,10 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C42" t="b">
         <v>1</v>
@@ -3226,13 +3241,13 @@
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J42">
         <v>2</v>
@@ -3243,10 +3258,10 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C43" t="b">
         <v>1</v>
@@ -3258,13 +3273,13 @@
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H43" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I43" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J43">
         <v>2</v>
@@ -3275,7 +3290,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>367</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
         <v>133</v>
@@ -3299,7 +3314,7 @@
         <v>55</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K44" t="b">
         <v>0</v>
@@ -3307,34 +3322,31 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>134</v>
+        <v>367</v>
       </c>
       <c r="B45" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
       </c>
       <c r="E45" t="b">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="H45" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="I45" t="s">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c r="J45">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K45" t="b">
         <v>0</v>
@@ -3342,7 +3354,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B46" t="s">
         <v>135</v>
@@ -3351,25 +3363,25 @@
         <v>0</v>
       </c>
       <c r="D46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G46" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H46" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I46" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J46">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
@@ -3377,45 +3389,42 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B47" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
       </c>
       <c r="D47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G47" t="s">
-        <v>223</v>
+        <v>140</v>
       </c>
       <c r="H47" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="I47" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="J47">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
-      </c>
-      <c r="L47" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B48" t="s">
         <v>148</v>
@@ -3424,25 +3433,25 @@
         <v>0</v>
       </c>
       <c r="D48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H48" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I48" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J48">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
@@ -3453,42 +3462,45 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B49" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
       </c>
       <c r="D49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G49" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H49" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I49" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J49">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
+      </c>
+      <c r="L49" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B50" t="s">
         <v>155</v>
@@ -3497,25 +3509,25 @@
         <v>0</v>
       </c>
       <c r="D50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G50" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H50" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I50" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J50">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
@@ -3523,10 +3535,10 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B51" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
@@ -3538,16 +3550,16 @@
         <v>1</v>
       </c>
       <c r="F51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H51" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I51" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J51">
         <v>5</v>
@@ -3558,31 +3570,31 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B52" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
       </c>
       <c r="D52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G52" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H52" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I52" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J52">
         <v>5</v>
@@ -3593,7 +3605,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B53" t="s">
         <v>166</v>
@@ -3602,25 +3614,25 @@
         <v>0</v>
       </c>
       <c r="D53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G53" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H53" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I53" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J53">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
@@ -3628,34 +3640,34 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B54" t="s">
-        <v>309</v>
+        <v>166</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
       </c>
       <c r="D54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G54" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H54" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I54" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J54">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
@@ -3663,7 +3675,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B55" t="s">
         <v>309</v>
@@ -3672,25 +3684,25 @@
         <v>0</v>
       </c>
       <c r="D55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G55" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H55" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I55" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J55">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
@@ -3698,16 +3710,16 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>356</v>
+        <v>176</v>
       </c>
       <c r="B56" t="s">
         <v>309</v>
       </c>
       <c r="C56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="b">
         <v>1</v>
@@ -3719,13 +3731,13 @@
         <v>231</v>
       </c>
       <c r="H56" t="s">
-        <v>357</v>
+        <v>177</v>
       </c>
       <c r="I56" t="s">
         <v>178</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
@@ -3733,34 +3745,34 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>179</v>
+        <v>356</v>
       </c>
       <c r="B57" t="s">
-        <v>180</v>
+        <v>309</v>
       </c>
       <c r="C57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
       </c>
       <c r="E57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G57" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H57" t="s">
-        <v>181</v>
+        <v>357</v>
       </c>
       <c r="I57" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
@@ -3768,7 +3780,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B58" t="s">
         <v>180</v>
@@ -3777,25 +3789,25 @@
         <v>0</v>
       </c>
       <c r="D58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G58" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H58" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I58" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
@@ -3803,34 +3815,34 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B59" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
       </c>
       <c r="D59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G59" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H59" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I59" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J59">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
@@ -3838,7 +3850,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B60" t="s">
         <v>187</v>
@@ -3847,25 +3859,25 @@
         <v>0</v>
       </c>
       <c r="D60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G60" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H60" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I60" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J60">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
@@ -3873,34 +3885,34 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B61" t="s">
-        <v>310</v>
+        <v>187</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
       </c>
       <c r="D61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G61" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H61" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I61" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J61">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
@@ -3908,7 +3920,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B62" t="s">
         <v>310</v>
@@ -3917,25 +3929,25 @@
         <v>0</v>
       </c>
       <c r="D62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G62" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H62" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I62" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J62">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
@@ -3943,10 +3955,10 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>143</v>
+        <v>196</v>
       </c>
       <c r="B63" t="s">
-        <v>144</v>
+        <v>310</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
@@ -3958,16 +3970,16 @@
         <v>1</v>
       </c>
       <c r="F63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G63" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="H63" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="I63" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="J63">
         <v>5</v>
@@ -3975,16 +3987,13 @@
       <c r="K63" t="b">
         <v>0</v>
       </c>
-      <c r="L63" t="s">
-        <v>246</v>
-      </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="B64" t="s">
-        <v>311</v>
+        <v>144</v>
       </c>
       <c r="C64" t="b">
         <v>0</v>
@@ -3999,30 +4008,30 @@
         <v>4</v>
       </c>
       <c r="G64" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="H64" t="s">
-        <v>201</v>
+        <v>145</v>
       </c>
       <c r="I64" t="s">
-        <v>202</v>
+        <v>146</v>
       </c>
       <c r="J64">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
       </c>
       <c r="L64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>312</v>
+        <v>199</v>
       </c>
       <c r="B65" t="s">
-        <v>200</v>
+        <v>311</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
@@ -4037,13 +4046,13 @@
         <v>4</v>
       </c>
       <c r="G65" t="s">
-        <v>313</v>
+        <v>238</v>
       </c>
       <c r="H65" t="s">
-        <v>314</v>
+        <v>201</v>
       </c>
       <c r="I65" t="s">
-        <v>315</v>
+        <v>202</v>
       </c>
       <c r="J65">
         <v>3</v>
@@ -4057,10 +4066,10 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>251</v>
+        <v>312</v>
       </c>
       <c r="B66" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="C66" t="b">
         <v>0</v>
@@ -4075,13 +4084,13 @@
         <v>4</v>
       </c>
       <c r="G66" t="s">
-        <v>252</v>
+        <v>313</v>
       </c>
       <c r="H66" t="s">
-        <v>253</v>
+        <v>314</v>
       </c>
       <c r="I66" t="s">
-        <v>254</v>
+        <v>315</v>
       </c>
       <c r="J66">
         <v>3</v>
@@ -4090,47 +4099,50 @@
         <v>0</v>
       </c>
       <c r="L66" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="B67" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>
       </c>
       <c r="D67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G67" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="H67" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="I67" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="J67">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
+      </c>
+      <c r="L67" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>316</v>
+        <v>218</v>
       </c>
       <c r="B68" t="s">
         <v>219</v>
@@ -4139,22 +4151,22 @@
         <v>0</v>
       </c>
       <c r="D68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G68" t="s">
-        <v>317</v>
+        <v>239</v>
       </c>
       <c r="H68" t="s">
-        <v>318</v>
+        <v>220</v>
       </c>
       <c r="I68" t="s">
-        <v>319</v>
+        <v>221</v>
       </c>
       <c r="J68">
         <v>5</v>
@@ -4165,10 +4177,10 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>203</v>
+        <v>316</v>
       </c>
       <c r="B69" t="s">
-        <v>320</v>
+        <v>219</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
@@ -4180,19 +4192,19 @@
         <v>1</v>
       </c>
       <c r="F69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G69" t="s">
-        <v>241</v>
+        <v>317</v>
       </c>
       <c r="H69" t="s">
-        <v>204</v>
+        <v>318</v>
       </c>
       <c r="I69" t="s">
-        <v>205</v>
+        <v>319</v>
       </c>
       <c r="J69">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
@@ -4200,10 +4212,10 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B70" t="s">
-        <v>207</v>
+        <v>320</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
@@ -4218,13 +4230,13 @@
         <v>4</v>
       </c>
       <c r="G70" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H70" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I70" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J70">
         <v>3</v>
@@ -4232,16 +4244,13 @@
       <c r="K70" t="b">
         <v>0</v>
       </c>
-      <c r="L70" t="s">
-        <v>242</v>
-      </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B71" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
@@ -4256,13 +4265,13 @@
         <v>4</v>
       </c>
       <c r="G71" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H71" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I71" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="J71">
         <v>3</v>
@@ -4271,15 +4280,15 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B72" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C72" t="b">
         <v>0</v>
@@ -4294,62 +4303,65 @@
         <v>4</v>
       </c>
       <c r="G72" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="H72" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I72" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K72" t="b">
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>321</v>
+        <v>214</v>
       </c>
       <c r="B73" t="s">
-        <v>322</v>
+        <v>215</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
       </c>
       <c r="D73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G73" t="s">
-        <v>323</v>
+        <v>250</v>
       </c>
       <c r="H73" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="I73" t="s">
-        <v>325</v>
+        <v>217</v>
       </c>
       <c r="J73">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K73" t="b">
         <v>0</v>
+      </c>
+      <c r="L73" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B74" t="s">
         <v>322</v>
@@ -4358,22 +4370,22 @@
         <v>0</v>
       </c>
       <c r="D74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G74" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H74" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I74" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J74">
         <v>3</v>
@@ -4384,31 +4396,34 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="B75" t="s">
         <v>322</v>
       </c>
       <c r="C75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="b">
         <v>1</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
       </c>
       <c r="G75" t="s">
         <v>327</v>
       </c>
       <c r="H75" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
       <c r="I75" t="s">
         <v>329</v>
       </c>
       <c r="J75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K75" t="b">
         <v>0</v>
@@ -4416,34 +4431,31 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="B76" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
-      <c r="F76">
-        <v>4</v>
-      </c>
       <c r="G76" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="H76" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="I76" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="J76">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K76" t="b">
         <v>0</v>
@@ -4451,31 +4463,34 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="B77" t="s">
-        <v>130</v>
+        <v>331</v>
       </c>
       <c r="C77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" t="b">
         <v>1</v>
       </c>
+      <c r="F77">
+        <v>4</v>
+      </c>
       <c r="G77" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="H77" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="I77" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="J77">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K77" t="b">
         <v>0</v>
@@ -4483,7 +4498,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="B78" t="s">
         <v>130</v>
@@ -4498,13 +4513,13 @@
         <v>1</v>
       </c>
       <c r="G78" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="H78" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="I78" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -4515,10 +4530,10 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="B79" t="s">
-        <v>378</v>
+        <v>130</v>
       </c>
       <c r="C79" t="b">
         <v>1</v>
@@ -4530,13 +4545,13 @@
         <v>1</v>
       </c>
       <c r="G79" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="H79" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="I79" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="J79">
         <v>1</v>
@@ -4547,33 +4562,65 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>373</v>
+      </c>
+      <c r="B80" t="s">
+        <v>378</v>
+      </c>
+      <c r="C80" t="b">
+        <v>1</v>
+      </c>
+      <c r="D80" t="b">
+        <v>0</v>
+      </c>
+      <c r="E80" t="b">
+        <v>1</v>
+      </c>
+      <c r="G80" t="s">
+        <v>374</v>
+      </c>
+      <c r="H80" t="s">
+        <v>375</v>
+      </c>
+      <c r="I80" t="s">
+        <v>376</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>379</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>383</v>
       </c>
-      <c r="C80" t="b">
-        <v>1</v>
-      </c>
-      <c r="D80" t="b">
-        <v>0</v>
-      </c>
-      <c r="E80" t="b">
-        <v>1</v>
-      </c>
-      <c r="G80" t="s">
+      <c r="C81" t="b">
+        <v>1</v>
+      </c>
+      <c r="D81" t="b">
+        <v>0</v>
+      </c>
+      <c r="E81" t="b">
+        <v>1</v>
+      </c>
+      <c r="G81" t="s">
         <v>380</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H81" t="s">
         <v>381</v>
       </c>
-      <c r="I80" t="s">
+      <c r="I81" t="s">
         <v>382</v>
       </c>
-      <c r="J80">
-        <v>1</v>
-      </c>
-      <c r="K80" t="b">
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4620,7 +4667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6239E2D-40EA-4B45-8295-42B35BCC92F9}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621581C4-5752-40A4-8426-FFE4B02DCE1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E00D9FE-7054-46F8-A526-BE9B86D4A291}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="439">
   <si>
     <t>levelPackId|String</t>
   </si>
@@ -1201,6 +1201,156 @@
   </si>
   <si>
     <t>LevelPackUIDesc_MaxHpPowerSource</t>
+  </si>
+  <si>
+    <t>HealOnCrit</t>
+  </si>
+  <si>
+    <t>FlatSkill2_93_NoBG_D_Gray</t>
+  </si>
+  <si>
+    <t>LP_HealOnCrit</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_HealOnCrit</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_HealOnCrit</t>
+  </si>
+  <si>
+    <t>HealOnCritBetter</t>
+  </si>
+  <si>
+    <t>LP_HealOnCritBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_HealOnCritBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_HealOnCritBetter</t>
+  </si>
+  <si>
+    <t>AtkUpOnMaxHp</t>
+  </si>
+  <si>
+    <t>FlatSkill2_4_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>LP_AtkUpOnMaxHp</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_AtkUpOnMaxHp</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_AtkUpOnMaxHp</t>
+  </si>
+  <si>
+    <t>AtkUpOnMaxHpBetter</t>
+  </si>
+  <si>
+    <t>LP_AtkUpOnMaxHpBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_AtkUpOnMaxHpBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_AtkUpOnMaxHpBetter</t>
+  </si>
+  <si>
+    <t>AtkUpOnKillUntilGettingHit</t>
+  </si>
+  <si>
+    <t>FlatSkill2_77_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>LP_AtkUpOnKillUntilGettingHit</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_AtkUpOnKillUntilGettingHit</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_AtkUpOnKillUntilGettingHit</t>
+  </si>
+  <si>
+    <t>AtkUpOnKillUntilGettingHitBetter</t>
+  </si>
+  <si>
+    <t>LP_AtkUpOnKillUntilGettingHitBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_AtkUpOnKillUntilGettingHitBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_AtkUpOnKillUntilGettingHitBetter</t>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
+  </si>
+  <si>
+    <t>LP_MoveSpeed</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_MoveSpeed</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_MoveSpeed</t>
+  </si>
+  <si>
+    <t>FlatSkill2_21_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>PaybackSpBetter</t>
+  </si>
+  <si>
+    <t>LP_PaybackSpBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_PaybackSpBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_PaybackSpBetter</t>
+  </si>
+  <si>
+    <t>SpUpOnMaxHp</t>
+  </si>
+  <si>
+    <t>FlatSkill2_10_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>LP_SpUpOnMaxHp</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_SpUpOnMaxHp</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_SpUpOnMaxHp</t>
+  </si>
+  <si>
+    <t>SpUpOnMaxHpBetter</t>
+  </si>
+  <si>
+    <t>LP_SpUpOnMaxHpBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_SpUpOnMaxHpBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_SpUpOnMaxHpBetter</t>
+  </si>
+  <si>
+    <t>HitSizeDown</t>
+  </si>
+  <si>
+    <t>FlatSkill2_64_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>LP_HitSizeDown</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_HitSizeDown</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_HitSizeDown</t>
   </si>
 </sst>
 </file>
@@ -1768,12 +1918,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
-  <dimension ref="A1:M81"/>
+  <dimension ref="A1:M92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A69" sqref="A69"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2354,7 +2504,7 @@
         <v>385</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -2933,7 +3083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>305</v>
       </c>
@@ -2968,7 +3118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -3000,7 +3150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>338</v>
       </c>
@@ -3032,7 +3182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -3064,7 +3214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>345</v>
       </c>
@@ -3096,7 +3246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -3128,7 +3278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -3160,7 +3310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>369</v>
       </c>
@@ -3192,7 +3342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -3224,7 +3374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -3256,7 +3406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -3288,7 +3438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -3320,7 +3470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>367</v>
       </c>
@@ -3352,7 +3502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>134</v>
       </c>
@@ -3387,7 +3537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>139</v>
       </c>
@@ -3422,12 +3572,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>147</v>
+        <v>389</v>
       </c>
       <c r="B48" t="s">
-        <v>148</v>
+        <v>390</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
@@ -3442,13 +3592,13 @@
         <v>100</v>
       </c>
       <c r="G48" t="s">
-        <v>223</v>
+        <v>391</v>
       </c>
       <c r="H48" t="s">
-        <v>149</v>
+        <v>392</v>
       </c>
       <c r="I48" t="s">
-        <v>150</v>
+        <v>393</v>
       </c>
       <c r="J48">
         <v>9</v>
@@ -3456,16 +3606,13 @@
       <c r="K48" t="b">
         <v>0</v>
       </c>
-      <c r="L48" t="s">
-        <v>244</v>
-      </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>151</v>
+        <v>394</v>
       </c>
       <c r="B49" t="s">
-        <v>148</v>
+        <v>390</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
@@ -3480,13 +3627,13 @@
         <v>2</v>
       </c>
       <c r="G49" t="s">
-        <v>224</v>
+        <v>395</v>
       </c>
       <c r="H49" t="s">
-        <v>152</v>
+        <v>396</v>
       </c>
       <c r="I49" t="s">
-        <v>153</v>
+        <v>397</v>
       </c>
       <c r="J49">
         <v>5</v>
@@ -3494,16 +3641,13 @@
       <c r="K49" t="b">
         <v>0</v>
       </c>
-      <c r="L49" t="s">
-        <v>244</v>
-      </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B50" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
@@ -3518,13 +3662,13 @@
         <v>100</v>
       </c>
       <c r="G50" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H50" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="I50" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="J50">
         <v>9</v>
@@ -3532,13 +3676,16 @@
       <c r="K50" t="b">
         <v>0</v>
       </c>
+      <c r="L50" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B51" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
@@ -3553,13 +3700,13 @@
         <v>2</v>
       </c>
       <c r="G51" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H51" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="I51" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="J51">
         <v>5</v>
@@ -3567,37 +3714,40 @@
       <c r="K51" t="b">
         <v>0</v>
       </c>
+      <c r="L51" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B52" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
       </c>
       <c r="D52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="G52" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H52" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I52" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="J52">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
@@ -3605,31 +3755,31 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B53" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
       </c>
       <c r="D53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G53" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H53" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="I53" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="J53">
         <v>5</v>
@@ -3640,10 +3790,10 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B54" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
@@ -3655,19 +3805,19 @@
         <v>1</v>
       </c>
       <c r="F54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G54" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H54" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="I54" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="J54">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
@@ -3675,10 +3825,10 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B55" t="s">
-        <v>309</v>
+        <v>166</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
@@ -3693,16 +3843,16 @@
         <v>100</v>
       </c>
       <c r="G55" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H55" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="I55" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="J55">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
@@ -3710,10 +3860,10 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B56" t="s">
-        <v>309</v>
+        <v>166</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
@@ -3728,16 +3878,16 @@
         <v>2</v>
       </c>
       <c r="G56" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H56" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="I56" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
@@ -3745,34 +3895,34 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>356</v>
+        <v>172</v>
       </c>
       <c r="B57" t="s">
         <v>309</v>
       </c>
       <c r="C57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
       </c>
       <c r="E57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G57" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H57" t="s">
-        <v>357</v>
+        <v>174</v>
       </c>
       <c r="I57" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J57">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
@@ -3780,31 +3930,31 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B58" t="s">
-        <v>180</v>
+        <v>309</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
       </c>
       <c r="D58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G58" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H58" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I58" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J58">
         <v>5</v>
@@ -3815,16 +3965,16 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>183</v>
+        <v>356</v>
       </c>
       <c r="B59" t="s">
-        <v>180</v>
+        <v>309</v>
       </c>
       <c r="C59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" t="b">
         <v>1</v>
@@ -3833,16 +3983,16 @@
         <v>2</v>
       </c>
       <c r="G59" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H59" t="s">
-        <v>184</v>
+        <v>357</v>
       </c>
       <c r="I59" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="J59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
@@ -3850,10 +4000,10 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>186</v>
+        <v>398</v>
       </c>
       <c r="B60" t="s">
-        <v>187</v>
+        <v>399</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
@@ -3868,13 +4018,13 @@
         <v>100</v>
       </c>
       <c r="G60" t="s">
-        <v>234</v>
+        <v>400</v>
       </c>
       <c r="H60" t="s">
-        <v>188</v>
+        <v>401</v>
       </c>
       <c r="I60" t="s">
-        <v>189</v>
+        <v>402</v>
       </c>
       <c r="J60">
         <v>9</v>
@@ -3885,10 +4035,10 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>190</v>
+        <v>403</v>
       </c>
       <c r="B61" t="s">
-        <v>187</v>
+        <v>399</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
@@ -3903,13 +4053,13 @@
         <v>2</v>
       </c>
       <c r="G61" t="s">
-        <v>235</v>
+        <v>404</v>
       </c>
       <c r="H61" t="s">
-        <v>191</v>
+        <v>405</v>
       </c>
       <c r="I61" t="s">
-        <v>192</v>
+        <v>406</v>
       </c>
       <c r="J61">
         <v>5</v>
@@ -3920,10 +4070,10 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>193</v>
+        <v>407</v>
       </c>
       <c r="B62" t="s">
-        <v>310</v>
+        <v>408</v>
       </c>
       <c r="C62" t="b">
         <v>0</v>
@@ -3938,13 +4088,13 @@
         <v>100</v>
       </c>
       <c r="G62" t="s">
-        <v>236</v>
+        <v>409</v>
       </c>
       <c r="H62" t="s">
-        <v>194</v>
+        <v>410</v>
       </c>
       <c r="I62" t="s">
-        <v>195</v>
+        <v>411</v>
       </c>
       <c r="J62">
         <v>9</v>
@@ -3955,10 +4105,10 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>196</v>
+        <v>412</v>
       </c>
       <c r="B63" t="s">
-        <v>310</v>
+        <v>408</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
@@ -3973,13 +4123,13 @@
         <v>2</v>
       </c>
       <c r="G63" t="s">
-        <v>237</v>
+        <v>413</v>
       </c>
       <c r="H63" t="s">
-        <v>197</v>
+        <v>414</v>
       </c>
       <c r="I63" t="s">
-        <v>198</v>
+        <v>415</v>
       </c>
       <c r="J63">
         <v>5</v>
@@ -3990,31 +4140,31 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="B64" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="C64" t="b">
         <v>0</v>
       </c>
       <c r="D64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="G64" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="H64" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="I64" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="J64">
         <v>5</v>
@@ -4022,16 +4172,13 @@
       <c r="K64" t="b">
         <v>0</v>
       </c>
-      <c r="L64" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="B65" t="s">
-        <v>311</v>
+        <v>180</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
@@ -4043,16 +4190,16 @@
         <v>1</v>
       </c>
       <c r="F65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G65" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H65" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="I65" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="J65">
         <v>3</v>
@@ -4060,54 +4207,48 @@
       <c r="K65" t="b">
         <v>0</v>
       </c>
-      <c r="L65" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>312</v>
+        <v>186</v>
       </c>
       <c r="B66" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="C66" t="b">
         <v>0</v>
       </c>
       <c r="D66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="G66" t="s">
-        <v>313</v>
+        <v>234</v>
       </c>
       <c r="H66" t="s">
-        <v>314</v>
+        <v>188</v>
       </c>
       <c r="I66" t="s">
-        <v>315</v>
+        <v>189</v>
       </c>
       <c r="J66">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K66" t="b">
         <v>0</v>
       </c>
-      <c r="L66" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>251</v>
+        <v>190</v>
       </c>
       <c r="B67" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>
@@ -4119,33 +4260,30 @@
         <v>1</v>
       </c>
       <c r="F67">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G67" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="H67" t="s">
-        <v>253</v>
+        <v>191</v>
       </c>
       <c r="I67" t="s">
-        <v>254</v>
+        <v>192</v>
       </c>
       <c r="J67">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
       </c>
-      <c r="L67" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="B68" t="s">
-        <v>219</v>
+        <v>310</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
@@ -4160,27 +4298,27 @@
         <v>100</v>
       </c>
       <c r="G68" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H68" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="I68" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="J68">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K68" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="B69" t="s">
-        <v>219</v>
+        <v>310</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
@@ -4195,13 +4333,13 @@
         <v>2</v>
       </c>
       <c r="G69" t="s">
-        <v>317</v>
+        <v>237</v>
       </c>
       <c r="H69" t="s">
-        <v>318</v>
+        <v>197</v>
       </c>
       <c r="I69" t="s">
-        <v>319</v>
+        <v>198</v>
       </c>
       <c r="J69">
         <v>5</v>
@@ -4210,12 +4348,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>203</v>
+        <v>143</v>
       </c>
       <c r="B70" t="s">
-        <v>320</v>
+        <v>144</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
@@ -4230,65 +4368,68 @@
         <v>4</v>
       </c>
       <c r="G70" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="H70" t="s">
-        <v>204</v>
+        <v>145</v>
       </c>
       <c r="I70" t="s">
-        <v>205</v>
+        <v>146</v>
       </c>
       <c r="J70">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K70" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L70" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>206</v>
+        <v>416</v>
       </c>
       <c r="B71" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
       </c>
       <c r="D71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="G71" t="s">
-        <v>240</v>
+        <v>417</v>
       </c>
       <c r="H71" t="s">
-        <v>208</v>
+        <v>418</v>
       </c>
       <c r="I71" t="s">
-        <v>209</v>
+        <v>419</v>
       </c>
       <c r="J71">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K71" t="b">
         <v>0</v>
       </c>
-      <c r="L71" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="B72" t="s">
-        <v>211</v>
+        <v>311</v>
       </c>
       <c r="C72" t="b">
         <v>0</v>
@@ -4303,13 +4444,13 @@
         <v>4</v>
       </c>
       <c r="G72" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H72" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="I72" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="J72">
         <v>3</v>
@@ -4318,15 +4459,15 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>214</v>
+        <v>312</v>
       </c>
       <c r="B73" t="s">
-        <v>215</v>
+        <v>420</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
@@ -4341,51 +4482,51 @@
         <v>4</v>
       </c>
       <c r="G73" t="s">
-        <v>250</v>
+        <v>313</v>
       </c>
       <c r="H73" t="s">
-        <v>216</v>
+        <v>314</v>
       </c>
       <c r="I73" t="s">
-        <v>217</v>
+        <v>315</v>
       </c>
       <c r="J73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K73" t="b">
         <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>321</v>
+        <v>251</v>
       </c>
       <c r="B74" t="s">
-        <v>322</v>
+        <v>222</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
       </c>
       <c r="D74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G74" t="s">
-        <v>323</v>
+        <v>252</v>
       </c>
       <c r="H74" t="s">
-        <v>324</v>
+        <v>253</v>
       </c>
       <c r="I74" t="s">
-        <v>325</v>
+        <v>254</v>
       </c>
       <c r="J74">
         <v>3</v>
@@ -4393,80 +4534,86 @@
       <c r="K74" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L74" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>326</v>
+        <v>218</v>
       </c>
       <c r="B75" t="s">
-        <v>322</v>
+        <v>219</v>
       </c>
       <c r="C75" t="b">
         <v>0</v>
       </c>
       <c r="D75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75">
+        <v>100</v>
+      </c>
+      <c r="G75" t="s">
+        <v>239</v>
+      </c>
+      <c r="H75" t="s">
+        <v>220</v>
+      </c>
+      <c r="I75" t="s">
+        <v>221</v>
+      </c>
+      <c r="J75">
+        <v>5</v>
+      </c>
+      <c r="K75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>316</v>
+      </c>
+      <c r="B76" t="s">
+        <v>219</v>
+      </c>
+      <c r="C76" t="b">
+        <v>0</v>
+      </c>
+      <c r="D76" t="b">
+        <v>1</v>
+      </c>
+      <c r="E76" t="b">
+        <v>1</v>
+      </c>
+      <c r="F76">
         <v>2</v>
       </c>
-      <c r="G75" t="s">
-        <v>327</v>
-      </c>
-      <c r="H75" t="s">
-        <v>328</v>
-      </c>
-      <c r="I75" t="s">
-        <v>329</v>
-      </c>
-      <c r="J75">
-        <v>3</v>
-      </c>
-      <c r="K75" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>365</v>
-      </c>
-      <c r="B76" t="s">
-        <v>322</v>
-      </c>
-      <c r="C76" t="b">
-        <v>1</v>
-      </c>
-      <c r="D76" t="b">
-        <v>0</v>
-      </c>
-      <c r="E76" t="b">
-        <v>1</v>
-      </c>
       <c r="G76" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="H76" t="s">
-        <v>366</v>
+        <v>318</v>
       </c>
       <c r="I76" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="J76">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K76" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>330</v>
+        <v>203</v>
       </c>
       <c r="B77" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="C77" t="b">
         <v>0</v>
@@ -4481,146 +4628,540 @@
         <v>4</v>
       </c>
       <c r="G77" t="s">
+        <v>241</v>
+      </c>
+      <c r="H77" t="s">
+        <v>204</v>
+      </c>
+      <c r="I77" t="s">
+        <v>205</v>
+      </c>
+      <c r="J77">
+        <v>3</v>
+      </c>
+      <c r="K77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>206</v>
+      </c>
+      <c r="B78" t="s">
+        <v>207</v>
+      </c>
+      <c r="C78" t="b">
+        <v>0</v>
+      </c>
+      <c r="D78" t="b">
+        <v>1</v>
+      </c>
+      <c r="E78" t="b">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>4</v>
+      </c>
+      <c r="G78" t="s">
+        <v>240</v>
+      </c>
+      <c r="H78" t="s">
+        <v>208</v>
+      </c>
+      <c r="I78" t="s">
+        <v>209</v>
+      </c>
+      <c r="J78">
+        <v>3</v>
+      </c>
+      <c r="K78" t="b">
+        <v>0</v>
+      </c>
+      <c r="L78" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>210</v>
+      </c>
+      <c r="B79" t="s">
+        <v>211</v>
+      </c>
+      <c r="C79" t="b">
+        <v>0</v>
+      </c>
+      <c r="D79" t="b">
+        <v>1</v>
+      </c>
+      <c r="E79" t="b">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>4</v>
+      </c>
+      <c r="G79" t="s">
+        <v>243</v>
+      </c>
+      <c r="H79" t="s">
+        <v>212</v>
+      </c>
+      <c r="I79" t="s">
+        <v>213</v>
+      </c>
+      <c r="J79">
+        <v>3</v>
+      </c>
+      <c r="K79" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>214</v>
+      </c>
+      <c r="B80" t="s">
+        <v>215</v>
+      </c>
+      <c r="C80" t="b">
+        <v>0</v>
+      </c>
+      <c r="D80" t="b">
+        <v>1</v>
+      </c>
+      <c r="E80" t="b">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>4</v>
+      </c>
+      <c r="G80" t="s">
+        <v>250</v>
+      </c>
+      <c r="H80" t="s">
+        <v>216</v>
+      </c>
+      <c r="I80" t="s">
+        <v>217</v>
+      </c>
+      <c r="J80">
+        <v>5</v>
+      </c>
+      <c r="K80" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>321</v>
+      </c>
+      <c r="B81" t="s">
+        <v>322</v>
+      </c>
+      <c r="C81" t="b">
+        <v>0</v>
+      </c>
+      <c r="D81" t="b">
+        <v>0</v>
+      </c>
+      <c r="E81" t="b">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>100</v>
+      </c>
+      <c r="G81" t="s">
+        <v>323</v>
+      </c>
+      <c r="H81" t="s">
+        <v>324</v>
+      </c>
+      <c r="I81" t="s">
+        <v>325</v>
+      </c>
+      <c r="J81">
+        <v>3</v>
+      </c>
+      <c r="K81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>326</v>
+      </c>
+      <c r="B82" t="s">
+        <v>322</v>
+      </c>
+      <c r="C82" t="b">
+        <v>0</v>
+      </c>
+      <c r="D82" t="b">
+        <v>1</v>
+      </c>
+      <c r="E82" t="b">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+      <c r="G82" t="s">
+        <v>327</v>
+      </c>
+      <c r="H82" t="s">
+        <v>328</v>
+      </c>
+      <c r="I82" t="s">
+        <v>329</v>
+      </c>
+      <c r="J82">
+        <v>3</v>
+      </c>
+      <c r="K82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>365</v>
+      </c>
+      <c r="B83" t="s">
+        <v>322</v>
+      </c>
+      <c r="C83" t="b">
+        <v>1</v>
+      </c>
+      <c r="D83" t="b">
+        <v>0</v>
+      </c>
+      <c r="E83" t="b">
+        <v>1</v>
+      </c>
+      <c r="G83" t="s">
+        <v>327</v>
+      </c>
+      <c r="H83" t="s">
+        <v>366</v>
+      </c>
+      <c r="I83" t="s">
+        <v>329</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>330</v>
+      </c>
+      <c r="B84" t="s">
+        <v>331</v>
+      </c>
+      <c r="C84" t="b">
+        <v>0</v>
+      </c>
+      <c r="D84" t="b">
+        <v>0</v>
+      </c>
+      <c r="E84" t="b">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>100</v>
+      </c>
+      <c r="G84" t="s">
         <v>332</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H84" t="s">
         <v>333</v>
       </c>
-      <c r="I77" t="s">
+      <c r="I84" t="s">
         <v>334</v>
       </c>
-      <c r="J77">
+      <c r="J84">
         <v>5</v>
       </c>
-      <c r="K77" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="K84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>421</v>
+      </c>
+      <c r="B85" t="s">
+        <v>331</v>
+      </c>
+      <c r="C85" t="b">
+        <v>0</v>
+      </c>
+      <c r="D85" t="b">
+        <v>1</v>
+      </c>
+      <c r="E85" t="b">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>2</v>
+      </c>
+      <c r="G85" t="s">
+        <v>422</v>
+      </c>
+      <c r="H85" t="s">
+        <v>423</v>
+      </c>
+      <c r="I85" t="s">
+        <v>424</v>
+      </c>
+      <c r="J85">
+        <v>5</v>
+      </c>
+      <c r="K85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>425</v>
+      </c>
+      <c r="B86" t="s">
+        <v>426</v>
+      </c>
+      <c r="C86" t="b">
+        <v>0</v>
+      </c>
+      <c r="D86" t="b">
+        <v>0</v>
+      </c>
+      <c r="E86" t="b">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>100</v>
+      </c>
+      <c r="G86" t="s">
+        <v>427</v>
+      </c>
+      <c r="H86" t="s">
+        <v>428</v>
+      </c>
+      <c r="I86" t="s">
+        <v>429</v>
+      </c>
+      <c r="J86">
+        <v>3</v>
+      </c>
+      <c r="K86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>430</v>
+      </c>
+      <c r="B87" t="s">
+        <v>426</v>
+      </c>
+      <c r="C87" t="b">
+        <v>0</v>
+      </c>
+      <c r="D87" t="b">
+        <v>1</v>
+      </c>
+      <c r="E87" t="b">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>2</v>
+      </c>
+      <c r="G87" t="s">
+        <v>431</v>
+      </c>
+      <c r="H87" t="s">
+        <v>432</v>
+      </c>
+      <c r="I87" t="s">
+        <v>433</v>
+      </c>
+      <c r="J87">
+        <v>3</v>
+      </c>
+      <c r="K87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>434</v>
+      </c>
+      <c r="B88" t="s">
+        <v>435</v>
+      </c>
+      <c r="C88" t="b">
+        <v>0</v>
+      </c>
+      <c r="D88" t="b">
+        <v>0</v>
+      </c>
+      <c r="E88" t="b">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>70</v>
+      </c>
+      <c r="G88" t="s">
+        <v>436</v>
+      </c>
+      <c r="H88" t="s">
+        <v>437</v>
+      </c>
+      <c r="I88" t="s">
+        <v>438</v>
+      </c>
+      <c r="J88">
+        <v>5</v>
+      </c>
+      <c r="K88" t="b">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>343</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B89" t="s">
         <v>130</v>
       </c>
-      <c r="C78" t="b">
-        <v>1</v>
-      </c>
-      <c r="D78" t="b">
-        <v>0</v>
-      </c>
-      <c r="E78" t="b">
-        <v>1</v>
-      </c>
-      <c r="G78" t="s">
+      <c r="C89" t="b">
+        <v>1</v>
+      </c>
+      <c r="D89" t="b">
+        <v>0</v>
+      </c>
+      <c r="E89" t="b">
+        <v>1</v>
+      </c>
+      <c r="G89" t="s">
         <v>352</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H89" t="s">
         <v>353</v>
       </c>
-      <c r="I78" t="s">
+      <c r="I89" t="s">
         <v>354</v>
       </c>
-      <c r="J78">
-        <v>1</v>
-      </c>
-      <c r="K78" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>359</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B90" t="s">
         <v>130</v>
       </c>
-      <c r="C79" t="b">
-        <v>1</v>
-      </c>
-      <c r="D79" t="b">
-        <v>0</v>
-      </c>
-      <c r="E79" t="b">
-        <v>1</v>
-      </c>
-      <c r="G79" t="s">
+      <c r="C90" t="b">
+        <v>1</v>
+      </c>
+      <c r="D90" t="b">
+        <v>0</v>
+      </c>
+      <c r="E90" t="b">
+        <v>1</v>
+      </c>
+      <c r="G90" t="s">
         <v>360</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H90" t="s">
         <v>361</v>
       </c>
-      <c r="I79" t="s">
+      <c r="I90" t="s">
         <v>362</v>
       </c>
-      <c r="J79">
-        <v>1</v>
-      </c>
-      <c r="K79" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>373</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B91" t="s">
         <v>378</v>
       </c>
-      <c r="C80" t="b">
-        <v>1</v>
-      </c>
-      <c r="D80" t="b">
-        <v>0</v>
-      </c>
-      <c r="E80" t="b">
-        <v>1</v>
-      </c>
-      <c r="G80" t="s">
+      <c r="C91" t="b">
+        <v>1</v>
+      </c>
+      <c r="D91" t="b">
+        <v>0</v>
+      </c>
+      <c r="E91" t="b">
+        <v>1</v>
+      </c>
+      <c r="G91" t="s">
         <v>374</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H91" t="s">
         <v>375</v>
       </c>
-      <c r="I80" t="s">
+      <c r="I91" t="s">
         <v>376</v>
       </c>
-      <c r="J80">
-        <v>1</v>
-      </c>
-      <c r="K80" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>379</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B92" t="s">
         <v>383</v>
       </c>
-      <c r="C81" t="b">
-        <v>1</v>
-      </c>
-      <c r="D81" t="b">
-        <v>0</v>
-      </c>
-      <c r="E81" t="b">
-        <v>1</v>
-      </c>
-      <c r="G81" t="s">
+      <c r="C92" t="b">
+        <v>1</v>
+      </c>
+      <c r="D92" t="b">
+        <v>0</v>
+      </c>
+      <c r="E92" t="b">
+        <v>1</v>
+      </c>
+      <c r="G92" t="s">
         <v>380</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H92" t="s">
         <v>381</v>
       </c>
-      <c r="I81" t="s">
+      <c r="I92" t="s">
         <v>382</v>
       </c>
-      <c r="J81">
-        <v>1</v>
-      </c>
-      <c r="K81" t="b">
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E00D9FE-7054-46F8-A526-BE9B86D4A291}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAAC441-9CC2-4F22-9943-B570E730FA1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="435">
   <si>
     <t>levelPackId|String</t>
   </si>
@@ -1297,18 +1297,6 @@
   </si>
   <si>
     <t>FlatSkill2_21_NoBG_Gray</t>
-  </si>
-  <si>
-    <t>PaybackSpBetter</t>
-  </si>
-  <si>
-    <t>LP_PaybackSpBetter</t>
-  </si>
-  <si>
-    <t>LevelPackUIName_PaybackSpBetter</t>
-  </si>
-  <si>
-    <t>LevelPackUIDesc_PaybackSpBetter</t>
   </si>
   <si>
     <t>SpUpOnMaxHp</t>
@@ -1918,12 +1906,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
-  <dimension ref="A1:M92"/>
+  <dimension ref="A1:M91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4786,7 +4774,7 @@
         <v>325</v>
       </c>
       <c r="J81">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K81" t="b">
         <v>0</v>
@@ -4888,7 +4876,7 @@
         <v>334</v>
       </c>
       <c r="J84">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K84" t="b">
         <v>0</v>
@@ -4899,28 +4887,28 @@
         <v>421</v>
       </c>
       <c r="B85" t="s">
-        <v>331</v>
+        <v>422</v>
       </c>
       <c r="C85" t="b">
         <v>0</v>
       </c>
       <c r="D85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G85" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H85" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="I85" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="J85">
         <v>5</v>
@@ -4931,22 +4919,22 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B86" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C86" t="b">
         <v>0</v>
       </c>
       <c r="D86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G86" t="s">
         <v>427</v>
@@ -4969,77 +4957,74 @@
         <v>430</v>
       </c>
       <c r="B87" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="C87" t="b">
         <v>0</v>
       </c>
       <c r="D87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="G87" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H87" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I87" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="J87">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K87" t="b">
         <v>0</v>
+      </c>
+      <c r="M87">
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>434</v>
+        <v>343</v>
       </c>
       <c r="B88" t="s">
-        <v>435</v>
+        <v>130</v>
       </c>
       <c r="C88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" t="b">
         <v>0</v>
       </c>
       <c r="E88" t="b">
-        <v>0</v>
-      </c>
-      <c r="F88">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="G88" t="s">
-        <v>436</v>
+        <v>352</v>
       </c>
       <c r="H88" t="s">
-        <v>437</v>
+        <v>353</v>
       </c>
       <c r="I88" t="s">
-        <v>438</v>
+        <v>354</v>
       </c>
       <c r="J88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K88" t="b">
         <v>0</v>
-      </c>
-      <c r="M88">
-        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="B89" t="s">
         <v>130</v>
@@ -5054,13 +5039,13 @@
         <v>1</v>
       </c>
       <c r="G89" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="H89" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="I89" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="J89">
         <v>1</v>
@@ -5071,10 +5056,10 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="B90" t="s">
-        <v>130</v>
+        <v>378</v>
       </c>
       <c r="C90" t="b">
         <v>1</v>
@@ -5086,13 +5071,13 @@
         <v>1</v>
       </c>
       <c r="G90" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="H90" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="I90" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="J90">
         <v>1</v>
@@ -5103,10 +5088,10 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B91" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C91" t="b">
         <v>1</v>
@@ -5118,50 +5103,18 @@
         <v>1</v>
       </c>
       <c r="G91" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="H91" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="I91" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="J91">
         <v>1</v>
       </c>
       <c r="K91" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>379</v>
-      </c>
-      <c r="B92" t="s">
-        <v>383</v>
-      </c>
-      <c r="C92" t="b">
-        <v>1</v>
-      </c>
-      <c r="D92" t="b">
-        <v>0</v>
-      </c>
-      <c r="E92" t="b">
-        <v>1</v>
-      </c>
-      <c r="G92" t="s">
-        <v>380</v>
-      </c>
-      <c r="H92" t="s">
-        <v>381</v>
-      </c>
-      <c r="I92" t="s">
-        <v>382</v>
-      </c>
-      <c r="J92">
-        <v>1</v>
-      </c>
-      <c r="K92" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAAC441-9CC2-4F22-9943-B570E730FA1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225DE8F4-54B8-45BF-9782-0379BAC855F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
@@ -1911,7 +1911,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A80" sqref="A80"/>
+      <selection pane="bottomLeft" activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3595,7 +3595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>394</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>147</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>151</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>154</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>158</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>161</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>165</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>169</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>172</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>176</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>356</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>398</v>
       </c>
@@ -4020,8 +4020,11 @@
       <c r="K60" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>403</v>
       </c>
@@ -4056,7 +4059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>407</v>
       </c>
@@ -4091,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>412</v>
       </c>
@@ -4126,7 +4129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>179</v>
       </c>
@@ -4409,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="M71">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
@@ -4881,6 +4884,9 @@
       <c r="K84" t="b">
         <v>0</v>
       </c>
+      <c r="M84">
+        <v>6</v>
+      </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
@@ -4985,9 +4991,6 @@
       </c>
       <c r="K87" t="b">
         <v>0</v>
-      </c>
-      <c r="M87">
-        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225DE8F4-54B8-45BF-9782-0379BAC855F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FF4901-8BBD-4090-BCCF-CFAF811D6FFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="441">
   <si>
     <t>levelPackId|String</t>
   </si>
@@ -1339,6 +1339,24 @@
   </si>
   <si>
     <t>LevelPackUIDesc_HitSizeDown</t>
+  </si>
+  <si>
+    <t>ContainerSciFiWarriorCharging</t>
+  </si>
+  <si>
+    <t>FlatSkill2_71_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>LP_ContainerSciFiWarriorCharging</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_ContainerSciFiWarriorCharging</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_ContainerSciFiWarriorCharging</t>
+  </si>
+  <si>
+    <t>Actor1109</t>
   </si>
 </sst>
 </file>
@@ -1906,12 +1924,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
-  <dimension ref="A1:M91"/>
+  <dimension ref="A1:M92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A78" sqref="A78"/>
+      <selection pane="bottomLeft" activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5118,6 +5136,38 @@
         <v>1</v>
       </c>
       <c r="K91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>435</v>
+      </c>
+      <c r="B92" t="s">
+        <v>436</v>
+      </c>
+      <c r="C92" t="b">
+        <v>1</v>
+      </c>
+      <c r="D92" t="b">
+        <v>0</v>
+      </c>
+      <c r="E92" t="b">
+        <v>1</v>
+      </c>
+      <c r="G92" t="s">
+        <v>437</v>
+      </c>
+      <c r="H92" t="s">
+        <v>438</v>
+      </c>
+      <c r="I92" t="s">
+        <v>439</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5162,7 +5212,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6239E2D-40EA-4B45-8295-42B35BCC92F9}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -5329,6 +5379,17 @@
         <v>379</v>
       </c>
     </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>440</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>435</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FF4901-8BBD-4090-BCCF-CFAF811D6FFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3483ADB-8595-42EA-A955-1CB59D42192F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
@@ -1927,9 +1927,9 @@
   <dimension ref="A1:M92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A89" sqref="A89"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4076,6 +4076,9 @@
       <c r="K61" t="b">
         <v>0</v>
       </c>
+      <c r="M61">
+        <v>5</v>
+      </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
@@ -4111,6 +4114,9 @@
       <c r="K62" t="b">
         <v>0</v>
       </c>
+      <c r="M62">
+        <v>2</v>
+      </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
@@ -4145,6 +4151,9 @@
       </c>
       <c r="K63" t="b">
         <v>0</v>
+      </c>
+      <c r="M63">
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3483ADB-8595-42EA-A955-1CB59D42192F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D38CA4-8D17-469D-86F6-8A875BC17A6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="G2" t="s">
         <v>59</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="G7" t="s">
         <v>73</v>
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
         <v>87</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="G14" t="s">
         <v>101</v>
@@ -2551,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s">
         <v>115</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s">
         <v>268</v>
@@ -2697,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s">
         <v>120</v>
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s">
         <v>281</v>
@@ -4421,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G71" t="s">
         <v>417</v>
@@ -5002,7 +5002,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G87" t="s">
         <v>432</v>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D38CA4-8D17-469D-86F6-8A875BC17A6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E53334-E702-4ADA-8DF4-1EEFEAE3BF8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -1128,15 +1128,6 @@
     <t>Actor2235</t>
   </si>
   <si>
-    <t>Actor1216</t>
-  </si>
-  <si>
-    <t>HealSpOnAttackBetterSteampunkRobot</t>
-  </si>
-  <si>
-    <t>LevelPackUIName_HealSpOnAttackBetterSteampunkRobot</t>
-  </si>
-  <si>
     <t>RepeatUnicornCharacter</t>
   </si>
   <si>
@@ -1357,6 +1348,15 @@
   </si>
   <si>
     <t>Actor1109</t>
+  </si>
+  <si>
+    <t>Actor1141</t>
+  </si>
+  <si>
+    <t>HealSpOnAttackBetterAngelicWarrior</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_HealSpOnAttackBetterAngelicWarrior</t>
   </si>
 </sst>
 </file>
@@ -1926,7 +1926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
   <dimension ref="A1:M92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2504,28 +2504,28 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>381</v>
+      </c>
+      <c r="B17" t="s">
+        <v>382</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>383</v>
+      </c>
+      <c r="H17" t="s">
         <v>384</v>
       </c>
-      <c r="B17" t="s">
+      <c r="I17" t="s">
         <v>385</v>
-      </c>
-      <c r="C17" t="b">
-        <v>0</v>
-      </c>
-      <c r="D17" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
-        <v>386</v>
-      </c>
-      <c r="H17" t="s">
-        <v>387</v>
-      </c>
-      <c r="I17" t="s">
-        <v>388</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B40" t="s">
         <v>129</v>
@@ -3333,13 +3333,13 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H40" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="I40" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -3478,7 +3478,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B45" t="s">
         <v>133</v>
@@ -3580,10 +3580,10 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B48" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
@@ -3598,13 +3598,13 @@
         <v>100</v>
       </c>
       <c r="G48" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H48" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="I48" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="J48">
         <v>9</v>
@@ -3615,10 +3615,10 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B49" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
@@ -3633,13 +3633,13 @@
         <v>2</v>
       </c>
       <c r="G49" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H49" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="I49" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="J49">
         <v>5</v>
@@ -4006,10 +4006,10 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B60" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>100</v>
       </c>
       <c r="G60" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H60" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="I60" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="J60">
         <v>9</v>
@@ -4044,10 +4044,10 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B61" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
@@ -4062,13 +4062,13 @@
         <v>2</v>
       </c>
       <c r="G61" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H61" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I61" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="J61">
         <v>5</v>
@@ -4082,10 +4082,10 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B62" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C62" t="b">
         <v>0</v>
@@ -4100,13 +4100,13 @@
         <v>100</v>
       </c>
       <c r="G62" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H62" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="I62" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="J62">
         <v>9</v>
@@ -4120,10 +4120,10 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B63" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
@@ -4138,13 +4138,13 @@
         <v>2</v>
       </c>
       <c r="G63" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H63" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="I63" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="J63">
         <v>5</v>
@@ -4406,7 +4406,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B71" t="s">
         <v>200</v>
@@ -4424,13 +4424,13 @@
         <v>100</v>
       </c>
       <c r="G71" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H71" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="I71" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="J71">
         <v>5</v>
@@ -4485,7 +4485,7 @@
         <v>312</v>
       </c>
       <c r="B73" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="B83" t="s">
         <v>322</v>
@@ -4865,7 +4865,7 @@
         <v>327</v>
       </c>
       <c r="H83" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
       <c r="I83" t="s">
         <v>329</v>
@@ -4917,10 +4917,10 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B85" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C85" t="b">
         <v>0</v>
@@ -4935,13 +4935,13 @@
         <v>100</v>
       </c>
       <c r="G85" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="H85" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="I85" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="J85">
         <v>5</v>
@@ -4952,10 +4952,10 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B86" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C86" t="b">
         <v>0</v>
@@ -4970,13 +4970,13 @@
         <v>2</v>
       </c>
       <c r="G86" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H86" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="I86" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="J86">
         <v>3</v>
@@ -4987,10 +4987,10 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B87" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C87" t="b">
         <v>0</v>
@@ -5005,13 +5005,13 @@
         <v>100</v>
       </c>
       <c r="G87" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H87" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="I87" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="J87">
         <v>5</v>
@@ -5086,28 +5086,28 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
+        <v>370</v>
+      </c>
+      <c r="B90" t="s">
+        <v>375</v>
+      </c>
+      <c r="C90" t="b">
+        <v>1</v>
+      </c>
+      <c r="D90" t="b">
+        <v>0</v>
+      </c>
+      <c r="E90" t="b">
+        <v>1</v>
+      </c>
+      <c r="G90" t="s">
+        <v>371</v>
+      </c>
+      <c r="H90" t="s">
+        <v>372</v>
+      </c>
+      <c r="I90" t="s">
         <v>373</v>
-      </c>
-      <c r="B90" t="s">
-        <v>378</v>
-      </c>
-      <c r="C90" t="b">
-        <v>1</v>
-      </c>
-      <c r="D90" t="b">
-        <v>0</v>
-      </c>
-      <c r="E90" t="b">
-        <v>1</v>
-      </c>
-      <c r="G90" t="s">
-        <v>374</v>
-      </c>
-      <c r="H90" t="s">
-        <v>375</v>
-      </c>
-      <c r="I90" t="s">
-        <v>376</v>
       </c>
       <c r="J90">
         <v>1</v>
@@ -5118,28 +5118,28 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
+        <v>376</v>
+      </c>
+      <c r="B91" t="s">
+        <v>380</v>
+      </c>
+      <c r="C91" t="b">
+        <v>1</v>
+      </c>
+      <c r="D91" t="b">
+        <v>0</v>
+      </c>
+      <c r="E91" t="b">
+        <v>1</v>
+      </c>
+      <c r="G91" t="s">
+        <v>377</v>
+      </c>
+      <c r="H91" t="s">
+        <v>378</v>
+      </c>
+      <c r="I91" t="s">
         <v>379</v>
-      </c>
-      <c r="B91" t="s">
-        <v>383</v>
-      </c>
-      <c r="C91" t="b">
-        <v>1</v>
-      </c>
-      <c r="D91" t="b">
-        <v>0</v>
-      </c>
-      <c r="E91" t="b">
-        <v>1</v>
-      </c>
-      <c r="G91" t="s">
-        <v>380</v>
-      </c>
-      <c r="H91" t="s">
-        <v>381</v>
-      </c>
-      <c r="I91" t="s">
-        <v>382</v>
       </c>
       <c r="J91">
         <v>1</v>
@@ -5150,28 +5150,28 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
+        <v>432</v>
+      </c>
+      <c r="B92" t="s">
+        <v>433</v>
+      </c>
+      <c r="C92" t="b">
+        <v>1</v>
+      </c>
+      <c r="D92" t="b">
+        <v>0</v>
+      </c>
+      <c r="E92" t="b">
+        <v>1</v>
+      </c>
+      <c r="G92" t="s">
+        <v>434</v>
+      </c>
+      <c r="H92" t="s">
         <v>435</v>
       </c>
-      <c r="B92" t="s">
+      <c r="I92" t="s">
         <v>436</v>
-      </c>
-      <c r="C92" t="b">
-        <v>1</v>
-      </c>
-      <c r="D92" t="b">
-        <v>0</v>
-      </c>
-      <c r="E92" t="b">
-        <v>1</v>
-      </c>
-      <c r="G92" t="s">
-        <v>437</v>
-      </c>
-      <c r="H92" t="s">
-        <v>438</v>
-      </c>
-      <c r="I92" t="s">
-        <v>439</v>
       </c>
       <c r="J92">
         <v>1</v>
@@ -5223,9 +5223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6239E2D-40EA-4B45-8295-42B35BCC92F9}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5341,7 +5339,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -5352,51 +5350,51 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B14">
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B15">
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E53334-E702-4ADA-8DF4-1EEFEAE3BF8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF45B3A3-7994-42C6-9AFE-E817A22B0040}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="446">
   <si>
     <t>levelPackId|String</t>
   </si>
@@ -1357,6 +1357,21 @@
   </si>
   <si>
     <t>LevelPackUIName_HealSpOnAttackBetterAngelicWarrior</t>
+  </si>
+  <si>
+    <t>AutoSideSteampunkRobot</t>
+  </si>
+  <si>
+    <t>LP_AutoSideSteampunkRobot</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_AutoSideSteampunkRobot</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_AutoSideSteampunkRobot</t>
+  </si>
+  <si>
+    <t>Actor1216</t>
   </si>
 </sst>
 </file>
@@ -1924,10 +1939,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
-  <dimension ref="A1:M92"/>
+  <dimension ref="A1:M93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -5177,6 +5192,38 @@
         <v>1</v>
       </c>
       <c r="K92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>441</v>
+      </c>
+      <c r="B93" t="s">
+        <v>433</v>
+      </c>
+      <c r="C93" t="b">
+        <v>1</v>
+      </c>
+      <c r="D93" t="b">
+        <v>0</v>
+      </c>
+      <c r="E93" t="b">
+        <v>1</v>
+      </c>
+      <c r="G93" t="s">
+        <v>442</v>
+      </c>
+      <c r="H93" t="s">
+        <v>443</v>
+      </c>
+      <c r="I93" t="s">
+        <v>444</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5221,9 +5268,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6239E2D-40EA-4B45-8295-42B35BCC92F9}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5397,6 +5446,17 @@
         <v>432</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>445</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>441</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF45B3A3-7994-42C6-9AFE-E817A22B0040}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A6E2CB-EA95-4202-A718-8CC6CAB59C45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="447">
   <si>
     <t>levelPackId|String</t>
   </si>
@@ -1372,6 +1372,9 @@
   </si>
   <si>
     <t>Actor1216</t>
+  </si>
+  <si>
+    <t>FlatSkill2_62_NoBG_Gray</t>
   </si>
 </sst>
 </file>
@@ -1941,8 +1944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -5168,7 +5171,7 @@
         <v>432</v>
       </c>
       <c r="B92" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="C92" t="b">
         <v>1</v>
@@ -5270,7 +5273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6239E2D-40EA-4B45-8295-42B35BCC92F9}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A6E2CB-EA95-4202-A718-8CC6CAB59C45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F16093D-2361-4B7B-A217-C7CC2EC4DBB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="441">
   <si>
     <t>levelPackId|String</t>
   </si>
@@ -1335,46 +1335,28 @@
     <t>ContainerSciFiWarriorCharging</t>
   </si>
   <si>
+    <t>LP_ContainerSciFiWarriorCharging</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_ContainerSciFiWarriorCharging</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_ContainerSciFiWarriorCharging</t>
+  </si>
+  <si>
+    <t>Actor1109</t>
+  </si>
+  <si>
+    <t>Actor1141</t>
+  </si>
+  <si>
+    <t>HealSpOnAttackBetterAngelicWarrior</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_HealSpOnAttackBetterAngelicWarrior</t>
+  </si>
+  <si>
     <t>FlatSkill2_71_NoBG_Gray</t>
-  </si>
-  <si>
-    <t>LP_ContainerSciFiWarriorCharging</t>
-  </si>
-  <si>
-    <t>LevelPackUIName_ContainerSciFiWarriorCharging</t>
-  </si>
-  <si>
-    <t>LevelPackUIDesc_ContainerSciFiWarriorCharging</t>
-  </si>
-  <si>
-    <t>Actor1109</t>
-  </si>
-  <si>
-    <t>Actor1141</t>
-  </si>
-  <si>
-    <t>HealSpOnAttackBetterAngelicWarrior</t>
-  </si>
-  <si>
-    <t>LevelPackUIName_HealSpOnAttackBetterAngelicWarrior</t>
-  </si>
-  <si>
-    <t>AutoSideSteampunkRobot</t>
-  </si>
-  <si>
-    <t>LP_AutoSideSteampunkRobot</t>
-  </si>
-  <si>
-    <t>LevelPackUIName_AutoSideSteampunkRobot</t>
-  </si>
-  <si>
-    <t>LevelPackUIDesc_AutoSideSteampunkRobot</t>
-  </si>
-  <si>
-    <t>Actor1216</t>
-  </si>
-  <si>
-    <t>FlatSkill2_62_NoBG_Gray</t>
   </si>
 </sst>
 </file>
@@ -1942,7 +1924,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
-  <dimension ref="A1:M93"/>
+  <dimension ref="A1:M92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4865,7 +4847,7 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B83" t="s">
         <v>322</v>
@@ -4883,7 +4865,7 @@
         <v>327</v>
       </c>
       <c r="H83" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I83" t="s">
         <v>329</v>
@@ -5171,7 +5153,7 @@
         <v>432</v>
       </c>
       <c r="B92" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C92" t="b">
         <v>1</v>
@@ -5183,50 +5165,18 @@
         <v>1</v>
       </c>
       <c r="G92" t="s">
+        <v>433</v>
+      </c>
+      <c r="H92" t="s">
         <v>434</v>
       </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
         <v>435</v>
       </c>
-      <c r="I92" t="s">
-        <v>436</v>
-      </c>
       <c r="J92">
         <v>1</v>
       </c>
       <c r="K92" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>441</v>
-      </c>
-      <c r="B93" t="s">
-        <v>433</v>
-      </c>
-      <c r="C93" t="b">
-        <v>1</v>
-      </c>
-      <c r="D93" t="b">
-        <v>0</v>
-      </c>
-      <c r="E93" t="b">
-        <v>1</v>
-      </c>
-      <c r="G93" t="s">
-        <v>442</v>
-      </c>
-      <c r="H93" t="s">
-        <v>443</v>
-      </c>
-      <c r="I93" t="s">
-        <v>444</v>
-      </c>
-      <c r="J93">
-        <v>1</v>
-      </c>
-      <c r="K93" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5271,11 +5221,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6239E2D-40EA-4B45-8295-42B35BCC92F9}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5407,13 +5355,13 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B12">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -5440,24 +5388,13 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B15">
         <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>432</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>445</v>
-      </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>441</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F16093D-2361-4B7B-A217-C7CC2EC4DBB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FFAEFB-566C-4C52-9FF5-8B6A98478BF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="446">
   <si>
     <t>levelPackId|String</t>
   </si>
@@ -1357,6 +1357,21 @@
   </si>
   <si>
     <t>FlatSkill2_71_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>PaybackSpBetterSteampunkRobot</t>
+  </si>
+  <si>
+    <t>LP_PaybackSpBetterSteampunkRobot</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_PaybackSpBetterSteampunkRobot</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_PaybackSpBetterSteampunkRobot</t>
+  </si>
+  <si>
+    <t>Actor1216</t>
   </si>
 </sst>
 </file>
@@ -1924,12 +1939,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
-  <dimension ref="A1:M92"/>
+  <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4917,34 +4932,31 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>418</v>
+        <v>441</v>
       </c>
       <c r="B85" t="s">
-        <v>419</v>
+        <v>331</v>
       </c>
       <c r="C85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" t="b">
         <v>0</v>
       </c>
       <c r="E85" t="b">
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="H85" t="s">
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="I85" t="s">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="J85">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K85" t="b">
         <v>0</v>
@@ -4952,7 +4964,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B86" t="s">
         <v>419</v>
@@ -4961,25 +4973,25 @@
         <v>0</v>
       </c>
       <c r="D86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G86" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H86" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="I86" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="J86">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K86" t="b">
         <v>0</v>
@@ -4987,34 +4999,34 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B87" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="C87" t="b">
         <v>0</v>
       </c>
       <c r="D87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G87" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="H87" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="I87" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="J87">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K87" t="b">
         <v>0</v>
@@ -5022,31 +5034,34 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>343</v>
+        <v>427</v>
       </c>
       <c r="B88" t="s">
-        <v>130</v>
+        <v>428</v>
       </c>
       <c r="C88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88" t="b">
         <v>0</v>
       </c>
       <c r="E88" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>100</v>
       </c>
       <c r="G88" t="s">
-        <v>352</v>
+        <v>429</v>
       </c>
       <c r="H88" t="s">
-        <v>353</v>
+        <v>430</v>
       </c>
       <c r="I88" t="s">
-        <v>354</v>
+        <v>431</v>
       </c>
       <c r="J88">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K88" t="b">
         <v>0</v>
@@ -5054,7 +5069,7 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="B89" t="s">
         <v>130</v>
@@ -5069,13 +5084,13 @@
         <v>1</v>
       </c>
       <c r="G89" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="H89" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="I89" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="J89">
         <v>1</v>
@@ -5086,10 +5101,10 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="B90" t="s">
-        <v>375</v>
+        <v>130</v>
       </c>
       <c r="C90" t="b">
         <v>1</v>
@@ -5101,13 +5116,13 @@
         <v>1</v>
       </c>
       <c r="G90" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="H90" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="I90" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="J90">
         <v>1</v>
@@ -5118,10 +5133,10 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B91" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C91" t="b">
         <v>1</v>
@@ -5133,13 +5148,13 @@
         <v>1</v>
       </c>
       <c r="G91" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H91" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="I91" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="J91">
         <v>1</v>
@@ -5150,33 +5165,65 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
+        <v>376</v>
+      </c>
+      <c r="B92" t="s">
+        <v>380</v>
+      </c>
+      <c r="C92" t="b">
+        <v>1</v>
+      </c>
+      <c r="D92" t="b">
+        <v>0</v>
+      </c>
+      <c r="E92" t="b">
+        <v>1</v>
+      </c>
+      <c r="G92" t="s">
+        <v>377</v>
+      </c>
+      <c r="H92" t="s">
+        <v>378</v>
+      </c>
+      <c r="I92" t="s">
+        <v>379</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>432</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>440</v>
       </c>
-      <c r="C92" t="b">
-        <v>1</v>
-      </c>
-      <c r="D92" t="b">
-        <v>0</v>
-      </c>
-      <c r="E92" t="b">
-        <v>1</v>
-      </c>
-      <c r="G92" t="s">
+      <c r="C93" t="b">
+        <v>1</v>
+      </c>
+      <c r="D93" t="b">
+        <v>0</v>
+      </c>
+      <c r="E93" t="b">
+        <v>1</v>
+      </c>
+      <c r="G93" t="s">
         <v>433</v>
       </c>
-      <c r="H92" t="s">
+      <c r="H93" t="s">
         <v>434</v>
       </c>
-      <c r="I92" t="s">
+      <c r="I93" t="s">
         <v>435</v>
       </c>
-      <c r="J92">
-        <v>1</v>
-      </c>
-      <c r="K92" t="b">
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5221,9 +5268,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6239E2D-40EA-4B45-8295-42B35BCC92F9}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5397,6 +5446,17 @@
         <v>432</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>445</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>441</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FFAEFB-566C-4C52-9FF5-8B6A98478BF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415C741E-9344-4820-B131-E373267F9522}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -1359,19 +1359,19 @@
     <t>FlatSkill2_71_NoBG_Gray</t>
   </si>
   <si>
-    <t>PaybackSpBetterSteampunkRobot</t>
-  </si>
-  <si>
-    <t>LP_PaybackSpBetterSteampunkRobot</t>
-  </si>
-  <si>
-    <t>LevelPackUIName_PaybackSpBetterSteampunkRobot</t>
-  </si>
-  <si>
-    <t>LevelPackUIDesc_PaybackSpBetterSteampunkRobot</t>
-  </si>
-  <si>
     <t>Actor1216</t>
+  </si>
+  <si>
+    <t>PaybackSpFullSteampunkRobot</t>
+  </si>
+  <si>
+    <t>LP_PaybackSpFullSteampunkRobot</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_PaybackSpFullSteampunkRobot</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_PaybackSpFullSteampunkRobot</t>
   </si>
 </sst>
 </file>
@@ -1941,10 +1941,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A89" sqref="A89"/>
+      <selection pane="bottomLeft" activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4932,7 +4932,7 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B85" t="s">
         <v>331</v>
@@ -4947,13 +4947,13 @@
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H85" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I85" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="J85">
         <v>1</v>
@@ -5270,7 +5270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6239E2D-40EA-4B45-8295-42B35BCC92F9}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -5448,13 +5448,13 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415C741E-9344-4820-B131-E373267F9522}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8DBAF1-D5FF-4611-95DB-1EB58599DAA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="451">
   <si>
     <t>levelPackId|String</t>
   </si>
@@ -1372,6 +1372,21 @@
   </si>
   <si>
     <t>LevelPackUIDesc_PaybackSpFullSteampunkRobot</t>
+  </si>
+  <si>
+    <t>FastLoadingSteampunkRobot</t>
+  </si>
+  <si>
+    <t>LP_FastLoadingSteampunkRobot</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_FastLoadingSteampunkRobot</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_FastLoadingSteampunkRobot</t>
+  </si>
+  <si>
+    <t>FlatIcon_185_NoBG_Gray</t>
   </si>
 </sst>
 </file>
@@ -1939,12 +1954,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
-  <dimension ref="A1:M93"/>
+  <dimension ref="A1:M94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A85" sqref="A85"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5224,6 +5239,38 @@
         <v>1</v>
       </c>
       <c r="K93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>446</v>
+      </c>
+      <c r="B94" t="s">
+        <v>450</v>
+      </c>
+      <c r="C94" t="b">
+        <v>1</v>
+      </c>
+      <c r="D94" t="b">
+        <v>0</v>
+      </c>
+      <c r="E94" t="b">
+        <v>1</v>
+      </c>
+      <c r="G94" t="s">
+        <v>447</v>
+      </c>
+      <c r="H94" t="s">
+        <v>448</v>
+      </c>
+      <c r="I94" t="s">
+        <v>449</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5268,10 +5315,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6239E2D-40EA-4B45-8295-42B35BCC92F9}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5457,6 +5504,17 @@
         <v>442</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>441</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>446</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8DBAF1-D5FF-4611-95DB-1EB58599DAA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE408AF-7099-4154-A640-31B6742C338C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="454">
   <si>
     <t>levelPackId|String</t>
   </si>
@@ -1387,6 +1387,15 @@
   </si>
   <si>
     <t>FlatIcon_185_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>MaxHpBetterRpgKnight</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_MaxHpBetterRpgKnight</t>
+  </si>
+  <si>
+    <t>Actor0125</t>
   </si>
 </sst>
 </file>
@@ -1954,9 +1963,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
-  <dimension ref="A1:M94"/>
+  <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2499,34 +2508,31 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>451</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
       <c r="G16" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H16" t="s">
-        <v>111</v>
+        <v>452</v>
       </c>
       <c r="I16" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
@@ -2534,28 +2540,31 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>381</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>382</v>
+        <v>109</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>383</v>
+        <v>110</v>
       </c>
       <c r="H17" t="s">
-        <v>384</v>
+        <v>111</v>
       </c>
       <c r="I17" t="s">
-        <v>385</v>
+        <v>112</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -2566,10 +2575,10 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>381</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>382</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -2580,20 +2589,17 @@
       <c r="E18" t="b">
         <v>0</v>
       </c>
-      <c r="F18">
-        <v>80</v>
-      </c>
       <c r="G18" t="s">
-        <v>115</v>
+        <v>383</v>
       </c>
       <c r="H18" t="s">
-        <v>116</v>
+        <v>384</v>
       </c>
       <c r="I18" t="s">
-        <v>117</v>
+        <v>385</v>
       </c>
       <c r="J18">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
@@ -2601,7 +2607,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>262</v>
+        <v>113</v>
       </c>
       <c r="B19" t="s">
         <v>114</v>
@@ -2610,22 +2616,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s">
-        <v>263</v>
+        <v>115</v>
       </c>
       <c r="H19" t="s">
-        <v>264</v>
+        <v>116</v>
       </c>
       <c r="I19" t="s">
-        <v>265</v>
+        <v>117</v>
       </c>
       <c r="J19">
         <v>9</v>
@@ -2636,31 +2642,31 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B20" t="s">
-        <v>267</v>
+        <v>114</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H20" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="I20" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="J20">
         <v>9</v>
@@ -2668,13 +2674,10 @@
       <c r="K20" t="b">
         <v>0</v>
       </c>
-      <c r="M20">
-        <v>2</v>
-      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B21" t="s">
         <v>267</v>
@@ -2683,22 +2686,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="G21" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H21" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I21" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="J21">
         <v>9</v>
@@ -2712,31 +2715,31 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>271</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>267</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G22" t="s">
-        <v>120</v>
+        <v>272</v>
       </c>
       <c r="H22" t="s">
-        <v>121</v>
+        <v>273</v>
       </c>
       <c r="I22" t="s">
-        <v>122</v>
+        <v>274</v>
       </c>
       <c r="J22">
         <v>9</v>
@@ -2745,12 +2748,12 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>275</v>
+        <v>118</v>
       </c>
       <c r="B23" t="s">
         <v>119</v>
@@ -2759,22 +2762,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s">
-        <v>276</v>
+        <v>120</v>
       </c>
       <c r="H23" t="s">
-        <v>277</v>
+        <v>121</v>
       </c>
       <c r="I23" t="s">
-        <v>278</v>
+        <v>122</v>
       </c>
       <c r="J23">
         <v>9</v>
@@ -2788,31 +2791,31 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B24" t="s">
-        <v>280</v>
+        <v>119</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H24" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="I24" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="J24">
         <v>9</v>
@@ -2821,12 +2824,12 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B25" t="s">
         <v>280</v>
@@ -2835,22 +2838,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H25" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="I25" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="J25">
         <v>9</v>
@@ -2864,10 +2867,10 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B26" t="s">
-        <v>173</v>
+        <v>280</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -2879,30 +2882,33 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G26" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H26" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I26" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J26">
+        <v>9</v>
+      </c>
+      <c r="K26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26">
         <v>3</v>
-      </c>
-      <c r="K26" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B27" t="s">
-        <v>293</v>
+        <v>173</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -2917,13 +2923,13 @@
         <v>4</v>
       </c>
       <c r="G27" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H27" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="I27" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="J27">
         <v>3</v>
@@ -2934,31 +2940,31 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>292</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>293</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>294</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>295</v>
       </c>
       <c r="I28" t="s">
-        <v>15</v>
+        <v>296</v>
       </c>
       <c r="J28">
         <v>3</v>
@@ -2966,13 +2972,10 @@
       <c r="K28" t="b">
         <v>0</v>
       </c>
-      <c r="M28">
-        <v>4</v>
-      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>297</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
         <v>123</v>
@@ -2981,22 +2984,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G29" t="s">
-        <v>298</v>
+        <v>13</v>
       </c>
       <c r="H29" t="s">
-        <v>299</v>
+        <v>14</v>
       </c>
       <c r="I29" t="s">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c r="J29">
         <v>3</v>
@@ -3010,31 +3013,31 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>297</v>
       </c>
       <c r="B30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>298</v>
       </c>
       <c r="H30" t="s">
-        <v>18</v>
+        <v>299</v>
       </c>
       <c r="I30" t="s">
-        <v>19</v>
+        <v>300</v>
       </c>
       <c r="J30">
         <v>3</v>
@@ -3043,12 +3046,12 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>301</v>
+        <v>16</v>
       </c>
       <c r="B31" t="s">
         <v>124</v>
@@ -3057,22 +3060,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G31" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="H31" t="s">
-        <v>303</v>
+        <v>18</v>
       </c>
       <c r="I31" t="s">
-        <v>304</v>
+        <v>19</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -3086,31 +3089,31 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>301</v>
       </c>
       <c r="B32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G32" t="s">
-        <v>21</v>
+        <v>302</v>
       </c>
       <c r="H32" t="s">
-        <v>22</v>
+        <v>303</v>
       </c>
       <c r="I32" t="s">
-        <v>23</v>
+        <v>304</v>
       </c>
       <c r="J32">
         <v>3</v>
@@ -3118,10 +3121,13 @@
       <c r="K32" t="b">
         <v>0</v>
       </c>
+      <c r="M32">
+        <v>7</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>305</v>
+        <v>20</v>
       </c>
       <c r="B33" t="s">
         <v>125</v>
@@ -3130,22 +3136,22 @@
         <v>0</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G33" t="s">
-        <v>306</v>
+        <v>21</v>
       </c>
       <c r="H33" t="s">
-        <v>307</v>
+        <v>22</v>
       </c>
       <c r="I33" t="s">
-        <v>308</v>
+        <v>23</v>
       </c>
       <c r="J33">
         <v>3</v>
@@ -3156,31 +3162,34 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>305</v>
       </c>
       <c r="B34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="b">
         <v>1</v>
       </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
       <c r="G34" t="s">
-        <v>25</v>
+        <v>306</v>
       </c>
       <c r="H34" t="s">
-        <v>26</v>
+        <v>307</v>
       </c>
       <c r="I34" t="s">
-        <v>27</v>
+        <v>308</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>
@@ -3188,7 +3197,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>338</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s">
         <v>126</v>
@@ -3212,7 +3221,7 @@
         <v>27</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K35" t="b">
         <v>0</v>
@@ -3220,10 +3229,10 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>338</v>
       </c>
       <c r="B36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C36" t="b">
         <v>1</v>
@@ -3235,16 +3244,16 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H36" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I36" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K36" t="b">
         <v>0</v>
@@ -3252,7 +3261,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>345</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
         <v>127</v>
@@ -3267,16 +3276,16 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>349</v>
+        <v>29</v>
       </c>
       <c r="H37" t="s">
-        <v>350</v>
+        <v>30</v>
       </c>
       <c r="I37" t="s">
-        <v>351</v>
+        <v>31</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
@@ -3284,10 +3293,10 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>345</v>
       </c>
       <c r="B38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
@@ -3299,16 +3308,16 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>349</v>
       </c>
       <c r="H38" t="s">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="I38" t="s">
-        <v>35</v>
+        <v>351</v>
       </c>
       <c r="J38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K38" t="b">
         <v>0</v>
@@ -3316,10 +3325,10 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C39" t="b">
         <v>1</v>
@@ -3331,13 +3340,13 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H39" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I39" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J39">
         <v>2</v>
@@ -3348,7 +3357,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>366</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
         <v>129</v>
@@ -3363,16 +3372,16 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>367</v>
+        <v>37</v>
       </c>
       <c r="H40" t="s">
-        <v>368</v>
+        <v>38</v>
       </c>
       <c r="I40" t="s">
-        <v>369</v>
+        <v>39</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K40" t="b">
         <v>0</v>
@@ -3380,10 +3389,10 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>366</v>
       </c>
       <c r="B41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
@@ -3395,16 +3404,16 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>41</v>
+        <v>367</v>
       </c>
       <c r="H41" t="s">
-        <v>42</v>
+        <v>368</v>
       </c>
       <c r="I41" t="s">
-        <v>43</v>
+        <v>369</v>
       </c>
       <c r="J41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
@@ -3412,10 +3421,10 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C42" t="b">
         <v>1</v>
@@ -3427,13 +3436,13 @@
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I42" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J42">
         <v>2</v>
@@ -3444,10 +3453,10 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" t="b">
         <v>1</v>
@@ -3459,13 +3468,13 @@
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J43">
         <v>2</v>
@@ -3476,10 +3485,10 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
@@ -3491,13 +3500,13 @@
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H44" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I44" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J44">
         <v>2</v>
@@ -3508,7 +3517,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>364</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
         <v>133</v>
@@ -3532,7 +3541,7 @@
         <v>55</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K45" t="b">
         <v>0</v>
@@ -3540,34 +3549,31 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>134</v>
+        <v>364</v>
       </c>
       <c r="B46" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
       </c>
       <c r="E46" t="b">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="H46" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="I46" t="s">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c r="J46">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
@@ -3575,7 +3581,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B47" t="s">
         <v>135</v>
@@ -3584,25 +3590,25 @@
         <v>0</v>
       </c>
       <c r="D47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G47" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H47" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I47" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J47">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
@@ -3610,34 +3616,34 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>386</v>
+        <v>139</v>
       </c>
       <c r="B48" t="s">
-        <v>387</v>
+        <v>135</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
       </c>
       <c r="D48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G48" t="s">
-        <v>388</v>
+        <v>140</v>
       </c>
       <c r="H48" t="s">
-        <v>389</v>
+        <v>141</v>
       </c>
       <c r="I48" t="s">
-        <v>390</v>
+        <v>142</v>
       </c>
       <c r="J48">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
@@ -3645,7 +3651,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B49" t="s">
         <v>387</v>
@@ -3654,25 +3660,25 @@
         <v>0</v>
       </c>
       <c r="D49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G49" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="H49" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="I49" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="J49">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
@@ -3680,45 +3686,42 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>147</v>
+        <v>391</v>
       </c>
       <c r="B50" t="s">
-        <v>148</v>
+        <v>387</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
       </c>
       <c r="D50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G50" t="s">
-        <v>223</v>
+        <v>392</v>
       </c>
       <c r="H50" t="s">
-        <v>149</v>
+        <v>393</v>
       </c>
       <c r="I50" t="s">
-        <v>150</v>
+        <v>394</v>
       </c>
       <c r="J50">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
-      </c>
-      <c r="L50" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B51" t="s">
         <v>148</v>
@@ -3727,25 +3730,25 @@
         <v>0</v>
       </c>
       <c r="D51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G51" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H51" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I51" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J51">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
@@ -3756,42 +3759,45 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B52" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
       </c>
       <c r="D52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G52" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H52" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I52" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J52">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
+      </c>
+      <c r="L52" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B53" t="s">
         <v>155</v>
@@ -3800,25 +3806,25 @@
         <v>0</v>
       </c>
       <c r="D53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G53" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H53" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I53" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J53">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
@@ -3826,10 +3832,10 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B54" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
@@ -3841,16 +3847,16 @@
         <v>1</v>
       </c>
       <c r="F54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G54" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H54" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I54" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J54">
         <v>5</v>
@@ -3861,31 +3867,31 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B55" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
       </c>
       <c r="D55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G55" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H55" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I55" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J55">
         <v>5</v>
@@ -3896,7 +3902,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B56" t="s">
         <v>166</v>
@@ -3905,25 +3911,25 @@
         <v>0</v>
       </c>
       <c r="D56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G56" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H56" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I56" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J56">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
@@ -3931,34 +3937,34 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B57" t="s">
-        <v>309</v>
+        <v>166</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
       </c>
       <c r="D57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G57" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H57" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I57" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J57">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
@@ -3966,7 +3972,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B58" t="s">
         <v>309</v>
@@ -3975,25 +3981,25 @@
         <v>0</v>
       </c>
       <c r="D58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G58" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H58" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I58" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J58">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
@@ -4001,16 +4007,16 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>356</v>
+        <v>176</v>
       </c>
       <c r="B59" t="s">
         <v>309</v>
       </c>
       <c r="C59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" t="b">
         <v>1</v>
@@ -4022,13 +4028,13 @@
         <v>231</v>
       </c>
       <c r="H59" t="s">
-        <v>357</v>
+        <v>177</v>
       </c>
       <c r="I59" t="s">
         <v>178</v>
       </c>
       <c r="J59">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
@@ -4036,45 +4042,42 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="B60" t="s">
-        <v>396</v>
+        <v>309</v>
       </c>
       <c r="C60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" t="b">
         <v>0</v>
       </c>
       <c r="E60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G60" t="s">
-        <v>397</v>
+        <v>231</v>
       </c>
       <c r="H60" t="s">
-        <v>398</v>
+        <v>357</v>
       </c>
       <c r="I60" t="s">
-        <v>399</v>
+        <v>178</v>
       </c>
       <c r="J60">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
-      </c>
-      <c r="M60">
-        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B61" t="s">
         <v>396</v>
@@ -4083,25 +4086,25 @@
         <v>0</v>
       </c>
       <c r="D61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G61" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="H61" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="I61" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="J61">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
@@ -4112,45 +4115,45 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B62" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C62" t="b">
         <v>0</v>
       </c>
       <c r="D62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G62" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="H62" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="I62" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="J62">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
       </c>
       <c r="M62">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B63" t="s">
         <v>405</v>
@@ -4159,25 +4162,25 @@
         <v>0</v>
       </c>
       <c r="D63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G63" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H63" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="I63" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="J63">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K63" t="b">
         <v>0</v>
@@ -4188,31 +4191,31 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>179</v>
+        <v>409</v>
       </c>
       <c r="B64" t="s">
-        <v>180</v>
+        <v>405</v>
       </c>
       <c r="C64" t="b">
         <v>0</v>
       </c>
       <c r="D64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G64" t="s">
-        <v>232</v>
+        <v>410</v>
       </c>
       <c r="H64" t="s">
-        <v>181</v>
+        <v>411</v>
       </c>
       <c r="I64" t="s">
-        <v>182</v>
+        <v>412</v>
       </c>
       <c r="J64">
         <v>5</v>
@@ -4220,10 +4223,13 @@
       <c r="K64" t="b">
         <v>0</v>
       </c>
+      <c r="M64">
+        <v>2</v>
+      </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B65" t="s">
         <v>180</v>
@@ -4232,25 +4238,25 @@
         <v>0</v>
       </c>
       <c r="D65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G65" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H65" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I65" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J65">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K65" t="b">
         <v>0</v>
@@ -4258,34 +4264,34 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B66" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C66" t="b">
         <v>0</v>
       </c>
       <c r="D66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G66" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H66" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I66" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J66">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K66" t="b">
         <v>0</v>
@@ -4293,7 +4299,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B67" t="s">
         <v>187</v>
@@ -4302,25 +4308,25 @@
         <v>0</v>
       </c>
       <c r="D67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G67" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H67" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I67" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J67">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
@@ -4328,34 +4334,34 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B68" t="s">
-        <v>310</v>
+        <v>187</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
       </c>
       <c r="D68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G68" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H68" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I68" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J68">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K68" t="b">
         <v>0</v>
@@ -4363,7 +4369,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B69" t="s">
         <v>310</v>
@@ -4372,25 +4378,25 @@
         <v>0</v>
       </c>
       <c r="D69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G69" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H69" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I69" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J69">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
@@ -4398,10 +4404,10 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>143</v>
+        <v>196</v>
       </c>
       <c r="B70" t="s">
-        <v>144</v>
+        <v>310</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
@@ -4413,16 +4419,16 @@
         <v>1</v>
       </c>
       <c r="F70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G70" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="H70" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="I70" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="J70">
         <v>5</v>
@@ -4430,37 +4436,34 @@
       <c r="K70" t="b">
         <v>0</v>
       </c>
-      <c r="L70" t="s">
-        <v>246</v>
-      </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>413</v>
+        <v>143</v>
       </c>
       <c r="B71" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
       </c>
       <c r="D71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G71" t="s">
-        <v>414</v>
+        <v>249</v>
       </c>
       <c r="H71" t="s">
-        <v>415</v>
+        <v>145</v>
       </c>
       <c r="I71" t="s">
-        <v>416</v>
+        <v>146</v>
       </c>
       <c r="J71">
         <v>5</v>
@@ -4468,54 +4471,54 @@
       <c r="K71" t="b">
         <v>0</v>
       </c>
-      <c r="M71">
-        <v>4</v>
+      <c r="L71" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>199</v>
+        <v>413</v>
       </c>
       <c r="B72" t="s">
-        <v>311</v>
+        <v>200</v>
       </c>
       <c r="C72" t="b">
         <v>0</v>
       </c>
       <c r="D72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
+        <v>100</v>
+      </c>
+      <c r="G72" t="s">
+        <v>414</v>
+      </c>
+      <c r="H72" t="s">
+        <v>415</v>
+      </c>
+      <c r="I72" t="s">
+        <v>416</v>
+      </c>
+      <c r="J72">
+        <v>5</v>
+      </c>
+      <c r="K72" t="b">
+        <v>0</v>
+      </c>
+      <c r="M72">
         <v>4</v>
-      </c>
-      <c r="G72" t="s">
-        <v>238</v>
-      </c>
-      <c r="H72" t="s">
-        <v>201</v>
-      </c>
-      <c r="I72" t="s">
-        <v>202</v>
-      </c>
-      <c r="J72">
-        <v>3</v>
-      </c>
-      <c r="K72" t="b">
-        <v>0</v>
-      </c>
-      <c r="L72" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>312</v>
+        <v>199</v>
       </c>
       <c r="B73" t="s">
-        <v>417</v>
+        <v>311</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
@@ -4530,13 +4533,13 @@
         <v>4</v>
       </c>
       <c r="G73" t="s">
-        <v>313</v>
+        <v>238</v>
       </c>
       <c r="H73" t="s">
-        <v>314</v>
+        <v>201</v>
       </c>
       <c r="I73" t="s">
-        <v>315</v>
+        <v>202</v>
       </c>
       <c r="J73">
         <v>3</v>
@@ -4550,10 +4553,10 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>251</v>
+        <v>312</v>
       </c>
       <c r="B74" t="s">
-        <v>222</v>
+        <v>417</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
@@ -4568,13 +4571,13 @@
         <v>4</v>
       </c>
       <c r="G74" t="s">
-        <v>252</v>
+        <v>313</v>
       </c>
       <c r="H74" t="s">
-        <v>253</v>
+        <v>314</v>
       </c>
       <c r="I74" t="s">
-        <v>254</v>
+        <v>315</v>
       </c>
       <c r="J74">
         <v>3</v>
@@ -4583,47 +4586,50 @@
         <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="B75" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C75" t="b">
         <v>0</v>
       </c>
       <c r="D75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G75" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="H75" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="I75" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="J75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K75" t="b">
         <v>0</v>
+      </c>
+      <c r="L75" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>316</v>
+        <v>218</v>
       </c>
       <c r="B76" t="s">
         <v>219</v>
@@ -4632,22 +4638,22 @@
         <v>0</v>
       </c>
       <c r="D76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G76" t="s">
-        <v>317</v>
+        <v>239</v>
       </c>
       <c r="H76" t="s">
-        <v>318</v>
+        <v>220</v>
       </c>
       <c r="I76" t="s">
-        <v>319</v>
+        <v>221</v>
       </c>
       <c r="J76">
         <v>5</v>
@@ -4658,10 +4664,10 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>203</v>
+        <v>316</v>
       </c>
       <c r="B77" t="s">
-        <v>320</v>
+        <v>219</v>
       </c>
       <c r="C77" t="b">
         <v>0</v>
@@ -4673,19 +4679,19 @@
         <v>1</v>
       </c>
       <c r="F77">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G77" t="s">
-        <v>241</v>
+        <v>317</v>
       </c>
       <c r="H77" t="s">
-        <v>204</v>
+        <v>318</v>
       </c>
       <c r="I77" t="s">
-        <v>205</v>
+        <v>319</v>
       </c>
       <c r="J77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K77" t="b">
         <v>0</v>
@@ -4693,10 +4699,10 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B78" t="s">
-        <v>207</v>
+        <v>320</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
@@ -4711,13 +4717,13 @@
         <v>4</v>
       </c>
       <c r="G78" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H78" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I78" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J78">
         <v>3</v>
@@ -4725,16 +4731,13 @@
       <c r="K78" t="b">
         <v>0</v>
       </c>
-      <c r="L78" t="s">
-        <v>242</v>
-      </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B79" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C79" t="b">
         <v>0</v>
@@ -4749,13 +4752,13 @@
         <v>4</v>
       </c>
       <c r="G79" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H79" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I79" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="J79">
         <v>3</v>
@@ -4764,15 +4767,15 @@
         <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B80" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
@@ -4787,51 +4790,51 @@
         <v>4</v>
       </c>
       <c r="G80" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="H80" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I80" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J80">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K80" t="b">
         <v>0</v>
       </c>
       <c r="L80" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>321</v>
+        <v>214</v>
       </c>
       <c r="B81" t="s">
-        <v>322</v>
+        <v>215</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
       </c>
       <c r="D81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G81" t="s">
-        <v>323</v>
+        <v>250</v>
       </c>
       <c r="H81" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="I81" t="s">
-        <v>325</v>
+        <v>217</v>
       </c>
       <c r="J81">
         <v>5</v>
@@ -4839,10 +4842,13 @@
       <c r="K81" t="b">
         <v>0</v>
       </c>
+      <c r="L81" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B82" t="s">
         <v>322</v>
@@ -4851,25 +4857,25 @@
         <v>0</v>
       </c>
       <c r="D82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G82" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H82" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I82" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J82">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K82" t="b">
         <v>0</v>
@@ -4877,31 +4883,34 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>438</v>
+        <v>326</v>
       </c>
       <c r="B83" t="s">
         <v>322</v>
       </c>
       <c r="C83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" t="b">
         <v>1</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
       </c>
       <c r="G83" t="s">
         <v>327</v>
       </c>
       <c r="H83" t="s">
-        <v>439</v>
+        <v>328</v>
       </c>
       <c r="I83" t="s">
         <v>329</v>
       </c>
       <c r="J83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K83" t="b">
         <v>0</v>
@@ -4909,104 +4918,101 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>330</v>
+        <v>438</v>
       </c>
       <c r="B84" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" t="b">
         <v>0</v>
       </c>
       <c r="E84" t="b">
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G84" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="H84" t="s">
-        <v>333</v>
+        <v>439</v>
       </c>
       <c r="I84" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="J84">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K84" t="b">
         <v>0</v>
-      </c>
-      <c r="M84">
-        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>442</v>
+        <v>330</v>
       </c>
       <c r="B85" t="s">
         <v>331</v>
       </c>
       <c r="C85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D85" t="b">
         <v>0</v>
       </c>
       <c r="E85" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>100</v>
       </c>
       <c r="G85" t="s">
-        <v>443</v>
+        <v>332</v>
       </c>
       <c r="H85" t="s">
-        <v>444</v>
+        <v>333</v>
       </c>
       <c r="I85" t="s">
-        <v>445</v>
+        <v>334</v>
       </c>
       <c r="J85">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K85" t="b">
         <v>0</v>
+      </c>
+      <c r="M85">
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="B86" t="s">
-        <v>419</v>
+        <v>331</v>
       </c>
       <c r="C86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86" t="b">
         <v>0</v>
       </c>
       <c r="E86" t="b">
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="H86" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="I86" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
       <c r="J86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K86" t="b">
         <v>0</v>
@@ -5014,7 +5020,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B87" t="s">
         <v>419</v>
@@ -5023,25 +5029,25 @@
         <v>0</v>
       </c>
       <c r="D87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G87" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H87" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="I87" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="J87">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K87" t="b">
         <v>0</v>
@@ -5049,34 +5055,34 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B88" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="C88" t="b">
         <v>0</v>
       </c>
       <c r="D88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G88" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="H88" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="I88" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="J88">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K88" t="b">
         <v>0</v>
@@ -5084,31 +5090,34 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>343</v>
+        <v>427</v>
       </c>
       <c r="B89" t="s">
-        <v>130</v>
+        <v>428</v>
       </c>
       <c r="C89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89" t="b">
         <v>0</v>
       </c>
       <c r="E89" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>100</v>
       </c>
       <c r="G89" t="s">
-        <v>352</v>
+        <v>429</v>
       </c>
       <c r="H89" t="s">
-        <v>353</v>
+        <v>430</v>
       </c>
       <c r="I89" t="s">
-        <v>354</v>
+        <v>431</v>
       </c>
       <c r="J89">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K89" t="b">
         <v>0</v>
@@ -5116,7 +5125,7 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="B90" t="s">
         <v>130</v>
@@ -5131,13 +5140,13 @@
         <v>1</v>
       </c>
       <c r="G90" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="H90" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="I90" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="J90">
         <v>1</v>
@@ -5148,10 +5157,10 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="B91" t="s">
-        <v>375</v>
+        <v>130</v>
       </c>
       <c r="C91" t="b">
         <v>1</v>
@@ -5163,13 +5172,13 @@
         <v>1</v>
       </c>
       <c r="G91" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="H91" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="I91" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="J91">
         <v>1</v>
@@ -5180,10 +5189,10 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B92" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C92" t="b">
         <v>1</v>
@@ -5195,13 +5204,13 @@
         <v>1</v>
       </c>
       <c r="G92" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H92" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="I92" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="J92">
         <v>1</v>
@@ -5212,10 +5221,10 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>432</v>
+        <v>376</v>
       </c>
       <c r="B93" t="s">
-        <v>440</v>
+        <v>380</v>
       </c>
       <c r="C93" t="b">
         <v>1</v>
@@ -5227,13 +5236,13 @@
         <v>1</v>
       </c>
       <c r="G93" t="s">
-        <v>433</v>
+        <v>377</v>
       </c>
       <c r="H93" t="s">
-        <v>434</v>
+        <v>378</v>
       </c>
       <c r="I93" t="s">
-        <v>435</v>
+        <v>379</v>
       </c>
       <c r="J93">
         <v>1</v>
@@ -5244,33 +5253,65 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
+        <v>432</v>
+      </c>
+      <c r="B94" t="s">
+        <v>440</v>
+      </c>
+      <c r="C94" t="b">
+        <v>1</v>
+      </c>
+      <c r="D94" t="b">
+        <v>0</v>
+      </c>
+      <c r="E94" t="b">
+        <v>1</v>
+      </c>
+      <c r="G94" t="s">
+        <v>433</v>
+      </c>
+      <c r="H94" t="s">
+        <v>434</v>
+      </c>
+      <c r="I94" t="s">
+        <v>435</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>446</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>450</v>
       </c>
-      <c r="C94" t="b">
-        <v>1</v>
-      </c>
-      <c r="D94" t="b">
-        <v>0</v>
-      </c>
-      <c r="E94" t="b">
-        <v>1</v>
-      </c>
-      <c r="G94" t="s">
+      <c r="C95" t="b">
+        <v>1</v>
+      </c>
+      <c r="D95" t="b">
+        <v>0</v>
+      </c>
+      <c r="E95" t="b">
+        <v>1</v>
+      </c>
+      <c r="G95" t="s">
         <v>447</v>
       </c>
-      <c r="H94" t="s">
+      <c r="H95" t="s">
         <v>448</v>
       </c>
-      <c r="I94" t="s">
+      <c r="I95" t="s">
         <v>449</v>
       </c>
-      <c r="J94">
-        <v>1</v>
-      </c>
-      <c r="K94" t="b">
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5315,9 +5356,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6239E2D-40EA-4B45-8295-42B35BCC92F9}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5515,6 +5556,17 @@
         <v>446</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>453</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>451</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE408AF-7099-4154-A640-31B6742C338C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C5CFBB-C194-4C9B-8438-8E58FDFB6F8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="457">
   <si>
     <t>levelPackId|String</t>
   </si>
@@ -1396,6 +1396,15 @@
   </si>
   <si>
     <t>Actor0125</t>
+  </si>
+  <si>
+    <t>AtkSpeedUpOnEncounterBetterDynaMob</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_AtkSpeedUpOnEncounterBetterDynaMob</t>
+  </si>
+  <si>
+    <t>Actor1108</t>
   </si>
 </sst>
 </file>
@@ -1963,7 +1972,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
-  <dimension ref="A1:M95"/>
+  <dimension ref="A1:M96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3797,42 +3806,42 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>154</v>
+        <v>454</v>
       </c>
       <c r="B53" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H53" t="s">
-        <v>156</v>
+        <v>455</v>
       </c>
       <c r="I53" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J53">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
+      </c>
+      <c r="L53" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B54" t="s">
         <v>155</v>
@@ -3841,25 +3850,25 @@
         <v>0</v>
       </c>
       <c r="D54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G54" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H54" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I54" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J54">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
@@ -3867,10 +3876,10 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B55" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
@@ -3882,16 +3891,16 @@
         <v>1</v>
       </c>
       <c r="F55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G55" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H55" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I55" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J55">
         <v>5</v>
@@ -3902,31 +3911,31 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B56" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
       </c>
       <c r="D56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G56" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H56" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I56" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J56">
         <v>5</v>
@@ -3937,7 +3946,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B57" t="s">
         <v>166</v>
@@ -3946,25 +3955,25 @@
         <v>0</v>
       </c>
       <c r="D57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G57" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H57" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I57" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J57">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
@@ -3972,34 +3981,34 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B58" t="s">
-        <v>309</v>
+        <v>166</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
       </c>
       <c r="D58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G58" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H58" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I58" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J58">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
@@ -4007,7 +4016,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B59" t="s">
         <v>309</v>
@@ -4016,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="D59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G59" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H59" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I59" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J59">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
@@ -4042,16 +4051,16 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>356</v>
+        <v>176</v>
       </c>
       <c r="B60" t="s">
         <v>309</v>
       </c>
       <c r="C60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="b">
         <v>1</v>
@@ -4063,13 +4072,13 @@
         <v>231</v>
       </c>
       <c r="H60" t="s">
-        <v>357</v>
+        <v>177</v>
       </c>
       <c r="I60" t="s">
         <v>178</v>
       </c>
       <c r="J60">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
@@ -4077,45 +4086,42 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="B61" t="s">
-        <v>396</v>
+        <v>309</v>
       </c>
       <c r="C61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" t="b">
         <v>0</v>
       </c>
       <c r="E61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G61" t="s">
-        <v>397</v>
+        <v>231</v>
       </c>
       <c r="H61" t="s">
-        <v>398</v>
+        <v>357</v>
       </c>
       <c r="I61" t="s">
-        <v>399</v>
+        <v>178</v>
       </c>
       <c r="J61">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
-      </c>
-      <c r="M61">
-        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B62" t="s">
         <v>396</v>
@@ -4124,25 +4130,25 @@
         <v>0</v>
       </c>
       <c r="D62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G62" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="H62" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="I62" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="J62">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
@@ -4153,45 +4159,45 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B63" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
       </c>
       <c r="D63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G63" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="H63" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="I63" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="J63">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K63" t="b">
         <v>0</v>
       </c>
       <c r="M63">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B64" t="s">
         <v>405</v>
@@ -4200,25 +4206,25 @@
         <v>0</v>
       </c>
       <c r="D64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G64" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H64" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="I64" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="J64">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
@@ -4229,31 +4235,31 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>179</v>
+        <v>409</v>
       </c>
       <c r="B65" t="s">
-        <v>180</v>
+        <v>405</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
       </c>
       <c r="D65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G65" t="s">
-        <v>232</v>
+        <v>410</v>
       </c>
       <c r="H65" t="s">
-        <v>181</v>
+        <v>411</v>
       </c>
       <c r="I65" t="s">
-        <v>182</v>
+        <v>412</v>
       </c>
       <c r="J65">
         <v>5</v>
@@ -4261,10 +4267,13 @@
       <c r="K65" t="b">
         <v>0</v>
       </c>
+      <c r="M65">
+        <v>2</v>
+      </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B66" t="s">
         <v>180</v>
@@ -4273,25 +4282,25 @@
         <v>0</v>
       </c>
       <c r="D66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H66" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I66" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J66">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K66" t="b">
         <v>0</v>
@@ -4299,34 +4308,34 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B67" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>
       </c>
       <c r="D67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G67" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H67" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I67" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J67">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
@@ -4334,7 +4343,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B68" t="s">
         <v>187</v>
@@ -4343,25 +4352,25 @@
         <v>0</v>
       </c>
       <c r="D68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G68" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H68" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I68" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J68">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K68" t="b">
         <v>0</v>
@@ -4369,34 +4378,34 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B69" t="s">
-        <v>310</v>
+        <v>187</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
       </c>
       <c r="D69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G69" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H69" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I69" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J69">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
@@ -4404,7 +4413,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B70" t="s">
         <v>310</v>
@@ -4413,25 +4422,25 @@
         <v>0</v>
       </c>
       <c r="D70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G70" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H70" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I70" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J70">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K70" t="b">
         <v>0</v>
@@ -4439,10 +4448,10 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>143</v>
+        <v>196</v>
       </c>
       <c r="B71" t="s">
-        <v>144</v>
+        <v>310</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
@@ -4454,16 +4463,16 @@
         <v>1</v>
       </c>
       <c r="F71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G71" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="H71" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="I71" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="J71">
         <v>5</v>
@@ -4471,37 +4480,34 @@
       <c r="K71" t="b">
         <v>0</v>
       </c>
-      <c r="L71" t="s">
-        <v>246</v>
-      </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>413</v>
+        <v>143</v>
       </c>
       <c r="B72" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="C72" t="b">
         <v>0</v>
       </c>
       <c r="D72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G72" t="s">
-        <v>414</v>
+        <v>249</v>
       </c>
       <c r="H72" t="s">
-        <v>415</v>
+        <v>145</v>
       </c>
       <c r="I72" t="s">
-        <v>416</v>
+        <v>146</v>
       </c>
       <c r="J72">
         <v>5</v>
@@ -4509,54 +4515,54 @@
       <c r="K72" t="b">
         <v>0</v>
       </c>
-      <c r="M72">
-        <v>4</v>
+      <c r="L72" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>199</v>
+        <v>413</v>
       </c>
       <c r="B73" t="s">
-        <v>311</v>
+        <v>200</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
       </c>
       <c r="D73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
+        <v>100</v>
+      </c>
+      <c r="G73" t="s">
+        <v>414</v>
+      </c>
+      <c r="H73" t="s">
+        <v>415</v>
+      </c>
+      <c r="I73" t="s">
+        <v>416</v>
+      </c>
+      <c r="J73">
+        <v>5</v>
+      </c>
+      <c r="K73" t="b">
+        <v>0</v>
+      </c>
+      <c r="M73">
         <v>4</v>
-      </c>
-      <c r="G73" t="s">
-        <v>238</v>
-      </c>
-      <c r="H73" t="s">
-        <v>201</v>
-      </c>
-      <c r="I73" t="s">
-        <v>202</v>
-      </c>
-      <c r="J73">
-        <v>3</v>
-      </c>
-      <c r="K73" t="b">
-        <v>0</v>
-      </c>
-      <c r="L73" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>312</v>
+        <v>199</v>
       </c>
       <c r="B74" t="s">
-        <v>417</v>
+        <v>311</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
@@ -4571,13 +4577,13 @@
         <v>4</v>
       </c>
       <c r="G74" t="s">
-        <v>313</v>
+        <v>238</v>
       </c>
       <c r="H74" t="s">
-        <v>314</v>
+        <v>201</v>
       </c>
       <c r="I74" t="s">
-        <v>315</v>
+        <v>202</v>
       </c>
       <c r="J74">
         <v>3</v>
@@ -4591,10 +4597,10 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>251</v>
+        <v>312</v>
       </c>
       <c r="B75" t="s">
-        <v>222</v>
+        <v>417</v>
       </c>
       <c r="C75" t="b">
         <v>0</v>
@@ -4609,13 +4615,13 @@
         <v>4</v>
       </c>
       <c r="G75" t="s">
-        <v>252</v>
+        <v>313</v>
       </c>
       <c r="H75" t="s">
-        <v>253</v>
+        <v>314</v>
       </c>
       <c r="I75" t="s">
-        <v>254</v>
+        <v>315</v>
       </c>
       <c r="J75">
         <v>3</v>
@@ -4624,47 +4630,50 @@
         <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="B76" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C76" t="b">
         <v>0</v>
       </c>
       <c r="D76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G76" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="H76" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="I76" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="J76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K76" t="b">
         <v>0</v>
+      </c>
+      <c r="L76" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>316</v>
+        <v>218</v>
       </c>
       <c r="B77" t="s">
         <v>219</v>
@@ -4673,22 +4682,22 @@
         <v>0</v>
       </c>
       <c r="D77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G77" t="s">
-        <v>317</v>
+        <v>239</v>
       </c>
       <c r="H77" t="s">
-        <v>318</v>
+        <v>220</v>
       </c>
       <c r="I77" t="s">
-        <v>319</v>
+        <v>221</v>
       </c>
       <c r="J77">
         <v>5</v>
@@ -4699,10 +4708,10 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>203</v>
+        <v>316</v>
       </c>
       <c r="B78" t="s">
-        <v>320</v>
+        <v>219</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
@@ -4714,19 +4723,19 @@
         <v>1</v>
       </c>
       <c r="F78">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G78" t="s">
-        <v>241</v>
+        <v>317</v>
       </c>
       <c r="H78" t="s">
-        <v>204</v>
+        <v>318</v>
       </c>
       <c r="I78" t="s">
-        <v>205</v>
+        <v>319</v>
       </c>
       <c r="J78">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K78" t="b">
         <v>0</v>
@@ -4734,10 +4743,10 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B79" t="s">
-        <v>207</v>
+        <v>320</v>
       </c>
       <c r="C79" t="b">
         <v>0</v>
@@ -4752,13 +4761,13 @@
         <v>4</v>
       </c>
       <c r="G79" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H79" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I79" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J79">
         <v>3</v>
@@ -4766,16 +4775,13 @@
       <c r="K79" t="b">
         <v>0</v>
       </c>
-      <c r="L79" t="s">
-        <v>242</v>
-      </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B80" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
@@ -4790,13 +4796,13 @@
         <v>4</v>
       </c>
       <c r="G80" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H80" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I80" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="J80">
         <v>3</v>
@@ -4805,15 +4811,15 @@
         <v>0</v>
       </c>
       <c r="L80" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B81" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
@@ -4828,51 +4834,51 @@
         <v>4</v>
       </c>
       <c r="G81" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="H81" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I81" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K81" t="b">
         <v>0</v>
       </c>
       <c r="L81" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>321</v>
+        <v>214</v>
       </c>
       <c r="B82" t="s">
-        <v>322</v>
+        <v>215</v>
       </c>
       <c r="C82" t="b">
         <v>0</v>
       </c>
       <c r="D82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G82" t="s">
-        <v>323</v>
+        <v>250</v>
       </c>
       <c r="H82" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="I82" t="s">
-        <v>325</v>
+        <v>217</v>
       </c>
       <c r="J82">
         <v>5</v>
@@ -4880,10 +4886,13 @@
       <c r="K82" t="b">
         <v>0</v>
       </c>
+      <c r="L82" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B83" t="s">
         <v>322</v>
@@ -4892,25 +4901,25 @@
         <v>0</v>
       </c>
       <c r="D83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G83" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H83" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I83" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J83">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K83" t="b">
         <v>0</v>
@@ -4918,31 +4927,34 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>438</v>
+        <v>326</v>
       </c>
       <c r="B84" t="s">
         <v>322</v>
       </c>
       <c r="C84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" t="b">
         <v>1</v>
+      </c>
+      <c r="F84">
+        <v>2</v>
       </c>
       <c r="G84" t="s">
         <v>327</v>
       </c>
       <c r="H84" t="s">
-        <v>439</v>
+        <v>328</v>
       </c>
       <c r="I84" t="s">
         <v>329</v>
       </c>
       <c r="J84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K84" t="b">
         <v>0</v>
@@ -4950,104 +4962,101 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>330</v>
+        <v>438</v>
       </c>
       <c r="B85" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" t="b">
         <v>0</v>
       </c>
       <c r="E85" t="b">
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="H85" t="s">
-        <v>333</v>
+        <v>439</v>
       </c>
       <c r="I85" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="J85">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K85" t="b">
         <v>0</v>
-      </c>
-      <c r="M85">
-        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>442</v>
+        <v>330</v>
       </c>
       <c r="B86" t="s">
         <v>331</v>
       </c>
       <c r="C86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86" t="b">
         <v>0</v>
       </c>
       <c r="E86" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>100</v>
       </c>
       <c r="G86" t="s">
-        <v>443</v>
+        <v>332</v>
       </c>
       <c r="H86" t="s">
-        <v>444</v>
+        <v>333</v>
       </c>
       <c r="I86" t="s">
-        <v>445</v>
+        <v>334</v>
       </c>
       <c r="J86">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K86" t="b">
         <v>0</v>
+      </c>
+      <c r="M86">
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="B87" t="s">
-        <v>419</v>
+        <v>331</v>
       </c>
       <c r="C87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" t="b">
         <v>0</v>
       </c>
       <c r="E87" t="b">
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G87" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="H87" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="I87" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
       <c r="J87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K87" t="b">
         <v>0</v>
@@ -5055,7 +5064,7 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B88" t="s">
         <v>419</v>
@@ -5064,25 +5073,25 @@
         <v>0</v>
       </c>
       <c r="D88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G88" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H88" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="I88" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="J88">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K88" t="b">
         <v>0</v>
@@ -5090,34 +5099,34 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B89" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="C89" t="b">
         <v>0</v>
       </c>
       <c r="D89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G89" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="H89" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="I89" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="J89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K89" t="b">
         <v>0</v>
@@ -5125,31 +5134,34 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>343</v>
+        <v>427</v>
       </c>
       <c r="B90" t="s">
-        <v>130</v>
+        <v>428</v>
       </c>
       <c r="C90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90" t="b">
         <v>0</v>
       </c>
       <c r="E90" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>100</v>
       </c>
       <c r="G90" t="s">
-        <v>352</v>
+        <v>429</v>
       </c>
       <c r="H90" t="s">
-        <v>353</v>
+        <v>430</v>
       </c>
       <c r="I90" t="s">
-        <v>354</v>
+        <v>431</v>
       </c>
       <c r="J90">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K90" t="b">
         <v>0</v>
@@ -5157,7 +5169,7 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="B91" t="s">
         <v>130</v>
@@ -5172,13 +5184,13 @@
         <v>1</v>
       </c>
       <c r="G91" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="H91" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="I91" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="J91">
         <v>1</v>
@@ -5189,10 +5201,10 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="B92" t="s">
-        <v>375</v>
+        <v>130</v>
       </c>
       <c r="C92" t="b">
         <v>1</v>
@@ -5204,13 +5216,13 @@
         <v>1</v>
       </c>
       <c r="G92" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="H92" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="I92" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="J92">
         <v>1</v>
@@ -5221,10 +5233,10 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B93" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C93" t="b">
         <v>1</v>
@@ -5236,13 +5248,13 @@
         <v>1</v>
       </c>
       <c r="G93" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H93" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="I93" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="J93">
         <v>1</v>
@@ -5253,10 +5265,10 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>432</v>
+        <v>376</v>
       </c>
       <c r="B94" t="s">
-        <v>440</v>
+        <v>380</v>
       </c>
       <c r="C94" t="b">
         <v>1</v>
@@ -5268,13 +5280,13 @@
         <v>1</v>
       </c>
       <c r="G94" t="s">
-        <v>433</v>
+        <v>377</v>
       </c>
       <c r="H94" t="s">
-        <v>434</v>
+        <v>378</v>
       </c>
       <c r="I94" t="s">
-        <v>435</v>
+        <v>379</v>
       </c>
       <c r="J94">
         <v>1</v>
@@ -5285,33 +5297,65 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
+        <v>432</v>
+      </c>
+      <c r="B95" t="s">
+        <v>440</v>
+      </c>
+      <c r="C95" t="b">
+        <v>1</v>
+      </c>
+      <c r="D95" t="b">
+        <v>0</v>
+      </c>
+      <c r="E95" t="b">
+        <v>1</v>
+      </c>
+      <c r="G95" t="s">
+        <v>433</v>
+      </c>
+      <c r="H95" t="s">
+        <v>434</v>
+      </c>
+      <c r="I95" t="s">
+        <v>435</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>446</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" t="s">
         <v>450</v>
       </c>
-      <c r="C95" t="b">
-        <v>1</v>
-      </c>
-      <c r="D95" t="b">
-        <v>0</v>
-      </c>
-      <c r="E95" t="b">
-        <v>1</v>
-      </c>
-      <c r="G95" t="s">
+      <c r="C96" t="b">
+        <v>1</v>
+      </c>
+      <c r="D96" t="b">
+        <v>0</v>
+      </c>
+      <c r="E96" t="b">
+        <v>1</v>
+      </c>
+      <c r="G96" t="s">
         <v>447</v>
       </c>
-      <c r="H95" t="s">
+      <c r="H96" t="s">
         <v>448</v>
       </c>
-      <c r="I95" t="s">
+      <c r="I96" t="s">
         <v>449</v>
       </c>
-      <c r="J95">
-        <v>1</v>
-      </c>
-      <c r="K95" t="b">
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5356,7 +5400,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6239E2D-40EA-4B45-8295-42B35BCC92F9}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -5567,6 +5611,17 @@
         <v>451</v>
       </c>
     </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>456</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>454</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C5CFBB-C194-4C9B-8438-8E58FDFB6F8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F73FFA2-9BEF-4E92-BD4D-72C6FA342F61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="460">
   <si>
     <t>levelPackId|String</t>
   </si>
@@ -1405,6 +1405,15 @@
   </si>
   <si>
     <t>Actor1108</t>
+  </si>
+  <si>
+    <t>ImmortalWillBetterRockElemental</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_ImmortalWillBetterRockElemental</t>
+  </si>
+  <si>
+    <t>Actor2120</t>
   </si>
 </sst>
 </file>
@@ -1972,7 +1981,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
-  <dimension ref="A1:M96"/>
+  <dimension ref="A1:M97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4483,69 +4492,63 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>143</v>
+        <v>457</v>
       </c>
       <c r="B72" t="s">
-        <v>144</v>
+        <v>310</v>
       </c>
       <c r="C72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" t="b">
         <v>1</v>
       </c>
-      <c r="F72">
-        <v>4</v>
-      </c>
       <c r="G72" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="H72" t="s">
-        <v>145</v>
+        <v>458</v>
       </c>
       <c r="I72" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="J72">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K72" t="b">
         <v>0</v>
-      </c>
-      <c r="L72" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>413</v>
+        <v>143</v>
       </c>
       <c r="B73" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
       </c>
       <c r="D73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G73" t="s">
-        <v>414</v>
+        <v>249</v>
       </c>
       <c r="H73" t="s">
-        <v>415</v>
+        <v>145</v>
       </c>
       <c r="I73" t="s">
-        <v>416</v>
+        <v>146</v>
       </c>
       <c r="J73">
         <v>5</v>
@@ -4553,54 +4556,54 @@
       <c r="K73" t="b">
         <v>0</v>
       </c>
-      <c r="M73">
-        <v>4</v>
+      <c r="L73" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>199</v>
+        <v>413</v>
       </c>
       <c r="B74" t="s">
-        <v>311</v>
+        <v>200</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
       </c>
       <c r="D74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74">
+        <v>100</v>
+      </c>
+      <c r="G74" t="s">
+        <v>414</v>
+      </c>
+      <c r="H74" t="s">
+        <v>415</v>
+      </c>
+      <c r="I74" t="s">
+        <v>416</v>
+      </c>
+      <c r="J74">
+        <v>5</v>
+      </c>
+      <c r="K74" t="b">
+        <v>0</v>
+      </c>
+      <c r="M74">
         <v>4</v>
-      </c>
-      <c r="G74" t="s">
-        <v>238</v>
-      </c>
-      <c r="H74" t="s">
-        <v>201</v>
-      </c>
-      <c r="I74" t="s">
-        <v>202</v>
-      </c>
-      <c r="J74">
-        <v>3</v>
-      </c>
-      <c r="K74" t="b">
-        <v>0</v>
-      </c>
-      <c r="L74" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>312</v>
+        <v>199</v>
       </c>
       <c r="B75" t="s">
-        <v>417</v>
+        <v>311</v>
       </c>
       <c r="C75" t="b">
         <v>0</v>
@@ -4615,13 +4618,13 @@
         <v>4</v>
       </c>
       <c r="G75" t="s">
-        <v>313</v>
+        <v>238</v>
       </c>
       <c r="H75" t="s">
-        <v>314</v>
+        <v>201</v>
       </c>
       <c r="I75" t="s">
-        <v>315</v>
+        <v>202</v>
       </c>
       <c r="J75">
         <v>3</v>
@@ -4635,10 +4638,10 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>251</v>
+        <v>312</v>
       </c>
       <c r="B76" t="s">
-        <v>222</v>
+        <v>417</v>
       </c>
       <c r="C76" t="b">
         <v>0</v>
@@ -4653,13 +4656,13 @@
         <v>4</v>
       </c>
       <c r="G76" t="s">
-        <v>252</v>
+        <v>313</v>
       </c>
       <c r="H76" t="s">
-        <v>253</v>
+        <v>314</v>
       </c>
       <c r="I76" t="s">
-        <v>254</v>
+        <v>315</v>
       </c>
       <c r="J76">
         <v>3</v>
@@ -4668,47 +4671,50 @@
         <v>0</v>
       </c>
       <c r="L76" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="B77" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C77" t="b">
         <v>0</v>
       </c>
       <c r="D77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G77" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="H77" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="I77" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="J77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K77" t="b">
         <v>0</v>
+      </c>
+      <c r="L77" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>316</v>
+        <v>218</v>
       </c>
       <c r="B78" t="s">
         <v>219</v>
@@ -4717,22 +4723,22 @@
         <v>0</v>
       </c>
       <c r="D78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G78" t="s">
-        <v>317</v>
+        <v>239</v>
       </c>
       <c r="H78" t="s">
-        <v>318</v>
+        <v>220</v>
       </c>
       <c r="I78" t="s">
-        <v>319</v>
+        <v>221</v>
       </c>
       <c r="J78">
         <v>5</v>
@@ -4743,10 +4749,10 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>203</v>
+        <v>316</v>
       </c>
       <c r="B79" t="s">
-        <v>320</v>
+        <v>219</v>
       </c>
       <c r="C79" t="b">
         <v>0</v>
@@ -4758,19 +4764,19 @@
         <v>1</v>
       </c>
       <c r="F79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G79" t="s">
-        <v>241</v>
+        <v>317</v>
       </c>
       <c r="H79" t="s">
-        <v>204</v>
+        <v>318</v>
       </c>
       <c r="I79" t="s">
-        <v>205</v>
+        <v>319</v>
       </c>
       <c r="J79">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K79" t="b">
         <v>0</v>
@@ -4778,10 +4784,10 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B80" t="s">
-        <v>207</v>
+        <v>320</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
@@ -4796,13 +4802,13 @@
         <v>4</v>
       </c>
       <c r="G80" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H80" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I80" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J80">
         <v>3</v>
@@ -4810,16 +4816,13 @@
       <c r="K80" t="b">
         <v>0</v>
       </c>
-      <c r="L80" t="s">
-        <v>242</v>
-      </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B81" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
@@ -4834,13 +4837,13 @@
         <v>4</v>
       </c>
       <c r="G81" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H81" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I81" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="J81">
         <v>3</v>
@@ -4849,15 +4852,15 @@
         <v>0</v>
       </c>
       <c r="L81" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B82" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C82" t="b">
         <v>0</v>
@@ -4872,51 +4875,51 @@
         <v>4</v>
       </c>
       <c r="G82" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="H82" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I82" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J82">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K82" t="b">
         <v>0</v>
       </c>
       <c r="L82" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>321</v>
+        <v>214</v>
       </c>
       <c r="B83" t="s">
-        <v>322</v>
+        <v>215</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
       </c>
       <c r="D83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G83" t="s">
-        <v>323</v>
+        <v>250</v>
       </c>
       <c r="H83" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="I83" t="s">
-        <v>325</v>
+        <v>217</v>
       </c>
       <c r="J83">
         <v>5</v>
@@ -4924,10 +4927,13 @@
       <c r="K83" t="b">
         <v>0</v>
       </c>
+      <c r="L83" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B84" t="s">
         <v>322</v>
@@ -4936,25 +4942,25 @@
         <v>0</v>
       </c>
       <c r="D84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G84" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H84" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I84" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J84">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K84" t="b">
         <v>0</v>
@@ -4962,31 +4968,34 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>438</v>
+        <v>326</v>
       </c>
       <c r="B85" t="s">
         <v>322</v>
       </c>
       <c r="C85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" t="b">
         <v>1</v>
+      </c>
+      <c r="F85">
+        <v>2</v>
       </c>
       <c r="G85" t="s">
         <v>327</v>
       </c>
       <c r="H85" t="s">
-        <v>439</v>
+        <v>328</v>
       </c>
       <c r="I85" t="s">
         <v>329</v>
       </c>
       <c r="J85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K85" t="b">
         <v>0</v>
@@ -4994,104 +5003,101 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>330</v>
+        <v>438</v>
       </c>
       <c r="B86" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86" t="b">
         <v>0</v>
       </c>
       <c r="E86" t="b">
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="H86" t="s">
-        <v>333</v>
+        <v>439</v>
       </c>
       <c r="I86" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="J86">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K86" t="b">
         <v>0</v>
-      </c>
-      <c r="M86">
-        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>442</v>
+        <v>330</v>
       </c>
       <c r="B87" t="s">
         <v>331</v>
       </c>
       <c r="C87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87" t="b">
         <v>0</v>
       </c>
       <c r="E87" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>100</v>
       </c>
       <c r="G87" t="s">
-        <v>443</v>
+        <v>332</v>
       </c>
       <c r="H87" t="s">
-        <v>444</v>
+        <v>333</v>
       </c>
       <c r="I87" t="s">
-        <v>445</v>
+        <v>334</v>
       </c>
       <c r="J87">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K87" t="b">
         <v>0</v>
+      </c>
+      <c r="M87">
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="B88" t="s">
-        <v>419</v>
+        <v>331</v>
       </c>
       <c r="C88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" t="b">
         <v>0</v>
       </c>
       <c r="E88" t="b">
-        <v>0</v>
-      </c>
-      <c r="F88">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G88" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="H88" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="I88" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
       <c r="J88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K88" t="b">
         <v>0</v>
@@ -5099,7 +5105,7 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B89" t="s">
         <v>419</v>
@@ -5108,25 +5114,25 @@
         <v>0</v>
       </c>
       <c r="D89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G89" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H89" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="I89" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="J89">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K89" t="b">
         <v>0</v>
@@ -5134,34 +5140,34 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B90" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="C90" t="b">
         <v>0</v>
       </c>
       <c r="D90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G90" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="H90" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="I90" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="J90">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K90" t="b">
         <v>0</v>
@@ -5169,31 +5175,34 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>343</v>
+        <v>427</v>
       </c>
       <c r="B91" t="s">
-        <v>130</v>
+        <v>428</v>
       </c>
       <c r="C91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91" t="b">
         <v>0</v>
       </c>
       <c r="E91" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>100</v>
       </c>
       <c r="G91" t="s">
-        <v>352</v>
+        <v>429</v>
       </c>
       <c r="H91" t="s">
-        <v>353</v>
+        <v>430</v>
       </c>
       <c r="I91" t="s">
-        <v>354</v>
+        <v>431</v>
       </c>
       <c r="J91">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K91" t="b">
         <v>0</v>
@@ -5201,7 +5210,7 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="B92" t="s">
         <v>130</v>
@@ -5216,13 +5225,13 @@
         <v>1</v>
       </c>
       <c r="G92" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="H92" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="I92" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="J92">
         <v>1</v>
@@ -5233,10 +5242,10 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="B93" t="s">
-        <v>375</v>
+        <v>130</v>
       </c>
       <c r="C93" t="b">
         <v>1</v>
@@ -5248,13 +5257,13 @@
         <v>1</v>
       </c>
       <c r="G93" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="H93" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="I93" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="J93">
         <v>1</v>
@@ -5265,10 +5274,10 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B94" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C94" t="b">
         <v>1</v>
@@ -5280,13 +5289,13 @@
         <v>1</v>
       </c>
       <c r="G94" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H94" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="I94" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="J94">
         <v>1</v>
@@ -5297,10 +5306,10 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>432</v>
+        <v>376</v>
       </c>
       <c r="B95" t="s">
-        <v>440</v>
+        <v>380</v>
       </c>
       <c r="C95" t="b">
         <v>1</v>
@@ -5312,13 +5321,13 @@
         <v>1</v>
       </c>
       <c r="G95" t="s">
-        <v>433</v>
+        <v>377</v>
       </c>
       <c r="H95" t="s">
-        <v>434</v>
+        <v>378</v>
       </c>
       <c r="I95" t="s">
-        <v>435</v>
+        <v>379</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -5329,33 +5338,65 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>432</v>
+      </c>
+      <c r="B96" t="s">
+        <v>440</v>
+      </c>
+      <c r="C96" t="b">
+        <v>1</v>
+      </c>
+      <c r="D96" t="b">
+        <v>0</v>
+      </c>
+      <c r="E96" t="b">
+        <v>1</v>
+      </c>
+      <c r="G96" t="s">
+        <v>433</v>
+      </c>
+      <c r="H96" t="s">
+        <v>434</v>
+      </c>
+      <c r="I96" t="s">
+        <v>435</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>446</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B97" t="s">
         <v>450</v>
       </c>
-      <c r="C96" t="b">
-        <v>1</v>
-      </c>
-      <c r="D96" t="b">
-        <v>0</v>
-      </c>
-      <c r="E96" t="b">
-        <v>1</v>
-      </c>
-      <c r="G96" t="s">
+      <c r="C97" t="b">
+        <v>1</v>
+      </c>
+      <c r="D97" t="b">
+        <v>0</v>
+      </c>
+      <c r="E97" t="b">
+        <v>1</v>
+      </c>
+      <c r="G97" t="s">
         <v>447</v>
       </c>
-      <c r="H96" t="s">
+      <c r="H97" t="s">
         <v>448</v>
       </c>
-      <c r="I96" t="s">
+      <c r="I97" t="s">
         <v>449</v>
       </c>
-      <c r="J96">
-        <v>1</v>
-      </c>
-      <c r="K96" t="b">
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5400,7 +5441,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6239E2D-40EA-4B45-8295-42B35BCC92F9}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -5622,6 +5663,17 @@
         <v>454</v>
       </c>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>459</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>457</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F73FFA2-9BEF-4E92-BD4D-72C6FA342F61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0FB470-7284-49CF-A59C-7440FA719A32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="468">
   <si>
     <t>levelPackId|String</t>
   </si>
@@ -1414,6 +1414,30 @@
   </si>
   <si>
     <t>Actor2120</t>
+  </si>
+  <si>
+    <t>HealSpOnAttackBetterIceMagician</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_HealSpOnAttackBetterIceMagician</t>
+  </si>
+  <si>
+    <t>PushEnhanceIceMagician</t>
+  </si>
+  <si>
+    <t>FlatSkill2_76_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>LP_PushEnhanceIceMagician</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_PushEnhanceIceMagician</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_PushEnhanceIceMagician</t>
+  </si>
+  <si>
+    <t>Actor0240</t>
   </si>
 </sst>
 </file>
@@ -1981,13 +2005,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
-  <dimension ref="A1:M97"/>
+  <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5035,104 +5055,101 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>330</v>
+        <v>460</v>
       </c>
       <c r="B87" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" t="b">
         <v>0</v>
       </c>
       <c r="E87" t="b">
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G87" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="H87" t="s">
-        <v>333</v>
+        <v>461</v>
       </c>
       <c r="I87" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="J87">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K87" t="b">
         <v>0</v>
-      </c>
-      <c r="M87">
-        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>442</v>
+        <v>330</v>
       </c>
       <c r="B88" t="s">
         <v>331</v>
       </c>
       <c r="C88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88" t="b">
         <v>0</v>
       </c>
       <c r="E88" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>100</v>
       </c>
       <c r="G88" t="s">
-        <v>443</v>
+        <v>332</v>
       </c>
       <c r="H88" t="s">
-        <v>444</v>
+        <v>333</v>
       </c>
       <c r="I88" t="s">
-        <v>445</v>
+        <v>334</v>
       </c>
       <c r="J88">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K88" t="b">
         <v>0</v>
+      </c>
+      <c r="M88">
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="B89" t="s">
-        <v>419</v>
+        <v>331</v>
       </c>
       <c r="C89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89" t="b">
         <v>0</v>
       </c>
       <c r="E89" t="b">
-        <v>0</v>
-      </c>
-      <c r="F89">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G89" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="H89" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="I89" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
       <c r="J89">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K89" t="b">
         <v>0</v>
@@ -5140,7 +5157,7 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B90" t="s">
         <v>419</v>
@@ -5149,25 +5166,25 @@
         <v>0</v>
       </c>
       <c r="D90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G90" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H90" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="I90" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="J90">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K90" t="b">
         <v>0</v>
@@ -5175,34 +5192,34 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B91" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="C91" t="b">
         <v>0</v>
       </c>
       <c r="D91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G91" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="H91" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="I91" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="J91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K91" t="b">
         <v>0</v>
@@ -5210,31 +5227,34 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>343</v>
+        <v>427</v>
       </c>
       <c r="B92" t="s">
-        <v>130</v>
+        <v>428</v>
       </c>
       <c r="C92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92" t="b">
         <v>0</v>
       </c>
       <c r="E92" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>100</v>
       </c>
       <c r="G92" t="s">
-        <v>352</v>
+        <v>429</v>
       </c>
       <c r="H92" t="s">
-        <v>353</v>
+        <v>430</v>
       </c>
       <c r="I92" t="s">
-        <v>354</v>
+        <v>431</v>
       </c>
       <c r="J92">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K92" t="b">
         <v>0</v>
@@ -5242,7 +5262,7 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="B93" t="s">
         <v>130</v>
@@ -5257,13 +5277,13 @@
         <v>1</v>
       </c>
       <c r="G93" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="H93" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="I93" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="J93">
         <v>1</v>
@@ -5274,10 +5294,10 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="B94" t="s">
-        <v>375</v>
+        <v>130</v>
       </c>
       <c r="C94" t="b">
         <v>1</v>
@@ -5289,13 +5309,13 @@
         <v>1</v>
       </c>
       <c r="G94" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="H94" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="I94" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="J94">
         <v>1</v>
@@ -5306,10 +5326,10 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B95" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C95" t="b">
         <v>1</v>
@@ -5321,13 +5341,13 @@
         <v>1</v>
       </c>
       <c r="G95" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H95" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="I95" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -5338,10 +5358,10 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>432</v>
+        <v>376</v>
       </c>
       <c r="B96" t="s">
-        <v>440</v>
+        <v>380</v>
       </c>
       <c r="C96" t="b">
         <v>1</v>
@@ -5353,13 +5373,13 @@
         <v>1</v>
       </c>
       <c r="G96" t="s">
-        <v>433</v>
+        <v>377</v>
       </c>
       <c r="H96" t="s">
-        <v>434</v>
+        <v>378</v>
       </c>
       <c r="I96" t="s">
-        <v>435</v>
+        <v>379</v>
       </c>
       <c r="J96">
         <v>1</v>
@@ -5370,33 +5390,97 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>432</v>
+      </c>
+      <c r="B97" t="s">
+        <v>440</v>
+      </c>
+      <c r="C97" t="b">
+        <v>1</v>
+      </c>
+      <c r="D97" t="b">
+        <v>0</v>
+      </c>
+      <c r="E97" t="b">
+        <v>1</v>
+      </c>
+      <c r="G97" t="s">
+        <v>433</v>
+      </c>
+      <c r="H97" t="s">
+        <v>434</v>
+      </c>
+      <c r="I97" t="s">
+        <v>435</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>446</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B98" t="s">
         <v>450</v>
       </c>
-      <c r="C97" t="b">
-        <v>1</v>
-      </c>
-      <c r="D97" t="b">
-        <v>0</v>
-      </c>
-      <c r="E97" t="b">
-        <v>1</v>
-      </c>
-      <c r="G97" t="s">
+      <c r="C98" t="b">
+        <v>1</v>
+      </c>
+      <c r="D98" t="b">
+        <v>0</v>
+      </c>
+      <c r="E98" t="b">
+        <v>1</v>
+      </c>
+      <c r="G98" t="s">
         <v>447</v>
       </c>
-      <c r="H97" t="s">
+      <c r="H98" t="s">
         <v>448</v>
       </c>
-      <c r="I97" t="s">
+      <c r="I98" t="s">
         <v>449</v>
       </c>
-      <c r="J97">
-        <v>1</v>
-      </c>
-      <c r="K97" t="b">
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>462</v>
+      </c>
+      <c r="B99" t="s">
+        <v>463</v>
+      </c>
+      <c r="C99" t="b">
+        <v>1</v>
+      </c>
+      <c r="D99" t="b">
+        <v>0</v>
+      </c>
+      <c r="E99" t="b">
+        <v>1</v>
+      </c>
+      <c r="G99" t="s">
+        <v>464</v>
+      </c>
+      <c r="H99" t="s">
+        <v>465</v>
+      </c>
+      <c r="I99" t="s">
+        <v>466</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5441,11 +5525,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6239E2D-40EA-4B45-8295-42B35BCC92F9}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5674,6 +5756,28 @@
         <v>457</v>
       </c>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>467</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>467</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>460</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0FB470-7284-49CF-A59C-7440FA719A32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB4D297-ED0A-48BA-B58A-0466D017CE70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
@@ -1350,12 +1350,6 @@
     <t>Actor1141</t>
   </si>
   <si>
-    <t>HealSpOnAttackBetterAngelicWarrior</t>
-  </si>
-  <si>
-    <t>LevelPackUIName_HealSpOnAttackBetterAngelicWarrior</t>
-  </si>
-  <si>
     <t>FlatSkill2_71_NoBG_Gray</t>
   </si>
   <si>
@@ -1438,6 +1432,12 @@
   </si>
   <si>
     <t>Actor0240</t>
+  </si>
+  <si>
+    <t>CritBetterAngelicWarrior</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_CritBetterAngelicWarrior</t>
   </si>
 </sst>
 </file>
@@ -2007,7 +2007,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
   <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2441,34 +2443,31 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>466</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
       <c r="G13" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H13" t="s">
-        <v>97</v>
+        <v>467</v>
       </c>
       <c r="I13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
@@ -2476,34 +2475,34 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H14" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I14" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J14">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
@@ -2511,7 +2510,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s">
         <v>100</v>
@@ -2520,22 +2519,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="G15" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H15" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J15">
         <v>9</v>
@@ -2546,31 +2545,34 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>451</v>
+        <v>104</v>
       </c>
       <c r="B16" t="s">
         <v>100</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
       </c>
       <c r="G16" t="s">
         <v>105</v>
       </c>
       <c r="H16" t="s">
-        <v>452</v>
+        <v>106</v>
       </c>
       <c r="I16" t="s">
         <v>107</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
@@ -2578,34 +2580,31 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>449</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
       <c r="G17" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H17" t="s">
-        <v>111</v>
+        <v>450</v>
       </c>
       <c r="I17" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
@@ -2613,28 +2612,31 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>381</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>382</v>
+        <v>109</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>383</v>
+        <v>110</v>
       </c>
       <c r="H18" t="s">
-        <v>384</v>
+        <v>111</v>
       </c>
       <c r="I18" t="s">
-        <v>385</v>
+        <v>112</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -2645,10 +2647,10 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>381</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>382</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -2659,20 +2661,17 @@
       <c r="E19" t="b">
         <v>0</v>
       </c>
-      <c r="F19">
-        <v>80</v>
-      </c>
       <c r="G19" t="s">
-        <v>115</v>
+        <v>383</v>
       </c>
       <c r="H19" t="s">
-        <v>116</v>
+        <v>384</v>
       </c>
       <c r="I19" t="s">
-        <v>117</v>
+        <v>385</v>
       </c>
       <c r="J19">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
@@ -2680,7 +2679,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>262</v>
+        <v>113</v>
       </c>
       <c r="B20" t="s">
         <v>114</v>
@@ -2689,22 +2688,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s">
-        <v>263</v>
+        <v>115</v>
       </c>
       <c r="H20" t="s">
-        <v>264</v>
+        <v>116</v>
       </c>
       <c r="I20" t="s">
-        <v>265</v>
+        <v>117</v>
       </c>
       <c r="J20">
         <v>9</v>
@@ -2715,31 +2714,31 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B21" t="s">
-        <v>267</v>
+        <v>114</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G21" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H21" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="I21" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="J21">
         <v>9</v>
@@ -2747,13 +2746,10 @@
       <c r="K21" t="b">
         <v>0</v>
       </c>
-      <c r="M21">
-        <v>2</v>
-      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B22" t="s">
         <v>267</v>
@@ -2762,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H22" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I22" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="J22">
         <v>9</v>
@@ -2791,31 +2787,31 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>271</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>267</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>120</v>
+        <v>272</v>
       </c>
       <c r="H23" t="s">
-        <v>121</v>
+        <v>273</v>
       </c>
       <c r="I23" t="s">
-        <v>122</v>
+        <v>274</v>
       </c>
       <c r="J23">
         <v>9</v>
@@ -2824,12 +2820,12 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>275</v>
+        <v>118</v>
       </c>
       <c r="B24" t="s">
         <v>119</v>
@@ -2838,22 +2834,22 @@
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s">
-        <v>276</v>
+        <v>120</v>
       </c>
       <c r="H24" t="s">
-        <v>277</v>
+        <v>121</v>
       </c>
       <c r="I24" t="s">
-        <v>278</v>
+        <v>122</v>
       </c>
       <c r="J24">
         <v>9</v>
@@ -2867,31 +2863,31 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B25" t="s">
-        <v>280</v>
+        <v>119</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G25" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H25" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="I25" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="J25">
         <v>9</v>
@@ -2900,12 +2896,12 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B26" t="s">
         <v>280</v>
@@ -2914,22 +2910,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H26" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="I26" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="J26">
         <v>9</v>
@@ -2943,10 +2939,10 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B27" t="s">
-        <v>173</v>
+        <v>280</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -2958,30 +2954,33 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G27" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H27" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I27" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J27">
+        <v>9</v>
+      </c>
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27">
         <v>3</v>
-      </c>
-      <c r="K27" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B28" t="s">
-        <v>293</v>
+        <v>173</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
@@ -2996,13 +2995,13 @@
         <v>4</v>
       </c>
       <c r="G28" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H28" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="I28" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="J28">
         <v>3</v>
@@ -3013,31 +3012,31 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>292</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>293</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>294</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>295</v>
       </c>
       <c r="I29" t="s">
-        <v>15</v>
+        <v>296</v>
       </c>
       <c r="J29">
         <v>3</v>
@@ -3045,13 +3044,10 @@
       <c r="K29" t="b">
         <v>0</v>
       </c>
-      <c r="M29">
-        <v>4</v>
-      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>297</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
         <v>123</v>
@@ -3060,22 +3056,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G30" t="s">
-        <v>298</v>
+        <v>13</v>
       </c>
       <c r="H30" t="s">
-        <v>299</v>
+        <v>14</v>
       </c>
       <c r="I30" t="s">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c r="J30">
         <v>3</v>
@@ -3089,31 +3085,31 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>297</v>
       </c>
       <c r="B31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>298</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
+        <v>299</v>
       </c>
       <c r="I31" t="s">
-        <v>19</v>
+        <v>300</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -3122,12 +3118,12 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>301</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
         <v>124</v>
@@ -3136,22 +3132,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G32" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="H32" t="s">
-        <v>303</v>
+        <v>18</v>
       </c>
       <c r="I32" t="s">
-        <v>304</v>
+        <v>19</v>
       </c>
       <c r="J32">
         <v>3</v>
@@ -3163,33 +3159,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>301</v>
       </c>
       <c r="B33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G33" t="s">
-        <v>21</v>
+        <v>302</v>
       </c>
       <c r="H33" t="s">
-        <v>22</v>
+        <v>303</v>
       </c>
       <c r="I33" t="s">
-        <v>23</v>
+        <v>304</v>
       </c>
       <c r="J33">
         <v>3</v>
@@ -3197,10 +3193,13 @@
       <c r="K33" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>305</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s">
         <v>125</v>
@@ -3209,22 +3208,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G34" t="s">
-        <v>306</v>
+        <v>21</v>
       </c>
       <c r="H34" t="s">
-        <v>307</v>
+        <v>22</v>
       </c>
       <c r="I34" t="s">
-        <v>308</v>
+        <v>23</v>
       </c>
       <c r="J34">
         <v>3</v>
@@ -3233,41 +3232,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>305</v>
+      </c>
+      <c r="B35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35" t="s">
+        <v>306</v>
+      </c>
+      <c r="H35" t="s">
+        <v>307</v>
+      </c>
+      <c r="I35" t="s">
+        <v>308</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+      <c r="K35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>24</v>
-      </c>
-      <c r="B35" t="s">
-        <v>126</v>
-      </c>
-      <c r="C35" t="b">
-        <v>1</v>
-      </c>
-      <c r="D35" t="b">
-        <v>0</v>
-      </c>
-      <c r="E35" t="b">
-        <v>1</v>
-      </c>
-      <c r="G35" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" t="s">
-        <v>26</v>
-      </c>
-      <c r="I35" t="s">
-        <v>27</v>
-      </c>
-      <c r="J35">
-        <v>2</v>
-      </c>
-      <c r="K35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>338</v>
       </c>
       <c r="B36" t="s">
         <v>126</v>
@@ -3291,47 +3293,47 @@
         <v>27</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K36" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>338</v>
+      </c>
+      <c r="B37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>28</v>
-      </c>
-      <c r="B37" t="s">
-        <v>127</v>
-      </c>
-      <c r="C37" t="b">
-        <v>1</v>
-      </c>
-      <c r="D37" t="b">
-        <v>0</v>
-      </c>
-      <c r="E37" t="b">
-        <v>1</v>
-      </c>
-      <c r="G37" t="s">
-        <v>29</v>
-      </c>
-      <c r="H37" t="s">
-        <v>30</v>
-      </c>
-      <c r="I37" t="s">
-        <v>31</v>
-      </c>
-      <c r="J37">
-        <v>2</v>
-      </c>
-      <c r="K37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>345</v>
       </c>
       <c r="B38" t="s">
         <v>127</v>
@@ -3346,77 +3348,77 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" t="s">
+        <v>31</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+      <c r="K38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>345</v>
+      </c>
+      <c r="B39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
         <v>349</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H39" t="s">
         <v>350</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I39" t="s">
         <v>351</v>
       </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="K38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>32</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>128</v>
       </c>
-      <c r="C39" t="b">
-        <v>1</v>
-      </c>
-      <c r="D39" t="b">
-        <v>0</v>
-      </c>
-      <c r="E39" t="b">
-        <v>1</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="C40" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
         <v>33</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H40" t="s">
         <v>34</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I40" t="s">
         <v>35</v>
-      </c>
-      <c r="J39">
-        <v>2</v>
-      </c>
-      <c r="K39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" t="s">
-        <v>129</v>
-      </c>
-      <c r="C40" t="b">
-        <v>1</v>
-      </c>
-      <c r="D40" t="b">
-        <v>0</v>
-      </c>
-      <c r="E40" t="b">
-        <v>1</v>
-      </c>
-      <c r="G40" t="s">
-        <v>37</v>
-      </c>
-      <c r="H40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I40" t="s">
-        <v>39</v>
       </c>
       <c r="J40">
         <v>2</v>
@@ -3425,9 +3427,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>366</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s">
         <v>129</v>
@@ -3442,77 +3444,77 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" t="s">
+        <v>38</v>
+      </c>
+      <c r="I41" t="s">
+        <v>39</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+      <c r="K41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
         <v>367</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H42" t="s">
         <v>368</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I42" t="s">
         <v>369</v>
       </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>130</v>
       </c>
-      <c r="C42" t="b">
-        <v>1</v>
-      </c>
-      <c r="D42" t="b">
-        <v>0</v>
-      </c>
-      <c r="E42" t="b">
-        <v>1</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="C43" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
         <v>41</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H43" t="s">
         <v>42</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I43" t="s">
         <v>43</v>
-      </c>
-      <c r="J42">
-        <v>2</v>
-      </c>
-      <c r="K42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" t="b">
-        <v>1</v>
-      </c>
-      <c r="D43" t="b">
-        <v>0</v>
-      </c>
-      <c r="E43" t="b">
-        <v>1</v>
-      </c>
-      <c r="G43" t="s">
-        <v>45</v>
-      </c>
-      <c r="H43" t="s">
-        <v>46</v>
-      </c>
-      <c r="I43" t="s">
-        <v>47</v>
       </c>
       <c r="J43">
         <v>2</v>
@@ -3521,12 +3523,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
@@ -3538,13 +3540,13 @@
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J44">
         <v>2</v>
@@ -3553,12 +3555,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C45" t="b">
         <v>1</v>
@@ -3570,13 +3572,13 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H45" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I45" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -3585,9 +3587,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>364</v>
+        <v>52</v>
       </c>
       <c r="B46" t="s">
         <v>133</v>
@@ -3611,50 +3613,47 @@
         <v>55</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>364</v>
+      </c>
+      <c r="B47" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" t="b">
+        <v>1</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="b">
+        <v>1</v>
+      </c>
+      <c r="G47" t="s">
+        <v>53</v>
+      </c>
+      <c r="H47" t="s">
+        <v>54</v>
+      </c>
+      <c r="I47" t="s">
+        <v>55</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>134</v>
-      </c>
-      <c r="B47" t="s">
-        <v>135</v>
-      </c>
-      <c r="C47" t="b">
-        <v>0</v>
-      </c>
-      <c r="D47" t="b">
-        <v>0</v>
-      </c>
-      <c r="E47" t="b">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>100</v>
-      </c>
-      <c r="G47" t="s">
-        <v>136</v>
-      </c>
-      <c r="H47" t="s">
-        <v>137</v>
-      </c>
-      <c r="I47" t="s">
-        <v>138</v>
-      </c>
-      <c r="J47">
-        <v>9</v>
-      </c>
-      <c r="K47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>139</v>
       </c>
       <c r="B48" t="s">
         <v>135</v>
@@ -3663,25 +3662,25 @@
         <v>0</v>
       </c>
       <c r="D48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G48" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H48" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I48" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J48">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
@@ -3689,34 +3688,34 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>386</v>
+        <v>139</v>
       </c>
       <c r="B49" t="s">
-        <v>387</v>
+        <v>135</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
       </c>
       <c r="D49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G49" t="s">
-        <v>388</v>
+        <v>140</v>
       </c>
       <c r="H49" t="s">
-        <v>389</v>
+        <v>141</v>
       </c>
       <c r="I49" t="s">
-        <v>390</v>
+        <v>142</v>
       </c>
       <c r="J49">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
@@ -3724,7 +3723,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B50" t="s">
         <v>387</v>
@@ -3733,25 +3732,25 @@
         <v>0</v>
       </c>
       <c r="D50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G50" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="H50" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="I50" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="J50">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
@@ -3759,45 +3758,42 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>147</v>
+        <v>391</v>
       </c>
       <c r="B51" t="s">
-        <v>148</v>
+        <v>387</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
       </c>
       <c r="D51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G51" t="s">
-        <v>223</v>
+        <v>392</v>
       </c>
       <c r="H51" t="s">
-        <v>149</v>
+        <v>393</v>
       </c>
       <c r="I51" t="s">
-        <v>150</v>
+        <v>394</v>
       </c>
       <c r="J51">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
-      </c>
-      <c r="L51" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B52" t="s">
         <v>148</v>
@@ -3806,25 +3802,25 @@
         <v>0</v>
       </c>
       <c r="D52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G52" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H52" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I52" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J52">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
@@ -3835,31 +3831,34 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>454</v>
+        <v>151</v>
       </c>
       <c r="B53" t="s">
         <v>148</v>
       </c>
       <c r="C53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="b">
         <v>1</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
       </c>
       <c r="G53" t="s">
         <v>224</v>
       </c>
       <c r="H53" t="s">
-        <v>455</v>
+        <v>152</v>
       </c>
       <c r="I53" t="s">
         <v>153</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
@@ -3870,42 +3869,42 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>154</v>
+        <v>452</v>
       </c>
       <c r="B54" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
       </c>
       <c r="E54" t="b">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H54" t="s">
-        <v>156</v>
+        <v>453</v>
       </c>
       <c r="I54" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J54">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
+      </c>
+      <c r="L54" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B55" t="s">
         <v>155</v>
@@ -3914,25 +3913,25 @@
         <v>0</v>
       </c>
       <c r="D55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G55" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H55" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I55" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J55">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
@@ -3940,10 +3939,10 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B56" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
@@ -3955,16 +3954,16 @@
         <v>1</v>
       </c>
       <c r="F56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G56" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H56" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I56" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J56">
         <v>5</v>
@@ -3975,31 +3974,31 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B57" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
       </c>
       <c r="D57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G57" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H57" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I57" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J57">
         <v>5</v>
@@ -4010,7 +4009,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B58" t="s">
         <v>166</v>
@@ -4019,25 +4018,25 @@
         <v>0</v>
       </c>
       <c r="D58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G58" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H58" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I58" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
@@ -4045,34 +4044,34 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B59" t="s">
-        <v>309</v>
+        <v>166</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
       </c>
       <c r="D59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G59" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H59" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I59" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J59">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
@@ -4080,7 +4079,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B60" t="s">
         <v>309</v>
@@ -4089,25 +4088,25 @@
         <v>0</v>
       </c>
       <c r="D60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G60" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H60" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I60" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J60">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
@@ -4115,16 +4114,16 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>356</v>
+        <v>176</v>
       </c>
       <c r="B61" t="s">
         <v>309</v>
       </c>
       <c r="C61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" t="b">
         <v>1</v>
@@ -4136,13 +4135,13 @@
         <v>231</v>
       </c>
       <c r="H61" t="s">
-        <v>357</v>
+        <v>177</v>
       </c>
       <c r="I61" t="s">
         <v>178</v>
       </c>
       <c r="J61">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
@@ -4150,45 +4149,42 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="B62" t="s">
-        <v>396</v>
+        <v>309</v>
       </c>
       <c r="C62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" t="b">
         <v>0</v>
       </c>
       <c r="E62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G62" t="s">
-        <v>397</v>
+        <v>231</v>
       </c>
       <c r="H62" t="s">
-        <v>398</v>
+        <v>357</v>
       </c>
       <c r="I62" t="s">
-        <v>399</v>
+        <v>178</v>
       </c>
       <c r="J62">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
-      </c>
-      <c r="M62">
-        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B63" t="s">
         <v>396</v>
@@ -4197,25 +4193,25 @@
         <v>0</v>
       </c>
       <c r="D63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G63" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="H63" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="I63" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="J63">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K63" t="b">
         <v>0</v>
@@ -4226,45 +4222,45 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B64" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C64" t="b">
         <v>0</v>
       </c>
       <c r="D64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G64" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="H64" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="I64" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="J64">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
       </c>
       <c r="M64">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B65" t="s">
         <v>405</v>
@@ -4273,25 +4269,25 @@
         <v>0</v>
       </c>
       <c r="D65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G65" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H65" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="I65" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="J65">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K65" t="b">
         <v>0</v>
@@ -4302,31 +4298,31 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>179</v>
+        <v>409</v>
       </c>
       <c r="B66" t="s">
-        <v>180</v>
+        <v>405</v>
       </c>
       <c r="C66" t="b">
         <v>0</v>
       </c>
       <c r="D66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G66" t="s">
-        <v>232</v>
+        <v>410</v>
       </c>
       <c r="H66" t="s">
-        <v>181</v>
+        <v>411</v>
       </c>
       <c r="I66" t="s">
-        <v>182</v>
+        <v>412</v>
       </c>
       <c r="J66">
         <v>5</v>
@@ -4334,10 +4330,13 @@
       <c r="K66" t="b">
         <v>0</v>
       </c>
+      <c r="M66">
+        <v>2</v>
+      </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B67" t="s">
         <v>180</v>
@@ -4346,25 +4345,25 @@
         <v>0</v>
       </c>
       <c r="D67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G67" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H67" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I67" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J67">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
@@ -4372,34 +4371,34 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B68" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
       </c>
       <c r="D68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G68" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H68" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I68" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J68">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K68" t="b">
         <v>0</v>
@@ -4407,7 +4406,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B69" t="s">
         <v>187</v>
@@ -4416,25 +4415,25 @@
         <v>0</v>
       </c>
       <c r="D69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G69" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H69" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I69" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J69">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
@@ -4442,34 +4441,34 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B70" t="s">
-        <v>310</v>
+        <v>187</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
       </c>
       <c r="D70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G70" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H70" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I70" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J70">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K70" t="b">
         <v>0</v>
@@ -4477,7 +4476,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B71" t="s">
         <v>310</v>
@@ -4486,25 +4485,25 @@
         <v>0</v>
       </c>
       <c r="D71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G71" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H71" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I71" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J71">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K71" t="b">
         <v>0</v>
@@ -4512,31 +4511,34 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>457</v>
+        <v>196</v>
       </c>
       <c r="B72" t="s">
         <v>310</v>
       </c>
       <c r="C72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" t="b">
         <v>1</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
       </c>
       <c r="G72" t="s">
         <v>237</v>
       </c>
       <c r="H72" t="s">
-        <v>458</v>
+        <v>197</v>
       </c>
       <c r="I72" t="s">
         <v>198</v>
       </c>
       <c r="J72">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K72" t="b">
         <v>0</v>
@@ -4544,69 +4546,63 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>143</v>
+        <v>455</v>
       </c>
       <c r="B73" t="s">
-        <v>144</v>
+        <v>310</v>
       </c>
       <c r="C73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" t="b">
         <v>1</v>
       </c>
-      <c r="F73">
-        <v>4</v>
-      </c>
       <c r="G73" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="H73" t="s">
-        <v>145</v>
+        <v>456</v>
       </c>
       <c r="I73" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="J73">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K73" t="b">
         <v>0</v>
-      </c>
-      <c r="L73" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>413</v>
+        <v>143</v>
       </c>
       <c r="B74" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
       </c>
       <c r="D74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G74" t="s">
-        <v>414</v>
+        <v>249</v>
       </c>
       <c r="H74" t="s">
-        <v>415</v>
+        <v>145</v>
       </c>
       <c r="I74" t="s">
-        <v>416</v>
+        <v>146</v>
       </c>
       <c r="J74">
         <v>5</v>
@@ -4614,54 +4610,54 @@
       <c r="K74" t="b">
         <v>0</v>
       </c>
-      <c r="M74">
-        <v>4</v>
+      <c r="L74" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>199</v>
+        <v>413</v>
       </c>
       <c r="B75" t="s">
-        <v>311</v>
+        <v>200</v>
       </c>
       <c r="C75" t="b">
         <v>0</v>
       </c>
       <c r="D75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75">
+        <v>100</v>
+      </c>
+      <c r="G75" t="s">
+        <v>414</v>
+      </c>
+      <c r="H75" t="s">
+        <v>415</v>
+      </c>
+      <c r="I75" t="s">
+        <v>416</v>
+      </c>
+      <c r="J75">
+        <v>5</v>
+      </c>
+      <c r="K75" t="b">
+        <v>0</v>
+      </c>
+      <c r="M75">
         <v>4</v>
-      </c>
-      <c r="G75" t="s">
-        <v>238</v>
-      </c>
-      <c r="H75" t="s">
-        <v>201</v>
-      </c>
-      <c r="I75" t="s">
-        <v>202</v>
-      </c>
-      <c r="J75">
-        <v>3</v>
-      </c>
-      <c r="K75" t="b">
-        <v>0</v>
-      </c>
-      <c r="L75" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>312</v>
+        <v>199</v>
       </c>
       <c r="B76" t="s">
-        <v>417</v>
+        <v>311</v>
       </c>
       <c r="C76" t="b">
         <v>0</v>
@@ -4676,13 +4672,13 @@
         <v>4</v>
       </c>
       <c r="G76" t="s">
-        <v>313</v>
+        <v>238</v>
       </c>
       <c r="H76" t="s">
-        <v>314</v>
+        <v>201</v>
       </c>
       <c r="I76" t="s">
-        <v>315</v>
+        <v>202</v>
       </c>
       <c r="J76">
         <v>3</v>
@@ -4696,10 +4692,10 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>251</v>
+        <v>312</v>
       </c>
       <c r="B77" t="s">
-        <v>222</v>
+        <v>417</v>
       </c>
       <c r="C77" t="b">
         <v>0</v>
@@ -4714,13 +4710,13 @@
         <v>4</v>
       </c>
       <c r="G77" t="s">
-        <v>252</v>
+        <v>313</v>
       </c>
       <c r="H77" t="s">
-        <v>253</v>
+        <v>314</v>
       </c>
       <c r="I77" t="s">
-        <v>254</v>
+        <v>315</v>
       </c>
       <c r="J77">
         <v>3</v>
@@ -4729,47 +4725,50 @@
         <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="B78" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
       </c>
       <c r="D78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G78" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="H78" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="I78" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="J78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K78" t="b">
         <v>0</v>
+      </c>
+      <c r="L78" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>316</v>
+        <v>218</v>
       </c>
       <c r="B79" t="s">
         <v>219</v>
@@ -4778,22 +4777,22 @@
         <v>0</v>
       </c>
       <c r="D79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G79" t="s">
-        <v>317</v>
+        <v>239</v>
       </c>
       <c r="H79" t="s">
-        <v>318</v>
+        <v>220</v>
       </c>
       <c r="I79" t="s">
-        <v>319</v>
+        <v>221</v>
       </c>
       <c r="J79">
         <v>5</v>
@@ -4804,10 +4803,10 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>203</v>
+        <v>316</v>
       </c>
       <c r="B80" t="s">
-        <v>320</v>
+        <v>219</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
@@ -4819,19 +4818,19 @@
         <v>1</v>
       </c>
       <c r="F80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G80" t="s">
-        <v>241</v>
+        <v>317</v>
       </c>
       <c r="H80" t="s">
-        <v>204</v>
+        <v>318</v>
       </c>
       <c r="I80" t="s">
-        <v>205</v>
+        <v>319</v>
       </c>
       <c r="J80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K80" t="b">
         <v>0</v>
@@ -4839,10 +4838,10 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B81" t="s">
-        <v>207</v>
+        <v>320</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
@@ -4857,13 +4856,13 @@
         <v>4</v>
       </c>
       <c r="G81" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H81" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I81" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J81">
         <v>3</v>
@@ -4871,16 +4870,13 @@
       <c r="K81" t="b">
         <v>0</v>
       </c>
-      <c r="L81" t="s">
-        <v>242</v>
-      </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B82" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C82" t="b">
         <v>0</v>
@@ -4895,13 +4891,13 @@
         <v>4</v>
       </c>
       <c r="G82" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H82" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I82" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="J82">
         <v>3</v>
@@ -4910,15 +4906,15 @@
         <v>0</v>
       </c>
       <c r="L82" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B83" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
@@ -4933,51 +4929,51 @@
         <v>4</v>
       </c>
       <c r="G83" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="H83" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I83" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J83">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K83" t="b">
         <v>0</v>
       </c>
       <c r="L83" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>321</v>
+        <v>214</v>
       </c>
       <c r="B84" t="s">
-        <v>322</v>
+        <v>215</v>
       </c>
       <c r="C84" t="b">
         <v>0</v>
       </c>
       <c r="D84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G84" t="s">
-        <v>323</v>
+        <v>250</v>
       </c>
       <c r="H84" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="I84" t="s">
-        <v>325</v>
+        <v>217</v>
       </c>
       <c r="J84">
         <v>5</v>
@@ -4985,10 +4981,13 @@
       <c r="K84" t="b">
         <v>0</v>
       </c>
+      <c r="L84" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B85" t="s">
         <v>322</v>
@@ -4997,25 +4996,25 @@
         <v>0</v>
       </c>
       <c r="D85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G85" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H85" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I85" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J85">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K85" t="b">
         <v>0</v>
@@ -5023,31 +5022,34 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>438</v>
+        <v>326</v>
       </c>
       <c r="B86" t="s">
         <v>322</v>
       </c>
       <c r="C86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="b">
         <v>1</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
       </c>
       <c r="G86" t="s">
         <v>327</v>
       </c>
       <c r="H86" t="s">
-        <v>439</v>
+        <v>328</v>
       </c>
       <c r="I86" t="s">
         <v>329</v>
       </c>
       <c r="J86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K86" t="b">
         <v>0</v>
@@ -5055,7 +5057,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B87" t="s">
         <v>322</v>
@@ -5073,7 +5075,7 @@
         <v>327</v>
       </c>
       <c r="H87" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="I87" t="s">
         <v>329</v>
@@ -5125,7 +5127,7 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B89" t="s">
         <v>331</v>
@@ -5140,13 +5142,13 @@
         <v>1</v>
       </c>
       <c r="G89" t="s">
+        <v>441</v>
+      </c>
+      <c r="H89" t="s">
+        <v>442</v>
+      </c>
+      <c r="I89" t="s">
         <v>443</v>
-      </c>
-      <c r="H89" t="s">
-        <v>444</v>
-      </c>
-      <c r="I89" t="s">
-        <v>445</v>
       </c>
       <c r="J89">
         <v>1</v>
@@ -5393,7 +5395,7 @@
         <v>432</v>
       </c>
       <c r="B97" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C97" t="b">
         <v>1</v>
@@ -5422,28 +5424,28 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
+        <v>444</v>
+      </c>
+      <c r="B98" t="s">
+        <v>448</v>
+      </c>
+      <c r="C98" t="b">
+        <v>1</v>
+      </c>
+      <c r="D98" t="b">
+        <v>0</v>
+      </c>
+      <c r="E98" t="b">
+        <v>1</v>
+      </c>
+      <c r="G98" t="s">
+        <v>445</v>
+      </c>
+      <c r="H98" t="s">
         <v>446</v>
       </c>
-      <c r="B98" t="s">
-        <v>450</v>
-      </c>
-      <c r="C98" t="b">
-        <v>1</v>
-      </c>
-      <c r="D98" t="b">
-        <v>0</v>
-      </c>
-      <c r="E98" t="b">
-        <v>1</v>
-      </c>
-      <c r="G98" t="s">
+      <c r="I98" t="s">
         <v>447</v>
-      </c>
-      <c r="H98" t="s">
-        <v>448</v>
-      </c>
-      <c r="I98" t="s">
-        <v>449</v>
       </c>
       <c r="J98">
         <v>1</v>
@@ -5454,28 +5456,28 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
+        <v>460</v>
+      </c>
+      <c r="B99" t="s">
+        <v>461</v>
+      </c>
+      <c r="C99" t="b">
+        <v>1</v>
+      </c>
+      <c r="D99" t="b">
+        <v>0</v>
+      </c>
+      <c r="E99" t="b">
+        <v>1</v>
+      </c>
+      <c r="G99" t="s">
         <v>462</v>
       </c>
-      <c r="B99" t="s">
+      <c r="H99" t="s">
         <v>463</v>
       </c>
-      <c r="C99" t="b">
-        <v>1</v>
-      </c>
-      <c r="D99" t="b">
-        <v>0</v>
-      </c>
-      <c r="E99" t="b">
-        <v>1</v>
-      </c>
-      <c r="G99" t="s">
+      <c r="I99" t="s">
         <v>464</v>
-      </c>
-      <c r="H99" t="s">
-        <v>465</v>
-      </c>
-      <c r="I99" t="s">
-        <v>466</v>
       </c>
       <c r="J99">
         <v>1</v>
@@ -5665,7 +5667,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>438</v>
+        <v>466</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -5703,79 +5705,79 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B17">
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B18">
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B19">
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B20">
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B21">
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B22">
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB4D297-ED0A-48BA-B58A-0466D017CE70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0719194-2F15-4B81-8DD2-7014223F517B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="471">
   <si>
     <t>levelPackId|String</t>
   </si>
@@ -1401,12 +1401,6 @@
     <t>Actor1108</t>
   </si>
   <si>
-    <t>ImmortalWillBetterRockElemental</t>
-  </si>
-  <si>
-    <t>LevelPackUIName_ImmortalWillBetterRockElemental</t>
-  </si>
-  <si>
     <t>Actor2120</t>
   </si>
   <si>
@@ -1438,6 +1432,21 @@
   </si>
   <si>
     <t>LevelPackUIName_CritBetterAngelicWarrior</t>
+  </si>
+  <si>
+    <t>Actor3117</t>
+  </si>
+  <si>
+    <t>ReduceDmgProjectileBetterRockElemental</t>
+  </si>
+  <si>
+    <t>ImmortalWillBetterKachujin</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_ReduceDmgProjectileBetterRockElemental</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_ImmortalWillBetterKachujin</t>
   </si>
 </sst>
 </file>
@@ -2005,9 +2014,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
-  <dimension ref="A1:M99"/>
+  <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2443,7 +2452,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B13" t="s">
         <v>86</v>
@@ -2461,7 +2470,7 @@
         <v>91</v>
       </c>
       <c r="H13" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="I13" t="s">
         <v>93</v>
@@ -2749,45 +2758,39 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>266</v>
+        <v>467</v>
       </c>
       <c r="B22" t="s">
-        <v>267</v>
+        <v>114</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H22" t="s">
-        <v>269</v>
+        <v>469</v>
       </c>
       <c r="I22" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="J22">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
-      </c>
-      <c r="M22">
-        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B23" t="s">
         <v>267</v>
@@ -2796,22 +2799,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H23" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I23" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="J23">
         <v>9</v>
@@ -2825,31 +2828,31 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>271</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>267</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>120</v>
+        <v>272</v>
       </c>
       <c r="H24" t="s">
-        <v>121</v>
+        <v>273</v>
       </c>
       <c r="I24" t="s">
-        <v>122</v>
+        <v>274</v>
       </c>
       <c r="J24">
         <v>9</v>
@@ -2858,12 +2861,12 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>275</v>
+        <v>118</v>
       </c>
       <c r="B25" t="s">
         <v>119</v>
@@ -2872,22 +2875,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s">
-        <v>276</v>
+        <v>120</v>
       </c>
       <c r="H25" t="s">
-        <v>277</v>
+        <v>121</v>
       </c>
       <c r="I25" t="s">
-        <v>278</v>
+        <v>122</v>
       </c>
       <c r="J25">
         <v>9</v>
@@ -2901,31 +2904,31 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B26" t="s">
-        <v>280</v>
+        <v>119</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G26" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H26" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="I26" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="J26">
         <v>9</v>
@@ -2934,12 +2937,12 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B27" t="s">
         <v>280</v>
@@ -2948,22 +2951,22 @@
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H27" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="I27" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="J27">
         <v>9</v>
@@ -2977,10 +2980,10 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B28" t="s">
-        <v>173</v>
+        <v>280</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
@@ -2992,30 +2995,33 @@
         <v>1</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H28" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I28" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J28">
+        <v>9</v>
+      </c>
+      <c r="K28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28">
         <v>3</v>
-      </c>
-      <c r="K28" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B29" t="s">
-        <v>293</v>
+        <v>173</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -3030,13 +3036,13 @@
         <v>4</v>
       </c>
       <c r="G29" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H29" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="I29" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="J29">
         <v>3</v>
@@ -3047,31 +3053,31 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>292</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
+        <v>293</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>294</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>295</v>
       </c>
       <c r="I30" t="s">
-        <v>15</v>
+        <v>296</v>
       </c>
       <c r="J30">
         <v>3</v>
@@ -3079,13 +3085,10 @@
       <c r="K30" t="b">
         <v>0</v>
       </c>
-      <c r="M30">
-        <v>4</v>
-      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>297</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
         <v>123</v>
@@ -3094,22 +3097,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G31" t="s">
-        <v>298</v>
+        <v>13</v>
       </c>
       <c r="H31" t="s">
-        <v>299</v>
+        <v>14</v>
       </c>
       <c r="I31" t="s">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -3123,31 +3126,31 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>297</v>
       </c>
       <c r="B32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G32" t="s">
-        <v>17</v>
+        <v>298</v>
       </c>
       <c r="H32" t="s">
-        <v>18</v>
+        <v>299</v>
       </c>
       <c r="I32" t="s">
-        <v>19</v>
+        <v>300</v>
       </c>
       <c r="J32">
         <v>3</v>
@@ -3156,12 +3159,12 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>301</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
         <v>124</v>
@@ -3170,22 +3173,22 @@
         <v>0</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G33" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="H33" t="s">
-        <v>303</v>
+        <v>18</v>
       </c>
       <c r="I33" t="s">
-        <v>304</v>
+        <v>19</v>
       </c>
       <c r="J33">
         <v>3</v>
@@ -3199,31 +3202,31 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>301</v>
       </c>
       <c r="B34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G34" t="s">
-        <v>21</v>
+        <v>302</v>
       </c>
       <c r="H34" t="s">
-        <v>22</v>
+        <v>303</v>
       </c>
       <c r="I34" t="s">
-        <v>23</v>
+        <v>304</v>
       </c>
       <c r="J34">
         <v>3</v>
@@ -3231,10 +3234,13 @@
       <c r="K34" t="b">
         <v>0</v>
       </c>
+      <c r="M34">
+        <v>7</v>
+      </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>305</v>
+        <v>20</v>
       </c>
       <c r="B35" t="s">
         <v>125</v>
@@ -3243,22 +3249,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G35" t="s">
-        <v>306</v>
+        <v>21</v>
       </c>
       <c r="H35" t="s">
-        <v>307</v>
+        <v>22</v>
       </c>
       <c r="I35" t="s">
-        <v>308</v>
+        <v>23</v>
       </c>
       <c r="J35">
         <v>3</v>
@@ -3269,31 +3275,34 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>305</v>
       </c>
       <c r="B36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="b">
         <v>1</v>
       </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
       <c r="G36" t="s">
-        <v>25</v>
+        <v>306</v>
       </c>
       <c r="H36" t="s">
-        <v>26</v>
+        <v>307</v>
       </c>
       <c r="I36" t="s">
-        <v>27</v>
+        <v>308</v>
       </c>
       <c r="J36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K36" t="b">
         <v>0</v>
@@ -3301,7 +3310,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>338</v>
+        <v>24</v>
       </c>
       <c r="B37" t="s">
         <v>126</v>
@@ -3325,7 +3334,7 @@
         <v>27</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
@@ -3333,10 +3342,10 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>338</v>
       </c>
       <c r="B38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
@@ -3348,16 +3357,16 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H38" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I38" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K38" t="b">
         <v>0</v>
@@ -3365,7 +3374,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>345</v>
+        <v>28</v>
       </c>
       <c r="B39" t="s">
         <v>127</v>
@@ -3380,16 +3389,16 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>349</v>
+        <v>29</v>
       </c>
       <c r="H39" t="s">
-        <v>350</v>
+        <v>30</v>
       </c>
       <c r="I39" t="s">
-        <v>351</v>
+        <v>31</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K39" t="b">
         <v>0</v>
@@ -3397,10 +3406,10 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>345</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C40" t="b">
         <v>1</v>
@@ -3412,16 +3421,16 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>349</v>
       </c>
       <c r="H40" t="s">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="I40" t="s">
-        <v>35</v>
+        <v>351</v>
       </c>
       <c r="J40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K40" t="b">
         <v>0</v>
@@ -3429,10 +3438,10 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
@@ -3444,13 +3453,13 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H41" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I41" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J41">
         <v>2</v>
@@ -3461,7 +3470,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>366</v>
+        <v>36</v>
       </c>
       <c r="B42" t="s">
         <v>129</v>
@@ -3476,16 +3485,16 @@
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>367</v>
+        <v>37</v>
       </c>
       <c r="H42" t="s">
-        <v>368</v>
+        <v>38</v>
       </c>
       <c r="I42" t="s">
-        <v>369</v>
+        <v>39</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
@@ -3493,10 +3502,10 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>366</v>
       </c>
       <c r="B43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C43" t="b">
         <v>1</v>
@@ -3508,16 +3517,16 @@
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>41</v>
+        <v>367</v>
       </c>
       <c r="H43" t="s">
-        <v>42</v>
+        <v>368</v>
       </c>
       <c r="I43" t="s">
-        <v>43</v>
+        <v>369</v>
       </c>
       <c r="J43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K43" t="b">
         <v>0</v>
@@ -3525,10 +3534,10 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
@@ -3540,13 +3549,13 @@
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I44" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J44">
         <v>2</v>
@@ -3557,10 +3566,10 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C45" t="b">
         <v>1</v>
@@ -3572,13 +3581,13 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -3589,10 +3598,10 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C46" t="b">
         <v>1</v>
@@ -3604,13 +3613,13 @@
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H46" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I46" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J46">
         <v>2</v>
@@ -3621,7 +3630,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>364</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
         <v>133</v>
@@ -3645,7 +3654,7 @@
         <v>55</v>
       </c>
       <c r="J47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
@@ -3653,34 +3662,31 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>134</v>
+        <v>364</v>
       </c>
       <c r="B48" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
       </c>
       <c r="E48" t="b">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="H48" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="I48" t="s">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c r="J48">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
@@ -3688,7 +3694,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B49" t="s">
         <v>135</v>
@@ -3697,25 +3703,25 @@
         <v>0</v>
       </c>
       <c r="D49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G49" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H49" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I49" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J49">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
@@ -3723,34 +3729,34 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>386</v>
+        <v>139</v>
       </c>
       <c r="B50" t="s">
-        <v>387</v>
+        <v>135</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
       </c>
       <c r="D50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G50" t="s">
-        <v>388</v>
+        <v>140</v>
       </c>
       <c r="H50" t="s">
-        <v>389</v>
+        <v>141</v>
       </c>
       <c r="I50" t="s">
-        <v>390</v>
+        <v>142</v>
       </c>
       <c r="J50">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
@@ -3758,7 +3764,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B51" t="s">
         <v>387</v>
@@ -3767,25 +3773,25 @@
         <v>0</v>
       </c>
       <c r="D51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G51" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="H51" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="I51" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="J51">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
@@ -3793,45 +3799,42 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>147</v>
+        <v>391</v>
       </c>
       <c r="B52" t="s">
-        <v>148</v>
+        <v>387</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
       </c>
       <c r="D52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G52" t="s">
-        <v>223</v>
+        <v>392</v>
       </c>
       <c r="H52" t="s">
-        <v>149</v>
+        <v>393</v>
       </c>
       <c r="I52" t="s">
-        <v>150</v>
+        <v>394</v>
       </c>
       <c r="J52">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
-      </c>
-      <c r="L52" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B53" t="s">
         <v>148</v>
@@ -3840,25 +3843,25 @@
         <v>0</v>
       </c>
       <c r="D53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H53" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I53" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J53">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
@@ -3869,31 +3872,34 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>452</v>
+        <v>151</v>
       </c>
       <c r="B54" t="s">
         <v>148</v>
       </c>
       <c r="C54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="b">
         <v>1</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
       </c>
       <c r="G54" t="s">
         <v>224</v>
       </c>
       <c r="H54" t="s">
-        <v>453</v>
+        <v>152</v>
       </c>
       <c r="I54" t="s">
         <v>153</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
@@ -3904,42 +3910,42 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>154</v>
+        <v>452</v>
       </c>
       <c r="B55" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
       </c>
       <c r="E55" t="b">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H55" t="s">
-        <v>156</v>
+        <v>453</v>
       </c>
       <c r="I55" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J55">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
+      </c>
+      <c r="L55" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B56" t="s">
         <v>155</v>
@@ -3948,25 +3954,25 @@
         <v>0</v>
       </c>
       <c r="D56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G56" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H56" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I56" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J56">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
@@ -3974,10 +3980,10 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B57" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
@@ -3989,16 +3995,16 @@
         <v>1</v>
       </c>
       <c r="F57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G57" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H57" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I57" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J57">
         <v>5</v>
@@ -4009,31 +4015,31 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B58" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
       </c>
       <c r="D58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G58" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H58" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I58" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J58">
         <v>5</v>
@@ -4044,7 +4050,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B59" t="s">
         <v>166</v>
@@ -4053,25 +4059,25 @@
         <v>0</v>
       </c>
       <c r="D59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G59" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H59" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I59" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J59">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
@@ -4079,34 +4085,34 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B60" t="s">
-        <v>309</v>
+        <v>166</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
       </c>
       <c r="D60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G60" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H60" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I60" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J60">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
@@ -4114,7 +4120,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B61" t="s">
         <v>309</v>
@@ -4123,25 +4129,25 @@
         <v>0</v>
       </c>
       <c r="D61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G61" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H61" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I61" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J61">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
@@ -4149,16 +4155,16 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>356</v>
+        <v>176</v>
       </c>
       <c r="B62" t="s">
         <v>309</v>
       </c>
       <c r="C62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" t="b">
         <v>1</v>
@@ -4170,13 +4176,13 @@
         <v>231</v>
       </c>
       <c r="H62" t="s">
-        <v>357</v>
+        <v>177</v>
       </c>
       <c r="I62" t="s">
         <v>178</v>
       </c>
       <c r="J62">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
@@ -4184,45 +4190,42 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="B63" t="s">
-        <v>396</v>
+        <v>309</v>
       </c>
       <c r="C63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" t="b">
         <v>0</v>
       </c>
       <c r="E63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G63" t="s">
-        <v>397</v>
+        <v>231</v>
       </c>
       <c r="H63" t="s">
-        <v>398</v>
+        <v>357</v>
       </c>
       <c r="I63" t="s">
-        <v>399</v>
+        <v>178</v>
       </c>
       <c r="J63">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K63" t="b">
         <v>0</v>
-      </c>
-      <c r="M63">
-        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B64" t="s">
         <v>396</v>
@@ -4231,25 +4234,25 @@
         <v>0</v>
       </c>
       <c r="D64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G64" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="H64" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="I64" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="J64">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
@@ -4260,45 +4263,45 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B65" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
       </c>
       <c r="D65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G65" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="H65" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="I65" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="J65">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K65" t="b">
         <v>0</v>
       </c>
       <c r="M65">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B66" t="s">
         <v>405</v>
@@ -4307,25 +4310,25 @@
         <v>0</v>
       </c>
       <c r="D66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G66" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H66" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="I66" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="J66">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K66" t="b">
         <v>0</v>
@@ -4336,31 +4339,31 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>179</v>
+        <v>409</v>
       </c>
       <c r="B67" t="s">
-        <v>180</v>
+        <v>405</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>
       </c>
       <c r="D67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G67" t="s">
-        <v>232</v>
+        <v>410</v>
       </c>
       <c r="H67" t="s">
-        <v>181</v>
+        <v>411</v>
       </c>
       <c r="I67" t="s">
-        <v>182</v>
+        <v>412</v>
       </c>
       <c r="J67">
         <v>5</v>
@@ -4368,10 +4371,13 @@
       <c r="K67" t="b">
         <v>0</v>
       </c>
+      <c r="M67">
+        <v>2</v>
+      </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B68" t="s">
         <v>180</v>
@@ -4380,25 +4386,25 @@
         <v>0</v>
       </c>
       <c r="D68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H68" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I68" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J68">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K68" t="b">
         <v>0</v>
@@ -4406,34 +4412,34 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B69" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
       </c>
       <c r="D69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G69" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H69" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I69" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J69">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
@@ -4441,7 +4447,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B70" t="s">
         <v>187</v>
@@ -4450,25 +4456,25 @@
         <v>0</v>
       </c>
       <c r="D70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G70" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H70" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I70" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J70">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K70" t="b">
         <v>0</v>
@@ -4476,34 +4482,34 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B71" t="s">
-        <v>310</v>
+        <v>187</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
       </c>
       <c r="D71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G71" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H71" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I71" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J71">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K71" t="b">
         <v>0</v>
@@ -4511,7 +4517,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B72" t="s">
         <v>310</v>
@@ -4520,25 +4526,25 @@
         <v>0</v>
       </c>
       <c r="D72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G72" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H72" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I72" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J72">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K72" t="b">
         <v>0</v>
@@ -4546,31 +4552,34 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>455</v>
+        <v>196</v>
       </c>
       <c r="B73" t="s">
         <v>310</v>
       </c>
       <c r="C73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" t="b">
         <v>1</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
       </c>
       <c r="G73" t="s">
         <v>237</v>
       </c>
       <c r="H73" t="s">
-        <v>456</v>
+        <v>197</v>
       </c>
       <c r="I73" t="s">
         <v>198</v>
       </c>
       <c r="J73">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K73" t="b">
         <v>0</v>
@@ -4578,69 +4587,63 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>143</v>
+        <v>468</v>
       </c>
       <c r="B74" t="s">
-        <v>144</v>
+        <v>310</v>
       </c>
       <c r="C74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" t="b">
         <v>1</v>
       </c>
-      <c r="F74">
-        <v>4</v>
-      </c>
       <c r="G74" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="H74" t="s">
-        <v>145</v>
+        <v>470</v>
       </c>
       <c r="I74" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="J74">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K74" t="b">
         <v>0</v>
-      </c>
-      <c r="L74" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>413</v>
+        <v>143</v>
       </c>
       <c r="B75" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="C75" t="b">
         <v>0</v>
       </c>
       <c r="D75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G75" t="s">
-        <v>414</v>
+        <v>249</v>
       </c>
       <c r="H75" t="s">
-        <v>415</v>
+        <v>145</v>
       </c>
       <c r="I75" t="s">
-        <v>416</v>
+        <v>146</v>
       </c>
       <c r="J75">
         <v>5</v>
@@ -4648,54 +4651,54 @@
       <c r="K75" t="b">
         <v>0</v>
       </c>
-      <c r="M75">
-        <v>4</v>
+      <c r="L75" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>199</v>
+        <v>413</v>
       </c>
       <c r="B76" t="s">
-        <v>311</v>
+        <v>200</v>
       </c>
       <c r="C76" t="b">
         <v>0</v>
       </c>
       <c r="D76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76">
+        <v>100</v>
+      </c>
+      <c r="G76" t="s">
+        <v>414</v>
+      </c>
+      <c r="H76" t="s">
+        <v>415</v>
+      </c>
+      <c r="I76" t="s">
+        <v>416</v>
+      </c>
+      <c r="J76">
+        <v>5</v>
+      </c>
+      <c r="K76" t="b">
+        <v>0</v>
+      </c>
+      <c r="M76">
         <v>4</v>
-      </c>
-      <c r="G76" t="s">
-        <v>238</v>
-      </c>
-      <c r="H76" t="s">
-        <v>201</v>
-      </c>
-      <c r="I76" t="s">
-        <v>202</v>
-      </c>
-      <c r="J76">
-        <v>3</v>
-      </c>
-      <c r="K76" t="b">
-        <v>0</v>
-      </c>
-      <c r="L76" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>312</v>
+        <v>199</v>
       </c>
       <c r="B77" t="s">
-        <v>417</v>
+        <v>311</v>
       </c>
       <c r="C77" t="b">
         <v>0</v>
@@ -4710,13 +4713,13 @@
         <v>4</v>
       </c>
       <c r="G77" t="s">
-        <v>313</v>
+        <v>238</v>
       </c>
       <c r="H77" t="s">
-        <v>314</v>
+        <v>201</v>
       </c>
       <c r="I77" t="s">
-        <v>315</v>
+        <v>202</v>
       </c>
       <c r="J77">
         <v>3</v>
@@ -4730,10 +4733,10 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>251</v>
+        <v>312</v>
       </c>
       <c r="B78" t="s">
-        <v>222</v>
+        <v>417</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
@@ -4748,13 +4751,13 @@
         <v>4</v>
       </c>
       <c r="G78" t="s">
-        <v>252</v>
+        <v>313</v>
       </c>
       <c r="H78" t="s">
-        <v>253</v>
+        <v>314</v>
       </c>
       <c r="I78" t="s">
-        <v>254</v>
+        <v>315</v>
       </c>
       <c r="J78">
         <v>3</v>
@@ -4763,47 +4766,50 @@
         <v>0</v>
       </c>
       <c r="L78" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="B79" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C79" t="b">
         <v>0</v>
       </c>
       <c r="D79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G79" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="H79" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="I79" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="J79">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K79" t="b">
         <v>0</v>
+      </c>
+      <c r="L79" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>316</v>
+        <v>218</v>
       </c>
       <c r="B80" t="s">
         <v>219</v>
@@ -4812,22 +4818,22 @@
         <v>0</v>
       </c>
       <c r="D80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G80" t="s">
-        <v>317</v>
+        <v>239</v>
       </c>
       <c r="H80" t="s">
-        <v>318</v>
+        <v>220</v>
       </c>
       <c r="I80" t="s">
-        <v>319</v>
+        <v>221</v>
       </c>
       <c r="J80">
         <v>5</v>
@@ -4838,10 +4844,10 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>203</v>
+        <v>316</v>
       </c>
       <c r="B81" t="s">
-        <v>320</v>
+        <v>219</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
@@ -4853,19 +4859,19 @@
         <v>1</v>
       </c>
       <c r="F81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G81" t="s">
-        <v>241</v>
+        <v>317</v>
       </c>
       <c r="H81" t="s">
-        <v>204</v>
+        <v>318</v>
       </c>
       <c r="I81" t="s">
-        <v>205</v>
+        <v>319</v>
       </c>
       <c r="J81">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K81" t="b">
         <v>0</v>
@@ -4873,10 +4879,10 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B82" t="s">
-        <v>207</v>
+        <v>320</v>
       </c>
       <c r="C82" t="b">
         <v>0</v>
@@ -4891,13 +4897,13 @@
         <v>4</v>
       </c>
       <c r="G82" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H82" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I82" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J82">
         <v>3</v>
@@ -4905,16 +4911,13 @@
       <c r="K82" t="b">
         <v>0</v>
       </c>
-      <c r="L82" t="s">
-        <v>242</v>
-      </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B83" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
@@ -4929,13 +4932,13 @@
         <v>4</v>
       </c>
       <c r="G83" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H83" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I83" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="J83">
         <v>3</v>
@@ -4944,15 +4947,15 @@
         <v>0</v>
       </c>
       <c r="L83" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B84" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C84" t="b">
         <v>0</v>
@@ -4967,51 +4970,51 @@
         <v>4</v>
       </c>
       <c r="G84" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="H84" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I84" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J84">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K84" t="b">
         <v>0</v>
       </c>
       <c r="L84" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>321</v>
+        <v>214</v>
       </c>
       <c r="B85" t="s">
-        <v>322</v>
+        <v>215</v>
       </c>
       <c r="C85" t="b">
         <v>0</v>
       </c>
       <c r="D85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G85" t="s">
-        <v>323</v>
+        <v>250</v>
       </c>
       <c r="H85" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="I85" t="s">
-        <v>325</v>
+        <v>217</v>
       </c>
       <c r="J85">
         <v>5</v>
@@ -5019,10 +5022,13 @@
       <c r="K85" t="b">
         <v>0</v>
       </c>
+      <c r="L85" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B86" t="s">
         <v>322</v>
@@ -5031,25 +5037,25 @@
         <v>0</v>
       </c>
       <c r="D86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G86" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H86" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I86" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J86">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K86" t="b">
         <v>0</v>
@@ -5057,31 +5063,34 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>458</v>
+        <v>326</v>
       </c>
       <c r="B87" t="s">
         <v>322</v>
       </c>
       <c r="C87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" t="b">
         <v>1</v>
+      </c>
+      <c r="F87">
+        <v>2</v>
       </c>
       <c r="G87" t="s">
         <v>327</v>
       </c>
       <c r="H87" t="s">
-        <v>459</v>
+        <v>328</v>
       </c>
       <c r="I87" t="s">
         <v>329</v>
       </c>
       <c r="J87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K87" t="b">
         <v>0</v>
@@ -5089,104 +5098,101 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>330</v>
+        <v>456</v>
       </c>
       <c r="B88" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" t="b">
         <v>0</v>
       </c>
       <c r="E88" t="b">
-        <v>0</v>
-      </c>
-      <c r="F88">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G88" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="H88" t="s">
-        <v>333</v>
+        <v>457</v>
       </c>
       <c r="I88" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="J88">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K88" t="b">
         <v>0</v>
-      </c>
-      <c r="M88">
-        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>440</v>
+        <v>330</v>
       </c>
       <c r="B89" t="s">
         <v>331</v>
       </c>
       <c r="C89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89" t="b">
         <v>0</v>
       </c>
       <c r="E89" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>100</v>
       </c>
       <c r="G89" t="s">
-        <v>441</v>
+        <v>332</v>
       </c>
       <c r="H89" t="s">
-        <v>442</v>
+        <v>333</v>
       </c>
       <c r="I89" t="s">
-        <v>443</v>
+        <v>334</v>
       </c>
       <c r="J89">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K89" t="b">
         <v>0</v>
+      </c>
+      <c r="M89">
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="B90" t="s">
-        <v>419</v>
+        <v>331</v>
       </c>
       <c r="C90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90" t="b">
         <v>0</v>
       </c>
       <c r="E90" t="b">
-        <v>0</v>
-      </c>
-      <c r="F90">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G90" t="s">
-        <v>420</v>
+        <v>441</v>
       </c>
       <c r="H90" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
       <c r="I90" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="J90">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K90" t="b">
         <v>0</v>
@@ -5194,7 +5200,7 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B91" t="s">
         <v>419</v>
@@ -5203,25 +5209,25 @@
         <v>0</v>
       </c>
       <c r="D91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G91" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H91" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="I91" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="J91">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K91" t="b">
         <v>0</v>
@@ -5229,34 +5235,34 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B92" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="C92" t="b">
         <v>0</v>
       </c>
       <c r="D92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G92" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="H92" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="I92" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="J92">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K92" t="b">
         <v>0</v>
@@ -5264,31 +5270,34 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>343</v>
+        <v>427</v>
       </c>
       <c r="B93" t="s">
-        <v>130</v>
+        <v>428</v>
       </c>
       <c r="C93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93" t="b">
         <v>0</v>
       </c>
       <c r="E93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>100</v>
       </c>
       <c r="G93" t="s">
-        <v>352</v>
+        <v>429</v>
       </c>
       <c r="H93" t="s">
-        <v>353</v>
+        <v>430</v>
       </c>
       <c r="I93" t="s">
-        <v>354</v>
+        <v>431</v>
       </c>
       <c r="J93">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K93" t="b">
         <v>0</v>
@@ -5296,7 +5305,7 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="B94" t="s">
         <v>130</v>
@@ -5311,13 +5320,13 @@
         <v>1</v>
       </c>
       <c r="G94" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="H94" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="I94" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="J94">
         <v>1</v>
@@ -5328,10 +5337,10 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="B95" t="s">
-        <v>375</v>
+        <v>130</v>
       </c>
       <c r="C95" t="b">
         <v>1</v>
@@ -5343,13 +5352,13 @@
         <v>1</v>
       </c>
       <c r="G95" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="H95" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="I95" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -5360,10 +5369,10 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B96" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C96" t="b">
         <v>1</v>
@@ -5375,13 +5384,13 @@
         <v>1</v>
       </c>
       <c r="G96" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H96" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="I96" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="J96">
         <v>1</v>
@@ -5392,10 +5401,10 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>432</v>
+        <v>376</v>
       </c>
       <c r="B97" t="s">
-        <v>438</v>
+        <v>380</v>
       </c>
       <c r="C97" t="b">
         <v>1</v>
@@ -5407,13 +5416,13 @@
         <v>1</v>
       </c>
       <c r="G97" t="s">
-        <v>433</v>
+        <v>377</v>
       </c>
       <c r="H97" t="s">
-        <v>434</v>
+        <v>378</v>
       </c>
       <c r="I97" t="s">
-        <v>435</v>
+        <v>379</v>
       </c>
       <c r="J97">
         <v>1</v>
@@ -5424,10 +5433,10 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="B98" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="C98" t="b">
         <v>1</v>
@@ -5439,13 +5448,13 @@
         <v>1</v>
       </c>
       <c r="G98" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="H98" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="I98" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="J98">
         <v>1</v>
@@ -5456,33 +5465,65 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
+        <v>444</v>
+      </c>
+      <c r="B99" t="s">
+        <v>448</v>
+      </c>
+      <c r="C99" t="b">
+        <v>1</v>
+      </c>
+      <c r="D99" t="b">
+        <v>0</v>
+      </c>
+      <c r="E99" t="b">
+        <v>1</v>
+      </c>
+      <c r="G99" t="s">
+        <v>445</v>
+      </c>
+      <c r="H99" t="s">
+        <v>446</v>
+      </c>
+      <c r="I99" t="s">
+        <v>447</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>458</v>
+      </c>
+      <c r="B100" t="s">
+        <v>459</v>
+      </c>
+      <c r="C100" t="b">
+        <v>1</v>
+      </c>
+      <c r="D100" t="b">
+        <v>0</v>
+      </c>
+      <c r="E100" t="b">
+        <v>1</v>
+      </c>
+      <c r="G100" t="s">
         <v>460</v>
       </c>
-      <c r="B99" t="s">
+      <c r="H100" t="s">
         <v>461</v>
       </c>
-      <c r="C99" t="b">
-        <v>1</v>
-      </c>
-      <c r="D99" t="b">
-        <v>0</v>
-      </c>
-      <c r="E99" t="b">
-        <v>1</v>
-      </c>
-      <c r="G99" t="s">
+      <c r="I100" t="s">
         <v>462</v>
       </c>
-      <c r="H99" t="s">
-        <v>463</v>
-      </c>
-      <c r="I99" t="s">
-        <v>464</v>
-      </c>
-      <c r="J99">
-        <v>1</v>
-      </c>
-      <c r="K99" t="b">
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5527,9 +5568,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6239E2D-40EA-4B45-8295-42B35BCC92F9}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5667,7 +5708,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -5749,35 +5790,46 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B20">
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B21">
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B22">
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>458</v>
+        <v>456</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>466</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>468</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0719194-2F15-4B81-8DD2-7014223F517B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456B5A9E-927B-4F64-9CE3-5BCB439F2412}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="473">
   <si>
     <t>levelPackId|String</t>
   </si>
@@ -1447,6 +1447,12 @@
   </si>
   <si>
     <t>LevelPackUIName_ImmortalWillBetterKachujin</t>
+  </si>
+  <si>
+    <t>AtkSpeedUpOnEncounterBetterGirlArcher</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_AtkSpeedUpOnEncounterBetterGirlArcher</t>
   </si>
 </sst>
 </file>
@@ -2014,9 +2020,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
-  <dimension ref="A1:M100"/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3692,7 +3698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>134</v>
       </c>
@@ -3727,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>139</v>
       </c>
@@ -3762,7 +3768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>386</v>
       </c>
@@ -3797,7 +3803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>391</v>
       </c>
@@ -3832,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>147</v>
       </c>
@@ -3870,7 +3876,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>151</v>
       </c>
@@ -3908,7 +3914,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>452</v>
       </c>
@@ -3943,44 +3949,44 @@
         <v>244</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>471</v>
+      </c>
+      <c r="B56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C56" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="b">
+        <v>1</v>
+      </c>
+      <c r="G56" t="s">
+        <v>224</v>
+      </c>
+      <c r="H56" t="s">
+        <v>472</v>
+      </c>
+      <c r="I56" t="s">
+        <v>153</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>154</v>
-      </c>
-      <c r="B56" t="s">
-        <v>155</v>
-      </c>
-      <c r="C56" t="b">
-        <v>0</v>
-      </c>
-      <c r="D56" t="b">
-        <v>0</v>
-      </c>
-      <c r="E56" t="b">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>100</v>
-      </c>
-      <c r="G56" t="s">
-        <v>225</v>
-      </c>
-      <c r="H56" t="s">
-        <v>156</v>
-      </c>
-      <c r="I56" t="s">
-        <v>157</v>
-      </c>
-      <c r="J56">
-        <v>9</v>
-      </c>
-      <c r="K56" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>158</v>
       </c>
       <c r="B57" t="s">
         <v>155</v>
@@ -3989,57 +3995,57 @@
         <v>0</v>
       </c>
       <c r="D57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
+        <v>100</v>
+      </c>
+      <c r="G57" t="s">
+        <v>225</v>
+      </c>
+      <c r="H57" t="s">
+        <v>156</v>
+      </c>
+      <c r="I57" t="s">
+        <v>157</v>
+      </c>
+      <c r="J57">
+        <v>9</v>
+      </c>
+      <c r="K57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>158</v>
+      </c>
+      <c r="B58" t="s">
+        <v>155</v>
+      </c>
+      <c r="C58" t="b">
+        <v>0</v>
+      </c>
+      <c r="D58" t="b">
+        <v>1</v>
+      </c>
+      <c r="E58" t="b">
+        <v>1</v>
+      </c>
+      <c r="F58">
         <v>2</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G58" t="s">
         <v>226</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H58" t="s">
         <v>159</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I58" t="s">
         <v>160</v>
-      </c>
-      <c r="J57">
-        <v>5</v>
-      </c>
-      <c r="K57" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>161</v>
-      </c>
-      <c r="B58" t="s">
-        <v>162</v>
-      </c>
-      <c r="C58" t="b">
-        <v>0</v>
-      </c>
-      <c r="D58" t="b">
-        <v>1</v>
-      </c>
-      <c r="E58" t="b">
-        <v>1</v>
-      </c>
-      <c r="F58">
-        <v>4</v>
-      </c>
-      <c r="G58" t="s">
-        <v>227</v>
-      </c>
-      <c r="H58" t="s">
-        <v>163</v>
-      </c>
-      <c r="I58" t="s">
-        <v>164</v>
       </c>
       <c r="J58">
         <v>5</v>
@@ -4048,33 +4054,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B59" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
       </c>
       <c r="D59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H59" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I59" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J59">
         <v>5</v>
@@ -4083,9 +4089,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B60" t="s">
         <v>166</v>
@@ -4094,68 +4100,68 @@
         <v>0</v>
       </c>
       <c r="D60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
+        <v>100</v>
+      </c>
+      <c r="G60" t="s">
+        <v>228</v>
+      </c>
+      <c r="H60" t="s">
+        <v>167</v>
+      </c>
+      <c r="I60" t="s">
+        <v>168</v>
+      </c>
+      <c r="J60">
+        <v>5</v>
+      </c>
+      <c r="K60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>169</v>
+      </c>
+      <c r="B61" t="s">
+        <v>166</v>
+      </c>
+      <c r="C61" t="b">
+        <v>0</v>
+      </c>
+      <c r="D61" t="b">
+        <v>1</v>
+      </c>
+      <c r="E61" t="b">
+        <v>1</v>
+      </c>
+      <c r="F61">
         <v>2</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G61" t="s">
         <v>229</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H61" t="s">
         <v>170</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I61" t="s">
         <v>171</v>
       </c>
-      <c r="J60">
+      <c r="J61">
         <v>3</v>
       </c>
-      <c r="K60" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="K61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>172</v>
-      </c>
-      <c r="B61" t="s">
-        <v>309</v>
-      </c>
-      <c r="C61" t="b">
-        <v>0</v>
-      </c>
-      <c r="D61" t="b">
-        <v>0</v>
-      </c>
-      <c r="E61" t="b">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>100</v>
-      </c>
-      <c r="G61" t="s">
-        <v>230</v>
-      </c>
-      <c r="H61" t="s">
-        <v>174</v>
-      </c>
-      <c r="I61" t="s">
-        <v>175</v>
-      </c>
-      <c r="J61">
-        <v>9</v>
-      </c>
-      <c r="K61" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>176</v>
       </c>
       <c r="B62" t="s">
         <v>309</v>
@@ -4164,42 +4170,42 @@
         <v>0</v>
       </c>
       <c r="D62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G62" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H62" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I62" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J62">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>356</v>
+        <v>176</v>
       </c>
       <c r="B63" t="s">
         <v>309</v>
       </c>
       <c r="C63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="b">
         <v>1</v>
@@ -4211,59 +4217,56 @@
         <v>231</v>
       </c>
       <c r="H63" t="s">
-        <v>357</v>
+        <v>177</v>
       </c>
       <c r="I63" t="s">
         <v>178</v>
       </c>
       <c r="J63">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K63" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="B64" t="s">
-        <v>396</v>
+        <v>309</v>
       </c>
       <c r="C64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
       </c>
       <c r="E64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G64" t="s">
-        <v>397</v>
+        <v>231</v>
       </c>
       <c r="H64" t="s">
-        <v>398</v>
+        <v>357</v>
       </c>
       <c r="I64" t="s">
-        <v>399</v>
+        <v>178</v>
       </c>
       <c r="J64">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
-      </c>
-      <c r="M64">
-        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B65" t="s">
         <v>396</v>
@@ -4272,25 +4275,25 @@
         <v>0</v>
       </c>
       <c r="D65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G65" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="H65" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="I65" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="J65">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K65" t="b">
         <v>0</v>
@@ -4301,45 +4304,45 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B66" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C66" t="b">
         <v>0</v>
       </c>
       <c r="D66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G66" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="H66" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="I66" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="J66">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K66" t="b">
         <v>0</v>
       </c>
       <c r="M66">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B67" t="s">
         <v>405</v>
@@ -4348,25 +4351,25 @@
         <v>0</v>
       </c>
       <c r="D67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G67" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H67" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="I67" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="J67">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
@@ -4377,31 +4380,31 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>179</v>
+        <v>409</v>
       </c>
       <c r="B68" t="s">
-        <v>180</v>
+        <v>405</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
       </c>
       <c r="D68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G68" t="s">
-        <v>232</v>
+        <v>410</v>
       </c>
       <c r="H68" t="s">
-        <v>181</v>
+        <v>411</v>
       </c>
       <c r="I68" t="s">
-        <v>182</v>
+        <v>412</v>
       </c>
       <c r="J68">
         <v>5</v>
@@ -4409,10 +4412,13 @@
       <c r="K68" t="b">
         <v>0</v>
       </c>
+      <c r="M68">
+        <v>2</v>
+      </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B69" t="s">
         <v>180</v>
@@ -4421,25 +4427,25 @@
         <v>0</v>
       </c>
       <c r="D69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H69" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I69" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J69">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
@@ -4447,34 +4453,34 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B70" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
       </c>
       <c r="D70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G70" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H70" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I70" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J70">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K70" t="b">
         <v>0</v>
@@ -4482,7 +4488,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B71" t="s">
         <v>187</v>
@@ -4491,25 +4497,25 @@
         <v>0</v>
       </c>
       <c r="D71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G71" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H71" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I71" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J71">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K71" t="b">
         <v>0</v>
@@ -4517,34 +4523,34 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B72" t="s">
-        <v>310</v>
+        <v>187</v>
       </c>
       <c r="C72" t="b">
         <v>0</v>
       </c>
       <c r="D72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G72" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H72" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I72" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J72">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K72" t="b">
         <v>0</v>
@@ -4552,7 +4558,7 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B73" t="s">
         <v>310</v>
@@ -4561,25 +4567,25 @@
         <v>0</v>
       </c>
       <c r="D73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G73" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H73" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I73" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J73">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K73" t="b">
         <v>0</v>
@@ -4587,31 +4593,34 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>468</v>
+        <v>196</v>
       </c>
       <c r="B74" t="s">
         <v>310</v>
       </c>
       <c r="C74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="b">
         <v>1</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
       </c>
       <c r="G74" t="s">
         <v>237</v>
       </c>
       <c r="H74" t="s">
-        <v>470</v>
+        <v>197</v>
       </c>
       <c r="I74" t="s">
         <v>198</v>
       </c>
       <c r="J74">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K74" t="b">
         <v>0</v>
@@ -4619,69 +4628,63 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>143</v>
+        <v>468</v>
       </c>
       <c r="B75" t="s">
-        <v>144</v>
+        <v>310</v>
       </c>
       <c r="C75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" t="b">
         <v>1</v>
       </c>
-      <c r="F75">
-        <v>4</v>
-      </c>
       <c r="G75" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="H75" t="s">
-        <v>145</v>
+        <v>470</v>
       </c>
       <c r="I75" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="J75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K75" t="b">
         <v>0</v>
-      </c>
-      <c r="L75" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>413</v>
+        <v>143</v>
       </c>
       <c r="B76" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="C76" t="b">
         <v>0</v>
       </c>
       <c r="D76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G76" t="s">
-        <v>414</v>
+        <v>249</v>
       </c>
       <c r="H76" t="s">
-        <v>415</v>
+        <v>145</v>
       </c>
       <c r="I76" t="s">
-        <v>416</v>
+        <v>146</v>
       </c>
       <c r="J76">
         <v>5</v>
@@ -4689,54 +4692,54 @@
       <c r="K76" t="b">
         <v>0</v>
       </c>
-      <c r="M76">
-        <v>4</v>
+      <c r="L76" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>199</v>
+        <v>413</v>
       </c>
       <c r="B77" t="s">
-        <v>311</v>
+        <v>200</v>
       </c>
       <c r="C77" t="b">
         <v>0</v>
       </c>
       <c r="D77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77">
+        <v>100</v>
+      </c>
+      <c r="G77" t="s">
+        <v>414</v>
+      </c>
+      <c r="H77" t="s">
+        <v>415</v>
+      </c>
+      <c r="I77" t="s">
+        <v>416</v>
+      </c>
+      <c r="J77">
+        <v>5</v>
+      </c>
+      <c r="K77" t="b">
+        <v>0</v>
+      </c>
+      <c r="M77">
         <v>4</v>
-      </c>
-      <c r="G77" t="s">
-        <v>238</v>
-      </c>
-      <c r="H77" t="s">
-        <v>201</v>
-      </c>
-      <c r="I77" t="s">
-        <v>202</v>
-      </c>
-      <c r="J77">
-        <v>3</v>
-      </c>
-      <c r="K77" t="b">
-        <v>0</v>
-      </c>
-      <c r="L77" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>312</v>
+        <v>199</v>
       </c>
       <c r="B78" t="s">
-        <v>417</v>
+        <v>311</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
@@ -4751,13 +4754,13 @@
         <v>4</v>
       </c>
       <c r="G78" t="s">
-        <v>313</v>
+        <v>238</v>
       </c>
       <c r="H78" t="s">
-        <v>314</v>
+        <v>201</v>
       </c>
       <c r="I78" t="s">
-        <v>315</v>
+        <v>202</v>
       </c>
       <c r="J78">
         <v>3</v>
@@ -4771,10 +4774,10 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>251</v>
+        <v>312</v>
       </c>
       <c r="B79" t="s">
-        <v>222</v>
+        <v>417</v>
       </c>
       <c r="C79" t="b">
         <v>0</v>
@@ -4789,13 +4792,13 @@
         <v>4</v>
       </c>
       <c r="G79" t="s">
-        <v>252</v>
+        <v>313</v>
       </c>
       <c r="H79" t="s">
-        <v>253</v>
+        <v>314</v>
       </c>
       <c r="I79" t="s">
-        <v>254</v>
+        <v>315</v>
       </c>
       <c r="J79">
         <v>3</v>
@@ -4804,47 +4807,50 @@
         <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="B80" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
       </c>
       <c r="D80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G80" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="H80" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="I80" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="J80">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K80" t="b">
         <v>0</v>
+      </c>
+      <c r="L80" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>316</v>
+        <v>218</v>
       </c>
       <c r="B81" t="s">
         <v>219</v>
@@ -4853,22 +4859,22 @@
         <v>0</v>
       </c>
       <c r="D81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G81" t="s">
-        <v>317</v>
+        <v>239</v>
       </c>
       <c r="H81" t="s">
-        <v>318</v>
+        <v>220</v>
       </c>
       <c r="I81" t="s">
-        <v>319</v>
+        <v>221</v>
       </c>
       <c r="J81">
         <v>5</v>
@@ -4879,10 +4885,10 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>203</v>
+        <v>316</v>
       </c>
       <c r="B82" t="s">
-        <v>320</v>
+        <v>219</v>
       </c>
       <c r="C82" t="b">
         <v>0</v>
@@ -4894,19 +4900,19 @@
         <v>1</v>
       </c>
       <c r="F82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G82" t="s">
-        <v>241</v>
+        <v>317</v>
       </c>
       <c r="H82" t="s">
-        <v>204</v>
+        <v>318</v>
       </c>
       <c r="I82" t="s">
-        <v>205</v>
+        <v>319</v>
       </c>
       <c r="J82">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K82" t="b">
         <v>0</v>
@@ -4914,10 +4920,10 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B83" t="s">
-        <v>207</v>
+        <v>320</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
@@ -4932,13 +4938,13 @@
         <v>4</v>
       </c>
       <c r="G83" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H83" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I83" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J83">
         <v>3</v>
@@ -4946,16 +4952,13 @@
       <c r="K83" t="b">
         <v>0</v>
       </c>
-      <c r="L83" t="s">
-        <v>242</v>
-      </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B84" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C84" t="b">
         <v>0</v>
@@ -4970,13 +4973,13 @@
         <v>4</v>
       </c>
       <c r="G84" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H84" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I84" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="J84">
         <v>3</v>
@@ -4985,15 +4988,15 @@
         <v>0</v>
       </c>
       <c r="L84" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B85" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C85" t="b">
         <v>0</v>
@@ -5008,51 +5011,51 @@
         <v>4</v>
       </c>
       <c r="G85" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="H85" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I85" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J85">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K85" t="b">
         <v>0</v>
       </c>
       <c r="L85" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>321</v>
+        <v>214</v>
       </c>
       <c r="B86" t="s">
-        <v>322</v>
+        <v>215</v>
       </c>
       <c r="C86" t="b">
         <v>0</v>
       </c>
       <c r="D86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G86" t="s">
-        <v>323</v>
+        <v>250</v>
       </c>
       <c r="H86" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="I86" t="s">
-        <v>325</v>
+        <v>217</v>
       </c>
       <c r="J86">
         <v>5</v>
@@ -5060,10 +5063,13 @@
       <c r="K86" t="b">
         <v>0</v>
       </c>
+      <c r="L86" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B87" t="s">
         <v>322</v>
@@ -5072,25 +5078,25 @@
         <v>0</v>
       </c>
       <c r="D87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G87" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H87" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I87" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J87">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K87" t="b">
         <v>0</v>
@@ -5098,31 +5104,34 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>456</v>
+        <v>326</v>
       </c>
       <c r="B88" t="s">
         <v>322</v>
       </c>
       <c r="C88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" t="b">
         <v>1</v>
+      </c>
+      <c r="F88">
+        <v>2</v>
       </c>
       <c r="G88" t="s">
         <v>327</v>
       </c>
       <c r="H88" t="s">
-        <v>457</v>
+        <v>328</v>
       </c>
       <c r="I88" t="s">
         <v>329</v>
       </c>
       <c r="J88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K88" t="b">
         <v>0</v>
@@ -5130,104 +5139,101 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>330</v>
+        <v>456</v>
       </c>
       <c r="B89" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89" t="b">
         <v>0</v>
       </c>
       <c r="E89" t="b">
-        <v>0</v>
-      </c>
-      <c r="F89">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G89" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="H89" t="s">
-        <v>333</v>
+        <v>457</v>
       </c>
       <c r="I89" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="J89">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K89" t="b">
         <v>0</v>
-      </c>
-      <c r="M89">
-        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>440</v>
+        <v>330</v>
       </c>
       <c r="B90" t="s">
         <v>331</v>
       </c>
       <c r="C90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90" t="b">
         <v>0</v>
       </c>
       <c r="E90" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>100</v>
       </c>
       <c r="G90" t="s">
-        <v>441</v>
+        <v>332</v>
       </c>
       <c r="H90" t="s">
-        <v>442</v>
+        <v>333</v>
       </c>
       <c r="I90" t="s">
-        <v>443</v>
+        <v>334</v>
       </c>
       <c r="J90">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K90" t="b">
         <v>0</v>
+      </c>
+      <c r="M90">
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="B91" t="s">
-        <v>419</v>
+        <v>331</v>
       </c>
       <c r="C91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91" t="b">
         <v>0</v>
       </c>
       <c r="E91" t="b">
-        <v>0</v>
-      </c>
-      <c r="F91">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G91" t="s">
-        <v>420</v>
+        <v>441</v>
       </c>
       <c r="H91" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
       <c r="I91" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="J91">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K91" t="b">
         <v>0</v>
@@ -5235,7 +5241,7 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B92" t="s">
         <v>419</v>
@@ -5244,25 +5250,25 @@
         <v>0</v>
       </c>
       <c r="D92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G92" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H92" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="I92" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="J92">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K92" t="b">
         <v>0</v>
@@ -5270,34 +5276,34 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B93" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="C93" t="b">
         <v>0</v>
       </c>
       <c r="D93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G93" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="H93" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="I93" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="J93">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K93" t="b">
         <v>0</v>
@@ -5305,31 +5311,34 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>343</v>
+        <v>427</v>
       </c>
       <c r="B94" t="s">
-        <v>130</v>
+        <v>428</v>
       </c>
       <c r="C94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D94" t="b">
         <v>0</v>
       </c>
       <c r="E94" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>100</v>
       </c>
       <c r="G94" t="s">
-        <v>352</v>
+        <v>429</v>
       </c>
       <c r="H94" t="s">
-        <v>353</v>
+        <v>430</v>
       </c>
       <c r="I94" t="s">
-        <v>354</v>
+        <v>431</v>
       </c>
       <c r="J94">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K94" t="b">
         <v>0</v>
@@ -5337,7 +5346,7 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="B95" t="s">
         <v>130</v>
@@ -5352,13 +5361,13 @@
         <v>1</v>
       </c>
       <c r="G95" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="H95" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="I95" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -5369,10 +5378,10 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="B96" t="s">
-        <v>375</v>
+        <v>130</v>
       </c>
       <c r="C96" t="b">
         <v>1</v>
@@ -5384,13 +5393,13 @@
         <v>1</v>
       </c>
       <c r="G96" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="H96" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="I96" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="J96">
         <v>1</v>
@@ -5401,10 +5410,10 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B97" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C97" t="b">
         <v>1</v>
@@ -5416,13 +5425,13 @@
         <v>1</v>
       </c>
       <c r="G97" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H97" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="I97" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="J97">
         <v>1</v>
@@ -5433,10 +5442,10 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>432</v>
+        <v>376</v>
       </c>
       <c r="B98" t="s">
-        <v>438</v>
+        <v>380</v>
       </c>
       <c r="C98" t="b">
         <v>1</v>
@@ -5448,13 +5457,13 @@
         <v>1</v>
       </c>
       <c r="G98" t="s">
-        <v>433</v>
+        <v>377</v>
       </c>
       <c r="H98" t="s">
-        <v>434</v>
+        <v>378</v>
       </c>
       <c r="I98" t="s">
-        <v>435</v>
+        <v>379</v>
       </c>
       <c r="J98">
         <v>1</v>
@@ -5465,10 +5474,10 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="B99" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="C99" t="b">
         <v>1</v>
@@ -5480,13 +5489,13 @@
         <v>1</v>
       </c>
       <c r="G99" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="H99" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="I99" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="J99">
         <v>1</v>
@@ -5497,33 +5506,65 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
+        <v>444</v>
+      </c>
+      <c r="B100" t="s">
+        <v>448</v>
+      </c>
+      <c r="C100" t="b">
+        <v>1</v>
+      </c>
+      <c r="D100" t="b">
+        <v>0</v>
+      </c>
+      <c r="E100" t="b">
+        <v>1</v>
+      </c>
+      <c r="G100" t="s">
+        <v>445</v>
+      </c>
+      <c r="H100" t="s">
+        <v>446</v>
+      </c>
+      <c r="I100" t="s">
+        <v>447</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>458</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>459</v>
       </c>
-      <c r="C100" t="b">
-        <v>1</v>
-      </c>
-      <c r="D100" t="b">
-        <v>0</v>
-      </c>
-      <c r="E100" t="b">
-        <v>1</v>
-      </c>
-      <c r="G100" t="s">
+      <c r="C101" t="b">
+        <v>1</v>
+      </c>
+      <c r="D101" t="b">
+        <v>0</v>
+      </c>
+      <c r="E101" t="b">
+        <v>1</v>
+      </c>
+      <c r="G101" t="s">
         <v>460</v>
       </c>
-      <c r="H100" t="s">
+      <c r="H101" t="s">
         <v>461</v>
       </c>
-      <c r="I100" t="s">
+      <c r="I101" t="s">
         <v>462</v>
       </c>
-      <c r="J100">
-        <v>1</v>
-      </c>
-      <c r="K100" t="b">
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5568,9 +5609,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6239E2D-40EA-4B45-8295-42B35BCC92F9}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5672,21 +5715,21 @@
         <v>358</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>359</v>
+        <v>471</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -5694,65 +5737,65 @@
         <v>363</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>437</v>
+        <v>363</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>464</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>365</v>
+        <v>437</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>364</v>
+        <v>464</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>436</v>
+        <v>374</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>432</v>
+        <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -5760,54 +5803,54 @@
         <v>439</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -5815,20 +5858,31 @@
         <v>463</v>
       </c>
       <c r="B22">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>463</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>466</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>4</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>468</v>
       </c>
     </row>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456B5A9E-927B-4F64-9CE3-5BCB439F2412}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75832433-6D8E-43A4-B53F-33C2D7A0E2B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="481">
   <si>
     <t>levelPackId|String</t>
   </si>
@@ -1453,6 +1453,30 @@
   </si>
   <si>
     <t>LevelPackUIName_AtkSpeedUpOnEncounterBetterGirlArcher</t>
+  </si>
+  <si>
+    <t>AtkUpOnLowerHpBetterBladeFanDancer</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_AtkUpOnLowerHpBetterBladeFanDancer</t>
+  </si>
+  <si>
+    <t>Actor3231</t>
+  </si>
+  <si>
+    <t>EvadeBladeFanDancer</t>
+  </si>
+  <si>
+    <t>LP_EvadeBladeFanDancer</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_EvadeBladeFanDancer</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_EvadeBladeFanDancer</t>
+  </si>
+  <si>
+    <t>FlatSkill2_190_NoBG_Gray</t>
   </si>
 </sst>
 </file>
@@ -2020,9 +2044,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4245,9 +4269,6 @@
       <c r="E64" t="b">
         <v>1</v>
       </c>
-      <c r="F64">
-        <v>2</v>
-      </c>
       <c r="G64" t="s">
         <v>231</v>
       </c>
@@ -4266,45 +4287,39 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>395</v>
+        <v>473</v>
       </c>
       <c r="B65" t="s">
-        <v>396</v>
+        <v>309</v>
       </c>
       <c r="C65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" t="b">
         <v>0</v>
       </c>
       <c r="E65" t="b">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>397</v>
+        <v>231</v>
       </c>
       <c r="H65" t="s">
-        <v>398</v>
+        <v>474</v>
       </c>
       <c r="I65" t="s">
-        <v>399</v>
+        <v>178</v>
       </c>
       <c r="J65">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K65" t="b">
         <v>0</v>
-      </c>
-      <c r="M65">
-        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B66" t="s">
         <v>396</v>
@@ -4313,25 +4328,25 @@
         <v>0</v>
       </c>
       <c r="D66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G66" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="H66" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="I66" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="J66">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K66" t="b">
         <v>0</v>
@@ -4342,45 +4357,45 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B67" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>
       </c>
       <c r="D67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G67" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="H67" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="I67" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="J67">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
       </c>
       <c r="M67">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B68" t="s">
         <v>405</v>
@@ -4389,25 +4404,25 @@
         <v>0</v>
       </c>
       <c r="D68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G68" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H68" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="I68" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="J68">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K68" t="b">
         <v>0</v>
@@ -4418,31 +4433,31 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>179</v>
+        <v>409</v>
       </c>
       <c r="B69" t="s">
-        <v>180</v>
+        <v>405</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
       </c>
       <c r="D69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G69" t="s">
-        <v>232</v>
+        <v>410</v>
       </c>
       <c r="H69" t="s">
-        <v>181</v>
+        <v>411</v>
       </c>
       <c r="I69" t="s">
-        <v>182</v>
+        <v>412</v>
       </c>
       <c r="J69">
         <v>5</v>
@@ -4450,10 +4465,13 @@
       <c r="K69" t="b">
         <v>0</v>
       </c>
+      <c r="M69">
+        <v>2</v>
+      </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B70" t="s">
         <v>180</v>
@@ -4462,25 +4480,25 @@
         <v>0</v>
       </c>
       <c r="D70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G70" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H70" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I70" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J70">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K70" t="b">
         <v>0</v>
@@ -4488,34 +4506,34 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B71" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
       </c>
       <c r="D71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G71" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H71" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I71" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J71">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K71" t="b">
         <v>0</v>
@@ -4523,7 +4541,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B72" t="s">
         <v>187</v>
@@ -4532,25 +4550,25 @@
         <v>0</v>
       </c>
       <c r="D72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G72" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H72" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I72" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J72">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K72" t="b">
         <v>0</v>
@@ -4558,34 +4576,34 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B73" t="s">
-        <v>310</v>
+        <v>187</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
       </c>
       <c r="D73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G73" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H73" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I73" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J73">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K73" t="b">
         <v>0</v>
@@ -4593,7 +4611,7 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B74" t="s">
         <v>310</v>
@@ -4602,25 +4620,25 @@
         <v>0</v>
       </c>
       <c r="D74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G74" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H74" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I74" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J74">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K74" t="b">
         <v>0</v>
@@ -4628,31 +4646,34 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>468</v>
+        <v>196</v>
       </c>
       <c r="B75" t="s">
         <v>310</v>
       </c>
       <c r="C75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="b">
         <v>1</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
       </c>
       <c r="G75" t="s">
         <v>237</v>
       </c>
       <c r="H75" t="s">
-        <v>470</v>
+        <v>197</v>
       </c>
       <c r="I75" t="s">
         <v>198</v>
       </c>
       <c r="J75">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K75" t="b">
         <v>0</v>
@@ -4660,69 +4681,63 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>143</v>
+        <v>468</v>
       </c>
       <c r="B76" t="s">
-        <v>144</v>
+        <v>310</v>
       </c>
       <c r="C76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
-      <c r="F76">
-        <v>4</v>
-      </c>
       <c r="G76" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="H76" t="s">
-        <v>145</v>
+        <v>470</v>
       </c>
       <c r="I76" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="J76">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K76" t="b">
         <v>0</v>
-      </c>
-      <c r="L76" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>413</v>
+        <v>143</v>
       </c>
       <c r="B77" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="C77" t="b">
         <v>0</v>
       </c>
       <c r="D77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G77" t="s">
-        <v>414</v>
+        <v>249</v>
       </c>
       <c r="H77" t="s">
-        <v>415</v>
+        <v>145</v>
       </c>
       <c r="I77" t="s">
-        <v>416</v>
+        <v>146</v>
       </c>
       <c r="J77">
         <v>5</v>
@@ -4730,54 +4745,54 @@
       <c r="K77" t="b">
         <v>0</v>
       </c>
-      <c r="M77">
-        <v>4</v>
+      <c r="L77" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>199</v>
+        <v>413</v>
       </c>
       <c r="B78" t="s">
-        <v>311</v>
+        <v>200</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
       </c>
       <c r="D78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78">
+        <v>100</v>
+      </c>
+      <c r="G78" t="s">
+        <v>414</v>
+      </c>
+      <c r="H78" t="s">
+        <v>415</v>
+      </c>
+      <c r="I78" t="s">
+        <v>416</v>
+      </c>
+      <c r="J78">
+        <v>5</v>
+      </c>
+      <c r="K78" t="b">
+        <v>0</v>
+      </c>
+      <c r="M78">
         <v>4</v>
-      </c>
-      <c r="G78" t="s">
-        <v>238</v>
-      </c>
-      <c r="H78" t="s">
-        <v>201</v>
-      </c>
-      <c r="I78" t="s">
-        <v>202</v>
-      </c>
-      <c r="J78">
-        <v>3</v>
-      </c>
-      <c r="K78" t="b">
-        <v>0</v>
-      </c>
-      <c r="L78" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>312</v>
+        <v>199</v>
       </c>
       <c r="B79" t="s">
-        <v>417</v>
+        <v>311</v>
       </c>
       <c r="C79" t="b">
         <v>0</v>
@@ -4792,13 +4807,13 @@
         <v>4</v>
       </c>
       <c r="G79" t="s">
-        <v>313</v>
+        <v>238</v>
       </c>
       <c r="H79" t="s">
-        <v>314</v>
+        <v>201</v>
       </c>
       <c r="I79" t="s">
-        <v>315</v>
+        <v>202</v>
       </c>
       <c r="J79">
         <v>3</v>
@@ -4812,10 +4827,10 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>251</v>
+        <v>312</v>
       </c>
       <c r="B80" t="s">
-        <v>222</v>
+        <v>417</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
@@ -4830,13 +4845,13 @@
         <v>4</v>
       </c>
       <c r="G80" t="s">
-        <v>252</v>
+        <v>313</v>
       </c>
       <c r="H80" t="s">
-        <v>253</v>
+        <v>314</v>
       </c>
       <c r="I80" t="s">
-        <v>254</v>
+        <v>315</v>
       </c>
       <c r="J80">
         <v>3</v>
@@ -4845,47 +4860,50 @@
         <v>0</v>
       </c>
       <c r="L80" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="B81" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
       </c>
       <c r="D81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G81" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="H81" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="I81" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="J81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K81" t="b">
         <v>0</v>
+      </c>
+      <c r="L81" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>316</v>
+        <v>218</v>
       </c>
       <c r="B82" t="s">
         <v>219</v>
@@ -4894,22 +4912,22 @@
         <v>0</v>
       </c>
       <c r="D82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G82" t="s">
-        <v>317</v>
+        <v>239</v>
       </c>
       <c r="H82" t="s">
-        <v>318</v>
+        <v>220</v>
       </c>
       <c r="I82" t="s">
-        <v>319</v>
+        <v>221</v>
       </c>
       <c r="J82">
         <v>5</v>
@@ -4920,10 +4938,10 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>203</v>
+        <v>316</v>
       </c>
       <c r="B83" t="s">
-        <v>320</v>
+        <v>219</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
@@ -4935,19 +4953,19 @@
         <v>1</v>
       </c>
       <c r="F83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G83" t="s">
-        <v>241</v>
+        <v>317</v>
       </c>
       <c r="H83" t="s">
-        <v>204</v>
+        <v>318</v>
       </c>
       <c r="I83" t="s">
-        <v>205</v>
+        <v>319</v>
       </c>
       <c r="J83">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K83" t="b">
         <v>0</v>
@@ -4955,10 +4973,10 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B84" t="s">
-        <v>207</v>
+        <v>320</v>
       </c>
       <c r="C84" t="b">
         <v>0</v>
@@ -4973,13 +4991,13 @@
         <v>4</v>
       </c>
       <c r="G84" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H84" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I84" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J84">
         <v>3</v>
@@ -4987,16 +5005,13 @@
       <c r="K84" t="b">
         <v>0</v>
       </c>
-      <c r="L84" t="s">
-        <v>242</v>
-      </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B85" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C85" t="b">
         <v>0</v>
@@ -5011,13 +5026,13 @@
         <v>4</v>
       </c>
       <c r="G85" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H85" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I85" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="J85">
         <v>3</v>
@@ -5026,15 +5041,15 @@
         <v>0</v>
       </c>
       <c r="L85" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B86" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C86" t="b">
         <v>0</v>
@@ -5049,51 +5064,51 @@
         <v>4</v>
       </c>
       <c r="G86" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="H86" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I86" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J86">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K86" t="b">
         <v>0</v>
       </c>
       <c r="L86" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>321</v>
+        <v>214</v>
       </c>
       <c r="B87" t="s">
-        <v>322</v>
+        <v>215</v>
       </c>
       <c r="C87" t="b">
         <v>0</v>
       </c>
       <c r="D87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G87" t="s">
-        <v>323</v>
+        <v>250</v>
       </c>
       <c r="H87" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="I87" t="s">
-        <v>325</v>
+        <v>217</v>
       </c>
       <c r="J87">
         <v>5</v>
@@ -5101,10 +5116,13 @@
       <c r="K87" t="b">
         <v>0</v>
       </c>
+      <c r="L87" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B88" t="s">
         <v>322</v>
@@ -5113,25 +5131,25 @@
         <v>0</v>
       </c>
       <c r="D88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G88" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H88" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I88" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J88">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K88" t="b">
         <v>0</v>
@@ -5139,31 +5157,34 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>456</v>
+        <v>326</v>
       </c>
       <c r="B89" t="s">
         <v>322</v>
       </c>
       <c r="C89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" t="b">
         <v>1</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
       </c>
       <c r="G89" t="s">
         <v>327</v>
       </c>
       <c r="H89" t="s">
-        <v>457</v>
+        <v>328</v>
       </c>
       <c r="I89" t="s">
         <v>329</v>
       </c>
       <c r="J89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K89" t="b">
         <v>0</v>
@@ -5171,104 +5192,101 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>330</v>
+        <v>456</v>
       </c>
       <c r="B90" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90" t="b">
         <v>0</v>
       </c>
       <c r="E90" t="b">
-        <v>0</v>
-      </c>
-      <c r="F90">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G90" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="H90" t="s">
-        <v>333</v>
+        <v>457</v>
       </c>
       <c r="I90" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="J90">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K90" t="b">
         <v>0</v>
-      </c>
-      <c r="M90">
-        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>440</v>
+        <v>330</v>
       </c>
       <c r="B91" t="s">
         <v>331</v>
       </c>
       <c r="C91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91" t="b">
         <v>0</v>
       </c>
       <c r="E91" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>100</v>
       </c>
       <c r="G91" t="s">
-        <v>441</v>
+        <v>332</v>
       </c>
       <c r="H91" t="s">
-        <v>442</v>
+        <v>333</v>
       </c>
       <c r="I91" t="s">
-        <v>443</v>
+        <v>334</v>
       </c>
       <c r="J91">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K91" t="b">
         <v>0</v>
+      </c>
+      <c r="M91">
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="B92" t="s">
-        <v>419</v>
+        <v>331</v>
       </c>
       <c r="C92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92" t="b">
         <v>0</v>
       </c>
       <c r="E92" t="b">
-        <v>0</v>
-      </c>
-      <c r="F92">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G92" t="s">
-        <v>420</v>
+        <v>441</v>
       </c>
       <c r="H92" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
       <c r="I92" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="J92">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K92" t="b">
         <v>0</v>
@@ -5276,7 +5294,7 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B93" t="s">
         <v>419</v>
@@ -5285,25 +5303,25 @@
         <v>0</v>
       </c>
       <c r="D93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G93" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H93" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="I93" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="J93">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K93" t="b">
         <v>0</v>
@@ -5311,34 +5329,34 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B94" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="C94" t="b">
         <v>0</v>
       </c>
       <c r="D94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G94" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="H94" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="I94" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="J94">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K94" t="b">
         <v>0</v>
@@ -5346,31 +5364,34 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>343</v>
+        <v>427</v>
       </c>
       <c r="B95" t="s">
-        <v>130</v>
+        <v>428</v>
       </c>
       <c r="C95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95" t="b">
         <v>0</v>
       </c>
       <c r="E95" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>100</v>
       </c>
       <c r="G95" t="s">
-        <v>352</v>
+        <v>429</v>
       </c>
       <c r="H95" t="s">
-        <v>353</v>
+        <v>430</v>
       </c>
       <c r="I95" t="s">
-        <v>354</v>
+        <v>431</v>
       </c>
       <c r="J95">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K95" t="b">
         <v>0</v>
@@ -5378,7 +5399,7 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="B96" t="s">
         <v>130</v>
@@ -5393,13 +5414,13 @@
         <v>1</v>
       </c>
       <c r="G96" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="H96" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="I96" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="J96">
         <v>1</v>
@@ -5410,10 +5431,10 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="B97" t="s">
-        <v>375</v>
+        <v>130</v>
       </c>
       <c r="C97" t="b">
         <v>1</v>
@@ -5425,13 +5446,13 @@
         <v>1</v>
       </c>
       <c r="G97" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="H97" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="I97" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="J97">
         <v>1</v>
@@ -5442,10 +5463,10 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B98" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C98" t="b">
         <v>1</v>
@@ -5457,13 +5478,13 @@
         <v>1</v>
       </c>
       <c r="G98" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H98" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="I98" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="J98">
         <v>1</v>
@@ -5474,10 +5495,10 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>432</v>
+        <v>376</v>
       </c>
       <c r="B99" t="s">
-        <v>438</v>
+        <v>380</v>
       </c>
       <c r="C99" t="b">
         <v>1</v>
@@ -5489,13 +5510,13 @@
         <v>1</v>
       </c>
       <c r="G99" t="s">
-        <v>433</v>
+        <v>377</v>
       </c>
       <c r="H99" t="s">
-        <v>434</v>
+        <v>378</v>
       </c>
       <c r="I99" t="s">
-        <v>435</v>
+        <v>379</v>
       </c>
       <c r="J99">
         <v>1</v>
@@ -5506,10 +5527,10 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="B100" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="C100" t="b">
         <v>1</v>
@@ -5521,13 +5542,13 @@
         <v>1</v>
       </c>
       <c r="G100" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="H100" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="I100" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="J100">
         <v>1</v>
@@ -5538,33 +5559,97 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
+        <v>444</v>
+      </c>
+      <c r="B101" t="s">
+        <v>448</v>
+      </c>
+      <c r="C101" t="b">
+        <v>1</v>
+      </c>
+      <c r="D101" t="b">
+        <v>0</v>
+      </c>
+      <c r="E101" t="b">
+        <v>1</v>
+      </c>
+      <c r="G101" t="s">
+        <v>445</v>
+      </c>
+      <c r="H101" t="s">
+        <v>446</v>
+      </c>
+      <c r="I101" t="s">
+        <v>447</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>458</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B102" t="s">
         <v>459</v>
       </c>
-      <c r="C101" t="b">
-        <v>1</v>
-      </c>
-      <c r="D101" t="b">
-        <v>0</v>
-      </c>
-      <c r="E101" t="b">
-        <v>1</v>
-      </c>
-      <c r="G101" t="s">
+      <c r="C102" t="b">
+        <v>1</v>
+      </c>
+      <c r="D102" t="b">
+        <v>0</v>
+      </c>
+      <c r="E102" t="b">
+        <v>1</v>
+      </c>
+      <c r="G102" t="s">
         <v>460</v>
       </c>
-      <c r="H101" t="s">
+      <c r="H102" t="s">
         <v>461</v>
       </c>
-      <c r="I101" t="s">
+      <c r="I102" t="s">
         <v>462</v>
       </c>
-      <c r="J101">
-        <v>1</v>
-      </c>
-      <c r="K101" t="b">
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>476</v>
+      </c>
+      <c r="B103" t="s">
+        <v>480</v>
+      </c>
+      <c r="C103" t="b">
+        <v>1</v>
+      </c>
+      <c r="D103" t="b">
+        <v>0</v>
+      </c>
+      <c r="E103" t="b">
+        <v>1</v>
+      </c>
+      <c r="G103" t="s">
+        <v>477</v>
+      </c>
+      <c r="H103" t="s">
+        <v>478</v>
+      </c>
+      <c r="I103" t="s">
+        <v>479</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5609,11 +5694,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6239E2D-40EA-4B45-8295-42B35BCC92F9}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5886,6 +5969,28 @@
         <v>468</v>
       </c>
     </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>475</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>475</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>476</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75832433-6D8E-43A4-B53F-33C2D7A0E2B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C770C09-D150-4AEE-842E-173EAB495A75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="485">
   <si>
     <t>levelPackId|String</t>
   </si>
@@ -1477,6 +1477,18 @@
   </si>
   <si>
     <t>FlatSkill2_190_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>Actor1218</t>
+  </si>
+  <si>
+    <t>AtkBestMedea</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_AtkBestMedea</t>
+  </si>
+  <si>
+    <t>BounceWallQuadMedea</t>
   </si>
 </sst>
 </file>
@@ -2044,7 +2056,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
-  <dimension ref="A1:M103"/>
+  <dimension ref="A1:M105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2275,34 +2287,31 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>482</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H7" t="s">
-        <v>74</v>
+        <v>483</v>
       </c>
       <c r="I7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
@@ -2310,7 +2319,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
         <v>72</v>
@@ -2319,22 +2328,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J8">
         <v>9</v>
@@ -2345,31 +2354,34 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>340</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
         <v>72</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
       </c>
       <c r="G9" t="s">
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>348</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s">
         <v>79</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
@@ -2377,34 +2389,31 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
       <c r="G10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s">
-        <v>83</v>
+        <v>348</v>
       </c>
       <c r="I10" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
@@ -2412,34 +2421,34 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J11">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
@@ -2447,7 +2456,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
         <v>86</v>
@@ -2456,25 +2465,25 @@
         <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="G12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
@@ -2482,31 +2491,34 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>464</v>
+        <v>90</v>
       </c>
       <c r="B13" t="s">
         <v>86</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
       </c>
       <c r="G13" t="s">
         <v>91</v>
       </c>
       <c r="H13" t="s">
-        <v>465</v>
+        <v>92</v>
       </c>
       <c r="I13" t="s">
         <v>93</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
@@ -2514,34 +2526,31 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>464</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
       <c r="G14" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H14" t="s">
-        <v>97</v>
+        <v>465</v>
       </c>
       <c r="I14" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
@@ -2549,34 +2558,34 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H15" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I15" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J15">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
@@ -2584,7 +2593,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B16" t="s">
         <v>100</v>
@@ -2593,22 +2602,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="G16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J16">
         <v>9</v>
@@ -2619,31 +2628,34 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>449</v>
+        <v>104</v>
       </c>
       <c r="B17" t="s">
         <v>100</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
       </c>
       <c r="G17" t="s">
         <v>105</v>
       </c>
       <c r="H17" t="s">
-        <v>450</v>
+        <v>106</v>
       </c>
       <c r="I17" t="s">
         <v>107</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
@@ -2651,34 +2663,31 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>449</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
       <c r="G18" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H18" t="s">
-        <v>111</v>
+        <v>450</v>
       </c>
       <c r="I18" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
@@ -2686,28 +2695,31 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>381</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>382</v>
+        <v>109</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>383</v>
+        <v>110</v>
       </c>
       <c r="H19" t="s">
-        <v>384</v>
+        <v>111</v>
       </c>
       <c r="I19" t="s">
-        <v>385</v>
+        <v>112</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -2718,10 +2730,10 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>381</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>382</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -2732,20 +2744,17 @@
       <c r="E20" t="b">
         <v>0</v>
       </c>
-      <c r="F20">
-        <v>80</v>
-      </c>
       <c r="G20" t="s">
-        <v>115</v>
+        <v>383</v>
       </c>
       <c r="H20" t="s">
-        <v>116</v>
+        <v>384</v>
       </c>
       <c r="I20" t="s">
-        <v>117</v>
+        <v>385</v>
       </c>
       <c r="J20">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
@@ -2753,7 +2762,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>262</v>
+        <v>113</v>
       </c>
       <c r="B21" t="s">
         <v>114</v>
@@ -2762,22 +2771,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="G21" t="s">
-        <v>263</v>
+        <v>115</v>
       </c>
       <c r="H21" t="s">
-        <v>264</v>
+        <v>116</v>
       </c>
       <c r="I21" t="s">
-        <v>265</v>
+        <v>117</v>
       </c>
       <c r="J21">
         <v>9</v>
@@ -2788,31 +2797,34 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>467</v>
+        <v>262</v>
       </c>
       <c r="B22" t="s">
         <v>114</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
       </c>
       <c r="G22" t="s">
         <v>263</v>
       </c>
       <c r="H22" t="s">
-        <v>469</v>
+        <v>264</v>
       </c>
       <c r="I22" t="s">
         <v>265</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
@@ -2820,45 +2832,39 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>266</v>
+        <v>467</v>
       </c>
       <c r="B23" t="s">
-        <v>267</v>
+        <v>114</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H23" t="s">
-        <v>269</v>
+        <v>469</v>
       </c>
       <c r="I23" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="J23">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
-      </c>
-      <c r="M23">
-        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B24" t="s">
         <v>267</v>
@@ -2867,22 +2873,22 @@
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H24" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I24" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="J24">
         <v>9</v>
@@ -2896,31 +2902,31 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>118</v>
+        <v>271</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>267</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G25" t="s">
-        <v>120</v>
+        <v>272</v>
       </c>
       <c r="H25" t="s">
-        <v>121</v>
+        <v>273</v>
       </c>
       <c r="I25" t="s">
-        <v>122</v>
+        <v>274</v>
       </c>
       <c r="J25">
         <v>9</v>
@@ -2929,12 +2935,12 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>275</v>
+        <v>118</v>
       </c>
       <c r="B26" t="s">
         <v>119</v>
@@ -2943,22 +2949,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s">
-        <v>276</v>
+        <v>120</v>
       </c>
       <c r="H26" t="s">
-        <v>277</v>
+        <v>121</v>
       </c>
       <c r="I26" t="s">
-        <v>278</v>
+        <v>122</v>
       </c>
       <c r="J26">
         <v>9</v>
@@ -2972,31 +2978,31 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B27" t="s">
-        <v>280</v>
+        <v>119</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G27" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H27" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="I27" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="J27">
         <v>9</v>
@@ -3005,12 +3011,12 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B28" t="s">
         <v>280</v>
@@ -3019,22 +3025,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H28" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="I28" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="J28">
         <v>9</v>
@@ -3048,10 +3054,10 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B29" t="s">
-        <v>173</v>
+        <v>280</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -3063,30 +3069,33 @@
         <v>1</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G29" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H29" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I29" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J29">
+        <v>9</v>
+      </c>
+      <c r="K29" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29">
         <v>3</v>
-      </c>
-      <c r="K29" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B30" t="s">
-        <v>293</v>
+        <v>173</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -3101,13 +3110,13 @@
         <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H30" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="I30" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="J30">
         <v>3</v>
@@ -3118,31 +3127,31 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>292</v>
       </c>
       <c r="B31" t="s">
-        <v>123</v>
+        <v>293</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>294</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>295</v>
       </c>
       <c r="I31" t="s">
-        <v>15</v>
+        <v>296</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -3150,13 +3159,10 @@
       <c r="K31" t="b">
         <v>0</v>
       </c>
-      <c r="M31">
-        <v>4</v>
-      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>297</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
         <v>123</v>
@@ -3165,22 +3171,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G32" t="s">
-        <v>298</v>
+        <v>13</v>
       </c>
       <c r="H32" t="s">
-        <v>299</v>
+        <v>14</v>
       </c>
       <c r="I32" t="s">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c r="J32">
         <v>3</v>
@@ -3194,31 +3200,31 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>297</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>298</v>
       </c>
       <c r="H33" t="s">
-        <v>18</v>
+        <v>299</v>
       </c>
       <c r="I33" t="s">
-        <v>19</v>
+        <v>300</v>
       </c>
       <c r="J33">
         <v>3</v>
@@ -3227,12 +3233,12 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>301</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
         <v>124</v>
@@ -3241,22 +3247,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G34" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="H34" t="s">
-        <v>303</v>
+        <v>18</v>
       </c>
       <c r="I34" t="s">
-        <v>304</v>
+        <v>19</v>
       </c>
       <c r="J34">
         <v>3</v>
@@ -3270,31 +3276,31 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>301</v>
       </c>
       <c r="B35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G35" t="s">
-        <v>21</v>
+        <v>302</v>
       </c>
       <c r="H35" t="s">
-        <v>22</v>
+        <v>303</v>
       </c>
       <c r="I35" t="s">
-        <v>23</v>
+        <v>304</v>
       </c>
       <c r="J35">
         <v>3</v>
@@ -3302,10 +3308,13 @@
       <c r="K35" t="b">
         <v>0</v>
       </c>
+      <c r="M35">
+        <v>7</v>
+      </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>305</v>
+        <v>20</v>
       </c>
       <c r="B36" t="s">
         <v>125</v>
@@ -3314,22 +3323,22 @@
         <v>0</v>
       </c>
       <c r="D36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G36" t="s">
-        <v>306</v>
+        <v>21</v>
       </c>
       <c r="H36" t="s">
-        <v>307</v>
+        <v>22</v>
       </c>
       <c r="I36" t="s">
-        <v>308</v>
+        <v>23</v>
       </c>
       <c r="J36">
         <v>3</v>
@@ -3340,31 +3349,34 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>305</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
       <c r="G37" t="s">
-        <v>25</v>
+        <v>306</v>
       </c>
       <c r="H37" t="s">
-        <v>26</v>
+        <v>307</v>
       </c>
       <c r="I37" t="s">
-        <v>27</v>
+        <v>308</v>
       </c>
       <c r="J37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
@@ -3372,7 +3384,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>338</v>
+        <v>24</v>
       </c>
       <c r="B38" t="s">
         <v>126</v>
@@ -3396,7 +3408,7 @@
         <v>27</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K38" t="b">
         <v>0</v>
@@ -3404,10 +3416,10 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>338</v>
       </c>
       <c r="B39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C39" t="b">
         <v>1</v>
@@ -3419,16 +3431,16 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H39" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I39" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K39" t="b">
         <v>0</v>
@@ -3436,7 +3448,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>345</v>
+        <v>28</v>
       </c>
       <c r="B40" t="s">
         <v>127</v>
@@ -3451,16 +3463,16 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>349</v>
+        <v>29</v>
       </c>
       <c r="H40" t="s">
-        <v>350</v>
+        <v>30</v>
       </c>
       <c r="I40" t="s">
-        <v>351</v>
+        <v>31</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K40" t="b">
         <v>0</v>
@@ -3468,10 +3480,10 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>32</v>
+        <v>345</v>
       </c>
       <c r="B41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
@@ -3483,16 +3495,16 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>33</v>
+        <v>349</v>
       </c>
       <c r="H41" t="s">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="I41" t="s">
-        <v>35</v>
+        <v>351</v>
       </c>
       <c r="J41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
@@ -3500,10 +3512,10 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C42" t="b">
         <v>1</v>
@@ -3515,13 +3527,13 @@
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H42" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I42" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J42">
         <v>2</v>
@@ -3532,10 +3544,10 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>366</v>
+        <v>484</v>
       </c>
       <c r="B43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C43" t="b">
         <v>1</v>
@@ -3547,13 +3559,13 @@
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>367</v>
+        <v>33</v>
       </c>
       <c r="H43" t="s">
-        <v>368</v>
+        <v>34</v>
       </c>
       <c r="I43" t="s">
-        <v>369</v>
+        <v>35</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -3564,10 +3576,10 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
@@ -3579,13 +3591,13 @@
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H44" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I44" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J44">
         <v>2</v>
@@ -3596,10 +3608,10 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>366</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C45" t="b">
         <v>1</v>
@@ -3611,16 +3623,16 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>367</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>368</v>
       </c>
       <c r="I45" t="s">
-        <v>47</v>
+        <v>369</v>
       </c>
       <c r="J45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K45" t="b">
         <v>0</v>
@@ -3628,10 +3640,10 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C46" t="b">
         <v>1</v>
@@ -3643,13 +3655,13 @@
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H46" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I46" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J46">
         <v>2</v>
@@ -3660,10 +3672,10 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C47" t="b">
         <v>1</v>
@@ -3675,13 +3687,13 @@
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="J47">
         <v>2</v>
@@ -3692,10 +3704,10 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>364</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C48" t="b">
         <v>1</v>
@@ -3707,16 +3719,16 @@
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H48" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I48" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
@@ -3724,34 +3736,31 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
       </c>
       <c r="E49" t="b">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="H49" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="I49" t="s">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c r="J49">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
@@ -3759,34 +3768,31 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>139</v>
+        <v>364</v>
       </c>
       <c r="B50" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
-      <c r="F50">
-        <v>2</v>
-      </c>
       <c r="G50" t="s">
-        <v>140</v>
+        <v>53</v>
       </c>
       <c r="H50" t="s">
-        <v>141</v>
+        <v>54</v>
       </c>
       <c r="I50" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="J50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
@@ -3794,10 +3800,10 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>386</v>
+        <v>134</v>
       </c>
       <c r="B51" t="s">
-        <v>387</v>
+        <v>135</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
@@ -3812,13 +3818,13 @@
         <v>100</v>
       </c>
       <c r="G51" t="s">
-        <v>388</v>
+        <v>136</v>
       </c>
       <c r="H51" t="s">
-        <v>389</v>
+        <v>137</v>
       </c>
       <c r="I51" t="s">
-        <v>390</v>
+        <v>138</v>
       </c>
       <c r="J51">
         <v>9</v>
@@ -3829,10 +3835,10 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>391</v>
+        <v>139</v>
       </c>
       <c r="B52" t="s">
-        <v>387</v>
+        <v>135</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
@@ -3847,13 +3853,13 @@
         <v>2</v>
       </c>
       <c r="G52" t="s">
-        <v>392</v>
+        <v>140</v>
       </c>
       <c r="H52" t="s">
-        <v>393</v>
+        <v>141</v>
       </c>
       <c r="I52" t="s">
-        <v>394</v>
+        <v>142</v>
       </c>
       <c r="J52">
         <v>5</v>
@@ -3864,10 +3870,10 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>147</v>
+        <v>386</v>
       </c>
       <c r="B53" t="s">
-        <v>148</v>
+        <v>387</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
@@ -3882,13 +3888,13 @@
         <v>100</v>
       </c>
       <c r="G53" t="s">
-        <v>223</v>
+        <v>388</v>
       </c>
       <c r="H53" t="s">
-        <v>149</v>
+        <v>389</v>
       </c>
       <c r="I53" t="s">
-        <v>150</v>
+        <v>390</v>
       </c>
       <c r="J53">
         <v>9</v>
@@ -3896,16 +3902,13 @@
       <c r="K53" t="b">
         <v>0</v>
       </c>
-      <c r="L53" t="s">
-        <v>244</v>
-      </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>151</v>
+        <v>391</v>
       </c>
       <c r="B54" t="s">
-        <v>148</v>
+        <v>387</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
@@ -3920,13 +3923,13 @@
         <v>2</v>
       </c>
       <c r="G54" t="s">
-        <v>224</v>
+        <v>392</v>
       </c>
       <c r="H54" t="s">
-        <v>152</v>
+        <v>393</v>
       </c>
       <c r="I54" t="s">
-        <v>153</v>
+        <v>394</v>
       </c>
       <c r="J54">
         <v>5</v>
@@ -3934,37 +3937,37 @@
       <c r="K54" t="b">
         <v>0</v>
       </c>
-      <c r="L54" t="s">
-        <v>244</v>
-      </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>452</v>
+        <v>147</v>
       </c>
       <c r="B55" t="s">
         <v>148</v>
       </c>
       <c r="C55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
       </c>
       <c r="E55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>100</v>
       </c>
       <c r="G55" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H55" t="s">
-        <v>453</v>
+        <v>149</v>
       </c>
       <c r="I55" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J55">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
@@ -3975,31 +3978,34 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>471</v>
+        <v>151</v>
       </c>
       <c r="B56" t="s">
         <v>148</v>
       </c>
       <c r="C56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="b">
         <v>1</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
       </c>
       <c r="G56" t="s">
         <v>224</v>
       </c>
       <c r="H56" t="s">
-        <v>472</v>
+        <v>152</v>
       </c>
       <c r="I56" t="s">
         <v>153</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
@@ -4010,104 +4016,104 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>154</v>
+        <v>452</v>
       </c>
       <c r="B57" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
       </c>
       <c r="E57" t="b">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H57" t="s">
-        <v>156</v>
+        <v>453</v>
       </c>
       <c r="I57" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J57">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
+      </c>
+      <c r="L57" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>158</v>
+        <v>471</v>
       </c>
       <c r="B58" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" t="b">
         <v>1</v>
       </c>
-      <c r="F58">
-        <v>2</v>
-      </c>
       <c r="G58" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H58" t="s">
-        <v>159</v>
+        <v>472</v>
       </c>
       <c r="I58" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="J58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
+      </c>
+      <c r="L58" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B59" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
       </c>
       <c r="D59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="G59" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H59" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I59" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="J59">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
@@ -4115,31 +4121,31 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B60" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
       </c>
       <c r="D60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G60" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H60" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="I60" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="J60">
         <v>5</v>
@@ -4150,10 +4156,10 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B61" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
@@ -4165,19 +4171,19 @@
         <v>1</v>
       </c>
       <c r="F61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G61" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H61" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="I61" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="J61">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
@@ -4185,10 +4191,10 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B62" t="s">
-        <v>309</v>
+        <v>166</v>
       </c>
       <c r="C62" t="b">
         <v>0</v>
@@ -4203,16 +4209,16 @@
         <v>100</v>
       </c>
       <c r="G62" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H62" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="I62" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="J62">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
@@ -4220,10 +4226,10 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B63" t="s">
-        <v>309</v>
+        <v>166</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
@@ -4238,16 +4244,16 @@
         <v>2</v>
       </c>
       <c r="G63" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H63" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="I63" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J63">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K63" t="b">
         <v>0</v>
@@ -4255,31 +4261,34 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>356</v>
+        <v>172</v>
       </c>
       <c r="B64" t="s">
         <v>309</v>
       </c>
       <c r="C64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
       </c>
       <c r="E64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>100</v>
       </c>
       <c r="G64" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H64" t="s">
-        <v>357</v>
+        <v>174</v>
       </c>
       <c r="I64" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J64">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
@@ -4287,31 +4296,34 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>473</v>
+        <v>176</v>
       </c>
       <c r="B65" t="s">
         <v>309</v>
       </c>
       <c r="C65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" t="b">
         <v>1</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
       </c>
       <c r="G65" t="s">
         <v>231</v>
       </c>
       <c r="H65" t="s">
-        <v>474</v>
+        <v>177</v>
       </c>
       <c r="I65" t="s">
         <v>178</v>
       </c>
       <c r="J65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K65" t="b">
         <v>0</v>
@@ -4319,86 +4331,74 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="B66" t="s">
-        <v>396</v>
+        <v>309</v>
       </c>
       <c r="C66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
       </c>
       <c r="E66" t="b">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G66" t="s">
-        <v>397</v>
+        <v>231</v>
       </c>
       <c r="H66" t="s">
-        <v>398</v>
+        <v>357</v>
       </c>
       <c r="I66" t="s">
-        <v>399</v>
+        <v>178</v>
       </c>
       <c r="J66">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K66" t="b">
         <v>0</v>
-      </c>
-      <c r="M66">
-        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>400</v>
+        <v>473</v>
       </c>
       <c r="B67" t="s">
-        <v>396</v>
+        <v>309</v>
       </c>
       <c r="C67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" t="b">
         <v>1</v>
       </c>
-      <c r="F67">
-        <v>2</v>
-      </c>
       <c r="G67" t="s">
-        <v>401</v>
+        <v>231</v>
       </c>
       <c r="H67" t="s">
-        <v>402</v>
+        <v>474</v>
       </c>
       <c r="I67" t="s">
-        <v>403</v>
+        <v>178</v>
       </c>
       <c r="J67">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
-      </c>
-      <c r="M67">
-        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="B68" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
@@ -4413,13 +4413,13 @@
         <v>100</v>
       </c>
       <c r="G68" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="H68" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="I68" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="J68">
         <v>9</v>
@@ -4428,15 +4428,15 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="B69" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
@@ -4451,13 +4451,13 @@
         <v>2</v>
       </c>
       <c r="G69" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="H69" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="I69" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="J69">
         <v>5</v>
@@ -4466,15 +4466,15 @@
         <v>0</v>
       </c>
       <c r="M69">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>179</v>
+        <v>404</v>
       </c>
       <c r="B70" t="s">
-        <v>180</v>
+        <v>405</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
@@ -4489,27 +4489,30 @@
         <v>100</v>
       </c>
       <c r="G70" t="s">
-        <v>232</v>
+        <v>406</v>
       </c>
       <c r="H70" t="s">
-        <v>181</v>
+        <v>407</v>
       </c>
       <c r="I70" t="s">
-        <v>182</v>
+        <v>408</v>
       </c>
       <c r="J70">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K70" t="b">
         <v>0</v>
+      </c>
+      <c r="M70">
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>183</v>
+        <v>409</v>
       </c>
       <c r="B71" t="s">
-        <v>180</v>
+        <v>405</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
@@ -4524,27 +4527,30 @@
         <v>2</v>
       </c>
       <c r="G71" t="s">
-        <v>233</v>
+        <v>410</v>
       </c>
       <c r="H71" t="s">
-        <v>184</v>
+        <v>411</v>
       </c>
       <c r="I71" t="s">
-        <v>185</v>
+        <v>412</v>
       </c>
       <c r="J71">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K71" t="b">
         <v>0</v>
+      </c>
+      <c r="M71">
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B72" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C72" t="b">
         <v>0</v>
@@ -4559,16 +4565,16 @@
         <v>100</v>
       </c>
       <c r="G72" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H72" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="I72" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="J72">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K72" t="b">
         <v>0</v>
@@ -4576,10 +4582,10 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B73" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
@@ -4594,16 +4600,16 @@
         <v>2</v>
       </c>
       <c r="G73" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H73" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="I73" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="J73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K73" t="b">
         <v>0</v>
@@ -4611,10 +4617,10 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B74" t="s">
-        <v>310</v>
+        <v>187</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
@@ -4629,13 +4635,13 @@
         <v>100</v>
       </c>
       <c r="G74" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H74" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I74" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="J74">
         <v>9</v>
@@ -4646,10 +4652,10 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B75" t="s">
-        <v>310</v>
+        <v>187</v>
       </c>
       <c r="C75" t="b">
         <v>0</v>
@@ -4664,13 +4670,13 @@
         <v>2</v>
       </c>
       <c r="G75" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H75" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="I75" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="J75">
         <v>5</v>
@@ -4681,31 +4687,34 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>468</v>
+        <v>193</v>
       </c>
       <c r="B76" t="s">
         <v>310</v>
       </c>
       <c r="C76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76" t="b">
         <v>0</v>
       </c>
       <c r="E76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>100</v>
       </c>
       <c r="G76" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H76" t="s">
-        <v>470</v>
+        <v>194</v>
       </c>
       <c r="I76" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J76">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K76" t="b">
         <v>0</v>
@@ -4713,10 +4722,10 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>143</v>
+        <v>196</v>
       </c>
       <c r="B77" t="s">
-        <v>144</v>
+        <v>310</v>
       </c>
       <c r="C77" t="b">
         <v>0</v>
@@ -4728,16 +4737,16 @@
         <v>1</v>
       </c>
       <c r="F77">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G77" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="H77" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="I77" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="J77">
         <v>5</v>
@@ -4745,54 +4754,45 @@
       <c r="K77" t="b">
         <v>0</v>
       </c>
-      <c r="L77" t="s">
-        <v>246</v>
-      </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>413</v>
+        <v>468</v>
       </c>
       <c r="B78" t="s">
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="C78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" t="b">
         <v>0</v>
       </c>
       <c r="E78" t="b">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G78" t="s">
-        <v>414</v>
+        <v>237</v>
       </c>
       <c r="H78" t="s">
-        <v>415</v>
+        <v>470</v>
       </c>
       <c r="I78" t="s">
-        <v>416</v>
+        <v>198</v>
       </c>
       <c r="J78">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K78" t="b">
         <v>0</v>
-      </c>
-      <c r="M78">
-        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="B79" t="s">
-        <v>311</v>
+        <v>144</v>
       </c>
       <c r="C79" t="b">
         <v>0</v>
@@ -4807,68 +4807,68 @@
         <v>4</v>
       </c>
       <c r="G79" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="H79" t="s">
-        <v>201</v>
+        <v>145</v>
       </c>
       <c r="I79" t="s">
-        <v>202</v>
+        <v>146</v>
       </c>
       <c r="J79">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K79" t="b">
         <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>312</v>
+        <v>413</v>
       </c>
       <c r="B80" t="s">
-        <v>417</v>
+        <v>200</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
       </c>
       <c r="D80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
+        <v>100</v>
+      </c>
+      <c r="G80" t="s">
+        <v>414</v>
+      </c>
+      <c r="H80" t="s">
+        <v>415</v>
+      </c>
+      <c r="I80" t="s">
+        <v>416</v>
+      </c>
+      <c r="J80">
+        <v>5</v>
+      </c>
+      <c r="K80" t="b">
+        <v>0</v>
+      </c>
+      <c r="M80">
         <v>4</v>
-      </c>
-      <c r="G80" t="s">
-        <v>313</v>
-      </c>
-      <c r="H80" t="s">
-        <v>314</v>
-      </c>
-      <c r="I80" t="s">
-        <v>315</v>
-      </c>
-      <c r="J80">
-        <v>3</v>
-      </c>
-      <c r="K80" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>251</v>
+        <v>199</v>
       </c>
       <c r="B81" t="s">
-        <v>222</v>
+        <v>311</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
@@ -4883,13 +4883,13 @@
         <v>4</v>
       </c>
       <c r="G81" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="H81" t="s">
-        <v>253</v>
+        <v>201</v>
       </c>
       <c r="I81" t="s">
-        <v>254</v>
+        <v>202</v>
       </c>
       <c r="J81">
         <v>3</v>
@@ -4898,50 +4898,53 @@
         <v>0</v>
       </c>
       <c r="L81" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>218</v>
+        <v>312</v>
       </c>
       <c r="B82" t="s">
-        <v>219</v>
+        <v>417</v>
       </c>
       <c r="C82" t="b">
         <v>0</v>
       </c>
       <c r="D82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G82" t="s">
-        <v>239</v>
+        <v>313</v>
       </c>
       <c r="H82" t="s">
-        <v>220</v>
+        <v>314</v>
       </c>
       <c r="I82" t="s">
-        <v>221</v>
+        <v>315</v>
       </c>
       <c r="J82">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K82" t="b">
         <v>0</v>
+      </c>
+      <c r="L82" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>316</v>
+        <v>251</v>
       </c>
       <c r="B83" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
@@ -4953,54 +4956,57 @@
         <v>1</v>
       </c>
       <c r="F83">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G83" t="s">
-        <v>317</v>
+        <v>252</v>
       </c>
       <c r="H83" t="s">
-        <v>318</v>
+        <v>253</v>
       </c>
       <c r="I83" t="s">
-        <v>319</v>
+        <v>254</v>
       </c>
       <c r="J83">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K83" t="b">
         <v>0</v>
+      </c>
+      <c r="L83" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="B84" t="s">
-        <v>320</v>
+        <v>219</v>
       </c>
       <c r="C84" t="b">
         <v>0</v>
       </c>
       <c r="D84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="G84" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H84" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="I84" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="J84">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K84" t="b">
         <v>0</v>
@@ -5008,10 +5014,10 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>206</v>
+        <v>316</v>
       </c>
       <c r="B85" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C85" t="b">
         <v>0</v>
@@ -5023,33 +5029,30 @@
         <v>1</v>
       </c>
       <c r="F85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G85" t="s">
-        <v>240</v>
+        <v>317</v>
       </c>
       <c r="H85" t="s">
-        <v>208</v>
+        <v>318</v>
       </c>
       <c r="I85" t="s">
-        <v>209</v>
+        <v>319</v>
       </c>
       <c r="J85">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K85" t="b">
         <v>0</v>
-      </c>
-      <c r="L85" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B86" t="s">
-        <v>211</v>
+        <v>320</v>
       </c>
       <c r="C86" t="b">
         <v>0</v>
@@ -5064,13 +5067,13 @@
         <v>4</v>
       </c>
       <c r="G86" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H86" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="I86" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="J86">
         <v>3</v>
@@ -5078,16 +5081,13 @@
       <c r="K86" t="b">
         <v>0</v>
       </c>
-      <c r="L86" t="s">
-        <v>256</v>
-      </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B87" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C87" t="b">
         <v>0</v>
@@ -5102,65 +5102,68 @@
         <v>4</v>
       </c>
       <c r="G87" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="H87" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="I87" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="J87">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K87" t="b">
         <v>0</v>
       </c>
       <c r="L87" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>321</v>
+        <v>210</v>
       </c>
       <c r="B88" t="s">
-        <v>322</v>
+        <v>211</v>
       </c>
       <c r="C88" t="b">
         <v>0</v>
       </c>
       <c r="D88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G88" t="s">
-        <v>323</v>
+        <v>243</v>
       </c>
       <c r="H88" t="s">
-        <v>324</v>
+        <v>212</v>
       </c>
       <c r="I88" t="s">
-        <v>325</v>
+        <v>213</v>
       </c>
       <c r="J88">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K88" t="b">
         <v>0</v>
+      </c>
+      <c r="L88" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>326</v>
+        <v>214</v>
       </c>
       <c r="B89" t="s">
-        <v>322</v>
+        <v>215</v>
       </c>
       <c r="C89" t="b">
         <v>0</v>
@@ -5172,51 +5175,57 @@
         <v>1</v>
       </c>
       <c r="F89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G89" t="s">
-        <v>327</v>
+        <v>250</v>
       </c>
       <c r="H89" t="s">
-        <v>328</v>
+        <v>216</v>
       </c>
       <c r="I89" t="s">
-        <v>329</v>
+        <v>217</v>
       </c>
       <c r="J89">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K89" t="b">
         <v>0</v>
+      </c>
+      <c r="L89" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>456</v>
+        <v>321</v>
       </c>
       <c r="B90" t="s">
         <v>322</v>
       </c>
       <c r="C90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90" t="b">
         <v>0</v>
       </c>
       <c r="E90" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>100</v>
       </c>
       <c r="G90" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H90" t="s">
-        <v>457</v>
+        <v>324</v>
       </c>
       <c r="I90" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J90">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K90" t="b">
         <v>0</v>
@@ -5224,48 +5233,45 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B91" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C91" t="b">
         <v>0</v>
       </c>
       <c r="D91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G91" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="H91" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="I91" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="J91">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K91" t="b">
         <v>0</v>
-      </c>
-      <c r="M91">
-        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="B92" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C92" t="b">
         <v>1</v>
@@ -5277,13 +5283,13 @@
         <v>1</v>
       </c>
       <c r="G92" t="s">
-        <v>441</v>
+        <v>327</v>
       </c>
       <c r="H92" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="I92" t="s">
-        <v>443</v>
+        <v>329</v>
       </c>
       <c r="J92">
         <v>1</v>
@@ -5294,10 +5300,10 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>418</v>
+        <v>330</v>
       </c>
       <c r="B93" t="s">
-        <v>419</v>
+        <v>331</v>
       </c>
       <c r="C93" t="b">
         <v>0</v>
@@ -5312,51 +5318,51 @@
         <v>100</v>
       </c>
       <c r="G93" t="s">
-        <v>420</v>
+        <v>332</v>
       </c>
       <c r="H93" t="s">
-        <v>421</v>
+        <v>333</v>
       </c>
       <c r="I93" t="s">
-        <v>422</v>
+        <v>334</v>
       </c>
       <c r="J93">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K93" t="b">
         <v>0</v>
+      </c>
+      <c r="M93">
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="B94" t="s">
-        <v>419</v>
+        <v>331</v>
       </c>
       <c r="C94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94" t="b">
         <v>1</v>
       </c>
-      <c r="F94">
-        <v>2</v>
-      </c>
       <c r="G94" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="H94" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="I94" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="J94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K94" t="b">
         <v>0</v>
@@ -5364,10 +5370,10 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="B95" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="C95" t="b">
         <v>0</v>
@@ -5382,13 +5388,13 @@
         <v>100</v>
       </c>
       <c r="G95" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="H95" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="I95" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="J95">
         <v>5</v>
@@ -5399,31 +5405,34 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="B96" t="s">
-        <v>130</v>
+        <v>419</v>
       </c>
       <c r="C96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" t="b">
         <v>1</v>
       </c>
+      <c r="F96">
+        <v>2</v>
+      </c>
       <c r="G96" t="s">
-        <v>352</v>
+        <v>424</v>
       </c>
       <c r="H96" t="s">
-        <v>353</v>
+        <v>425</v>
       </c>
       <c r="I96" t="s">
-        <v>354</v>
+        <v>426</v>
       </c>
       <c r="J96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K96" t="b">
         <v>0</v>
@@ -5431,31 +5440,34 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>359</v>
+        <v>427</v>
       </c>
       <c r="B97" t="s">
-        <v>130</v>
+        <v>428</v>
       </c>
       <c r="C97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97" t="b">
         <v>0</v>
       </c>
       <c r="E97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>100</v>
       </c>
       <c r="G97" t="s">
-        <v>360</v>
+        <v>429</v>
       </c>
       <c r="H97" t="s">
-        <v>361</v>
+        <v>430</v>
       </c>
       <c r="I97" t="s">
-        <v>362</v>
+        <v>431</v>
       </c>
       <c r="J97">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K97" t="b">
         <v>0</v>
@@ -5463,10 +5475,10 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>370</v>
+        <v>343</v>
       </c>
       <c r="B98" t="s">
-        <v>375</v>
+        <v>130</v>
       </c>
       <c r="C98" t="b">
         <v>1</v>
@@ -5478,13 +5490,13 @@
         <v>1</v>
       </c>
       <c r="G98" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="H98" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="I98" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="J98">
         <v>1</v>
@@ -5495,10 +5507,10 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="B99" t="s">
-        <v>380</v>
+        <v>130</v>
       </c>
       <c r="C99" t="b">
         <v>1</v>
@@ -5510,13 +5522,13 @@
         <v>1</v>
       </c>
       <c r="G99" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="H99" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="I99" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="J99">
         <v>1</v>
@@ -5527,10 +5539,10 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>432</v>
+        <v>370</v>
       </c>
       <c r="B100" t="s">
-        <v>438</v>
+        <v>375</v>
       </c>
       <c r="C100" t="b">
         <v>1</v>
@@ -5542,13 +5554,13 @@
         <v>1</v>
       </c>
       <c r="G100" t="s">
-        <v>433</v>
+        <v>371</v>
       </c>
       <c r="H100" t="s">
-        <v>434</v>
+        <v>372</v>
       </c>
       <c r="I100" t="s">
-        <v>435</v>
+        <v>373</v>
       </c>
       <c r="J100">
         <v>1</v>
@@ -5559,10 +5571,10 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>444</v>
+        <v>376</v>
       </c>
       <c r="B101" t="s">
-        <v>448</v>
+        <v>380</v>
       </c>
       <c r="C101" t="b">
         <v>1</v>
@@ -5574,13 +5586,13 @@
         <v>1</v>
       </c>
       <c r="G101" t="s">
-        <v>445</v>
+        <v>377</v>
       </c>
       <c r="H101" t="s">
-        <v>446</v>
+        <v>378</v>
       </c>
       <c r="I101" t="s">
-        <v>447</v>
+        <v>379</v>
       </c>
       <c r="J101">
         <v>1</v>
@@ -5591,10 +5603,10 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>458</v>
+        <v>432</v>
       </c>
       <c r="B102" t="s">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="C102" t="b">
         <v>1</v>
@@ -5606,13 +5618,13 @@
         <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>460</v>
+        <v>433</v>
       </c>
       <c r="H102" t="s">
-        <v>461</v>
+        <v>434</v>
       </c>
       <c r="I102" t="s">
-        <v>462</v>
+        <v>435</v>
       </c>
       <c r="J102">
         <v>1</v>
@@ -5623,33 +5635,97 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
+        <v>444</v>
+      </c>
+      <c r="B103" t="s">
+        <v>448</v>
+      </c>
+      <c r="C103" t="b">
+        <v>1</v>
+      </c>
+      <c r="D103" t="b">
+        <v>0</v>
+      </c>
+      <c r="E103" t="b">
+        <v>1</v>
+      </c>
+      <c r="G103" t="s">
+        <v>445</v>
+      </c>
+      <c r="H103" t="s">
+        <v>446</v>
+      </c>
+      <c r="I103" t="s">
+        <v>447</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>458</v>
+      </c>
+      <c r="B104" t="s">
+        <v>459</v>
+      </c>
+      <c r="C104" t="b">
+        <v>1</v>
+      </c>
+      <c r="D104" t="b">
+        <v>0</v>
+      </c>
+      <c r="E104" t="b">
+        <v>1</v>
+      </c>
+      <c r="G104" t="s">
+        <v>460</v>
+      </c>
+      <c r="H104" t="s">
+        <v>461</v>
+      </c>
+      <c r="I104" t="s">
+        <v>462</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>476</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B105" t="s">
         <v>480</v>
       </c>
-      <c r="C103" t="b">
-        <v>1</v>
-      </c>
-      <c r="D103" t="b">
-        <v>0</v>
-      </c>
-      <c r="E103" t="b">
-        <v>1</v>
-      </c>
-      <c r="G103" t="s">
+      <c r="C105" t="b">
+        <v>1</v>
+      </c>
+      <c r="D105" t="b">
+        <v>0</v>
+      </c>
+      <c r="E105" t="b">
+        <v>1</v>
+      </c>
+      <c r="G105" t="s">
         <v>477</v>
       </c>
-      <c r="H103" t="s">
+      <c r="H105" t="s">
         <v>478</v>
       </c>
-      <c r="I103" t="s">
+      <c r="I105" t="s">
         <v>479</v>
       </c>
-      <c r="J103">
-        <v>1</v>
-      </c>
-      <c r="K103" t="b">
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5694,7 +5770,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6239E2D-40EA-4B45-8295-42B35BCC92F9}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5991,6 +6067,28 @@
         <v>476</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>481</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>481</v>
+      </c>
+      <c r="B28">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>484</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C770C09-D150-4AEE-842E-173EAB495A75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8D85B3-9A71-440C-A9F6-854AB441FFF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="490">
   <si>
     <t>levelPackId|String</t>
   </si>
@@ -1164,18 +1164,6 @@
     <t>FlatSkill2_139_NoBG_Gray</t>
   </si>
   <si>
-    <t>AtkUpOnFoeMaxHpMeryl</t>
-  </si>
-  <si>
-    <t>LP_AtkUpOnFoeMaxHpMeryl</t>
-  </si>
-  <si>
-    <t>LevelPackUIName_AtkUpOnFoeMaxHpMeryl</t>
-  </si>
-  <si>
-    <t>LevelPackUIDesc_AtkUpOnFoeMaxHpMeryl</t>
-  </si>
-  <si>
     <t>FlatSkill2_137_NoBG_Gray</t>
   </si>
   <si>
@@ -1489,6 +1477,33 @@
   </si>
   <si>
     <t>BounceWallQuadMedea</t>
+  </si>
+  <si>
+    <t>HealSpOnDamageMeryl</t>
+  </si>
+  <si>
+    <t>AtkUpOnFoeHpMeryl</t>
+  </si>
+  <si>
+    <t>FlatSkill2_69_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>LP_HealSpOnDamageMeryl</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_HealSpOnDamageMeryl</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_HealSpOnDamageMeryl</t>
+  </si>
+  <si>
+    <t>LP_AtkUpOnFoeHpMeryl</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_AtkUpOnFoeHpMeryl</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_AtkUpOnFoeHpMeryl</t>
   </si>
 </sst>
 </file>
@@ -2056,7 +2071,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
-  <dimension ref="A1:M105"/>
+  <dimension ref="A1:M106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2287,7 +2302,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -2305,7 +2320,7 @@
         <v>68</v>
       </c>
       <c r="H7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="I7" t="s">
         <v>70</v>
@@ -2526,7 +2541,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B14" t="s">
         <v>86</v>
@@ -2544,7 +2559,7 @@
         <v>91</v>
       </c>
       <c r="H14" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="I14" t="s">
         <v>93</v>
@@ -2663,7 +2678,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B18" t="s">
         <v>100</v>
@@ -2681,7 +2696,7 @@
         <v>105</v>
       </c>
       <c r="H18" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="I18" t="s">
         <v>107</v>
@@ -2730,28 +2745,28 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>377</v>
+      </c>
+      <c r="B20" t="s">
+        <v>378</v>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>379</v>
+      </c>
+      <c r="H20" t="s">
+        <v>380</v>
+      </c>
+      <c r="I20" t="s">
         <v>381</v>
-      </c>
-      <c r="B20" t="s">
-        <v>382</v>
-      </c>
-      <c r="C20" t="b">
-        <v>0</v>
-      </c>
-      <c r="D20" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" t="s">
-        <v>383</v>
-      </c>
-      <c r="H20" t="s">
-        <v>384</v>
-      </c>
-      <c r="I20" t="s">
-        <v>385</v>
       </c>
       <c r="J20">
         <v>5</v>
@@ -2832,7 +2847,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B23" t="s">
         <v>114</v>
@@ -2850,7 +2865,7 @@
         <v>263</v>
       </c>
       <c r="H23" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="I23" t="s">
         <v>265</v>
@@ -3544,7 +3559,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B43" t="s">
         <v>128</v>
@@ -3870,10 +3885,10 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B53" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
@@ -3888,13 +3903,13 @@
         <v>100</v>
       </c>
       <c r="G53" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H53" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="I53" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="J53">
         <v>9</v>
@@ -3905,10 +3920,10 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B54" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
@@ -3923,13 +3938,13 @@
         <v>2</v>
       </c>
       <c r="G54" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="H54" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="I54" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="J54">
         <v>5</v>
@@ -4016,7 +4031,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B57" t="s">
         <v>148</v>
@@ -4034,7 +4049,7 @@
         <v>224</v>
       </c>
       <c r="H57" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="I57" t="s">
         <v>153</v>
@@ -4051,7 +4066,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B58" t="s">
         <v>148</v>
@@ -4069,7 +4084,7 @@
         <v>224</v>
       </c>
       <c r="H58" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="I58" t="s">
         <v>153</v>
@@ -4363,7 +4378,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B67" t="s">
         <v>309</v>
@@ -4381,7 +4396,7 @@
         <v>231</v>
       </c>
       <c r="H67" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="I67" t="s">
         <v>178</v>
@@ -4395,10 +4410,10 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B68" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
@@ -4413,13 +4428,13 @@
         <v>100</v>
       </c>
       <c r="G68" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H68" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="I68" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="J68">
         <v>9</v>
@@ -4433,10 +4448,10 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B69" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
@@ -4451,13 +4466,13 @@
         <v>2</v>
       </c>
       <c r="G69" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="H69" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="I69" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="J69">
         <v>5</v>
@@ -4471,10 +4486,10 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B70" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
@@ -4489,13 +4504,13 @@
         <v>100</v>
       </c>
       <c r="G70" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H70" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="I70" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="J70">
         <v>9</v>
@@ -4509,10 +4524,10 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B71" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
@@ -4527,13 +4542,13 @@
         <v>2</v>
       </c>
       <c r="G71" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H71" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="I71" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="J71">
         <v>5</v>
@@ -4757,7 +4772,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B78" t="s">
         <v>310</v>
@@ -4775,7 +4790,7 @@
         <v>237</v>
       </c>
       <c r="H78" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="I78" t="s">
         <v>198</v>
@@ -4827,7 +4842,7 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B80" t="s">
         <v>200</v>
@@ -4845,13 +4860,13 @@
         <v>100</v>
       </c>
       <c r="G80" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H80" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="I80" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="J80">
         <v>5</v>
@@ -4906,7 +4921,7 @@
         <v>312</v>
       </c>
       <c r="B82" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C82" t="b">
         <v>0</v>
@@ -5268,7 +5283,7 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B92" t="s">
         <v>322</v>
@@ -5286,7 +5301,7 @@
         <v>327</v>
       </c>
       <c r="H92" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="I92" t="s">
         <v>329</v>
@@ -5338,7 +5353,7 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B94" t="s">
         <v>331</v>
@@ -5353,13 +5368,13 @@
         <v>1</v>
       </c>
       <c r="G94" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="H94" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="I94" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="J94">
         <v>1</v>
@@ -5370,10 +5385,10 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B95" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C95" t="b">
         <v>0</v>
@@ -5388,13 +5403,13 @@
         <v>100</v>
       </c>
       <c r="G95" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="H95" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="I95" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="J95">
         <v>5</v>
@@ -5405,10 +5420,10 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B96" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C96" t="b">
         <v>0</v>
@@ -5423,13 +5438,13 @@
         <v>2</v>
       </c>
       <c r="G96" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H96" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="I96" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="J96">
         <v>3</v>
@@ -5440,10 +5455,10 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B97" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C97" t="b">
         <v>0</v>
@@ -5458,13 +5473,13 @@
         <v>100</v>
       </c>
       <c r="G97" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H97" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="I97" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="J97">
         <v>5</v>
@@ -5571,10 +5586,10 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>376</v>
+        <v>481</v>
       </c>
       <c r="B101" t="s">
-        <v>380</v>
+        <v>483</v>
       </c>
       <c r="C101" t="b">
         <v>1</v>
@@ -5586,13 +5601,13 @@
         <v>1</v>
       </c>
       <c r="G101" t="s">
-        <v>377</v>
+        <v>484</v>
       </c>
       <c r="H101" t="s">
-        <v>378</v>
+        <v>485</v>
       </c>
       <c r="I101" t="s">
-        <v>379</v>
+        <v>486</v>
       </c>
       <c r="J101">
         <v>1</v>
@@ -5603,10 +5618,10 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>432</v>
+        <v>482</v>
       </c>
       <c r="B102" t="s">
-        <v>438</v>
+        <v>376</v>
       </c>
       <c r="C102" t="b">
         <v>1</v>
@@ -5618,13 +5633,13 @@
         <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>433</v>
+        <v>487</v>
       </c>
       <c r="H102" t="s">
-        <v>434</v>
+        <v>488</v>
       </c>
       <c r="I102" t="s">
-        <v>435</v>
+        <v>489</v>
       </c>
       <c r="J102">
         <v>1</v>
@@ -5635,10 +5650,10 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="B103" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="C103" t="b">
         <v>1</v>
@@ -5650,13 +5665,13 @@
         <v>1</v>
       </c>
       <c r="G103" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="H103" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="I103" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="J103">
         <v>1</v>
@@ -5667,10 +5682,10 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="B104" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="C104" t="b">
         <v>1</v>
@@ -5682,13 +5697,13 @@
         <v>1</v>
       </c>
       <c r="G104" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="H104" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="I104" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="J104">
         <v>1</v>
@@ -5699,33 +5714,65 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
+        <v>454</v>
+      </c>
+      <c r="B105" t="s">
+        <v>455</v>
+      </c>
+      <c r="C105" t="b">
+        <v>1</v>
+      </c>
+      <c r="D105" t="b">
+        <v>0</v>
+      </c>
+      <c r="E105" t="b">
+        <v>1</v>
+      </c>
+      <c r="G105" t="s">
+        <v>456</v>
+      </c>
+      <c r="H105" t="s">
+        <v>457</v>
+      </c>
+      <c r="I105" t="s">
+        <v>458</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>472</v>
+      </c>
+      <c r="B106" t="s">
         <v>476</v>
       </c>
-      <c r="B105" t="s">
-        <v>480</v>
-      </c>
-      <c r="C105" t="b">
-        <v>1</v>
-      </c>
-      <c r="D105" t="b">
-        <v>0</v>
-      </c>
-      <c r="E105" t="b">
-        <v>1</v>
-      </c>
-      <c r="G105" t="s">
-        <v>477</v>
-      </c>
-      <c r="H105" t="s">
-        <v>478</v>
-      </c>
-      <c r="I105" t="s">
-        <v>479</v>
-      </c>
-      <c r="J105">
-        <v>1</v>
-      </c>
-      <c r="K105" t="b">
+      <c r="C106" t="b">
+        <v>1</v>
+      </c>
+      <c r="D106" t="b">
+        <v>0</v>
+      </c>
+      <c r="E106" t="b">
+        <v>1</v>
+      </c>
+      <c r="G106" t="s">
+        <v>473</v>
+      </c>
+      <c r="H106" t="s">
+        <v>474</v>
+      </c>
+      <c r="I106" t="s">
+        <v>475</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5770,9 +5817,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6239E2D-40EA-4B45-8295-42B35BCC92F9}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5877,7 +5926,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -5915,13 +5964,13 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -5940,153 +5989,164 @@
         <v>374</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>376</v>
+        <v>481</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>436</v>
+        <v>374</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>432</v>
+        <v>482</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>451</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
         <v>463</v>
-      </c>
-      <c r="B22">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B23">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="B27">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>477</v>
+      </c>
+      <c r="B29">
         <v>13</v>
       </c>
-      <c r="C28" t="s">
-        <v>484</v>
+      <c r="C29" t="s">
+        <v>480</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8D85B3-9A71-440C-A9F6-854AB441FFF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D159ED37-416F-4C3D-AA7D-5FCA3A54D5CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="498">
   <si>
     <t>levelPackId|String</t>
   </si>
@@ -1504,6 +1504,30 @@
   </si>
   <si>
     <t>LevelPackUIDesc_AtkUpOnFoeHpMeryl</t>
+  </si>
+  <si>
+    <t>Actor0236</t>
+  </si>
+  <si>
+    <t>CritBetterNecromancerFour</t>
+  </si>
+  <si>
+    <t>OnMoveBuffNecromancerFour</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_CritBetterNecromancerFour</t>
+  </si>
+  <si>
+    <t>FlatSkill2_29_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>LP_OnMoveBuffNecromancerFour</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_OnMoveBuffNecromancerFour</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_OnMoveBuffNecromancerFour</t>
   </si>
 </sst>
 </file>
@@ -2071,7 +2095,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
-  <dimension ref="A1:M106"/>
+  <dimension ref="A1:M108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2573,34 +2597,31 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>491</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
       <c r="G15" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H15" t="s">
-        <v>97</v>
+        <v>493</v>
       </c>
       <c r="I15" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
@@ -2608,34 +2629,34 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H16" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I16" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J16">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
@@ -2643,7 +2664,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B17" t="s">
         <v>100</v>
@@ -2652,22 +2673,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="G17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J17">
         <v>9</v>
@@ -2678,31 +2699,34 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>445</v>
+        <v>104</v>
       </c>
       <c r="B18" t="s">
         <v>100</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
       </c>
       <c r="G18" t="s">
         <v>105</v>
       </c>
       <c r="H18" t="s">
-        <v>446</v>
+        <v>106</v>
       </c>
       <c r="I18" t="s">
         <v>107</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
@@ -2710,34 +2734,31 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>445</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
       <c r="G19" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H19" t="s">
-        <v>111</v>
+        <v>446</v>
       </c>
       <c r="I19" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
@@ -2745,28 +2766,31 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>377</v>
+        <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>378</v>
+        <v>109</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>379</v>
+        <v>110</v>
       </c>
       <c r="H20" t="s">
-        <v>380</v>
+        <v>111</v>
       </c>
       <c r="I20" t="s">
-        <v>381</v>
+        <v>112</v>
       </c>
       <c r="J20">
         <v>5</v>
@@ -2777,10 +2801,10 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>113</v>
+        <v>377</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
+        <v>378</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -2791,20 +2815,17 @@
       <c r="E21" t="b">
         <v>0</v>
       </c>
-      <c r="F21">
-        <v>80</v>
-      </c>
       <c r="G21" t="s">
-        <v>115</v>
+        <v>379</v>
       </c>
       <c r="H21" t="s">
-        <v>116</v>
+        <v>380</v>
       </c>
       <c r="I21" t="s">
-        <v>117</v>
+        <v>381</v>
       </c>
       <c r="J21">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
@@ -2812,7 +2833,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>262</v>
+        <v>113</v>
       </c>
       <c r="B22" t="s">
         <v>114</v>
@@ -2821,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s">
-        <v>263</v>
+        <v>115</v>
       </c>
       <c r="H22" t="s">
-        <v>264</v>
+        <v>116</v>
       </c>
       <c r="I22" t="s">
-        <v>265</v>
+        <v>117</v>
       </c>
       <c r="J22">
         <v>9</v>
@@ -2847,31 +2868,34 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>463</v>
+        <v>262</v>
       </c>
       <c r="B23" t="s">
         <v>114</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
       </c>
       <c r="G23" t="s">
         <v>263</v>
       </c>
       <c r="H23" t="s">
-        <v>465</v>
+        <v>264</v>
       </c>
       <c r="I23" t="s">
         <v>265</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
@@ -2879,45 +2903,39 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>266</v>
+        <v>463</v>
       </c>
       <c r="B24" t="s">
-        <v>267</v>
+        <v>114</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H24" t="s">
-        <v>269</v>
+        <v>465</v>
       </c>
       <c r="I24" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="J24">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K24" t="b">
         <v>0</v>
-      </c>
-      <c r="M24">
-        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B25" t="s">
         <v>267</v>
@@ -2926,22 +2944,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H25" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I25" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="J25">
         <v>9</v>
@@ -2955,31 +2973,31 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>118</v>
+        <v>271</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>267</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G26" t="s">
-        <v>120</v>
+        <v>272</v>
       </c>
       <c r="H26" t="s">
-        <v>121</v>
+        <v>273</v>
       </c>
       <c r="I26" t="s">
-        <v>122</v>
+        <v>274</v>
       </c>
       <c r="J26">
         <v>9</v>
@@ -2988,12 +3006,12 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>275</v>
+        <v>118</v>
       </c>
       <c r="B27" t="s">
         <v>119</v>
@@ -3002,22 +3020,22 @@
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s">
-        <v>276</v>
+        <v>120</v>
       </c>
       <c r="H27" t="s">
-        <v>277</v>
+        <v>121</v>
       </c>
       <c r="I27" t="s">
-        <v>278</v>
+        <v>122</v>
       </c>
       <c r="J27">
         <v>9</v>
@@ -3031,31 +3049,31 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B28" t="s">
-        <v>280</v>
+        <v>119</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H28" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="I28" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="J28">
         <v>9</v>
@@ -3064,12 +3082,12 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B29" t="s">
         <v>280</v>
@@ -3078,22 +3096,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="G29" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H29" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="I29" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="J29">
         <v>9</v>
@@ -3107,10 +3125,10 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B30" t="s">
-        <v>173</v>
+        <v>280</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -3122,30 +3140,33 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G30" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H30" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I30" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J30">
+        <v>9</v>
+      </c>
+      <c r="K30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30">
         <v>3</v>
-      </c>
-      <c r="K30" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B31" t="s">
-        <v>293</v>
+        <v>173</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
@@ -3160,13 +3181,13 @@
         <v>4</v>
       </c>
       <c r="G31" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H31" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="I31" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -3177,31 +3198,31 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>292</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>293</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>294</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>295</v>
       </c>
       <c r="I32" t="s">
-        <v>15</v>
+        <v>296</v>
       </c>
       <c r="J32">
         <v>3</v>
@@ -3209,13 +3230,10 @@
       <c r="K32" t="b">
         <v>0</v>
       </c>
-      <c r="M32">
-        <v>4</v>
-      </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>297</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
         <v>123</v>
@@ -3224,22 +3242,22 @@
         <v>0</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G33" t="s">
-        <v>298</v>
+        <v>13</v>
       </c>
       <c r="H33" t="s">
-        <v>299</v>
+        <v>14</v>
       </c>
       <c r="I33" t="s">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c r="J33">
         <v>3</v>
@@ -3253,31 +3271,31 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>297</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>298</v>
       </c>
       <c r="H34" t="s">
-        <v>18</v>
+        <v>299</v>
       </c>
       <c r="I34" t="s">
-        <v>19</v>
+        <v>300</v>
       </c>
       <c r="J34">
         <v>3</v>
@@ -3286,12 +3304,12 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>301</v>
+        <v>16</v>
       </c>
       <c r="B35" t="s">
         <v>124</v>
@@ -3300,22 +3318,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G35" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="H35" t="s">
-        <v>303</v>
+        <v>18</v>
       </c>
       <c r="I35" t="s">
-        <v>304</v>
+        <v>19</v>
       </c>
       <c r="J35">
         <v>3</v>
@@ -3329,31 +3347,31 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>301</v>
       </c>
       <c r="B36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
       </c>
       <c r="D36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G36" t="s">
-        <v>21</v>
+        <v>302</v>
       </c>
       <c r="H36" t="s">
-        <v>22</v>
+        <v>303</v>
       </c>
       <c r="I36" t="s">
-        <v>23</v>
+        <v>304</v>
       </c>
       <c r="J36">
         <v>3</v>
@@ -3361,10 +3379,13 @@
       <c r="K36" t="b">
         <v>0</v>
       </c>
+      <c r="M36">
+        <v>7</v>
+      </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>305</v>
+        <v>20</v>
       </c>
       <c r="B37" t="s">
         <v>125</v>
@@ -3373,22 +3394,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G37" t="s">
-        <v>306</v>
+        <v>21</v>
       </c>
       <c r="H37" t="s">
-        <v>307</v>
+        <v>22</v>
       </c>
       <c r="I37" t="s">
-        <v>308</v>
+        <v>23</v>
       </c>
       <c r="J37">
         <v>3</v>
@@ -3399,31 +3420,34 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>305</v>
       </c>
       <c r="B38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="b">
         <v>1</v>
       </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
       <c r="G38" t="s">
-        <v>25</v>
+        <v>306</v>
       </c>
       <c r="H38" t="s">
-        <v>26</v>
+        <v>307</v>
       </c>
       <c r="I38" t="s">
-        <v>27</v>
+        <v>308</v>
       </c>
       <c r="J38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K38" t="b">
         <v>0</v>
@@ -3431,7 +3455,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>338</v>
+        <v>24</v>
       </c>
       <c r="B39" t="s">
         <v>126</v>
@@ -3455,7 +3479,7 @@
         <v>27</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K39" t="b">
         <v>0</v>
@@ -3463,10 +3487,10 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>338</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C40" t="b">
         <v>1</v>
@@ -3478,16 +3502,16 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H40" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I40" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K40" t="b">
         <v>0</v>
@@ -3495,7 +3519,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>345</v>
+        <v>28</v>
       </c>
       <c r="B41" t="s">
         <v>127</v>
@@ -3510,16 +3534,16 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>349</v>
+        <v>29</v>
       </c>
       <c r="H41" t="s">
-        <v>350</v>
+        <v>30</v>
       </c>
       <c r="I41" t="s">
-        <v>351</v>
+        <v>31</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
@@ -3527,10 +3551,10 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>345</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C42" t="b">
         <v>1</v>
@@ -3542,16 +3566,16 @@
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>33</v>
+        <v>349</v>
       </c>
       <c r="H42" t="s">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="I42" t="s">
-        <v>35</v>
+        <v>351</v>
       </c>
       <c r="J42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
@@ -3559,7 +3583,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>480</v>
+        <v>32</v>
       </c>
       <c r="B43" t="s">
         <v>128</v>
@@ -3583,7 +3607,7 @@
         <v>35</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K43" t="b">
         <v>0</v>
@@ -3591,10 +3615,10 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>480</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
@@ -3606,16 +3630,16 @@
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H44" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I44" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K44" t="b">
         <v>0</v>
@@ -3623,7 +3647,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>366</v>
+        <v>36</v>
       </c>
       <c r="B45" t="s">
         <v>129</v>
@@ -3638,16 +3662,16 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>367</v>
+        <v>37</v>
       </c>
       <c r="H45" t="s">
-        <v>368</v>
+        <v>38</v>
       </c>
       <c r="I45" t="s">
-        <v>369</v>
+        <v>39</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K45" t="b">
         <v>0</v>
@@ -3655,10 +3679,10 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>366</v>
       </c>
       <c r="B46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" t="b">
         <v>1</v>
@@ -3670,16 +3694,16 @@
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>41</v>
+        <v>367</v>
       </c>
       <c r="H46" t="s">
-        <v>42</v>
+        <v>368</v>
       </c>
       <c r="I46" t="s">
-        <v>43</v>
+        <v>369</v>
       </c>
       <c r="J46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
@@ -3687,10 +3711,10 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C47" t="b">
         <v>1</v>
@@ -3702,13 +3726,13 @@
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I47" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J47">
         <v>2</v>
@@ -3719,10 +3743,10 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C48" t="b">
         <v>1</v>
@@ -3734,13 +3758,13 @@
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J48">
         <v>2</v>
@@ -3751,10 +3775,10 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C49" t="b">
         <v>1</v>
@@ -3766,13 +3790,13 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H49" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I49" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J49">
         <v>2</v>
@@ -3783,7 +3807,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>364</v>
+        <v>52</v>
       </c>
       <c r="B50" t="s">
         <v>133</v>
@@ -3807,7 +3831,7 @@
         <v>55</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
@@ -3815,34 +3839,31 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>134</v>
+        <v>364</v>
       </c>
       <c r="B51" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
       </c>
       <c r="E51" t="b">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="H51" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="I51" t="s">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c r="J51">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
@@ -3850,7 +3871,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B52" t="s">
         <v>135</v>
@@ -3859,25 +3880,25 @@
         <v>0</v>
       </c>
       <c r="D52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G52" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H52" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I52" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J52">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
@@ -3885,34 +3906,34 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>382</v>
+        <v>139</v>
       </c>
       <c r="B53" t="s">
-        <v>383</v>
+        <v>135</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
       </c>
       <c r="D53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G53" t="s">
-        <v>384</v>
+        <v>140</v>
       </c>
       <c r="H53" t="s">
-        <v>385</v>
+        <v>141</v>
       </c>
       <c r="I53" t="s">
-        <v>386</v>
+        <v>142</v>
       </c>
       <c r="J53">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
@@ -3920,7 +3941,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B54" t="s">
         <v>383</v>
@@ -3929,25 +3950,25 @@
         <v>0</v>
       </c>
       <c r="D54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G54" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H54" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="I54" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="J54">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
@@ -3955,45 +3976,42 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>147</v>
+        <v>387</v>
       </c>
       <c r="B55" t="s">
-        <v>148</v>
+        <v>383</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
       </c>
       <c r="D55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G55" t="s">
-        <v>223</v>
+        <v>388</v>
       </c>
       <c r="H55" t="s">
-        <v>149</v>
+        <v>389</v>
       </c>
       <c r="I55" t="s">
-        <v>150</v>
+        <v>390</v>
       </c>
       <c r="J55">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
-      </c>
-      <c r="L55" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B56" t="s">
         <v>148</v>
@@ -4002,25 +4020,25 @@
         <v>0</v>
       </c>
       <c r="D56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G56" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H56" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I56" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J56">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
@@ -4031,31 +4049,34 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>448</v>
+        <v>151</v>
       </c>
       <c r="B57" t="s">
         <v>148</v>
       </c>
       <c r="C57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="b">
         <v>1</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
       </c>
       <c r="G57" t="s">
         <v>224</v>
       </c>
       <c r="H57" t="s">
-        <v>449</v>
+        <v>152</v>
       </c>
       <c r="I57" t="s">
         <v>153</v>
       </c>
       <c r="J57">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
@@ -4066,7 +4087,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="B58" t="s">
         <v>148</v>
@@ -4084,7 +4105,7 @@
         <v>224</v>
       </c>
       <c r="H58" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="I58" t="s">
         <v>153</v>
@@ -4101,42 +4122,42 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>154</v>
+        <v>467</v>
       </c>
       <c r="B59" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" t="b">
         <v>0</v>
       </c>
       <c r="E59" t="b">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H59" t="s">
-        <v>156</v>
+        <v>468</v>
       </c>
       <c r="I59" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J59">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
+      </c>
+      <c r="L59" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B60" t="s">
         <v>155</v>
@@ -4145,25 +4166,25 @@
         <v>0</v>
       </c>
       <c r="D60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G60" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H60" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I60" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J60">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
@@ -4171,10 +4192,10 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B61" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
@@ -4186,16 +4207,16 @@
         <v>1</v>
       </c>
       <c r="F61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H61" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I61" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J61">
         <v>5</v>
@@ -4206,31 +4227,31 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B62" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C62" t="b">
         <v>0</v>
       </c>
       <c r="D62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G62" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H62" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I62" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J62">
         <v>5</v>
@@ -4241,7 +4262,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B63" t="s">
         <v>166</v>
@@ -4250,25 +4271,25 @@
         <v>0</v>
       </c>
       <c r="D63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G63" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H63" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I63" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J63">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K63" t="b">
         <v>0</v>
@@ -4276,34 +4297,34 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B64" t="s">
-        <v>309</v>
+        <v>166</v>
       </c>
       <c r="C64" t="b">
         <v>0</v>
       </c>
       <c r="D64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G64" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H64" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I64" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J64">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
@@ -4311,7 +4332,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B65" t="s">
         <v>309</v>
@@ -4320,25 +4341,25 @@
         <v>0</v>
       </c>
       <c r="D65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H65" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I65" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J65">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K65" t="b">
         <v>0</v>
@@ -4346,31 +4367,34 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>356</v>
+        <v>176</v>
       </c>
       <c r="B66" t="s">
         <v>309</v>
       </c>
       <c r="C66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="b">
         <v>1</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
       </c>
       <c r="G66" t="s">
         <v>231</v>
       </c>
       <c r="H66" t="s">
-        <v>357</v>
+        <v>177</v>
       </c>
       <c r="I66" t="s">
         <v>178</v>
       </c>
       <c r="J66">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K66" t="b">
         <v>0</v>
@@ -4378,7 +4402,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>469</v>
+        <v>356</v>
       </c>
       <c r="B67" t="s">
         <v>309</v>
@@ -4396,7 +4420,7 @@
         <v>231</v>
       </c>
       <c r="H67" t="s">
-        <v>470</v>
+        <v>357</v>
       </c>
       <c r="I67" t="s">
         <v>178</v>
@@ -4410,45 +4434,39 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>391</v>
+        <v>469</v>
       </c>
       <c r="B68" t="s">
-        <v>392</v>
+        <v>309</v>
       </c>
       <c r="C68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="b">
         <v>0</v>
       </c>
       <c r="E68" t="b">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G68" t="s">
-        <v>393</v>
+        <v>231</v>
       </c>
       <c r="H68" t="s">
-        <v>394</v>
+        <v>470</v>
       </c>
       <c r="I68" t="s">
-        <v>395</v>
+        <v>178</v>
       </c>
       <c r="J68">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K68" t="b">
         <v>0</v>
-      </c>
-      <c r="M68">
-        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B69" t="s">
         <v>392</v>
@@ -4457,25 +4475,25 @@
         <v>0</v>
       </c>
       <c r="D69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G69" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H69" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="I69" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="J69">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
@@ -4486,45 +4504,45 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B70" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
       </c>
       <c r="D70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G70" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="H70" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="I70" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="J70">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K70" t="b">
         <v>0</v>
       </c>
       <c r="M70">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B71" t="s">
         <v>401</v>
@@ -4533,25 +4551,25 @@
         <v>0</v>
       </c>
       <c r="D71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G71" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H71" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="I71" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="J71">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K71" t="b">
         <v>0</v>
@@ -4562,31 +4580,31 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>179</v>
+        <v>405</v>
       </c>
       <c r="B72" t="s">
-        <v>180</v>
+        <v>401</v>
       </c>
       <c r="C72" t="b">
         <v>0</v>
       </c>
       <c r="D72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G72" t="s">
-        <v>232</v>
+        <v>406</v>
       </c>
       <c r="H72" t="s">
-        <v>181</v>
+        <v>407</v>
       </c>
       <c r="I72" t="s">
-        <v>182</v>
+        <v>408</v>
       </c>
       <c r="J72">
         <v>5</v>
@@ -4594,10 +4612,13 @@
       <c r="K72" t="b">
         <v>0</v>
       </c>
+      <c r="M72">
+        <v>2</v>
+      </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B73" t="s">
         <v>180</v>
@@ -4606,25 +4627,25 @@
         <v>0</v>
       </c>
       <c r="D73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G73" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H73" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I73" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J73">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K73" t="b">
         <v>0</v>
@@ -4632,34 +4653,34 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B74" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
       </c>
       <c r="D74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G74" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H74" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I74" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J74">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K74" t="b">
         <v>0</v>
@@ -4667,7 +4688,7 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B75" t="s">
         <v>187</v>
@@ -4676,25 +4697,25 @@
         <v>0</v>
       </c>
       <c r="D75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G75" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H75" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I75" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J75">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K75" t="b">
         <v>0</v>
@@ -4702,34 +4723,34 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B76" t="s">
-        <v>310</v>
+        <v>187</v>
       </c>
       <c r="C76" t="b">
         <v>0</v>
       </c>
       <c r="D76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G76" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H76" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I76" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J76">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K76" t="b">
         <v>0</v>
@@ -4737,7 +4758,7 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B77" t="s">
         <v>310</v>
@@ -4746,25 +4767,25 @@
         <v>0</v>
       </c>
       <c r="D77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G77" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H77" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I77" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J77">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K77" t="b">
         <v>0</v>
@@ -4772,31 +4793,34 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>464</v>
+        <v>196</v>
       </c>
       <c r="B78" t="s">
         <v>310</v>
       </c>
       <c r="C78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" t="b">
         <v>1</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
       </c>
       <c r="G78" t="s">
         <v>237</v>
       </c>
       <c r="H78" t="s">
-        <v>466</v>
+        <v>197</v>
       </c>
       <c r="I78" t="s">
         <v>198</v>
       </c>
       <c r="J78">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K78" t="b">
         <v>0</v>
@@ -4804,69 +4828,63 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>143</v>
+        <v>464</v>
       </c>
       <c r="B79" t="s">
-        <v>144</v>
+        <v>310</v>
       </c>
       <c r="C79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" t="b">
         <v>1</v>
       </c>
-      <c r="F79">
-        <v>4</v>
-      </c>
       <c r="G79" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="H79" t="s">
-        <v>145</v>
+        <v>466</v>
       </c>
       <c r="I79" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="J79">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K79" t="b">
         <v>0</v>
-      </c>
-      <c r="L79" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>409</v>
+        <v>143</v>
       </c>
       <c r="B80" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
       </c>
       <c r="D80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G80" t="s">
-        <v>410</v>
+        <v>249</v>
       </c>
       <c r="H80" t="s">
-        <v>411</v>
+        <v>145</v>
       </c>
       <c r="I80" t="s">
-        <v>412</v>
+        <v>146</v>
       </c>
       <c r="J80">
         <v>5</v>
@@ -4874,54 +4892,54 @@
       <c r="K80" t="b">
         <v>0</v>
       </c>
-      <c r="M80">
-        <v>4</v>
+      <c r="L80" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>199</v>
+        <v>409</v>
       </c>
       <c r="B81" t="s">
-        <v>311</v>
+        <v>200</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
       </c>
       <c r="D81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81">
+        <v>100</v>
+      </c>
+      <c r="G81" t="s">
+        <v>410</v>
+      </c>
+      <c r="H81" t="s">
+        <v>411</v>
+      </c>
+      <c r="I81" t="s">
+        <v>412</v>
+      </c>
+      <c r="J81">
+        <v>5</v>
+      </c>
+      <c r="K81" t="b">
+        <v>0</v>
+      </c>
+      <c r="M81">
         <v>4</v>
-      </c>
-      <c r="G81" t="s">
-        <v>238</v>
-      </c>
-      <c r="H81" t="s">
-        <v>201</v>
-      </c>
-      <c r="I81" t="s">
-        <v>202</v>
-      </c>
-      <c r="J81">
-        <v>3</v>
-      </c>
-      <c r="K81" t="b">
-        <v>0</v>
-      </c>
-      <c r="L81" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>312</v>
+        <v>199</v>
       </c>
       <c r="B82" t="s">
-        <v>413</v>
+        <v>311</v>
       </c>
       <c r="C82" t="b">
         <v>0</v>
@@ -4936,13 +4954,13 @@
         <v>4</v>
       </c>
       <c r="G82" t="s">
-        <v>313</v>
+        <v>238</v>
       </c>
       <c r="H82" t="s">
-        <v>314</v>
+        <v>201</v>
       </c>
       <c r="I82" t="s">
-        <v>315</v>
+        <v>202</v>
       </c>
       <c r="J82">
         <v>3</v>
@@ -4956,10 +4974,10 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>251</v>
+        <v>312</v>
       </c>
       <c r="B83" t="s">
-        <v>222</v>
+        <v>413</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
@@ -4974,13 +4992,13 @@
         <v>4</v>
       </c>
       <c r="G83" t="s">
-        <v>252</v>
+        <v>313</v>
       </c>
       <c r="H83" t="s">
-        <v>253</v>
+        <v>314</v>
       </c>
       <c r="I83" t="s">
-        <v>254</v>
+        <v>315</v>
       </c>
       <c r="J83">
         <v>3</v>
@@ -4989,47 +5007,50 @@
         <v>0</v>
       </c>
       <c r="L83" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="B84" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C84" t="b">
         <v>0</v>
       </c>
       <c r="D84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G84" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="H84" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="I84" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="J84">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K84" t="b">
         <v>0</v>
+      </c>
+      <c r="L84" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>316</v>
+        <v>218</v>
       </c>
       <c r="B85" t="s">
         <v>219</v>
@@ -5038,22 +5059,22 @@
         <v>0</v>
       </c>
       <c r="D85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G85" t="s">
-        <v>317</v>
+        <v>239</v>
       </c>
       <c r="H85" t="s">
-        <v>318</v>
+        <v>220</v>
       </c>
       <c r="I85" t="s">
-        <v>319</v>
+        <v>221</v>
       </c>
       <c r="J85">
         <v>5</v>
@@ -5064,10 +5085,10 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>203</v>
+        <v>316</v>
       </c>
       <c r="B86" t="s">
-        <v>320</v>
+        <v>219</v>
       </c>
       <c r="C86" t="b">
         <v>0</v>
@@ -5079,19 +5100,19 @@
         <v>1</v>
       </c>
       <c r="F86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G86" t="s">
-        <v>241</v>
+        <v>317</v>
       </c>
       <c r="H86" t="s">
-        <v>204</v>
+        <v>318</v>
       </c>
       <c r="I86" t="s">
-        <v>205</v>
+        <v>319</v>
       </c>
       <c r="J86">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K86" t="b">
         <v>0</v>
@@ -5099,10 +5120,10 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B87" t="s">
-        <v>207</v>
+        <v>320</v>
       </c>
       <c r="C87" t="b">
         <v>0</v>
@@ -5117,13 +5138,13 @@
         <v>4</v>
       </c>
       <c r="G87" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H87" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I87" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J87">
         <v>3</v>
@@ -5131,16 +5152,13 @@
       <c r="K87" t="b">
         <v>0</v>
       </c>
-      <c r="L87" t="s">
-        <v>242</v>
-      </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B88" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C88" t="b">
         <v>0</v>
@@ -5155,13 +5173,13 @@
         <v>4</v>
       </c>
       <c r="G88" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H88" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I88" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="J88">
         <v>3</v>
@@ -5170,15 +5188,15 @@
         <v>0</v>
       </c>
       <c r="L88" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B89" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C89" t="b">
         <v>0</v>
@@ -5193,51 +5211,51 @@
         <v>4</v>
       </c>
       <c r="G89" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="H89" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I89" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K89" t="b">
         <v>0</v>
       </c>
       <c r="L89" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>321</v>
+        <v>214</v>
       </c>
       <c r="B90" t="s">
-        <v>322</v>
+        <v>215</v>
       </c>
       <c r="C90" t="b">
         <v>0</v>
       </c>
       <c r="D90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G90" t="s">
-        <v>323</v>
+        <v>250</v>
       </c>
       <c r="H90" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="I90" t="s">
-        <v>325</v>
+        <v>217</v>
       </c>
       <c r="J90">
         <v>5</v>
@@ -5245,10 +5263,13 @@
       <c r="K90" t="b">
         <v>0</v>
       </c>
+      <c r="L90" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B91" t="s">
         <v>322</v>
@@ -5257,25 +5278,25 @@
         <v>0</v>
       </c>
       <c r="D91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G91" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H91" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I91" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J91">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K91" t="b">
         <v>0</v>
@@ -5283,31 +5304,34 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>452</v>
+        <v>326</v>
       </c>
       <c r="B92" t="s">
         <v>322</v>
       </c>
       <c r="C92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" t="b">
         <v>1</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
       </c>
       <c r="G92" t="s">
         <v>327</v>
       </c>
       <c r="H92" t="s">
-        <v>453</v>
+        <v>328</v>
       </c>
       <c r="I92" t="s">
         <v>329</v>
       </c>
       <c r="J92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K92" t="b">
         <v>0</v>
@@ -5315,104 +5339,101 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>330</v>
+        <v>452</v>
       </c>
       <c r="B93" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93" t="b">
         <v>0</v>
       </c>
       <c r="E93" t="b">
-        <v>0</v>
-      </c>
-      <c r="F93">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G93" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="H93" t="s">
-        <v>333</v>
+        <v>453</v>
       </c>
       <c r="I93" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="J93">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K93" t="b">
         <v>0</v>
-      </c>
-      <c r="M93">
-        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>436</v>
+        <v>330</v>
       </c>
       <c r="B94" t="s">
         <v>331</v>
       </c>
       <c r="C94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D94" t="b">
         <v>0</v>
       </c>
       <c r="E94" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>100</v>
       </c>
       <c r="G94" t="s">
-        <v>437</v>
+        <v>332</v>
       </c>
       <c r="H94" t="s">
-        <v>438</v>
+        <v>333</v>
       </c>
       <c r="I94" t="s">
-        <v>439</v>
+        <v>334</v>
       </c>
       <c r="J94">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K94" t="b">
         <v>0</v>
+      </c>
+      <c r="M94">
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>414</v>
+        <v>436</v>
       </c>
       <c r="B95" t="s">
-        <v>415</v>
+        <v>331</v>
       </c>
       <c r="C95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95" t="b">
         <v>0</v>
       </c>
       <c r="E95" t="b">
-        <v>0</v>
-      </c>
-      <c r="F95">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G95" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
       <c r="H95" t="s">
-        <v>417</v>
+        <v>438</v>
       </c>
       <c r="I95" t="s">
-        <v>418</v>
+        <v>439</v>
       </c>
       <c r="J95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K95" t="b">
         <v>0</v>
@@ -5420,7 +5441,7 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B96" t="s">
         <v>415</v>
@@ -5429,25 +5450,25 @@
         <v>0</v>
       </c>
       <c r="D96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G96" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="H96" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="I96" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="J96">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K96" t="b">
         <v>0</v>
@@ -5455,34 +5476,34 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B97" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="C97" t="b">
         <v>0</v>
       </c>
       <c r="D97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G97" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="H97" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="I97" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="J97">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K97" t="b">
         <v>0</v>
@@ -5490,31 +5511,34 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="B98" t="s">
-        <v>130</v>
+        <v>424</v>
       </c>
       <c r="C98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98" t="b">
         <v>0</v>
       </c>
       <c r="E98" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>100</v>
       </c>
       <c r="G98" t="s">
-        <v>352</v>
+        <v>425</v>
       </c>
       <c r="H98" t="s">
-        <v>353</v>
+        <v>426</v>
       </c>
       <c r="I98" t="s">
-        <v>354</v>
+        <v>427</v>
       </c>
       <c r="J98">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K98" t="b">
         <v>0</v>
@@ -5522,7 +5546,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="B99" t="s">
         <v>130</v>
@@ -5537,13 +5561,13 @@
         <v>1</v>
       </c>
       <c r="G99" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="H99" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="I99" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="J99">
         <v>1</v>
@@ -5554,10 +5578,10 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="B100" t="s">
-        <v>375</v>
+        <v>130</v>
       </c>
       <c r="C100" t="b">
         <v>1</v>
@@ -5569,13 +5593,13 @@
         <v>1</v>
       </c>
       <c r="G100" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="H100" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="I100" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="J100">
         <v>1</v>
@@ -5586,10 +5610,10 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>481</v>
+        <v>370</v>
       </c>
       <c r="B101" t="s">
-        <v>483</v>
+        <v>375</v>
       </c>
       <c r="C101" t="b">
         <v>1</v>
@@ -5601,13 +5625,13 @@
         <v>1</v>
       </c>
       <c r="G101" t="s">
-        <v>484</v>
+        <v>371</v>
       </c>
       <c r="H101" t="s">
-        <v>485</v>
+        <v>372</v>
       </c>
       <c r="I101" t="s">
-        <v>486</v>
+        <v>373</v>
       </c>
       <c r="J101">
         <v>1</v>
@@ -5618,10 +5642,10 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B102" t="s">
-        <v>376</v>
+        <v>483</v>
       </c>
       <c r="C102" t="b">
         <v>1</v>
@@ -5633,13 +5657,13 @@
         <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="H102" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="I102" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="J102">
         <v>1</v>
@@ -5650,10 +5674,10 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>428</v>
+        <v>482</v>
       </c>
       <c r="B103" t="s">
-        <v>434</v>
+        <v>376</v>
       </c>
       <c r="C103" t="b">
         <v>1</v>
@@ -5665,13 +5689,13 @@
         <v>1</v>
       </c>
       <c r="G103" t="s">
-        <v>429</v>
+        <v>487</v>
       </c>
       <c r="H103" t="s">
-        <v>430</v>
+        <v>488</v>
       </c>
       <c r="I103" t="s">
-        <v>431</v>
+        <v>489</v>
       </c>
       <c r="J103">
         <v>1</v>
@@ -5682,10 +5706,10 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="B104" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="C104" t="b">
         <v>1</v>
@@ -5697,13 +5721,13 @@
         <v>1</v>
       </c>
       <c r="G104" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H104" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="I104" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="J104">
         <v>1</v>
@@ -5714,10 +5738,10 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="B105" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="C105" t="b">
         <v>1</v>
@@ -5729,13 +5753,13 @@
         <v>1</v>
       </c>
       <c r="G105" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="H105" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="I105" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -5746,33 +5770,97 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
+        <v>454</v>
+      </c>
+      <c r="B106" t="s">
+        <v>455</v>
+      </c>
+      <c r="C106" t="b">
+        <v>1</v>
+      </c>
+      <c r="D106" t="b">
+        <v>0</v>
+      </c>
+      <c r="E106" t="b">
+        <v>1</v>
+      </c>
+      <c r="G106" t="s">
+        <v>456</v>
+      </c>
+      <c r="H106" t="s">
+        <v>457</v>
+      </c>
+      <c r="I106" t="s">
+        <v>458</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>472</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B107" t="s">
         <v>476</v>
       </c>
-      <c r="C106" t="b">
-        <v>1</v>
-      </c>
-      <c r="D106" t="b">
-        <v>0</v>
-      </c>
-      <c r="E106" t="b">
-        <v>1</v>
-      </c>
-      <c r="G106" t="s">
+      <c r="C107" t="b">
+        <v>1</v>
+      </c>
+      <c r="D107" t="b">
+        <v>0</v>
+      </c>
+      <c r="E107" t="b">
+        <v>1</v>
+      </c>
+      <c r="G107" t="s">
         <v>473</v>
       </c>
-      <c r="H106" t="s">
+      <c r="H107" t="s">
         <v>474</v>
       </c>
-      <c r="I106" t="s">
+      <c r="I107" t="s">
         <v>475</v>
       </c>
-      <c r="J106">
-        <v>1</v>
-      </c>
-      <c r="K106" t="b">
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>492</v>
+      </c>
+      <c r="B108" t="s">
+        <v>494</v>
+      </c>
+      <c r="C108" t="b">
+        <v>1</v>
+      </c>
+      <c r="D108" t="b">
+        <v>0</v>
+      </c>
+      <c r="E108" t="b">
+        <v>1</v>
+      </c>
+      <c r="G108" t="s">
+        <v>495</v>
+      </c>
+      <c r="H108" t="s">
+        <v>496</v>
+      </c>
+      <c r="I108" t="s">
+        <v>497</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5817,7 +5905,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6239E2D-40EA-4B45-8295-42B35BCC92F9}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -6149,6 +6237,28 @@
         <v>480</v>
       </c>
     </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>490</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>490</v>
+      </c>
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>492</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D159ED37-416F-4C3D-AA7D-5FCA3A54D5CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B838FF-0285-4EBD-A561-7644BD5B7E7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="506">
   <si>
     <t>levelPackId|String</t>
   </si>
@@ -1528,6 +1528,30 @@
   </si>
   <si>
     <t>LevelPackUIDesc_OnMoveBuffNecromancerFour</t>
+  </si>
+  <si>
+    <t>Actor0233</t>
+  </si>
+  <si>
+    <t>ReduceDmgCloseBestSyria</t>
+  </si>
+  <si>
+    <t>AtkSpeedBestSyria</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_AtkSpeedBestSyria</t>
+  </si>
+  <si>
+    <t>FlatIcon_159_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>LP_ReduceDmgCloseBestSyria</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_ReduceDmgCloseBestSyria</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_ReduceDmgCloseBestSyria</t>
   </si>
 </sst>
 </file>
@@ -2095,7 +2119,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
-  <dimension ref="A1:M108"/>
+  <dimension ref="A1:M110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2495,34 +2519,31 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>500</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H12" t="s">
-        <v>88</v>
+        <v>501</v>
       </c>
       <c r="I12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J12">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
@@ -2530,7 +2551,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
         <v>86</v>
@@ -2539,25 +2560,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="G13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I13" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
@@ -2565,31 +2586,34 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>460</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
         <v>86</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
       </c>
       <c r="G14" t="s">
         <v>91</v>
       </c>
       <c r="H14" t="s">
-        <v>461</v>
+        <v>92</v>
       </c>
       <c r="I14" t="s">
         <v>93</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
@@ -2597,7 +2621,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="B15" t="s">
         <v>86</v>
@@ -2615,7 +2639,7 @@
         <v>91</v>
       </c>
       <c r="H15" t="s">
-        <v>493</v>
+        <v>461</v>
       </c>
       <c r="I15" t="s">
         <v>93</v>
@@ -2629,34 +2653,31 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>491</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
       <c r="G16" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H16" t="s">
-        <v>97</v>
+        <v>493</v>
       </c>
       <c r="I16" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
@@ -2664,34 +2685,34 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H17" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I17" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J17">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
@@ -2699,7 +2720,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B18" t="s">
         <v>100</v>
@@ -2708,22 +2729,22 @@
         <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="G18" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H18" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I18" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J18">
         <v>9</v>
@@ -2734,31 +2755,34 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>445</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s">
         <v>100</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
       </c>
       <c r="G19" t="s">
         <v>105</v>
       </c>
       <c r="H19" t="s">
-        <v>446</v>
+        <v>106</v>
       </c>
       <c r="I19" t="s">
         <v>107</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
@@ -2766,34 +2790,31 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>445</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
       <c r="G20" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H20" t="s">
-        <v>111</v>
+        <v>446</v>
       </c>
       <c r="I20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
@@ -2801,28 +2822,31 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>377</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>378</v>
+        <v>109</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>379</v>
+        <v>110</v>
       </c>
       <c r="H21" t="s">
-        <v>380</v>
+        <v>111</v>
       </c>
       <c r="I21" t="s">
-        <v>381</v>
+        <v>112</v>
       </c>
       <c r="J21">
         <v>5</v>
@@ -2833,10 +2857,10 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>377</v>
       </c>
       <c r="B22" t="s">
-        <v>114</v>
+        <v>378</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -2847,20 +2871,17 @@
       <c r="E22" t="b">
         <v>0</v>
       </c>
-      <c r="F22">
-        <v>80</v>
-      </c>
       <c r="G22" t="s">
-        <v>115</v>
+        <v>379</v>
       </c>
       <c r="H22" t="s">
-        <v>116</v>
+        <v>380</v>
       </c>
       <c r="I22" t="s">
-        <v>117</v>
+        <v>381</v>
       </c>
       <c r="J22">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
@@ -2868,7 +2889,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>262</v>
+        <v>113</v>
       </c>
       <c r="B23" t="s">
         <v>114</v>
@@ -2877,22 +2898,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s">
-        <v>263</v>
+        <v>115</v>
       </c>
       <c r="H23" t="s">
-        <v>264</v>
+        <v>116</v>
       </c>
       <c r="I23" t="s">
-        <v>265</v>
+        <v>117</v>
       </c>
       <c r="J23">
         <v>9</v>
@@ -2903,31 +2924,34 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>463</v>
+        <v>262</v>
       </c>
       <c r="B24" t="s">
         <v>114</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
       </c>
       <c r="G24" t="s">
         <v>263</v>
       </c>
       <c r="H24" t="s">
-        <v>465</v>
+        <v>264</v>
       </c>
       <c r="I24" t="s">
         <v>265</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K24" t="b">
         <v>0</v>
@@ -2935,45 +2959,39 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>266</v>
+        <v>463</v>
       </c>
       <c r="B25" t="s">
-        <v>267</v>
+        <v>114</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H25" t="s">
-        <v>269</v>
+        <v>465</v>
       </c>
       <c r="I25" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="J25">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K25" t="b">
         <v>0</v>
-      </c>
-      <c r="M25">
-        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B26" t="s">
         <v>267</v>
@@ -2982,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H26" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I26" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="J26">
         <v>9</v>
@@ -3011,31 +3029,31 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>118</v>
+        <v>271</v>
       </c>
       <c r="B27" t="s">
-        <v>119</v>
+        <v>267</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G27" t="s">
-        <v>120</v>
+        <v>272</v>
       </c>
       <c r="H27" t="s">
-        <v>121</v>
+        <v>273</v>
       </c>
       <c r="I27" t="s">
-        <v>122</v>
+        <v>274</v>
       </c>
       <c r="J27">
         <v>9</v>
@@ -3044,12 +3062,12 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>275</v>
+        <v>118</v>
       </c>
       <c r="B28" t="s">
         <v>119</v>
@@ -3058,22 +3076,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s">
-        <v>276</v>
+        <v>120</v>
       </c>
       <c r="H28" t="s">
-        <v>277</v>
+        <v>121</v>
       </c>
       <c r="I28" t="s">
-        <v>278</v>
+        <v>122</v>
       </c>
       <c r="J28">
         <v>9</v>
@@ -3087,31 +3105,31 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B29" t="s">
-        <v>280</v>
+        <v>119</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G29" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H29" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="I29" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="J29">
         <v>9</v>
@@ -3120,88 +3138,85 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>284</v>
+        <v>499</v>
       </c>
       <c r="B30" t="s">
-        <v>280</v>
+        <v>502</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>1</v>
       </c>
-      <c r="F30">
-        <v>2</v>
-      </c>
       <c r="G30" t="s">
-        <v>285</v>
+        <v>503</v>
       </c>
       <c r="H30" t="s">
-        <v>286</v>
+        <v>504</v>
       </c>
       <c r="I30" t="s">
-        <v>287</v>
+        <v>505</v>
       </c>
       <c r="J30">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K30" t="b">
         <v>0</v>
-      </c>
-      <c r="M30">
-        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B31" t="s">
-        <v>173</v>
+        <v>280</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="H31" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="I31" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="J31">
+        <v>9</v>
+      </c>
+      <c r="K31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31">
         <v>3</v>
-      </c>
-      <c r="K31" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B32" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
@@ -3213,51 +3228,54 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G32" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="H32" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="I32" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="J32">
+        <v>9</v>
+      </c>
+      <c r="K32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32">
         <v>3</v>
-      </c>
-      <c r="K32" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>288</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>289</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>290</v>
       </c>
       <c r="I33" t="s">
-        <v>15</v>
+        <v>291</v>
       </c>
       <c r="J33">
         <v>3</v>
@@ -3265,16 +3283,13 @@
       <c r="K33" t="b">
         <v>0</v>
       </c>
-      <c r="M33">
-        <v>4</v>
-      </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
+        <v>293</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
@@ -3286,16 +3301,16 @@
         <v>1</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G34" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="I34" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J34">
         <v>3</v>
@@ -3303,16 +3318,13 @@
       <c r="K34" t="b">
         <v>0</v>
       </c>
-      <c r="M34">
-        <v>4</v>
-      </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
@@ -3327,13 +3339,13 @@
         <v>100</v>
       </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H35" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I35" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J35">
         <v>3</v>
@@ -3342,15 +3354,15 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
@@ -3365,13 +3377,13 @@
         <v>2</v>
       </c>
       <c r="G36" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H36" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I36" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="J36">
         <v>3</v>
@@ -3380,15 +3392,15 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
@@ -3403,13 +3415,13 @@
         <v>100</v>
       </c>
       <c r="G37" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H37" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I37" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J37">
         <v>3</v>
@@ -3417,13 +3429,16 @@
       <c r="K37" t="b">
         <v>0</v>
       </c>
+      <c r="M37">
+        <v>7</v>
+      </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
@@ -3438,13 +3453,13 @@
         <v>2</v>
       </c>
       <c r="G38" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H38" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I38" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J38">
         <v>3</v>
@@ -3452,34 +3467,40 @@
       <c r="K38" t="b">
         <v>0</v>
       </c>
+      <c r="M38">
+        <v>7</v>
+      </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>100</v>
       </c>
       <c r="G39" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H39" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I39" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K39" t="b">
         <v>0</v>
@@ -3487,31 +3508,34 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="B40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="b">
         <v>1</v>
       </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
       <c r="G40" t="s">
-        <v>25</v>
+        <v>306</v>
       </c>
       <c r="H40" t="s">
-        <v>26</v>
+        <v>307</v>
       </c>
       <c r="I40" t="s">
-        <v>27</v>
+        <v>308</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K40" t="b">
         <v>0</v>
@@ -3519,10 +3543,10 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
@@ -3534,13 +3558,13 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H41" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I41" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J41">
         <v>2</v>
@@ -3551,10 +3575,10 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C42" t="b">
         <v>1</v>
@@ -3566,13 +3590,13 @@
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>349</v>
+        <v>25</v>
       </c>
       <c r="H42" t="s">
-        <v>350</v>
+        <v>26</v>
       </c>
       <c r="I42" t="s">
-        <v>351</v>
+        <v>27</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -3583,10 +3607,10 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C43" t="b">
         <v>1</v>
@@ -3598,13 +3622,13 @@
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H43" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I43" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J43">
         <v>2</v>
@@ -3615,10 +3639,10 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>480</v>
+        <v>345</v>
       </c>
       <c r="B44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
@@ -3630,13 +3654,13 @@
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>349</v>
       </c>
       <c r="H44" t="s">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="I44" t="s">
-        <v>35</v>
+        <v>351</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -3647,10 +3671,10 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C45" t="b">
         <v>1</v>
@@ -3662,13 +3686,13 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H45" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I45" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -3679,10 +3703,10 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>366</v>
+        <v>480</v>
       </c>
       <c r="B46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C46" t="b">
         <v>1</v>
@@ -3694,13 +3718,13 @@
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>367</v>
+        <v>33</v>
       </c>
       <c r="H46" t="s">
-        <v>368</v>
+        <v>34</v>
       </c>
       <c r="I46" t="s">
-        <v>369</v>
+        <v>35</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -3711,10 +3735,10 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B47" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C47" t="b">
         <v>1</v>
@@ -3726,13 +3750,13 @@
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H47" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I47" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J47">
         <v>2</v>
@@ -3743,10 +3767,10 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>366</v>
       </c>
       <c r="B48" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C48" t="b">
         <v>1</v>
@@ -3758,16 +3782,16 @@
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>367</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>368</v>
       </c>
       <c r="I48" t="s">
-        <v>47</v>
+        <v>369</v>
       </c>
       <c r="J48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
@@ -3775,10 +3799,10 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B49" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C49" t="b">
         <v>1</v>
@@ -3790,13 +3814,13 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H49" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I49" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J49">
         <v>2</v>
@@ -3807,10 +3831,10 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B50" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C50" t="b">
         <v>1</v>
@@ -3822,13 +3846,13 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H50" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="J50">
         <v>2</v>
@@ -3839,10 +3863,10 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>364</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C51" t="b">
         <v>1</v>
@@ -3854,16 +3878,16 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H51" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I51" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
@@ -3871,34 +3895,31 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
       </c>
       <c r="E52" t="b">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="H52" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="I52" t="s">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c r="J52">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
@@ -3906,34 +3927,31 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>139</v>
+        <v>364</v>
       </c>
       <c r="B53" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
-      <c r="F53">
-        <v>2</v>
-      </c>
       <c r="G53" t="s">
-        <v>140</v>
+        <v>53</v>
       </c>
       <c r="H53" t="s">
-        <v>141</v>
+        <v>54</v>
       </c>
       <c r="I53" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="J53">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
@@ -3941,10 +3959,10 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>382</v>
+        <v>134</v>
       </c>
       <c r="B54" t="s">
-        <v>383</v>
+        <v>135</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
@@ -3959,13 +3977,13 @@
         <v>100</v>
       </c>
       <c r="G54" t="s">
-        <v>384</v>
+        <v>136</v>
       </c>
       <c r="H54" t="s">
-        <v>385</v>
+        <v>137</v>
       </c>
       <c r="I54" t="s">
-        <v>386</v>
+        <v>138</v>
       </c>
       <c r="J54">
         <v>9</v>
@@ -3976,10 +3994,10 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>387</v>
+        <v>139</v>
       </c>
       <c r="B55" t="s">
-        <v>383</v>
+        <v>135</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
@@ -3994,13 +4012,13 @@
         <v>2</v>
       </c>
       <c r="G55" t="s">
-        <v>388</v>
+        <v>140</v>
       </c>
       <c r="H55" t="s">
-        <v>389</v>
+        <v>141</v>
       </c>
       <c r="I55" t="s">
-        <v>390</v>
+        <v>142</v>
       </c>
       <c r="J55">
         <v>5</v>
@@ -4011,10 +4029,10 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>147</v>
+        <v>382</v>
       </c>
       <c r="B56" t="s">
-        <v>148</v>
+        <v>383</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
@@ -4029,13 +4047,13 @@
         <v>100</v>
       </c>
       <c r="G56" t="s">
-        <v>223</v>
+        <v>384</v>
       </c>
       <c r="H56" t="s">
-        <v>149</v>
+        <v>385</v>
       </c>
       <c r="I56" t="s">
-        <v>150</v>
+        <v>386</v>
       </c>
       <c r="J56">
         <v>9</v>
@@ -4043,16 +4061,13 @@
       <c r="K56" t="b">
         <v>0</v>
       </c>
-      <c r="L56" t="s">
-        <v>244</v>
-      </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>151</v>
+        <v>387</v>
       </c>
       <c r="B57" t="s">
-        <v>148</v>
+        <v>383</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
@@ -4067,13 +4082,13 @@
         <v>2</v>
       </c>
       <c r="G57" t="s">
-        <v>224</v>
+        <v>388</v>
       </c>
       <c r="H57" t="s">
-        <v>152</v>
+        <v>389</v>
       </c>
       <c r="I57" t="s">
-        <v>153</v>
+        <v>390</v>
       </c>
       <c r="J57">
         <v>5</v>
@@ -4081,37 +4096,37 @@
       <c r="K57" t="b">
         <v>0</v>
       </c>
-      <c r="L57" t="s">
-        <v>244</v>
-      </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>448</v>
+        <v>147</v>
       </c>
       <c r="B58" t="s">
         <v>148</v>
       </c>
       <c r="C58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" t="b">
         <v>0</v>
       </c>
       <c r="E58" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>100</v>
       </c>
       <c r="G58" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H58" t="s">
-        <v>449</v>
+        <v>149</v>
       </c>
       <c r="I58" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J58">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
@@ -4122,31 +4137,34 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>467</v>
+        <v>151</v>
       </c>
       <c r="B59" t="s">
         <v>148</v>
       </c>
       <c r="C59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" t="b">
         <v>1</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
       </c>
       <c r="G59" t="s">
         <v>224</v>
       </c>
       <c r="H59" t="s">
-        <v>468</v>
+        <v>152</v>
       </c>
       <c r="I59" t="s">
         <v>153</v>
       </c>
       <c r="J59">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
@@ -4157,104 +4175,104 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>154</v>
+        <v>448</v>
       </c>
       <c r="B60" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" t="b">
         <v>0</v>
       </c>
       <c r="E60" t="b">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H60" t="s">
-        <v>156</v>
+        <v>449</v>
       </c>
       <c r="I60" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J60">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
+      </c>
+      <c r="L60" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>158</v>
+        <v>467</v>
       </c>
       <c r="B61" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" t="b">
         <v>1</v>
       </c>
-      <c r="F61">
-        <v>2</v>
-      </c>
       <c r="G61" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H61" t="s">
-        <v>159</v>
+        <v>468</v>
       </c>
       <c r="I61" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="J61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
+      </c>
+      <c r="L61" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B62" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C62" t="b">
         <v>0</v>
       </c>
       <c r="D62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="G62" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H62" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I62" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="J62">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
@@ -4262,31 +4280,31 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B63" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
       </c>
       <c r="D63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G63" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H63" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="I63" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="J63">
         <v>5</v>
@@ -4297,10 +4315,10 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B64" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C64" t="b">
         <v>0</v>
@@ -4312,19 +4330,19 @@
         <v>1</v>
       </c>
       <c r="F64">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G64" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H64" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="I64" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="J64">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
@@ -4332,10 +4350,10 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B65" t="s">
-        <v>309</v>
+        <v>166</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
@@ -4350,16 +4368,16 @@
         <v>100</v>
       </c>
       <c r="G65" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H65" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="I65" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="J65">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K65" t="b">
         <v>0</v>
@@ -4367,10 +4385,10 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B66" t="s">
-        <v>309</v>
+        <v>166</v>
       </c>
       <c r="C66" t="b">
         <v>0</v>
@@ -4385,16 +4403,16 @@
         <v>2</v>
       </c>
       <c r="G66" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H66" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="I66" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J66">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K66" t="b">
         <v>0</v>
@@ -4402,31 +4420,34 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>356</v>
+        <v>172</v>
       </c>
       <c r="B67" t="s">
         <v>309</v>
       </c>
       <c r="C67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67" t="b">
         <v>0</v>
       </c>
       <c r="E67" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>100</v>
       </c>
       <c r="G67" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H67" t="s">
-        <v>357</v>
+        <v>174</v>
       </c>
       <c r="I67" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J67">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
@@ -4434,31 +4455,34 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>469</v>
+        <v>176</v>
       </c>
       <c r="B68" t="s">
         <v>309</v>
       </c>
       <c r="C68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="b">
         <v>1</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
       </c>
       <c r="G68" t="s">
         <v>231</v>
       </c>
       <c r="H68" t="s">
-        <v>470</v>
+        <v>177</v>
       </c>
       <c r="I68" t="s">
         <v>178</v>
       </c>
       <c r="J68">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K68" t="b">
         <v>0</v>
@@ -4466,86 +4490,74 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>391</v>
+        <v>356</v>
       </c>
       <c r="B69" t="s">
-        <v>392</v>
+        <v>309</v>
       </c>
       <c r="C69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="b">
         <v>0</v>
       </c>
       <c r="E69" t="b">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G69" t="s">
-        <v>393</v>
+        <v>231</v>
       </c>
       <c r="H69" t="s">
-        <v>394</v>
+        <v>357</v>
       </c>
       <c r="I69" t="s">
-        <v>395</v>
+        <v>178</v>
       </c>
       <c r="J69">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
-      </c>
-      <c r="M69">
-        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>396</v>
+        <v>469</v>
       </c>
       <c r="B70" t="s">
-        <v>392</v>
+        <v>309</v>
       </c>
       <c r="C70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" t="b">
         <v>1</v>
       </c>
-      <c r="F70">
-        <v>2</v>
-      </c>
       <c r="G70" t="s">
-        <v>397</v>
+        <v>231</v>
       </c>
       <c r="H70" t="s">
-        <v>398</v>
+        <v>470</v>
       </c>
       <c r="I70" t="s">
-        <v>399</v>
+        <v>178</v>
       </c>
       <c r="J70">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K70" t="b">
         <v>0</v>
-      </c>
-      <c r="M70">
-        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="B71" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
@@ -4560,13 +4572,13 @@
         <v>100</v>
       </c>
       <c r="G71" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="H71" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="I71" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="J71">
         <v>9</v>
@@ -4575,15 +4587,15 @@
         <v>0</v>
       </c>
       <c r="M71">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="B72" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="C72" t="b">
         <v>0</v>
@@ -4598,13 +4610,13 @@
         <v>2</v>
       </c>
       <c r="G72" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="H72" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="I72" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="J72">
         <v>5</v>
@@ -4613,15 +4625,15 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>179</v>
+        <v>400</v>
       </c>
       <c r="B73" t="s">
-        <v>180</v>
+        <v>401</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
@@ -4636,27 +4648,30 @@
         <v>100</v>
       </c>
       <c r="G73" t="s">
-        <v>232</v>
+        <v>402</v>
       </c>
       <c r="H73" t="s">
-        <v>181</v>
+        <v>403</v>
       </c>
       <c r="I73" t="s">
-        <v>182</v>
+        <v>404</v>
       </c>
       <c r="J73">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K73" t="b">
         <v>0</v>
+      </c>
+      <c r="M73">
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>183</v>
+        <v>405</v>
       </c>
       <c r="B74" t="s">
-        <v>180</v>
+        <v>401</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
@@ -4671,27 +4686,30 @@
         <v>2</v>
       </c>
       <c r="G74" t="s">
-        <v>233</v>
+        <v>406</v>
       </c>
       <c r="H74" t="s">
-        <v>184</v>
+        <v>407</v>
       </c>
       <c r="I74" t="s">
-        <v>185</v>
+        <v>408</v>
       </c>
       <c r="J74">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K74" t="b">
         <v>0</v>
+      </c>
+      <c r="M74">
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B75" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C75" t="b">
         <v>0</v>
@@ -4706,16 +4724,16 @@
         <v>100</v>
       </c>
       <c r="G75" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H75" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="I75" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="J75">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K75" t="b">
         <v>0</v>
@@ -4723,10 +4741,10 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B76" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C76" t="b">
         <v>0</v>
@@ -4741,16 +4759,16 @@
         <v>2</v>
       </c>
       <c r="G76" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H76" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="I76" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="J76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K76" t="b">
         <v>0</v>
@@ -4758,10 +4776,10 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B77" t="s">
-        <v>310</v>
+        <v>187</v>
       </c>
       <c r="C77" t="b">
         <v>0</v>
@@ -4776,13 +4794,13 @@
         <v>100</v>
       </c>
       <c r="G77" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H77" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I77" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="J77">
         <v>9</v>
@@ -4793,10 +4811,10 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B78" t="s">
-        <v>310</v>
+        <v>187</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
@@ -4811,13 +4829,13 @@
         <v>2</v>
       </c>
       <c r="G78" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H78" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="I78" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="J78">
         <v>5</v>
@@ -4828,31 +4846,34 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>464</v>
+        <v>193</v>
       </c>
       <c r="B79" t="s">
         <v>310</v>
       </c>
       <c r="C79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79" t="b">
         <v>0</v>
       </c>
       <c r="E79" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>100</v>
       </c>
       <c r="G79" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H79" t="s">
-        <v>466</v>
+        <v>194</v>
       </c>
       <c r="I79" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J79">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K79" t="b">
         <v>0</v>
@@ -4860,10 +4881,10 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>143</v>
+        <v>196</v>
       </c>
       <c r="B80" t="s">
-        <v>144</v>
+        <v>310</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
@@ -4875,16 +4896,16 @@
         <v>1</v>
       </c>
       <c r="F80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G80" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="H80" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="I80" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="J80">
         <v>5</v>
@@ -4892,54 +4913,45 @@
       <c r="K80" t="b">
         <v>0</v>
       </c>
-      <c r="L80" t="s">
-        <v>246</v>
-      </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>409</v>
+        <v>464</v>
       </c>
       <c r="B81" t="s">
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="C81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" t="b">
         <v>0</v>
       </c>
       <c r="E81" t="b">
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>410</v>
+        <v>237</v>
       </c>
       <c r="H81" t="s">
-        <v>411</v>
+        <v>466</v>
       </c>
       <c r="I81" t="s">
-        <v>412</v>
+        <v>198</v>
       </c>
       <c r="J81">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K81" t="b">
         <v>0</v>
-      </c>
-      <c r="M81">
-        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="B82" t="s">
-        <v>311</v>
+        <v>144</v>
       </c>
       <c r="C82" t="b">
         <v>0</v>
@@ -4954,68 +4966,68 @@
         <v>4</v>
       </c>
       <c r="G82" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="H82" t="s">
-        <v>201</v>
+        <v>145</v>
       </c>
       <c r="I82" t="s">
-        <v>202</v>
+        <v>146</v>
       </c>
       <c r="J82">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K82" t="b">
         <v>0</v>
       </c>
       <c r="L82" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>312</v>
+        <v>409</v>
       </c>
       <c r="B83" t="s">
-        <v>413</v>
+        <v>200</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
       </c>
       <c r="D83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83">
+        <v>100</v>
+      </c>
+      <c r="G83" t="s">
+        <v>410</v>
+      </c>
+      <c r="H83" t="s">
+        <v>411</v>
+      </c>
+      <c r="I83" t="s">
+        <v>412</v>
+      </c>
+      <c r="J83">
+        <v>5</v>
+      </c>
+      <c r="K83" t="b">
+        <v>0</v>
+      </c>
+      <c r="M83">
         <v>4</v>
-      </c>
-      <c r="G83" t="s">
-        <v>313</v>
-      </c>
-      <c r="H83" t="s">
-        <v>314</v>
-      </c>
-      <c r="I83" t="s">
-        <v>315</v>
-      </c>
-      <c r="J83">
-        <v>3</v>
-      </c>
-      <c r="K83" t="b">
-        <v>0</v>
-      </c>
-      <c r="L83" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>251</v>
+        <v>199</v>
       </c>
       <c r="B84" t="s">
-        <v>222</v>
+        <v>311</v>
       </c>
       <c r="C84" t="b">
         <v>0</v>
@@ -5030,13 +5042,13 @@
         <v>4</v>
       </c>
       <c r="G84" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="H84" t="s">
-        <v>253</v>
+        <v>201</v>
       </c>
       <c r="I84" t="s">
-        <v>254</v>
+        <v>202</v>
       </c>
       <c r="J84">
         <v>3</v>
@@ -5045,50 +5057,53 @@
         <v>0</v>
       </c>
       <c r="L84" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>218</v>
+        <v>312</v>
       </c>
       <c r="B85" t="s">
-        <v>219</v>
+        <v>413</v>
       </c>
       <c r="C85" t="b">
         <v>0</v>
       </c>
       <c r="D85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G85" t="s">
-        <v>239</v>
+        <v>313</v>
       </c>
       <c r="H85" t="s">
-        <v>220</v>
+        <v>314</v>
       </c>
       <c r="I85" t="s">
-        <v>221</v>
+        <v>315</v>
       </c>
       <c r="J85">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K85" t="b">
         <v>0</v>
+      </c>
+      <c r="L85" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>316</v>
+        <v>251</v>
       </c>
       <c r="B86" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C86" t="b">
         <v>0</v>
@@ -5100,54 +5115,57 @@
         <v>1</v>
       </c>
       <c r="F86">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G86" t="s">
-        <v>317</v>
+        <v>252</v>
       </c>
       <c r="H86" t="s">
-        <v>318</v>
+        <v>253</v>
       </c>
       <c r="I86" t="s">
-        <v>319</v>
+        <v>254</v>
       </c>
       <c r="J86">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K86" t="b">
         <v>0</v>
+      </c>
+      <c r="L86" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="B87" t="s">
-        <v>320</v>
+        <v>219</v>
       </c>
       <c r="C87" t="b">
         <v>0</v>
       </c>
       <c r="D87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="G87" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H87" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="I87" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="J87">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K87" t="b">
         <v>0</v>
@@ -5155,10 +5173,10 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>206</v>
+        <v>316</v>
       </c>
       <c r="B88" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C88" t="b">
         <v>0</v>
@@ -5170,33 +5188,30 @@
         <v>1</v>
       </c>
       <c r="F88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G88" t="s">
-        <v>240</v>
+        <v>317</v>
       </c>
       <c r="H88" t="s">
-        <v>208</v>
+        <v>318</v>
       </c>
       <c r="I88" t="s">
-        <v>209</v>
+        <v>319</v>
       </c>
       <c r="J88">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K88" t="b">
         <v>0</v>
-      </c>
-      <c r="L88" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B89" t="s">
-        <v>211</v>
+        <v>320</v>
       </c>
       <c r="C89" t="b">
         <v>0</v>
@@ -5211,13 +5226,13 @@
         <v>4</v>
       </c>
       <c r="G89" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H89" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="I89" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="J89">
         <v>3</v>
@@ -5225,16 +5240,13 @@
       <c r="K89" t="b">
         <v>0</v>
       </c>
-      <c r="L89" t="s">
-        <v>256</v>
-      </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B90" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C90" t="b">
         <v>0</v>
@@ -5249,65 +5261,68 @@
         <v>4</v>
       </c>
       <c r="G90" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="H90" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="I90" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="J90">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K90" t="b">
         <v>0</v>
       </c>
       <c r="L90" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>321</v>
+        <v>210</v>
       </c>
       <c r="B91" t="s">
-        <v>322</v>
+        <v>211</v>
       </c>
       <c r="C91" t="b">
         <v>0</v>
       </c>
       <c r="D91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G91" t="s">
-        <v>323</v>
+        <v>243</v>
       </c>
       <c r="H91" t="s">
-        <v>324</v>
+        <v>212</v>
       </c>
       <c r="I91" t="s">
-        <v>325</v>
+        <v>213</v>
       </c>
       <c r="J91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K91" t="b">
         <v>0</v>
+      </c>
+      <c r="L91" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>326</v>
+        <v>214</v>
       </c>
       <c r="B92" t="s">
-        <v>322</v>
+        <v>215</v>
       </c>
       <c r="C92" t="b">
         <v>0</v>
@@ -5319,51 +5334,57 @@
         <v>1</v>
       </c>
       <c r="F92">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G92" t="s">
-        <v>327</v>
+        <v>250</v>
       </c>
       <c r="H92" t="s">
-        <v>328</v>
+        <v>216</v>
       </c>
       <c r="I92" t="s">
-        <v>329</v>
+        <v>217</v>
       </c>
       <c r="J92">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K92" t="b">
         <v>0</v>
+      </c>
+      <c r="L92" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>452</v>
+        <v>321</v>
       </c>
       <c r="B93" t="s">
         <v>322</v>
       </c>
       <c r="C93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93" t="b">
         <v>0</v>
       </c>
       <c r="E93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>100</v>
       </c>
       <c r="G93" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H93" t="s">
-        <v>453</v>
+        <v>324</v>
       </c>
       <c r="I93" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J93">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K93" t="b">
         <v>0</v>
@@ -5371,48 +5392,45 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B94" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C94" t="b">
         <v>0</v>
       </c>
       <c r="D94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G94" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="H94" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="I94" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="J94">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K94" t="b">
         <v>0</v>
-      </c>
-      <c r="M94">
-        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="B95" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C95" t="b">
         <v>1</v>
@@ -5424,13 +5442,13 @@
         <v>1</v>
       </c>
       <c r="G95" t="s">
-        <v>437</v>
+        <v>327</v>
       </c>
       <c r="H95" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="I95" t="s">
-        <v>439</v>
+        <v>329</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -5441,10 +5459,10 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>414</v>
+        <v>330</v>
       </c>
       <c r="B96" t="s">
-        <v>415</v>
+        <v>331</v>
       </c>
       <c r="C96" t="b">
         <v>0</v>
@@ -5459,51 +5477,51 @@
         <v>100</v>
       </c>
       <c r="G96" t="s">
-        <v>416</v>
+        <v>332</v>
       </c>
       <c r="H96" t="s">
-        <v>417</v>
+        <v>333</v>
       </c>
       <c r="I96" t="s">
-        <v>418</v>
+        <v>334</v>
       </c>
       <c r="J96">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K96" t="b">
         <v>0</v>
+      </c>
+      <c r="M96">
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="B97" t="s">
-        <v>415</v>
+        <v>331</v>
       </c>
       <c r="C97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
-      <c r="F97">
-        <v>2</v>
-      </c>
       <c r="G97" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="H97" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="I97" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="J97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K97" t="b">
         <v>0</v>
@@ -5511,10 +5529,10 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="B98" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="C98" t="b">
         <v>0</v>
@@ -5529,13 +5547,13 @@
         <v>100</v>
       </c>
       <c r="G98" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="H98" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="I98" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="J98">
         <v>5</v>
@@ -5546,31 +5564,34 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>343</v>
+        <v>419</v>
       </c>
       <c r="B99" t="s">
-        <v>130</v>
+        <v>415</v>
       </c>
       <c r="C99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" t="b">
         <v>1</v>
       </c>
+      <c r="F99">
+        <v>2</v>
+      </c>
       <c r="G99" t="s">
-        <v>352</v>
+        <v>420</v>
       </c>
       <c r="H99" t="s">
-        <v>353</v>
+        <v>421</v>
       </c>
       <c r="I99" t="s">
-        <v>354</v>
+        <v>422</v>
       </c>
       <c r="J99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K99" t="b">
         <v>0</v>
@@ -5578,31 +5599,34 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>359</v>
+        <v>423</v>
       </c>
       <c r="B100" t="s">
-        <v>130</v>
+        <v>424</v>
       </c>
       <c r="C100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D100" t="b">
         <v>0</v>
       </c>
       <c r="E100" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>100</v>
       </c>
       <c r="G100" t="s">
-        <v>360</v>
+        <v>425</v>
       </c>
       <c r="H100" t="s">
-        <v>361</v>
+        <v>426</v>
       </c>
       <c r="I100" t="s">
-        <v>362</v>
+        <v>427</v>
       </c>
       <c r="J100">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K100" t="b">
         <v>0</v>
@@ -5610,10 +5634,10 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>370</v>
+        <v>343</v>
       </c>
       <c r="B101" t="s">
-        <v>375</v>
+        <v>130</v>
       </c>
       <c r="C101" t="b">
         <v>1</v>
@@ -5625,13 +5649,13 @@
         <v>1</v>
       </c>
       <c r="G101" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="H101" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="I101" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="J101">
         <v>1</v>
@@ -5642,10 +5666,10 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>481</v>
+        <v>359</v>
       </c>
       <c r="B102" t="s">
-        <v>483</v>
+        <v>130</v>
       </c>
       <c r="C102" t="b">
         <v>1</v>
@@ -5657,13 +5681,13 @@
         <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>484</v>
+        <v>360</v>
       </c>
       <c r="H102" t="s">
-        <v>485</v>
+        <v>361</v>
       </c>
       <c r="I102" t="s">
-        <v>486</v>
+        <v>362</v>
       </c>
       <c r="J102">
         <v>1</v>
@@ -5674,10 +5698,10 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>482</v>
+        <v>370</v>
       </c>
       <c r="B103" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C103" t="b">
         <v>1</v>
@@ -5689,13 +5713,13 @@
         <v>1</v>
       </c>
       <c r="G103" t="s">
-        <v>487</v>
+        <v>371</v>
       </c>
       <c r="H103" t="s">
-        <v>488</v>
+        <v>372</v>
       </c>
       <c r="I103" t="s">
-        <v>489</v>
+        <v>373</v>
       </c>
       <c r="J103">
         <v>1</v>
@@ -5706,10 +5730,10 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>428</v>
+        <v>481</v>
       </c>
       <c r="B104" t="s">
-        <v>434</v>
+        <v>483</v>
       </c>
       <c r="C104" t="b">
         <v>1</v>
@@ -5721,13 +5745,13 @@
         <v>1</v>
       </c>
       <c r="G104" t="s">
-        <v>429</v>
+        <v>484</v>
       </c>
       <c r="H104" t="s">
-        <v>430</v>
+        <v>485</v>
       </c>
       <c r="I104" t="s">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="J104">
         <v>1</v>
@@ -5738,10 +5762,10 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>440</v>
+        <v>482</v>
       </c>
       <c r="B105" t="s">
-        <v>444</v>
+        <v>376</v>
       </c>
       <c r="C105" t="b">
         <v>1</v>
@@ -5753,13 +5777,13 @@
         <v>1</v>
       </c>
       <c r="G105" t="s">
-        <v>441</v>
+        <v>487</v>
       </c>
       <c r="H105" t="s">
-        <v>442</v>
+        <v>488</v>
       </c>
       <c r="I105" t="s">
-        <v>443</v>
+        <v>489</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -5770,10 +5794,10 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>454</v>
+        <v>428</v>
       </c>
       <c r="B106" t="s">
-        <v>455</v>
+        <v>434</v>
       </c>
       <c r="C106" t="b">
         <v>1</v>
@@ -5785,13 +5809,13 @@
         <v>1</v>
       </c>
       <c r="G106" t="s">
-        <v>456</v>
+        <v>429</v>
       </c>
       <c r="H106" t="s">
-        <v>457</v>
+        <v>430</v>
       </c>
       <c r="I106" t="s">
-        <v>458</v>
+        <v>431</v>
       </c>
       <c r="J106">
         <v>1</v>
@@ -5802,10 +5826,10 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>472</v>
+        <v>440</v>
       </c>
       <c r="B107" t="s">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="C107" t="b">
         <v>1</v>
@@ -5817,13 +5841,13 @@
         <v>1</v>
       </c>
       <c r="G107" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="H107" t="s">
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="I107" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="J107">
         <v>1</v>
@@ -5834,33 +5858,97 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
+        <v>454</v>
+      </c>
+      <c r="B108" t="s">
+        <v>455</v>
+      </c>
+      <c r="C108" t="b">
+        <v>1</v>
+      </c>
+      <c r="D108" t="b">
+        <v>0</v>
+      </c>
+      <c r="E108" t="b">
+        <v>1</v>
+      </c>
+      <c r="G108" t="s">
+        <v>456</v>
+      </c>
+      <c r="H108" t="s">
+        <v>457</v>
+      </c>
+      <c r="I108" t="s">
+        <v>458</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>472</v>
+      </c>
+      <c r="B109" t="s">
+        <v>476</v>
+      </c>
+      <c r="C109" t="b">
+        <v>1</v>
+      </c>
+      <c r="D109" t="b">
+        <v>0</v>
+      </c>
+      <c r="E109" t="b">
+        <v>1</v>
+      </c>
+      <c r="G109" t="s">
+        <v>473</v>
+      </c>
+      <c r="H109" t="s">
+        <v>474</v>
+      </c>
+      <c r="I109" t="s">
+        <v>475</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>492</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B110" t="s">
         <v>494</v>
       </c>
-      <c r="C108" t="b">
-        <v>1</v>
-      </c>
-      <c r="D108" t="b">
-        <v>0</v>
-      </c>
-      <c r="E108" t="b">
-        <v>1</v>
-      </c>
-      <c r="G108" t="s">
+      <c r="C110" t="b">
+        <v>1</v>
+      </c>
+      <c r="D110" t="b">
+        <v>0</v>
+      </c>
+      <c r="E110" t="b">
+        <v>1</v>
+      </c>
+      <c r="G110" t="s">
         <v>495</v>
       </c>
-      <c r="H108" t="s">
+      <c r="H110" t="s">
         <v>496</v>
       </c>
-      <c r="I108" t="s">
+      <c r="I110" t="s">
         <v>497</v>
       </c>
-      <c r="J108">
-        <v>1</v>
-      </c>
-      <c r="K108" t="b">
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5905,7 +5993,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6239E2D-40EA-4B45-8295-42B35BCC92F9}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -6259,6 +6347,28 @@
         <v>492</v>
       </c>
     </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>498</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>498</v>
+      </c>
+      <c r="B33">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B838FF-0285-4EBD-A561-7644BD5B7E7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7E0C8F-C9B1-4F5D-8AAE-EC954BBAA3FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="509">
   <si>
     <t>levelPackId|String</t>
   </si>
@@ -1552,6 +1552,15 @@
   </si>
   <si>
     <t>LevelPackUIDesc_ReduceDmgCloseBestSyria</t>
+  </si>
+  <si>
+    <t>AtkBestDemonHuntress</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_AtkBestDemonHuntress</t>
+  </si>
+  <si>
+    <t>Actor1226</t>
   </si>
 </sst>
 </file>
@@ -2119,9 +2128,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
-  <dimension ref="A1:M110"/>
+  <dimension ref="A1:M111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2382,34 +2391,31 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>506</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H8" t="s">
-        <v>74</v>
+        <v>507</v>
       </c>
       <c r="I8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J8">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -2417,7 +2423,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
         <v>72</v>
@@ -2426,22 +2432,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="G9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J9">
         <v>9</v>
@@ -2452,31 +2458,34 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>340</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
         <v>72</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
       </c>
       <c r="G10" t="s">
         <v>77</v>
       </c>
       <c r="H10" t="s">
-        <v>348</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s">
         <v>79</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
@@ -2484,34 +2493,31 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
       <c r="G11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s">
-        <v>83</v>
+        <v>348</v>
       </c>
       <c r="I11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
@@ -2519,31 +2525,34 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
         <v>81</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" t="s">
         <v>82</v>
       </c>
       <c r="H12" t="s">
-        <v>501</v>
+        <v>83</v>
       </c>
       <c r="I12" t="s">
         <v>84</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
@@ -2551,34 +2560,31 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>500</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s">
-        <v>88</v>
+        <v>501</v>
       </c>
       <c r="I13" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J13">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
@@ -2586,7 +2592,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
         <v>86</v>
@@ -2595,25 +2601,25 @@
         <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="G14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
@@ -2621,31 +2627,34 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>460</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
         <v>86</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
       </c>
       <c r="G15" t="s">
         <v>91</v>
       </c>
       <c r="H15" t="s">
-        <v>461</v>
+        <v>92</v>
       </c>
       <c r="I15" t="s">
         <v>93</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
@@ -2653,7 +2662,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="B16" t="s">
         <v>86</v>
@@ -2671,7 +2680,7 @@
         <v>91</v>
       </c>
       <c r="H16" t="s">
-        <v>493</v>
+        <v>461</v>
       </c>
       <c r="I16" t="s">
         <v>93</v>
@@ -2685,34 +2694,31 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>491</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
       <c r="G17" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H17" t="s">
-        <v>97</v>
+        <v>493</v>
       </c>
       <c r="I17" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
@@ -2720,34 +2726,34 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H18" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I18" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J18">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
@@ -2755,7 +2761,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B19" t="s">
         <v>100</v>
@@ -2764,22 +2770,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="G19" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J19">
         <v>9</v>
@@ -2790,31 +2796,34 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>445</v>
+        <v>104</v>
       </c>
       <c r="B20" t="s">
         <v>100</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
       </c>
       <c r="G20" t="s">
         <v>105</v>
       </c>
       <c r="H20" t="s">
-        <v>446</v>
+        <v>106</v>
       </c>
       <c r="I20" t="s">
         <v>107</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
@@ -2822,34 +2831,31 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>108</v>
+        <v>445</v>
       </c>
       <c r="B21" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
       <c r="G21" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H21" t="s">
-        <v>111</v>
+        <v>446</v>
       </c>
       <c r="I21" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
@@ -2857,28 +2863,31 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>377</v>
+        <v>108</v>
       </c>
       <c r="B22" t="s">
-        <v>378</v>
+        <v>109</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>379</v>
+        <v>110</v>
       </c>
       <c r="H22" t="s">
-        <v>380</v>
+        <v>111</v>
       </c>
       <c r="I22" t="s">
-        <v>381</v>
+        <v>112</v>
       </c>
       <c r="J22">
         <v>5</v>
@@ -2889,10 +2898,10 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>113</v>
+        <v>377</v>
       </c>
       <c r="B23" t="s">
-        <v>114</v>
+        <v>378</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -2903,20 +2912,17 @@
       <c r="E23" t="b">
         <v>0</v>
       </c>
-      <c r="F23">
-        <v>80</v>
-      </c>
       <c r="G23" t="s">
-        <v>115</v>
+        <v>379</v>
       </c>
       <c r="H23" t="s">
-        <v>116</v>
+        <v>380</v>
       </c>
       <c r="I23" t="s">
-        <v>117</v>
+        <v>381</v>
       </c>
       <c r="J23">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
@@ -2924,7 +2930,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>262</v>
+        <v>113</v>
       </c>
       <c r="B24" t="s">
         <v>114</v>
@@ -2933,22 +2939,22 @@
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s">
-        <v>263</v>
+        <v>115</v>
       </c>
       <c r="H24" t="s">
-        <v>264</v>
+        <v>116</v>
       </c>
       <c r="I24" t="s">
-        <v>265</v>
+        <v>117</v>
       </c>
       <c r="J24">
         <v>9</v>
@@ -2959,31 +2965,34 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>463</v>
+        <v>262</v>
       </c>
       <c r="B25" t="s">
         <v>114</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>1</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
       </c>
       <c r="G25" t="s">
         <v>263</v>
       </c>
       <c r="H25" t="s">
-        <v>465</v>
+        <v>264</v>
       </c>
       <c r="I25" t="s">
         <v>265</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K25" t="b">
         <v>0</v>
@@ -2991,45 +3000,39 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>266</v>
+        <v>463</v>
       </c>
       <c r="B26" t="s">
-        <v>267</v>
+        <v>114</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H26" t="s">
-        <v>269</v>
+        <v>465</v>
       </c>
       <c r="I26" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="J26">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K26" t="b">
         <v>0</v>
-      </c>
-      <c r="M26">
-        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B27" t="s">
         <v>267</v>
@@ -3038,22 +3041,22 @@
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H27" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I27" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="J27">
         <v>9</v>
@@ -3067,31 +3070,31 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>118</v>
+        <v>271</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>267</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>120</v>
+        <v>272</v>
       </c>
       <c r="H28" t="s">
-        <v>121</v>
+        <v>273</v>
       </c>
       <c r="I28" t="s">
-        <v>122</v>
+        <v>274</v>
       </c>
       <c r="J28">
         <v>9</v>
@@ -3100,12 +3103,12 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>275</v>
+        <v>118</v>
       </c>
       <c r="B29" t="s">
         <v>119</v>
@@ -3114,22 +3117,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="G29" t="s">
-        <v>276</v>
+        <v>120</v>
       </c>
       <c r="H29" t="s">
-        <v>277</v>
+        <v>121</v>
       </c>
       <c r="I29" t="s">
-        <v>278</v>
+        <v>122</v>
       </c>
       <c r="J29">
         <v>9</v>
@@ -3143,77 +3146,77 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>499</v>
+        <v>275</v>
       </c>
       <c r="B30" t="s">
-        <v>502</v>
+        <v>119</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>1</v>
       </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
       <c r="G30" t="s">
-        <v>503</v>
+        <v>276</v>
       </c>
       <c r="H30" t="s">
-        <v>504</v>
+        <v>277</v>
       </c>
       <c r="I30" t="s">
-        <v>505</v>
+        <v>278</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K30" t="b">
         <v>0</v>
+      </c>
+      <c r="M30">
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>279</v>
+        <v>499</v>
       </c>
       <c r="B31" t="s">
-        <v>280</v>
+        <v>502</v>
       </c>
       <c r="C31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
       </c>
       <c r="E31" t="b">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>281</v>
+        <v>503</v>
       </c>
       <c r="H31" t="s">
-        <v>282</v>
+        <v>504</v>
       </c>
       <c r="I31" t="s">
-        <v>283</v>
+        <v>505</v>
       </c>
       <c r="J31">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
-      </c>
-      <c r="M31">
-        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B32" t="s">
         <v>280</v>
@@ -3222,22 +3225,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H32" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="I32" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="J32">
         <v>9</v>
@@ -3251,10 +3254,10 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B33" t="s">
-        <v>173</v>
+        <v>280</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
@@ -3266,30 +3269,33 @@
         <v>1</v>
       </c>
       <c r="F33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G33" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H33" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I33" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J33">
+        <v>9</v>
+      </c>
+      <c r="K33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33">
         <v>3</v>
-      </c>
-      <c r="K33" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B34" t="s">
-        <v>293</v>
+        <v>173</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
@@ -3304,13 +3310,13 @@
         <v>4</v>
       </c>
       <c r="G34" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H34" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="I34" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="J34">
         <v>3</v>
@@ -3321,31 +3327,31 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>292</v>
       </c>
       <c r="B35" t="s">
-        <v>123</v>
+        <v>293</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>294</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>295</v>
       </c>
       <c r="I35" t="s">
-        <v>15</v>
+        <v>296</v>
       </c>
       <c r="J35">
         <v>3</v>
@@ -3353,13 +3359,10 @@
       <c r="K35" t="b">
         <v>0</v>
       </c>
-      <c r="M35">
-        <v>4</v>
-      </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>297</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
         <v>123</v>
@@ -3368,22 +3371,22 @@
         <v>0</v>
       </c>
       <c r="D36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G36" t="s">
-        <v>298</v>
+        <v>13</v>
       </c>
       <c r="H36" t="s">
-        <v>299</v>
+        <v>14</v>
       </c>
       <c r="I36" t="s">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c r="J36">
         <v>3</v>
@@ -3397,31 +3400,31 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>297</v>
       </c>
       <c r="B37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
       </c>
       <c r="D37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G37" t="s">
-        <v>17</v>
+        <v>298</v>
       </c>
       <c r="H37" t="s">
-        <v>18</v>
+        <v>299</v>
       </c>
       <c r="I37" t="s">
-        <v>19</v>
+        <v>300</v>
       </c>
       <c r="J37">
         <v>3</v>
@@ -3430,12 +3433,12 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>301</v>
+        <v>16</v>
       </c>
       <c r="B38" t="s">
         <v>124</v>
@@ -3444,22 +3447,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G38" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="H38" t="s">
-        <v>303</v>
+        <v>18</v>
       </c>
       <c r="I38" t="s">
-        <v>304</v>
+        <v>19</v>
       </c>
       <c r="J38">
         <v>3</v>
@@ -3473,31 +3476,31 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>301</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G39" t="s">
-        <v>21</v>
+        <v>302</v>
       </c>
       <c r="H39" t="s">
-        <v>22</v>
+        <v>303</v>
       </c>
       <c r="I39" t="s">
-        <v>23</v>
+        <v>304</v>
       </c>
       <c r="J39">
         <v>3</v>
@@ -3505,10 +3508,13 @@
       <c r="K39" t="b">
         <v>0</v>
       </c>
+      <c r="M39">
+        <v>7</v>
+      </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>305</v>
+        <v>20</v>
       </c>
       <c r="B40" t="s">
         <v>125</v>
@@ -3517,22 +3523,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G40" t="s">
-        <v>306</v>
+        <v>21</v>
       </c>
       <c r="H40" t="s">
-        <v>307</v>
+        <v>22</v>
       </c>
       <c r="I40" t="s">
-        <v>308</v>
+        <v>23</v>
       </c>
       <c r="J40">
         <v>3</v>
@@ -3543,31 +3549,34 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>305</v>
       </c>
       <c r="B41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="b">
         <v>1</v>
       </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
       <c r="G41" t="s">
-        <v>25</v>
+        <v>306</v>
       </c>
       <c r="H41" t="s">
-        <v>26</v>
+        <v>307</v>
       </c>
       <c r="I41" t="s">
-        <v>27</v>
+        <v>308</v>
       </c>
       <c r="J41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
@@ -3575,7 +3584,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>338</v>
+        <v>24</v>
       </c>
       <c r="B42" t="s">
         <v>126</v>
@@ -3599,7 +3608,7 @@
         <v>27</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
@@ -3607,10 +3616,10 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>338</v>
       </c>
       <c r="B43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C43" t="b">
         <v>1</v>
@@ -3622,16 +3631,16 @@
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H43" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I43" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K43" t="b">
         <v>0</v>
@@ -3639,7 +3648,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>345</v>
+        <v>28</v>
       </c>
       <c r="B44" t="s">
         <v>127</v>
@@ -3654,16 +3663,16 @@
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>349</v>
+        <v>29</v>
       </c>
       <c r="H44" t="s">
-        <v>350</v>
+        <v>30</v>
       </c>
       <c r="I44" t="s">
-        <v>351</v>
+        <v>31</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K44" t="b">
         <v>0</v>
@@ -3671,10 +3680,10 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>345</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C45" t="b">
         <v>1</v>
@@ -3686,16 +3695,16 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>349</v>
       </c>
       <c r="H45" t="s">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="I45" t="s">
-        <v>35</v>
+        <v>351</v>
       </c>
       <c r="J45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K45" t="b">
         <v>0</v>
@@ -3703,7 +3712,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>480</v>
+        <v>32</v>
       </c>
       <c r="B46" t="s">
         <v>128</v>
@@ -3727,7 +3736,7 @@
         <v>35</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
@@ -3735,10 +3744,10 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>36</v>
+        <v>480</v>
       </c>
       <c r="B47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C47" t="b">
         <v>1</v>
@@ -3750,16 +3759,16 @@
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H47" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I47" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
@@ -3767,7 +3776,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>366</v>
+        <v>36</v>
       </c>
       <c r="B48" t="s">
         <v>129</v>
@@ -3782,16 +3791,16 @@
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>367</v>
+        <v>37</v>
       </c>
       <c r="H48" t="s">
-        <v>368</v>
+        <v>38</v>
       </c>
       <c r="I48" t="s">
-        <v>369</v>
+        <v>39</v>
       </c>
       <c r="J48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
@@ -3799,10 +3808,10 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>40</v>
+        <v>366</v>
       </c>
       <c r="B49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" t="b">
         <v>1</v>
@@ -3814,16 +3823,16 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>41</v>
+        <v>367</v>
       </c>
       <c r="H49" t="s">
-        <v>42</v>
+        <v>368</v>
       </c>
       <c r="I49" t="s">
-        <v>43</v>
+        <v>369</v>
       </c>
       <c r="J49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
@@ -3831,10 +3840,10 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C50" t="b">
         <v>1</v>
@@ -3846,13 +3855,13 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I50" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J50">
         <v>2</v>
@@ -3863,10 +3872,10 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C51" t="b">
         <v>1</v>
@@ -3878,13 +3887,13 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -3895,10 +3904,10 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C52" t="b">
         <v>1</v>
@@ -3910,13 +3919,13 @@
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H52" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I52" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J52">
         <v>2</v>
@@ -3927,7 +3936,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>364</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>133</v>
@@ -3951,7 +3960,7 @@
         <v>55</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
@@ -3959,34 +3968,31 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>134</v>
+        <v>364</v>
       </c>
       <c r="B54" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
       </c>
       <c r="E54" t="b">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="H54" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="I54" t="s">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c r="J54">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
@@ -3994,7 +4000,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B55" t="s">
         <v>135</v>
@@ -4003,25 +4009,25 @@
         <v>0</v>
       </c>
       <c r="D55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G55" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H55" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I55" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J55">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
@@ -4029,34 +4035,34 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>382</v>
+        <v>139</v>
       </c>
       <c r="B56" t="s">
-        <v>383</v>
+        <v>135</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
       </c>
       <c r="D56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G56" t="s">
-        <v>384</v>
+        <v>140</v>
       </c>
       <c r="H56" t="s">
-        <v>385</v>
+        <v>141</v>
       </c>
       <c r="I56" t="s">
-        <v>386</v>
+        <v>142</v>
       </c>
       <c r="J56">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
@@ -4064,7 +4070,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B57" t="s">
         <v>383</v>
@@ -4073,25 +4079,25 @@
         <v>0</v>
       </c>
       <c r="D57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G57" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H57" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="I57" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="J57">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
@@ -4099,45 +4105,42 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>147</v>
+        <v>387</v>
       </c>
       <c r="B58" t="s">
-        <v>148</v>
+        <v>383</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
       </c>
       <c r="D58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G58" t="s">
-        <v>223</v>
+        <v>388</v>
       </c>
       <c r="H58" t="s">
-        <v>149</v>
+        <v>389</v>
       </c>
       <c r="I58" t="s">
-        <v>150</v>
+        <v>390</v>
       </c>
       <c r="J58">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
-      </c>
-      <c r="L58" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B59" t="s">
         <v>148</v>
@@ -4146,25 +4149,25 @@
         <v>0</v>
       </c>
       <c r="D59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G59" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H59" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I59" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J59">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
@@ -4175,31 +4178,34 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>448</v>
+        <v>151</v>
       </c>
       <c r="B60" t="s">
         <v>148</v>
       </c>
       <c r="C60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="b">
         <v>1</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
       </c>
       <c r="G60" t="s">
         <v>224</v>
       </c>
       <c r="H60" t="s">
-        <v>449</v>
+        <v>152</v>
       </c>
       <c r="I60" t="s">
         <v>153</v>
       </c>
       <c r="J60">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
@@ -4210,7 +4216,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="B61" t="s">
         <v>148</v>
@@ -4228,7 +4234,7 @@
         <v>224</v>
       </c>
       <c r="H61" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="I61" t="s">
         <v>153</v>
@@ -4245,42 +4251,42 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>154</v>
+        <v>467</v>
       </c>
       <c r="B62" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" t="b">
         <v>0</v>
       </c>
       <c r="E62" t="b">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G62" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H62" t="s">
-        <v>156</v>
+        <v>468</v>
       </c>
       <c r="I62" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J62">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
+      </c>
+      <c r="L62" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B63" t="s">
         <v>155</v>
@@ -4289,25 +4295,25 @@
         <v>0</v>
       </c>
       <c r="D63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G63" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H63" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I63" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J63">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K63" t="b">
         <v>0</v>
@@ -4315,10 +4321,10 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B64" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C64" t="b">
         <v>0</v>
@@ -4330,16 +4336,16 @@
         <v>1</v>
       </c>
       <c r="F64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G64" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H64" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I64" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J64">
         <v>5</v>
@@ -4350,31 +4356,31 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B65" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
       </c>
       <c r="D65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G65" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H65" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I65" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J65">
         <v>5</v>
@@ -4385,7 +4391,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B66" t="s">
         <v>166</v>
@@ -4394,25 +4400,25 @@
         <v>0</v>
       </c>
       <c r="D66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G66" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H66" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I66" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J66">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K66" t="b">
         <v>0</v>
@@ -4420,34 +4426,34 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B67" t="s">
-        <v>309</v>
+        <v>166</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>
       </c>
       <c r="D67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G67" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H67" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I67" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J67">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
@@ -4455,7 +4461,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B68" t="s">
         <v>309</v>
@@ -4464,25 +4470,25 @@
         <v>0</v>
       </c>
       <c r="D68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G68" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H68" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I68" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J68">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K68" t="b">
         <v>0</v>
@@ -4490,31 +4496,34 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>356</v>
+        <v>176</v>
       </c>
       <c r="B69" t="s">
         <v>309</v>
       </c>
       <c r="C69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="b">
         <v>1</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
       </c>
       <c r="G69" t="s">
         <v>231</v>
       </c>
       <c r="H69" t="s">
-        <v>357</v>
+        <v>177</v>
       </c>
       <c r="I69" t="s">
         <v>178</v>
       </c>
       <c r="J69">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
@@ -4522,7 +4531,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>469</v>
+        <v>356</v>
       </c>
       <c r="B70" t="s">
         <v>309</v>
@@ -4540,7 +4549,7 @@
         <v>231</v>
       </c>
       <c r="H70" t="s">
-        <v>470</v>
+        <v>357</v>
       </c>
       <c r="I70" t="s">
         <v>178</v>
@@ -4554,45 +4563,39 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>391</v>
+        <v>469</v>
       </c>
       <c r="B71" t="s">
-        <v>392</v>
+        <v>309</v>
       </c>
       <c r="C71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" t="b">
         <v>0</v>
       </c>
       <c r="E71" t="b">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G71" t="s">
-        <v>393</v>
+        <v>231</v>
       </c>
       <c r="H71" t="s">
-        <v>394</v>
+        <v>470</v>
       </c>
       <c r="I71" t="s">
-        <v>395</v>
+        <v>178</v>
       </c>
       <c r="J71">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K71" t="b">
         <v>0</v>
-      </c>
-      <c r="M71">
-        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B72" t="s">
         <v>392</v>
@@ -4601,25 +4604,25 @@
         <v>0</v>
       </c>
       <c r="D72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G72" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H72" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="I72" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="J72">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K72" t="b">
         <v>0</v>
@@ -4630,45 +4633,45 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B73" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
       </c>
       <c r="D73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G73" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="H73" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="I73" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="J73">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K73" t="b">
         <v>0</v>
       </c>
       <c r="M73">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B74" t="s">
         <v>401</v>
@@ -4677,25 +4680,25 @@
         <v>0</v>
       </c>
       <c r="D74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G74" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H74" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="I74" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="J74">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K74" t="b">
         <v>0</v>
@@ -4706,31 +4709,31 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>179</v>
+        <v>405</v>
       </c>
       <c r="B75" t="s">
-        <v>180</v>
+        <v>401</v>
       </c>
       <c r="C75" t="b">
         <v>0</v>
       </c>
       <c r="D75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G75" t="s">
-        <v>232</v>
+        <v>406</v>
       </c>
       <c r="H75" t="s">
-        <v>181</v>
+        <v>407</v>
       </c>
       <c r="I75" t="s">
-        <v>182</v>
+        <v>408</v>
       </c>
       <c r="J75">
         <v>5</v>
@@ -4738,10 +4741,13 @@
       <c r="K75" t="b">
         <v>0</v>
       </c>
+      <c r="M75">
+        <v>2</v>
+      </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B76" t="s">
         <v>180</v>
@@ -4750,25 +4756,25 @@
         <v>0</v>
       </c>
       <c r="D76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G76" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H76" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I76" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J76">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K76" t="b">
         <v>0</v>
@@ -4776,34 +4782,34 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B77" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C77" t="b">
         <v>0</v>
       </c>
       <c r="D77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G77" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H77" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I77" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J77">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K77" t="b">
         <v>0</v>
@@ -4811,7 +4817,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B78" t="s">
         <v>187</v>
@@ -4820,25 +4826,25 @@
         <v>0</v>
       </c>
       <c r="D78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G78" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H78" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I78" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J78">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K78" t="b">
         <v>0</v>
@@ -4846,34 +4852,34 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B79" t="s">
-        <v>310</v>
+        <v>187</v>
       </c>
       <c r="C79" t="b">
         <v>0</v>
       </c>
       <c r="D79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G79" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H79" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I79" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J79">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K79" t="b">
         <v>0</v>
@@ -4881,7 +4887,7 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B80" t="s">
         <v>310</v>
@@ -4890,25 +4896,25 @@
         <v>0</v>
       </c>
       <c r="D80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G80" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H80" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I80" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J80">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K80" t="b">
         <v>0</v>
@@ -4916,31 +4922,34 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>464</v>
+        <v>196</v>
       </c>
       <c r="B81" t="s">
         <v>310</v>
       </c>
       <c r="C81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" t="b">
         <v>1</v>
+      </c>
+      <c r="F81">
+        <v>2</v>
       </c>
       <c r="G81" t="s">
         <v>237</v>
       </c>
       <c r="H81" t="s">
-        <v>466</v>
+        <v>197</v>
       </c>
       <c r="I81" t="s">
         <v>198</v>
       </c>
       <c r="J81">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K81" t="b">
         <v>0</v>
@@ -4948,69 +4957,63 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>143</v>
+        <v>464</v>
       </c>
       <c r="B82" t="s">
-        <v>144</v>
+        <v>310</v>
       </c>
       <c r="C82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
-      <c r="F82">
-        <v>4</v>
-      </c>
       <c r="G82" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="H82" t="s">
-        <v>145</v>
+        <v>466</v>
       </c>
       <c r="I82" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="J82">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K82" t="b">
         <v>0</v>
-      </c>
-      <c r="L82" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>409</v>
+        <v>143</v>
       </c>
       <c r="B83" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
       </c>
       <c r="D83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G83" t="s">
-        <v>410</v>
+        <v>249</v>
       </c>
       <c r="H83" t="s">
-        <v>411</v>
+        <v>145</v>
       </c>
       <c r="I83" t="s">
-        <v>412</v>
+        <v>146</v>
       </c>
       <c r="J83">
         <v>5</v>
@@ -5018,54 +5021,54 @@
       <c r="K83" t="b">
         <v>0</v>
       </c>
-      <c r="M83">
-        <v>4</v>
+      <c r="L83" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>199</v>
+        <v>409</v>
       </c>
       <c r="B84" t="s">
-        <v>311</v>
+        <v>200</v>
       </c>
       <c r="C84" t="b">
         <v>0</v>
       </c>
       <c r="D84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84">
+        <v>100</v>
+      </c>
+      <c r="G84" t="s">
+        <v>410</v>
+      </c>
+      <c r="H84" t="s">
+        <v>411</v>
+      </c>
+      <c r="I84" t="s">
+        <v>412</v>
+      </c>
+      <c r="J84">
+        <v>5</v>
+      </c>
+      <c r="K84" t="b">
+        <v>0</v>
+      </c>
+      <c r="M84">
         <v>4</v>
-      </c>
-      <c r="G84" t="s">
-        <v>238</v>
-      </c>
-      <c r="H84" t="s">
-        <v>201</v>
-      </c>
-      <c r="I84" t="s">
-        <v>202</v>
-      </c>
-      <c r="J84">
-        <v>3</v>
-      </c>
-      <c r="K84" t="b">
-        <v>0</v>
-      </c>
-      <c r="L84" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>312</v>
+        <v>199</v>
       </c>
       <c r="B85" t="s">
-        <v>413</v>
+        <v>311</v>
       </c>
       <c r="C85" t="b">
         <v>0</v>
@@ -5080,13 +5083,13 @@
         <v>4</v>
       </c>
       <c r="G85" t="s">
-        <v>313</v>
+        <v>238</v>
       </c>
       <c r="H85" t="s">
-        <v>314</v>
+        <v>201</v>
       </c>
       <c r="I85" t="s">
-        <v>315</v>
+        <v>202</v>
       </c>
       <c r="J85">
         <v>3</v>
@@ -5100,10 +5103,10 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>251</v>
+        <v>312</v>
       </c>
       <c r="B86" t="s">
-        <v>222</v>
+        <v>413</v>
       </c>
       <c r="C86" t="b">
         <v>0</v>
@@ -5118,13 +5121,13 @@
         <v>4</v>
       </c>
       <c r="G86" t="s">
-        <v>252</v>
+        <v>313</v>
       </c>
       <c r="H86" t="s">
-        <v>253</v>
+        <v>314</v>
       </c>
       <c r="I86" t="s">
-        <v>254</v>
+        <v>315</v>
       </c>
       <c r="J86">
         <v>3</v>
@@ -5133,47 +5136,50 @@
         <v>0</v>
       </c>
       <c r="L86" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="B87" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C87" t="b">
         <v>0</v>
       </c>
       <c r="D87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G87" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="H87" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="I87" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="J87">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K87" t="b">
         <v>0</v>
+      </c>
+      <c r="L87" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>316</v>
+        <v>218</v>
       </c>
       <c r="B88" t="s">
         <v>219</v>
@@ -5182,22 +5188,22 @@
         <v>0</v>
       </c>
       <c r="D88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G88" t="s">
-        <v>317</v>
+        <v>239</v>
       </c>
       <c r="H88" t="s">
-        <v>318</v>
+        <v>220</v>
       </c>
       <c r="I88" t="s">
-        <v>319</v>
+        <v>221</v>
       </c>
       <c r="J88">
         <v>5</v>
@@ -5208,10 +5214,10 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>203</v>
+        <v>316</v>
       </c>
       <c r="B89" t="s">
-        <v>320</v>
+        <v>219</v>
       </c>
       <c r="C89" t="b">
         <v>0</v>
@@ -5223,19 +5229,19 @@
         <v>1</v>
       </c>
       <c r="F89">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G89" t="s">
-        <v>241</v>
+        <v>317</v>
       </c>
       <c r="H89" t="s">
-        <v>204</v>
+        <v>318</v>
       </c>
       <c r="I89" t="s">
-        <v>205</v>
+        <v>319</v>
       </c>
       <c r="J89">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K89" t="b">
         <v>0</v>
@@ -5243,10 +5249,10 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B90" t="s">
-        <v>207</v>
+        <v>320</v>
       </c>
       <c r="C90" t="b">
         <v>0</v>
@@ -5261,13 +5267,13 @@
         <v>4</v>
       </c>
       <c r="G90" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H90" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I90" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J90">
         <v>3</v>
@@ -5275,16 +5281,13 @@
       <c r="K90" t="b">
         <v>0</v>
       </c>
-      <c r="L90" t="s">
-        <v>242</v>
-      </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B91" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C91" t="b">
         <v>0</v>
@@ -5299,13 +5302,13 @@
         <v>4</v>
       </c>
       <c r="G91" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H91" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I91" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="J91">
         <v>3</v>
@@ -5314,15 +5317,15 @@
         <v>0</v>
       </c>
       <c r="L91" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B92" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C92" t="b">
         <v>0</v>
@@ -5337,51 +5340,51 @@
         <v>4</v>
       </c>
       <c r="G92" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="H92" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I92" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J92">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K92" t="b">
         <v>0</v>
       </c>
       <c r="L92" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>321</v>
+        <v>214</v>
       </c>
       <c r="B93" t="s">
-        <v>322</v>
+        <v>215</v>
       </c>
       <c r="C93" t="b">
         <v>0</v>
       </c>
       <c r="D93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G93" t="s">
-        <v>323</v>
+        <v>250</v>
       </c>
       <c r="H93" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="I93" t="s">
-        <v>325</v>
+        <v>217</v>
       </c>
       <c r="J93">
         <v>5</v>
@@ -5389,10 +5392,13 @@
       <c r="K93" t="b">
         <v>0</v>
       </c>
+      <c r="L93" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B94" t="s">
         <v>322</v>
@@ -5401,25 +5407,25 @@
         <v>0</v>
       </c>
       <c r="D94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G94" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H94" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I94" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J94">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K94" t="b">
         <v>0</v>
@@ -5427,31 +5433,34 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>452</v>
+        <v>326</v>
       </c>
       <c r="B95" t="s">
         <v>322</v>
       </c>
       <c r="C95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" t="b">
         <v>1</v>
+      </c>
+      <c r="F95">
+        <v>2</v>
       </c>
       <c r="G95" t="s">
         <v>327</v>
       </c>
       <c r="H95" t="s">
-        <v>453</v>
+        <v>328</v>
       </c>
       <c r="I95" t="s">
         <v>329</v>
       </c>
       <c r="J95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K95" t="b">
         <v>0</v>
@@ -5459,112 +5468,109 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>452</v>
+      </c>
+      <c r="B96" t="s">
+        <v>322</v>
+      </c>
+      <c r="C96" t="b">
+        <v>1</v>
+      </c>
+      <c r="D96" t="b">
+        <v>0</v>
+      </c>
+      <c r="E96" t="b">
+        <v>1</v>
+      </c>
+      <c r="G96" t="s">
+        <v>327</v>
+      </c>
+      <c r="H96" t="s">
+        <v>453</v>
+      </c>
+      <c r="I96" t="s">
+        <v>329</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>330</v>
-      </c>
-      <c r="B96" t="s">
-        <v>331</v>
-      </c>
-      <c r="C96" t="b">
-        <v>0</v>
-      </c>
-      <c r="D96" t="b">
-        <v>0</v>
-      </c>
-      <c r="E96" t="b">
-        <v>0</v>
-      </c>
-      <c r="F96">
-        <v>100</v>
-      </c>
-      <c r="G96" t="s">
-        <v>332</v>
-      </c>
-      <c r="H96" t="s">
-        <v>333</v>
-      </c>
-      <c r="I96" t="s">
-        <v>334</v>
-      </c>
-      <c r="J96">
-        <v>9</v>
-      </c>
-      <c r="K96" t="b">
-        <v>0</v>
-      </c>
-      <c r="M96">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>436</v>
       </c>
       <c r="B97" t="s">
         <v>331</v>
       </c>
       <c r="C97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97" t="b">
         <v>0</v>
       </c>
       <c r="E97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>100</v>
       </c>
       <c r="G97" t="s">
+        <v>332</v>
+      </c>
+      <c r="H97" t="s">
+        <v>333</v>
+      </c>
+      <c r="I97" t="s">
+        <v>334</v>
+      </c>
+      <c r="J97">
+        <v>9</v>
+      </c>
+      <c r="K97" t="b">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>436</v>
+      </c>
+      <c r="B98" t="s">
+        <v>331</v>
+      </c>
+      <c r="C98" t="b">
+        <v>1</v>
+      </c>
+      <c r="D98" t="b">
+        <v>0</v>
+      </c>
+      <c r="E98" t="b">
+        <v>1</v>
+      </c>
+      <c r="G98" t="s">
         <v>437</v>
       </c>
-      <c r="H97" t="s">
+      <c r="H98" t="s">
         <v>438</v>
       </c>
-      <c r="I97" t="s">
+      <c r="I98" t="s">
         <v>439</v>
       </c>
-      <c r="J97">
-        <v>1</v>
-      </c>
-      <c r="K97" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>414</v>
-      </c>
-      <c r="B98" t="s">
-        <v>415</v>
-      </c>
-      <c r="C98" t="b">
-        <v>0</v>
-      </c>
-      <c r="D98" t="b">
-        <v>0</v>
-      </c>
-      <c r="E98" t="b">
-        <v>0</v>
-      </c>
-      <c r="F98">
-        <v>100</v>
-      </c>
-      <c r="G98" t="s">
-        <v>416</v>
-      </c>
-      <c r="H98" t="s">
-        <v>417</v>
-      </c>
-      <c r="I98" t="s">
-        <v>418</v>
-      </c>
-      <c r="J98">
-        <v>5</v>
-      </c>
-      <c r="K98" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>419</v>
       </c>
       <c r="B99" t="s">
         <v>415</v>
@@ -5573,100 +5579,103 @@
         <v>0</v>
       </c>
       <c r="D99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99">
+        <v>100</v>
+      </c>
+      <c r="G99" t="s">
+        <v>416</v>
+      </c>
+      <c r="H99" t="s">
+        <v>417</v>
+      </c>
+      <c r="I99" t="s">
+        <v>418</v>
+      </c>
+      <c r="J99">
+        <v>5</v>
+      </c>
+      <c r="K99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>419</v>
+      </c>
+      <c r="B100" t="s">
+        <v>415</v>
+      </c>
+      <c r="C100" t="b">
+        <v>0</v>
+      </c>
+      <c r="D100" t="b">
+        <v>1</v>
+      </c>
+      <c r="E100" t="b">
+        <v>1</v>
+      </c>
+      <c r="F100">
         <v>2</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G100" t="s">
         <v>420</v>
       </c>
-      <c r="H99" t="s">
+      <c r="H100" t="s">
         <v>421</v>
       </c>
-      <c r="I99" t="s">
+      <c r="I100" t="s">
         <v>422</v>
       </c>
-      <c r="J99">
+      <c r="J100">
         <v>3</v>
       </c>
-      <c r="K99" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+      <c r="K100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>423</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>424</v>
       </c>
-      <c r="C100" t="b">
-        <v>0</v>
-      </c>
-      <c r="D100" t="b">
-        <v>0</v>
-      </c>
-      <c r="E100" t="b">
-        <v>0</v>
-      </c>
-      <c r="F100">
+      <c r="C101" t="b">
+        <v>0</v>
+      </c>
+      <c r="D101" t="b">
+        <v>0</v>
+      </c>
+      <c r="E101" t="b">
+        <v>0</v>
+      </c>
+      <c r="F101">
         <v>100</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G101" t="s">
         <v>425</v>
       </c>
-      <c r="H100" t="s">
+      <c r="H101" t="s">
         <v>426</v>
       </c>
-      <c r="I100" t="s">
+      <c r="I101" t="s">
         <v>427</v>
       </c>
-      <c r="J100">
+      <c r="J101">
         <v>5</v>
       </c>
-      <c r="K100" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+      <c r="K101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>343</v>
-      </c>
-      <c r="B101" t="s">
-        <v>130</v>
-      </c>
-      <c r="C101" t="b">
-        <v>1</v>
-      </c>
-      <c r="D101" t="b">
-        <v>0</v>
-      </c>
-      <c r="E101" t="b">
-        <v>1</v>
-      </c>
-      <c r="G101" t="s">
-        <v>352</v>
-      </c>
-      <c r="H101" t="s">
-        <v>353</v>
-      </c>
-      <c r="I101" t="s">
-        <v>354</v>
-      </c>
-      <c r="J101">
-        <v>1</v>
-      </c>
-      <c r="K101" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>359</v>
       </c>
       <c r="B102" t="s">
         <v>130</v>
@@ -5681,274 +5690,306 @@
         <v>1</v>
       </c>
       <c r="G102" t="s">
+        <v>352</v>
+      </c>
+      <c r="H102" t="s">
+        <v>353</v>
+      </c>
+      <c r="I102" t="s">
+        <v>354</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>359</v>
+      </c>
+      <c r="B103" t="s">
+        <v>130</v>
+      </c>
+      <c r="C103" t="b">
+        <v>1</v>
+      </c>
+      <c r="D103" t="b">
+        <v>0</v>
+      </c>
+      <c r="E103" t="b">
+        <v>1</v>
+      </c>
+      <c r="G103" t="s">
         <v>360</v>
       </c>
-      <c r="H102" t="s">
+      <c r="H103" t="s">
         <v>361</v>
       </c>
-      <c r="I102" t="s">
+      <c r="I103" t="s">
         <v>362</v>
       </c>
-      <c r="J102">
-        <v>1</v>
-      </c>
-      <c r="K102" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>370</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B104" t="s">
         <v>375</v>
       </c>
-      <c r="C103" t="b">
-        <v>1</v>
-      </c>
-      <c r="D103" t="b">
-        <v>0</v>
-      </c>
-      <c r="E103" t="b">
-        <v>1</v>
-      </c>
-      <c r="G103" t="s">
+      <c r="C104" t="b">
+        <v>1</v>
+      </c>
+      <c r="D104" t="b">
+        <v>0</v>
+      </c>
+      <c r="E104" t="b">
+        <v>1</v>
+      </c>
+      <c r="G104" t="s">
         <v>371</v>
       </c>
-      <c r="H103" t="s">
+      <c r="H104" t="s">
         <v>372</v>
       </c>
-      <c r="I103" t="s">
+      <c r="I104" t="s">
         <v>373</v>
       </c>
-      <c r="J103">
-        <v>1</v>
-      </c>
-      <c r="K103" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>481</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B105" t="s">
         <v>483</v>
       </c>
-      <c r="C104" t="b">
-        <v>1</v>
-      </c>
-      <c r="D104" t="b">
-        <v>0</v>
-      </c>
-      <c r="E104" t="b">
-        <v>1</v>
-      </c>
-      <c r="G104" t="s">
+      <c r="C105" t="b">
+        <v>1</v>
+      </c>
+      <c r="D105" t="b">
+        <v>0</v>
+      </c>
+      <c r="E105" t="b">
+        <v>1</v>
+      </c>
+      <c r="G105" t="s">
         <v>484</v>
       </c>
-      <c r="H104" t="s">
+      <c r="H105" t="s">
         <v>485</v>
       </c>
-      <c r="I104" t="s">
+      <c r="I105" t="s">
         <v>486</v>
       </c>
-      <c r="J104">
-        <v>1</v>
-      </c>
-      <c r="K104" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>482</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B106" t="s">
         <v>376</v>
       </c>
-      <c r="C105" t="b">
-        <v>1</v>
-      </c>
-      <c r="D105" t="b">
-        <v>0</v>
-      </c>
-      <c r="E105" t="b">
-        <v>1</v>
-      </c>
-      <c r="G105" t="s">
+      <c r="C106" t="b">
+        <v>1</v>
+      </c>
+      <c r="D106" t="b">
+        <v>0</v>
+      </c>
+      <c r="E106" t="b">
+        <v>1</v>
+      </c>
+      <c r="G106" t="s">
         <v>487</v>
       </c>
-      <c r="H105" t="s">
+      <c r="H106" t="s">
         <v>488</v>
       </c>
-      <c r="I105" t="s">
+      <c r="I106" t="s">
         <v>489</v>
       </c>
-      <c r="J105">
-        <v>1</v>
-      </c>
-      <c r="K105" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>428</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B107" t="s">
         <v>434</v>
       </c>
-      <c r="C106" t="b">
-        <v>1</v>
-      </c>
-      <c r="D106" t="b">
-        <v>0</v>
-      </c>
-      <c r="E106" t="b">
-        <v>1</v>
-      </c>
-      <c r="G106" t="s">
+      <c r="C107" t="b">
+        <v>1</v>
+      </c>
+      <c r="D107" t="b">
+        <v>0</v>
+      </c>
+      <c r="E107" t="b">
+        <v>1</v>
+      </c>
+      <c r="G107" t="s">
         <v>429</v>
       </c>
-      <c r="H106" t="s">
+      <c r="H107" t="s">
         <v>430</v>
       </c>
-      <c r="I106" t="s">
+      <c r="I107" t="s">
         <v>431</v>
       </c>
-      <c r="J106">
-        <v>1</v>
-      </c>
-      <c r="K106" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>440</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B108" t="s">
         <v>444</v>
       </c>
-      <c r="C107" t="b">
-        <v>1</v>
-      </c>
-      <c r="D107" t="b">
-        <v>0</v>
-      </c>
-      <c r="E107" t="b">
-        <v>1</v>
-      </c>
-      <c r="G107" t="s">
+      <c r="C108" t="b">
+        <v>1</v>
+      </c>
+      <c r="D108" t="b">
+        <v>0</v>
+      </c>
+      <c r="E108" t="b">
+        <v>1</v>
+      </c>
+      <c r="G108" t="s">
         <v>441</v>
       </c>
-      <c r="H107" t="s">
+      <c r="H108" t="s">
         <v>442</v>
       </c>
-      <c r="I107" t="s">
+      <c r="I108" t="s">
         <v>443</v>
       </c>
-      <c r="J107">
-        <v>1</v>
-      </c>
-      <c r="K107" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>454</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B109" t="s">
         <v>455</v>
       </c>
-      <c r="C108" t="b">
-        <v>1</v>
-      </c>
-      <c r="D108" t="b">
-        <v>0</v>
-      </c>
-      <c r="E108" t="b">
-        <v>1</v>
-      </c>
-      <c r="G108" t="s">
+      <c r="C109" t="b">
+        <v>1</v>
+      </c>
+      <c r="D109" t="b">
+        <v>0</v>
+      </c>
+      <c r="E109" t="b">
+        <v>1</v>
+      </c>
+      <c r="G109" t="s">
         <v>456</v>
       </c>
-      <c r="H108" t="s">
+      <c r="H109" t="s">
         <v>457</v>
       </c>
-      <c r="I108" t="s">
+      <c r="I109" t="s">
         <v>458</v>
       </c>
-      <c r="J108">
-        <v>1</v>
-      </c>
-      <c r="K108" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>472</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B110" t="s">
         <v>476</v>
       </c>
-      <c r="C109" t="b">
-        <v>1</v>
-      </c>
-      <c r="D109" t="b">
-        <v>0</v>
-      </c>
-      <c r="E109" t="b">
-        <v>1</v>
-      </c>
-      <c r="G109" t="s">
+      <c r="C110" t="b">
+        <v>1</v>
+      </c>
+      <c r="D110" t="b">
+        <v>0</v>
+      </c>
+      <c r="E110" t="b">
+        <v>1</v>
+      </c>
+      <c r="G110" t="s">
         <v>473</v>
       </c>
-      <c r="H109" t="s">
+      <c r="H110" t="s">
         <v>474</v>
       </c>
-      <c r="I109" t="s">
+      <c r="I110" t="s">
         <v>475</v>
       </c>
-      <c r="J109">
-        <v>1</v>
-      </c>
-      <c r="K109" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>492</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B111" t="s">
         <v>494</v>
       </c>
-      <c r="C110" t="b">
-        <v>1</v>
-      </c>
-      <c r="D110" t="b">
-        <v>0</v>
-      </c>
-      <c r="E110" t="b">
-        <v>1</v>
-      </c>
-      <c r="G110" t="s">
+      <c r="C111" t="b">
+        <v>1</v>
+      </c>
+      <c r="D111" t="b">
+        <v>0</v>
+      </c>
+      <c r="E111" t="b">
+        <v>1</v>
+      </c>
+      <c r="G111" t="s">
         <v>495</v>
       </c>
-      <c r="H110" t="s">
+      <c r="H111" t="s">
         <v>496</v>
       </c>
-      <c r="I110" t="s">
+      <c r="I111" t="s">
         <v>497</v>
       </c>
-      <c r="J110">
-        <v>1</v>
-      </c>
-      <c r="K110" t="b">
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5993,9 +6034,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6239E2D-40EA-4B45-8295-42B35BCC92F9}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6369,6 +6410,17 @@
         <v>500</v>
       </c>
     </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>508</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>506</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7E0C8F-C9B1-4F5D-8AAE-EC954BBAA3FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A102A81F-155A-4C85-BACC-ECD53D89CE3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="514">
   <si>
     <t>levelPackId|String</t>
   </si>
@@ -1561,6 +1561,21 @@
   </si>
   <si>
     <t>Actor1226</t>
+  </si>
+  <si>
+    <t>EnhanceRicoDemonHuntress</t>
+  </si>
+  <si>
+    <t>FlatSkill2_45_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>LP_EnhanceRicoDemonHuntress</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_EnhanceRicoDemonHuntress</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_EnhanceRicoDemonHuntress</t>
   </si>
 </sst>
 </file>
@@ -2128,7 +2143,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
-  <dimension ref="A1:M111"/>
+  <dimension ref="A1:M112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -5990,6 +6005,38 @@
         <v>1</v>
       </c>
       <c r="K111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>509</v>
+      </c>
+      <c r="B112" t="s">
+        <v>510</v>
+      </c>
+      <c r="C112" t="b">
+        <v>1</v>
+      </c>
+      <c r="D112" t="b">
+        <v>0</v>
+      </c>
+      <c r="E112" t="b">
+        <v>1</v>
+      </c>
+      <c r="G112" t="s">
+        <v>511</v>
+      </c>
+      <c r="H112" t="s">
+        <v>512</v>
+      </c>
+      <c r="I112" t="s">
+        <v>513</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6034,7 +6081,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6239E2D-40EA-4B45-8295-42B35BCC92F9}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -6415,9 +6462,20 @@
         <v>508</v>
       </c>
       <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>508</v>
+      </c>
+      <c r="B35">
         <v>8</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>506</v>
       </c>
     </row>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A102A81F-155A-4C85-BACC-ECD53D89CE3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE85326D-6264-4ED8-B1C7-BC0449158FFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="519">
   <si>
     <t>levelPackId|String</t>
   </si>
@@ -1576,6 +1576,21 @@
   </si>
   <si>
     <t>LevelPackUIDesc_EnhanceRicoDemonHuntress</t>
+  </si>
+  <si>
+    <t>CritBossUnicornCharacter</t>
+  </si>
+  <si>
+    <t>FlatSkill2_62_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>LP_CritBossUnicornCharacter</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_CritBossUnicornCharacter</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_CritBossUnicornCharacter</t>
   </si>
 </sst>
 </file>
@@ -2143,9 +2158,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
-  <dimension ref="A1:M112"/>
+  <dimension ref="A1:M113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6037,6 +6052,38 @@
         <v>1</v>
       </c>
       <c r="K112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>514</v>
+      </c>
+      <c r="B113" t="s">
+        <v>515</v>
+      </c>
+      <c r="C113" t="b">
+        <v>1</v>
+      </c>
+      <c r="D113" t="b">
+        <v>0</v>
+      </c>
+      <c r="E113" t="b">
+        <v>1</v>
+      </c>
+      <c r="G113" t="s">
+        <v>516</v>
+      </c>
+      <c r="H113" t="s">
+        <v>517</v>
+      </c>
+      <c r="I113" t="s">
+        <v>518</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6081,11 +6128,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6239E2D-40EA-4B45-8295-42B35BCC92F9}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6242,21 +6287,21 @@
         <v>365</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>364</v>
+        <v>514</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>481</v>
+        <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -6264,32 +6309,32 @@
         <v>374</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>432</v>
+        <v>374</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>428</v>
+        <v>482</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -6297,54 +6342,54 @@
         <v>435</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B21">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -6352,32 +6397,32 @@
         <v>459</v>
       </c>
       <c r="B24">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="B26">
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -6385,21 +6430,21 @@
         <v>471</v>
       </c>
       <c r="B27">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B28">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -6407,21 +6452,21 @@
         <v>477</v>
       </c>
       <c r="B29">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -6429,21 +6474,21 @@
         <v>490</v>
       </c>
       <c r="B31">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="B32">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -6451,21 +6496,21 @@
         <v>498</v>
       </c>
       <c r="B33">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -6473,9 +6518,20 @@
         <v>508</v>
       </c>
       <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>508</v>
+      </c>
+      <c r="B36">
         <v>8</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>506</v>
       </c>
     </row>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE85326D-6264-4ED8-B1C7-BC0449158FFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C6B786-4E75-4EBA-A486-D7C037785704}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -1581,9 +1581,6 @@
     <t>CritBossUnicornCharacter</t>
   </si>
   <si>
-    <t>FlatSkill2_62_NoBG_Gray</t>
-  </si>
-  <si>
     <t>LP_CritBossUnicornCharacter</t>
   </si>
   <si>
@@ -1591,6 +1588,9 @@
   </si>
   <si>
     <t>LevelPackUIDesc_CritBossUnicornCharacter</t>
+  </si>
+  <si>
+    <t>FlatIcon_18_NoBG_Gray</t>
   </si>
 </sst>
 </file>
@@ -6060,25 +6060,25 @@
         <v>514</v>
       </c>
       <c r="B113" t="s">
+        <v>518</v>
+      </c>
+      <c r="C113" t="b">
+        <v>1</v>
+      </c>
+      <c r="D113" t="b">
+        <v>0</v>
+      </c>
+      <c r="E113" t="b">
+        <v>1</v>
+      </c>
+      <c r="G113" t="s">
         <v>515</v>
       </c>
-      <c r="C113" t="b">
-        <v>1</v>
-      </c>
-      <c r="D113" t="b">
-        <v>0</v>
-      </c>
-      <c r="E113" t="b">
-        <v>1</v>
-      </c>
-      <c r="G113" t="s">
+      <c r="H113" t="s">
         <v>516</v>
       </c>
-      <c r="H113" t="s">
+      <c r="I113" t="s">
         <v>517</v>
-      </c>
-      <c r="I113" t="s">
-        <v>518</v>
       </c>
       <c r="J113">
         <v>1</v>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C6B786-4E75-4EBA-A486-D7C037785704}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26441CFE-965D-414F-8318-FE21BEE83069}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -2160,8 +2160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
   <dimension ref="A1:M113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6130,7 +6130,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6239E2D-40EA-4B45-8295-42B35BCC92F9}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6221,7 +6223,7 @@
         <v>355</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>356</v>
@@ -6232,7 +6234,7 @@
         <v>358</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>467</v>
@@ -6243,7 +6245,7 @@
         <v>358</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>359</v>
@@ -6254,7 +6256,7 @@
         <v>363</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
         <v>366</v>
@@ -6265,7 +6267,7 @@
         <v>363</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>370</v>
@@ -6276,7 +6278,7 @@
         <v>433</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>460</v>
@@ -6309,10 +6311,10 @@
         <v>374</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -6320,10 +6322,10 @@
         <v>374</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -6353,7 +6355,7 @@
         <v>435</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>440</v>
@@ -6386,7 +6388,7 @@
         <v>451</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>463</v>
@@ -6397,7 +6399,7 @@
         <v>459</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" t="s">
         <v>454</v>
@@ -6441,7 +6443,7 @@
         <v>471</v>
       </c>
       <c r="B28">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
         <v>472</v>
@@ -6496,7 +6498,7 @@
         <v>498</v>
       </c>
       <c r="B33">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C33" t="s">
         <v>499</v>
@@ -6507,7 +6509,7 @@
         <v>498</v>
       </c>
       <c r="B34">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
         <v>500</v>
@@ -6518,7 +6520,7 @@
         <v>508</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
         <v>509</v>
@@ -6529,7 +6531,7 @@
         <v>508</v>
       </c>
       <c r="B36">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
         <v>506</v>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26441CFE-965D-414F-8318-FE21BEE83069}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537FD778-FD04-4567-9D28-0F94F6CF56D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -1536,12 +1536,6 @@
     <t>ReduceDmgCloseBestSyria</t>
   </si>
   <si>
-    <t>AtkSpeedBestSyria</t>
-  </si>
-  <si>
-    <t>LevelPackUIName_AtkSpeedBestSyria</t>
-  </si>
-  <si>
     <t>FlatIcon_159_NoBG_Gray</t>
   </si>
   <si>
@@ -1554,12 +1548,6 @@
     <t>LevelPackUIDesc_ReduceDmgCloseBestSyria</t>
   </si>
   <si>
-    <t>AtkBestDemonHuntress</t>
-  </si>
-  <si>
-    <t>LevelPackUIName_AtkBestDemonHuntress</t>
-  </si>
-  <si>
     <t>Actor1226</t>
   </si>
   <si>
@@ -1591,6 +1579,18 @@
   </si>
   <si>
     <t>FlatIcon_18_NoBG_Gray</t>
+  </si>
+  <si>
+    <t>AtkBestSyria</t>
+  </si>
+  <si>
+    <t>AtkSpeedBestDemonHuntress</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_AtkBestSyria</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_AtkSpeedBestDemonHuntress</t>
   </si>
 </sst>
 </file>
@@ -2160,8 +2160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
   <dimension ref="A1:M113"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2421,7 +2421,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -2439,7 +2439,7 @@
         <v>68</v>
       </c>
       <c r="H8" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="I8" t="s">
         <v>70</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="B13" t="s">
         <v>81</v>
@@ -2608,7 +2608,7 @@
         <v>82</v>
       </c>
       <c r="H13" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="I13" t="s">
         <v>84</v>
@@ -3217,25 +3217,25 @@
         <v>499</v>
       </c>
       <c r="B31" t="s">
+        <v>500</v>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>501</v>
+      </c>
+      <c r="H31" t="s">
         <v>502</v>
       </c>
-      <c r="C31" t="b">
-        <v>1</v>
-      </c>
-      <c r="D31" t="b">
-        <v>0</v>
-      </c>
-      <c r="E31" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="I31" t="s">
         <v>503</v>
-      </c>
-      <c r="H31" t="s">
-        <v>504</v>
-      </c>
-      <c r="I31" t="s">
-        <v>505</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -6025,28 +6025,28 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
+        <v>505</v>
+      </c>
+      <c r="B112" t="s">
+        <v>506</v>
+      </c>
+      <c r="C112" t="b">
+        <v>1</v>
+      </c>
+      <c r="D112" t="b">
+        <v>0</v>
+      </c>
+      <c r="E112" t="b">
+        <v>1</v>
+      </c>
+      <c r="G112" t="s">
+        <v>507</v>
+      </c>
+      <c r="H112" t="s">
+        <v>508</v>
+      </c>
+      <c r="I112" t="s">
         <v>509</v>
-      </c>
-      <c r="B112" t="s">
-        <v>510</v>
-      </c>
-      <c r="C112" t="b">
-        <v>1</v>
-      </c>
-      <c r="D112" t="b">
-        <v>0</v>
-      </c>
-      <c r="E112" t="b">
-        <v>1</v>
-      </c>
-      <c r="G112" t="s">
-        <v>511</v>
-      </c>
-      <c r="H112" t="s">
-        <v>512</v>
-      </c>
-      <c r="I112" t="s">
-        <v>513</v>
       </c>
       <c r="J112">
         <v>1</v>
@@ -6057,11 +6057,11 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
+        <v>510</v>
+      </c>
+      <c r="B113" t="s">
         <v>514</v>
       </c>
-      <c r="B113" t="s">
-        <v>518</v>
-      </c>
       <c r="C113" t="b">
         <v>1</v>
       </c>
@@ -6072,13 +6072,13 @@
         <v>1</v>
       </c>
       <c r="G113" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="H113" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="I113" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="J113">
         <v>1</v>
@@ -6130,9 +6130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6239E2D-40EA-4B45-8295-42B35BCC92F9}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6292,7 +6290,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -6512,29 +6510,29 @@
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B35">
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B36">
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537FD778-FD04-4567-9D28-0F94F6CF56D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26CBD47-EAF4-4771-AC06-C4FB3999D389}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -2160,7 +2160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
   <dimension ref="A1:M113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6130,7 +6130,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6239E2D-40EA-4B45-8295-42B35BCC92F9}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6199,7 +6201,7 @@
         <v>342</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>343</v>
@@ -6265,7 +6267,7 @@
         <v>363</v>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>370</v>
@@ -6309,7 +6311,7 @@
         <v>374</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
         <v>482</v>
@@ -6386,7 +6388,7 @@
         <v>451</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>463</v>
@@ -6463,7 +6465,7 @@
         <v>477</v>
       </c>
       <c r="B30">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
         <v>480</v>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26CBD47-EAF4-4771-AC06-C4FB3999D389}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E68FD3-2190-429F-8C64-0CF54DE7C75E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
@@ -6344,7 +6344,7 @@
         <v>435</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>436</v>
@@ -6355,7 +6355,7 @@
         <v>435</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
         <v>440</v>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E68FD3-2190-429F-8C64-0CF54DE7C75E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5727B7D-6E1E-429E-8D12-4C11D8925D56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -1278,33 +1278,9 @@
     <t>FlatSkill2_21_NoBG_Gray</t>
   </si>
   <si>
-    <t>SpUpOnMaxHp</t>
-  </si>
-  <si>
     <t>FlatSkill2_10_NoBG_Gray</t>
   </si>
   <si>
-    <t>LP_SpUpOnMaxHp</t>
-  </si>
-  <si>
-    <t>LevelPackUIName_SpUpOnMaxHp</t>
-  </si>
-  <si>
-    <t>LevelPackUIDesc_SpUpOnMaxHp</t>
-  </si>
-  <si>
-    <t>SpUpOnMaxHpBetter</t>
-  </si>
-  <si>
-    <t>LP_SpUpOnMaxHpBetter</t>
-  </si>
-  <si>
-    <t>LevelPackUIName_SpUpOnMaxHpBetter</t>
-  </si>
-  <si>
-    <t>LevelPackUIDesc_SpUpOnMaxHpBetter</t>
-  </si>
-  <si>
     <t>HitSizeDown</t>
   </si>
   <si>
@@ -1591,6 +1567,30 @@
   </si>
   <si>
     <t>LevelPackUIName_AtkSpeedBestDemonHuntress</t>
+  </si>
+  <si>
+    <t>SpUpOverHalfHp</t>
+  </si>
+  <si>
+    <t>LP_SpUpOverHalfHp</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_SpUpOverHalfHp</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_SpUpOverHalfHp</t>
+  </si>
+  <si>
+    <t>SpUpOverHalfHpBetter</t>
+  </si>
+  <si>
+    <t>LP_SpUpOverHalfHpBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_SpUpOverHalfHpBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_SpUpOverHalfHpBetter</t>
   </si>
 </sst>
 </file>
@@ -2160,7 +2160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
   <dimension ref="A1:M113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2389,7 +2389,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -2407,7 +2407,7 @@
         <v>68</v>
       </c>
       <c r="H7" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="I7" t="s">
         <v>70</v>
@@ -2421,7 +2421,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -2439,7 +2439,7 @@
         <v>68</v>
       </c>
       <c r="H8" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="I8" t="s">
         <v>70</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="B13" t="s">
         <v>81</v>
@@ -2608,7 +2608,7 @@
         <v>82</v>
       </c>
       <c r="H13" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="I13" t="s">
         <v>84</v>
@@ -2692,7 +2692,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B16" t="s">
         <v>86</v>
@@ -2710,7 +2710,7 @@
         <v>91</v>
       </c>
       <c r="H16" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="I16" t="s">
         <v>93</v>
@@ -2724,7 +2724,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B17" t="s">
         <v>86</v>
@@ -2742,7 +2742,7 @@
         <v>91</v>
       </c>
       <c r="H17" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="I17" t="s">
         <v>93</v>
@@ -2861,7 +2861,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="B21" t="s">
         <v>100</v>
@@ -2879,7 +2879,7 @@
         <v>105</v>
       </c>
       <c r="H21" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I21" t="s">
         <v>107</v>
@@ -3030,7 +3030,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="B26" t="s">
         <v>114</v>
@@ -3048,7 +3048,7 @@
         <v>263</v>
       </c>
       <c r="H26" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="I26" t="s">
         <v>265</v>
@@ -3214,10 +3214,10 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B31" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
@@ -3229,13 +3229,13 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="H31" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="I31" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -3774,7 +3774,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="B47" t="s">
         <v>128</v>
@@ -4246,7 +4246,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B61" t="s">
         <v>148</v>
@@ -4264,7 +4264,7 @@
         <v>224</v>
       </c>
       <c r="H61" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="I61" t="s">
         <v>153</v>
@@ -4281,7 +4281,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="B62" t="s">
         <v>148</v>
@@ -4299,7 +4299,7 @@
         <v>224</v>
       </c>
       <c r="H62" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="I62" t="s">
         <v>153</v>
@@ -4593,7 +4593,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="B71" t="s">
         <v>309</v>
@@ -4611,7 +4611,7 @@
         <v>231</v>
       </c>
       <c r="H71" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="I71" t="s">
         <v>178</v>
@@ -4987,7 +4987,7 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="B82" t="s">
         <v>310</v>
@@ -5005,7 +5005,7 @@
         <v>237</v>
       </c>
       <c r="H82" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="I82" t="s">
         <v>198</v>
@@ -5498,7 +5498,7 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="B96" t="s">
         <v>322</v>
@@ -5516,7 +5516,7 @@
         <v>327</v>
       </c>
       <c r="H96" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="I96" t="s">
         <v>329</v>
@@ -5568,7 +5568,7 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B98" t="s">
         <v>331</v>
@@ -5583,13 +5583,13 @@
         <v>1</v>
       </c>
       <c r="G98" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="H98" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="I98" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="J98">
         <v>1</v>
@@ -5600,10 +5600,10 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
+        <v>511</v>
+      </c>
+      <c r="B99" t="s">
         <v>414</v>
-      </c>
-      <c r="B99" t="s">
-        <v>415</v>
       </c>
       <c r="C99" t="b">
         <v>0</v>
@@ -5618,13 +5618,13 @@
         <v>100</v>
       </c>
       <c r="G99" t="s">
-        <v>416</v>
+        <v>512</v>
       </c>
       <c r="H99" t="s">
-        <v>417</v>
+        <v>513</v>
       </c>
       <c r="I99" t="s">
-        <v>418</v>
+        <v>514</v>
       </c>
       <c r="J99">
         <v>5</v>
@@ -5635,10 +5635,10 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>419</v>
+        <v>515</v>
       </c>
       <c r="B100" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C100" t="b">
         <v>0</v>
@@ -5653,13 +5653,13 @@
         <v>2</v>
       </c>
       <c r="G100" t="s">
-        <v>420</v>
+        <v>516</v>
       </c>
       <c r="H100" t="s">
-        <v>421</v>
+        <v>517</v>
       </c>
       <c r="I100" t="s">
-        <v>422</v>
+        <v>518</v>
       </c>
       <c r="J100">
         <v>3</v>
@@ -5670,10 +5670,10 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B101" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C101" t="b">
         <v>0</v>
@@ -5688,13 +5688,13 @@
         <v>100</v>
       </c>
       <c r="G101" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="H101" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="I101" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="J101">
         <v>5</v>
@@ -5801,10 +5801,10 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="B105" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="C105" t="b">
         <v>1</v>
@@ -5816,13 +5816,13 @@
         <v>1</v>
       </c>
       <c r="G105" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="H105" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="I105" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -5833,7 +5833,7 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="B106" t="s">
         <v>376</v>
@@ -5848,13 +5848,13 @@
         <v>1</v>
       </c>
       <c r="G106" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="H106" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="I106" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="J106">
         <v>1</v>
@@ -5865,10 +5865,10 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B107" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C107" t="b">
         <v>1</v>
@@ -5880,13 +5880,13 @@
         <v>1</v>
       </c>
       <c r="G107" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="H107" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="I107" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="J107">
         <v>1</v>
@@ -5897,10 +5897,10 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="B108" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C108" t="b">
         <v>1</v>
@@ -5912,13 +5912,13 @@
         <v>1</v>
       </c>
       <c r="G108" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="H108" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="I108" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -5929,10 +5929,10 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="B109" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="C109" t="b">
         <v>1</v>
@@ -5944,13 +5944,13 @@
         <v>1</v>
       </c>
       <c r="G109" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="H109" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="I109" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="J109">
         <v>1</v>
@@ -5961,10 +5961,10 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="B110" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="C110" t="b">
         <v>1</v>
@@ -5976,13 +5976,13 @@
         <v>1</v>
       </c>
       <c r="G110" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="H110" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="I110" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="J110">
         <v>1</v>
@@ -5993,10 +5993,10 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="B111" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="C111" t="b">
         <v>1</v>
@@ -6008,13 +6008,13 @@
         <v>1</v>
       </c>
       <c r="G111" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="H111" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="I111" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -6025,10 +6025,10 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B112" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="C112" t="b">
         <v>1</v>
@@ -6040,13 +6040,13 @@
         <v>1</v>
       </c>
       <c r="G112" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="H112" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="I112" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="J112">
         <v>1</v>
@@ -6057,10 +6057,10 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="B113" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="C113" t="b">
         <v>1</v>
@@ -6072,13 +6072,13 @@
         <v>1</v>
       </c>
       <c r="G113" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="H113" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="I113" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="J113">
         <v>1</v>
@@ -6130,7 +6130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6239E2D-40EA-4B45-8295-42B35BCC92F9}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6237,7 +6237,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -6275,13 +6275,13 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="B13">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -6292,7 +6292,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -6314,7 +6314,7 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -6325,216 +6325,216 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B18">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="B19">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="B21">
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="B22">
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="B23">
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="B24">
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="B25">
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="B26">
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="B27">
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="B28">
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="B29">
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="B30">
         <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="B31">
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="B32">
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="B33">
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="B34">
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="B35">
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="B36">
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5727B7D-6E1E-429E-8D12-4C11D8925D56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B13811B-2576-4EF7-97C9-5BDA68A8CDE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
@@ -2160,9 +2160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
   <dimension ref="A1:M113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2992,6 +2990,9 @@
       <c r="K24" t="b">
         <v>0</v>
       </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -3027,6 +3028,9 @@
       <c r="K25" t="b">
         <v>0</v>
       </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -3576,6 +3580,9 @@
       <c r="K40" t="b">
         <v>0</v>
       </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
@@ -3611,6 +3618,9 @@
       <c r="K41" t="b">
         <v>0</v>
       </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
@@ -5460,6 +5470,9 @@
       <c r="K94" t="b">
         <v>0</v>
       </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
@@ -5495,6 +5508,9 @@
       <c r="K95" t="b">
         <v>0</v>
       </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
@@ -5632,6 +5648,9 @@
       <c r="K99" t="b">
         <v>0</v>
       </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
@@ -5666,6 +5685,9 @@
       </c>
       <c r="K100" t="b">
         <v>0</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B13811B-2576-4EF7-97C9-5BDA68A8CDE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B663065-B494-4A89-A947-4AA5257EA322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="LevelPackLevelTable" sheetId="3" r:id="rId3"/>
     <sheet name="ActorLevelPackTable" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1959,7 +1962,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7688E9-6191-474A-BC61-D0CBD7110CAB}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1990,10 +1995,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2001,10 +2006,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C4">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2012,10 +2017,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C5">
-        <v>92</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -2023,10 +2028,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C6">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -2034,10 +2039,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="C7">
-        <v>242</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -2045,10 +2050,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>166</v>
+        <v>50</v>
       </c>
       <c r="C8">
-        <v>408</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -2056,10 +2061,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>186</v>
+        <v>125</v>
       </c>
       <c r="C9">
-        <v>594</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -2067,10 +2072,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>198</v>
+        <v>138</v>
       </c>
       <c r="C10">
-        <v>792</v>
+        <v>563</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -2078,10 +2083,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>263</v>
+        <v>75</v>
       </c>
       <c r="C11">
-        <v>1055</v>
+        <v>638</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -2089,10 +2094,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="C12">
-        <v>1342</v>
+        <v>900</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -2100,10 +2105,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>298</v>
+        <v>200</v>
       </c>
       <c r="C13">
-        <v>1640</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -2111,10 +2116,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>361</v>
+        <v>200</v>
       </c>
       <c r="C14">
-        <v>2001</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -2122,10 +2127,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>392</v>
+        <v>250</v>
       </c>
       <c r="C15">
-        <v>2393</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -2133,10 +2138,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="C16">
-        <v>2792</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -2144,10 +2149,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>871</v>
+        <v>125</v>
       </c>
       <c r="C17">
-        <v>3663</v>
+        <v>2063</v>
       </c>
     </row>
   </sheetData>
@@ -2160,7 +2165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A689B08-E54F-4986-989E-FC7EE88EA9D3}">
   <dimension ref="A1:M113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Excel/LevelPack.xlsx
+++ b/Excel/LevelPack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B663065-B494-4A89-A947-4AA5257EA322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3EDB31-DD78-4B11-9297-52228B6EF38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3414120-1328-4246-945C-5504AE9FCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="StageExpTable" sheetId="5" r:id="rId1"/>
@@ -1963,7 +1963,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2138,10 +2138,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>388</v>
+        <v>356</v>
       </c>
       <c r="C16">
-        <v>1938</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -2152,7 +2152,7 @@
         <v>125</v>
       </c>
       <c r="C17">
-        <v>2063</v>
+        <v>2031</v>
       </c>
     </row>
   </sheetData>
